--- a/gesture_data.xlsx
+++ b/gesture_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\PycharmProjects\PythonProject3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC30FD3-122A-4110-81C9-673B017D68AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C5987-72B4-49D0-B3D8-BAAA967773AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1185" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
   <si>
     <t>Gesture</t>
   </si>
@@ -28,16 +28,340 @@
     <t>Landmarks</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2</t>
-  </si>
-  <si>
-    <t>[[67, 487], [113, 476], [141, 435], [109, 403], [66, 376], [144, 335], [154, 271], [157, 230], [157, 192], [104, 322], [122, 248], [126, 202], [128, 162], [67, 333], [56, 275], [50, 319], [49, 355], [30, 361], [18, 342], [22, 379], [31, 412]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
-    <t>[[94, 389], [147, 365], [209, 311], [222, 249], [181, 220], [195, 241], [210, 209], [198, 255], [189, 267], [153, 229], [162, 215], [155, 276], [152, 268], [113, 230], [118, 236], [122, 288], [122, 279], [73, 235], [82, 254], [89, 290], [88, 285]]</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>[[144, 439], [187, 415], [223, 381], [224, 351], [192, 337], [202, 286], [199, 220], [191, 180], [183, 146], [163, 284], [174, 269], [177, 311], [180, 346], [125, 294], [131, 325], [141, 370], [151, 399], [92, 311], [98, 347], [112, 381], [127, 402]]</t>
+  </si>
+  <si>
+    <t>[[120, 376], [165, 348], [201, 297], [207, 248], [172, 222], [184, 214], [189, 140], [186, 98], [183, 60], [142, 213], [157, 162], [162, 196], [165, 232], [101, 222], [111, 226], [120, 277], [127, 313], [63, 238], [75, 254], [92, 293], [104, 318]]</t>
+  </si>
+  <si>
+    <t>[[30, 407], [82, 390], [122, 354], [125, 314], [90, 289], [118, 242], [126, 170], [121, 125], [117, 86], [77, 244], [86, 191], [73, 229], [64, 269], [37, 256], [34, 252], [37, 304], [44, 341], [3, 274], [5, 266], [16, 305], [31, 338]]</t>
+  </si>
+  <si>
+    <t>[[389, 405], [450, 375], [500, 327], [537, 292], [555, 256], [451, 224], [455, 150], [454, 101], [443, 59], [412, 222], [470, 174], [515, 213], [530, 253], [379, 236], [451, 252], [459, 314], [442, 346], [356, 263], [419, 292], [422, 335], [404, 354]]</t>
+  </si>
+  <si>
+    <t>[[387, 406], [448, 378], [498, 332], [535, 298], [555, 266], [451, 228], [456, 153], [456, 104], [446, 61], [413, 226], [472, 179], [516, 221], [531, 262], [380, 239], [450, 257], [457, 321], [440, 353], [355, 265], [418, 297], [420, 341], [401, 361]]</t>
+  </si>
+  <si>
+    <t>[[388, 406], [448, 377], [497, 332], [534, 300], [556, 267], [451, 228], [457, 154], [458, 105], [448, 62], [412, 226], [472, 178], [517, 221], [531, 262], [379, 239], [451, 256], [458, 321], [441, 353], [355, 265], [418, 296], [420, 340], [400, 359]]</t>
+  </si>
+  <si>
+    <t>[[73, 468], [123, 444], [156, 407], [134, 369], [94, 335], [139, 268], [129, 180], [115, 125], [100, 80], [91, 280], [83, 230], [75, 279], [75, 323], [48, 304], [39, 313], [51, 370], [65, 405], [11, 335], [2, 338], [21, 381], [42, 410]]</t>
+  </si>
+  <si>
+    <t>[[81, 403], [125, 409], [141, 391], [124, 367], [92, 337], [145, 274], [135, 184], [117, 122], [100, 75], [97, 275], [85, 228], [73, 270], [68, 308], [50, 293], [27, 305], [39, 367], [58, 405], [10, 316], [-5, 335], [12, 382], [32, 407]]</t>
+  </si>
+  <si>
+    <t>[[277, 403], [327, 375], [371, 327], [402, 286], [406, 253], [338, 230], [344, 149], [344, 102], [341, 61], [296, 228], [330, 172], [363, 210], [380, 251], [257, 239], [306, 257], [316, 318], [312, 354], [222, 258], [263, 287], [276, 333], [275, 359]]</t>
+  </si>
+  <si>
+    <t>[[258, 399], [307, 372], [350, 323], [377, 281], [378, 246], [316, 228], [318, 145], [317, 97], [312, 55], [275, 226], [307, 167], [339, 207], [356, 248], [236, 237], [283, 255], [294, 316], [291, 352], [201, 257], [240, 283], [255, 329], [257, 355]]</t>
+  </si>
+  <si>
+    <t>[[251, 387], [230, 322], [247, 266], [280, 242], [308, 239], [281, 243], [291, 176], [298, 140], [304, 109], [319, 260], [322, 202], [303, 212], [288, 232], [344, 284], [329, 249], [312, 259], [300, 275], [360, 306], [342, 276], [328, 284], [322, 298]]</t>
+  </si>
+  <si>
+    <t>[[249, 384], [229, 321], [243, 266], [274, 242], [302, 242], [279, 243], [290, 175], [298, 139], [303, 110], [317, 260], [323, 203], [305, 213], [290, 231], [342, 284], [327, 251], [311, 261], [300, 276], [358, 306], [342, 277], [330, 285], [323, 299]]</t>
+  </si>
+  <si>
+    <t>[[247, 383], [228, 319], [242, 264], [273, 242], [301, 246], [279, 243], [290, 175], [296, 140], [301, 111], [317, 259], [320, 204], [301, 215], [286, 234], [342, 283], [325, 251], [309, 261], [298, 277], [357, 305], [341, 277], [328, 285], [321, 299]]</t>
+  </si>
+  <si>
+    <t>[[247, 382], [227, 319], [241, 264], [273, 242], [301, 246], [279, 242], [289, 175], [296, 140], [301, 111], [317, 259], [318, 204], [300, 215], [286, 234], [342, 283], [324, 251], [309, 261], [298, 277], [357, 305], [341, 277], [329, 285], [322, 299]]</t>
+  </si>
+  <si>
+    <t>[[114, 440], [169, 413], [207, 365], [193, 326], [159, 296], [209, 260], [217, 185], [216, 136], [212, 95], [161, 257], [160, 241], [159, 299], [159, 343], [116, 265], [108, 278], [117, 334], [124, 368], [76, 280], [74, 300], [85, 344], [97, 370]]</t>
+  </si>
+  <si>
+    <t>[[114, 441], [168, 414], [208, 368], [198, 329], [163, 298], [210, 260], [216, 187], [214, 140], [211, 98], [162, 254], [159, 250], [156, 310], [154, 355], [116, 262], [108, 282], [115, 338], [122, 373], [75, 277], [72, 302], [84, 347], [96, 375]]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>[[120, 418], [168, 392], [191, 347], [174, 319], [140, 301], [179, 255], [184, 193], [186, 154], [184, 117], [141, 251], [153, 178], [156, 133], [156, 94], [106, 269], [92, 215], [102, 261], [114, 298], [74, 303], [66, 283], [84, 319], [102, 351]]</t>
+  </si>
+  <si>
+    <t>[[292, 355], [337, 340], [376, 306], [399, 275], [402, 246], [362, 230], [381, 179], [386, 148], [387, 119], [335, 222], [354, 158], [369, 120], [377, 88], [306, 226], [342, 193], [367, 228], [377, 259], [283, 241], [325, 240], [348, 268], [358, 294]]</t>
+  </si>
+  <si>
+    <t>[[311, 360], [356, 345], [395, 312], [417, 283], [420, 254], [382, 237], [400, 186], [405, 155], [405, 125], [354, 228], [374, 167], [389, 129], [397, 98], [326, 231], [362, 204], [387, 241], [398, 274], [303, 246], [346, 250], [367, 280], [376, 308]]</t>
+  </si>
+  <si>
+    <t>[[314, 365], [358, 351], [397, 320], [421, 291], [424, 261], [385, 243], [404, 192], [409, 161], [409, 130], [357, 233], [380, 172], [395, 134], [402, 103], [330, 236], [369, 212], [394, 249], [405, 282], [307, 251], [349, 256], [372, 285], [382, 311]]</t>
+  </si>
+  <si>
+    <t>[[196, 351], [171, 293], [186, 246], [223, 227], [250, 220], [198, 222], [207, 161], [214, 128], [222, 99], [232, 232], [234, 166], [238, 125], [247, 95], [262, 250], [266, 202], [250, 214], [237, 235], [286, 268], [268, 237], [253, 246], [248, 262]]</t>
+  </si>
+  <si>
+    <t>[[198, 352], [174, 293], [190, 247], [228, 230], [255, 224], [203, 223], [213, 162], [220, 129], [227, 101], [237, 234], [239, 168], [242, 127], [251, 97], [266, 252], [269, 205], [252, 215], [239, 236], [289, 271], [270, 238], [253, 246], [247, 263]]</t>
+  </si>
+  <si>
+    <t>[[201, 353], [177, 294], [193, 248], [229, 231], [256, 226], [206, 225], [217, 163], [223, 130], [231, 103], [240, 236], [242, 169], [246, 129], [254, 100], [269, 253], [271, 205], [255, 216], [242, 236], [292, 271], [272, 238], [256, 246], [250, 263]]</t>
+  </si>
+  <si>
+    <t>[[434, 350], [480, 348], [526, 324], [558, 306], [561, 285], [523, 249], [548, 202], [557, 170], [559, 139], [498, 237], [527, 179], [547, 144], [557, 114], [474, 237], [522, 218], [537, 256], [538, 286], [457, 250], [506, 265], [520, 294], [521, 316]]</t>
+  </si>
+  <si>
+    <t>[[200, 326], [175, 268], [190, 222], [224, 205], [251, 200], [205, 191], [214, 132], [221, 101], [229, 75], [240, 200], [242, 137], [243, 99], [250, 72], [269, 218], [273, 173], [257, 186], [244, 208], [291, 237], [269, 212], [252, 221], [247, 238]]</t>
+  </si>
+  <si>
+    <t>[[204, 331], [180, 272], [193, 225], [226, 208], [252, 203], [211, 194], [220, 134], [228, 104], [236, 79], [245, 203], [249, 139], [251, 102], [257, 76], [273, 220], [277, 178], [260, 190], [247, 211], [295, 240], [276, 215], [260, 224], [256, 241]]</t>
+  </si>
+  <si>
+    <t>[[88, 494], [131, 482], [148, 446], [107, 437], [59, 430], [153, 315], [154, 223], [151, 164], [146, 112], [104, 305], [103, 197], [100, 125], [98, 61], [61, 328], [26, 282], [22, 324], [28, 352], [24, 372], [11, 381], [32, 425], [57, 458]]</t>
+  </si>
+  <si>
+    <t>[[82, 503], [125, 493], [143, 458], [109, 450], [74, 444], [155, 329], [158, 233], [157, 171], [151, 118], [107, 313], [110, 204], [105, 130], [101, 66], [62, 329], [27, 286], [21, 332], [28, 367], [21, 364], [1, 369], [19, 418], [45, 460]]</t>
+  </si>
+  <si>
+    <t>[[181, 374], [217, 360], [239, 331], [226, 309], [201, 294], [232, 261], [236, 219], [236, 192], [233, 167], [206, 258], [215, 206], [217, 174], [216, 145], [181, 269], [180, 230], [185, 260], [190, 285], [158, 292], [158, 279], [171, 302], [182, 322]]</t>
+  </si>
+  <si>
+    <t>[[184, 375], [220, 361], [241, 331], [230, 310], [204, 297], [234, 262], [237, 218], [238, 192], [235, 166], [208, 258], [218, 206], [219, 175], [219, 146], [184, 269], [181, 231], [186, 263], [192, 289], [161, 292], [162, 281], [175, 305], [187, 326]]</t>
+  </si>
+  <si>
+    <t>[[184, 374], [221, 360], [242, 329], [229, 307], [204, 295], [235, 260], [238, 217], [238, 191], [236, 166], [209, 256], [218, 205], [220, 174], [219, 146], [185, 268], [183, 230], [189, 260], [194, 284], [163, 290], [166, 280], [179, 302], [190, 322]]</t>
+  </si>
+  <si>
+    <t>[[143, 338], [180, 321], [200, 286], [194, 256], [178, 229], [211, 228], [232, 185], [242, 155], [248, 128], [185, 218], [207, 174], [220, 141], [231, 114], [155, 220], [164, 210], [166, 247], [166, 274], [125, 232], [137, 231], [145, 261], [149, 284]]</t>
+  </si>
+  <si>
+    <t>[[144, 337], [181, 321], [202, 286], [194, 255], [178, 229], [211, 230], [232, 186], [242, 157], [249, 131], [185, 220], [209, 174], [222, 141], [233, 113], [156, 220], [166, 212], [167, 248], [167, 275], [127, 230], [138, 234], [146, 264], [151, 287]]</t>
+  </si>
+  <si>
+    <t>[[144, 339], [180, 323], [201, 288], [193, 258], [176, 234], [210, 230], [232, 186], [242, 156], [249, 129], [184, 220], [208, 176], [220, 142], [230, 115], [154, 220], [163, 215], [165, 250], [165, 278], [125, 230], [136, 235], [144, 265], [149, 290]]</t>
+  </si>
+  <si>
+    <t>[[132, 394], [165, 366], [175, 326], [156, 313], [124, 310], [139, 256], [126, 203], [115, 170], [101, 140], [102, 262], [91, 201], [80, 160], [68, 126], [75, 284], [66, 267], [94, 305], [116, 332], [56, 317], [64, 325], [92, 350], [115, 365]]</t>
+  </si>
+  <si>
+    <t>[[133, 395], [165, 365], [176, 326], [156, 313], [125, 309], [139, 255], [126, 202], [116, 169], [103, 140], [103, 262], [91, 201], [81, 161], [69, 126], [76, 284], [66, 267], [94, 303], [116, 329], [57, 317], [64, 324], [92, 347], [115, 362]]</t>
+  </si>
+  <si>
+    <t>[[134, 387], [168, 359], [180, 320], [162, 307], [129, 305], [145, 251], [133, 197], [124, 164], [111, 135], [108, 256], [99, 196], [90, 155], [80, 120], [80, 276], [77, 265], [104, 301], [124, 325], [60, 307], [72, 320], [100, 343], [122, 356]]</t>
+  </si>
+  <si>
+    <t>[[167, 405], [143, 352], [158, 304], [196, 284], [224, 279], [176, 287], [189, 226], [197, 195], [207, 169], [209, 298], [213, 233], [217, 195], [226, 167], [235, 312], [238, 261], [220, 267], [207, 285], [256, 327], [238, 289], [220, 294], [213, 309]]</t>
+  </si>
+  <si>
+    <t>[[168, 405], [145, 350], [161, 301], [198, 282], [226, 279], [180, 284], [192, 224], [202, 193], [212, 167], [212, 295], [216, 231], [221, 194], [231, 167], [238, 310], [241, 261], [224, 267], [210, 285], [258, 326], [242, 291], [225, 296], [218, 311]]</t>
+  </si>
+  <si>
+    <t>[[168, 403], [145, 348], [161, 300], [198, 282], [227, 278], [180, 283], [193, 225], [202, 194], [212, 168], [212, 295], [217, 233], [221, 196], [230, 169], [238, 310], [241, 261], [224, 265], [210, 282], [258, 325], [242, 290], [224, 294], [217, 309]]</t>
+  </si>
+  <si>
+    <t>[[168, 402], [146, 347], [162, 299], [198, 283], [225, 281], [181, 282], [194, 223], [204, 193], [213, 168], [213, 293], [218, 231], [223, 194], [232, 168], [239, 309], [242, 260], [225, 265], [212, 282], [259, 325], [244, 289], [227, 294], [219, 309]]</t>
+  </si>
+  <si>
+    <t>[[370, 334], [413, 331], [456, 307], [486, 287], [494, 265], [456, 235], [481, 190], [491, 160], [494, 130], [434, 223], [463, 169], [482, 134], [490, 102], [409, 224], [459, 207], [470, 247], [467, 274], [391, 236], [437, 250], [449, 278], [446, 297]]</t>
+  </si>
+  <si>
+    <t>[[375, 338], [417, 335], [461, 311], [491, 290], [494, 270], [459, 240], [483, 194], [494, 164], [498, 135], [436, 229], [465, 174], [485, 140], [494, 108], [413, 230], [463, 211], [477, 249], [476, 275], [395, 242], [443, 254], [455, 280], [453, 298]]</t>
+  </si>
+  <si>
+    <t>[[385, 342], [430, 340], [471, 318], [499, 301], [505, 283], [471, 246], [494, 204], [506, 175], [512, 147], [449, 236], [478, 186], [498, 154], [508, 125], [428, 239], [477, 226], [489, 262], [487, 287], [412, 254], [458, 268], [470, 293], [468, 310]]</t>
+  </si>
+  <si>
+    <t>[[402, 360], [458, 358], [494, 339], [520, 328], [532, 316], [494, 268], [518, 235], [532, 207], [540, 180], [477, 260], [510, 221], [532, 194], [545, 169], [460, 267], [514, 261], [522, 298], [517, 322], [450, 287], [495, 311], [501, 334], [496, 348]]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>[[237, 361], [291, 351], [343, 321], [388, 301], [423, 291], [314, 230], [334, 173], [342, 136], [347, 101], [276, 217], [278, 149], [276, 106], [270, 69], [239, 222], [228, 160], [218, 120], [210, 84], [205, 241], [174, 198], [153, 170], [137, 142]]</t>
+  </si>
+  <si>
+    <t>[[209, 352], [265, 339], [315, 309], [357, 286], [391, 274], [284, 217], [306, 162], [315, 127], [321, 94], [245, 204], [248, 136], [247, 95], [243, 60], [208, 209], [198, 148], [190, 109], [182, 74], [174, 229], [143, 186], [124, 158], [108, 130]]</t>
+  </si>
+  <si>
+    <t>[[198, 349], [255, 339], [306, 309], [349, 286], [384, 274], [272, 212], [290, 154], [298, 118], [302, 84], [233, 200], [235, 132], [234, 90], [229, 55], [197, 206], [185, 145], [175, 105], [166, 70], [164, 227], [132, 183], [112, 154], [95, 126]]</t>
+  </si>
+  <si>
+    <t>[[226, 302], [191, 261], [165, 215], [137, 177], [109, 164], [227, 176], [215, 114], [210, 79], [209, 50], [259, 181], [270, 121], [280, 87], [291, 62], [282, 198], [307, 152], [327, 124], [342, 103], [297, 219], [324, 194], [341, 180], [356, 167]]</t>
+  </si>
+  <si>
+    <t>[[209, 312], [174, 267], [151, 219], [124, 182], [96, 168], [214, 181], [202, 119], [197, 83], [196, 54], [246, 187], [256, 127], [266, 92], [276, 66], [270, 205], [293, 158], [314, 129], [330, 107], [284, 226], [310, 199], [327, 186], [342, 175]]</t>
+  </si>
+  <si>
+    <t>[[145, 343], [195, 317], [218, 269], [222, 225], [226, 192], [189, 213], [193, 161], [193, 130], [190, 102], [160, 208], [165, 151], [165, 115], [165, 85], [134, 212], [137, 158], [142, 125], [146, 96], [106, 224], [110, 181], [114, 153], [121, 128]]</t>
+  </si>
+  <si>
+    <t>[[147, 342], [196, 317], [220, 269], [224, 226], [228, 193], [190, 214], [195, 162], [195, 131], [193, 104], [162, 209], [167, 151], [167, 115], [167, 85], [136, 213], [140, 158], [144, 124], [148, 96], [109, 224], [112, 181], [117, 153], [123, 128]]</t>
+  </si>
+  <si>
+    <t>[[148, 343], [197, 317], [221, 270], [226, 226], [228, 193], [192, 215], [197, 164], [197, 132], [195, 105], [164, 210], [168, 153], [169, 117], [169, 87], [137, 214], [142, 160], [146, 126], [151, 98], [111, 225], [114, 182], [119, 154], [125, 129]]</t>
+  </si>
+  <si>
+    <t>[[151, 343], [200, 317], [222, 269], [227, 226], [231, 194], [194, 214], [199, 163], [200, 133], [197, 106], [166, 210], [171, 152], [172, 117], [172, 88], [140, 214], [145, 160], [149, 126], [153, 99], [113, 226], [117, 182], [122, 155], [128, 129]]</t>
+  </si>
+  <si>
+    <t>[[134, 333], [91, 303], [63, 263], [54, 219], [75, 198], [99, 225], [110, 164], [118, 130], [127, 105], [133, 226], [141, 160], [148, 123], [153, 95], [164, 232], [167, 170], [172, 134], [175, 107], [190, 242], [190, 193], [191, 165], [192, 142]]</t>
+  </si>
+  <si>
+    <t>[[137, 332], [96, 302], [70, 262], [61, 219], [81, 197], [105, 225], [116, 163], [124, 128], [133, 103], [137, 226], [147, 159], [155, 121], [161, 93], [168, 231], [173, 168], [178, 131], [182, 104], [194, 240], [196, 191], [197, 163], [198, 141]]</t>
+  </si>
+  <si>
+    <t>[[183, 349], [235, 331], [281, 294], [317, 262], [352, 245], [237, 216], [262, 161], [274, 125], [282, 93], [196, 207], [195, 138], [192, 96], [186, 60], [160, 217], [140, 158], [128, 119], [117, 83], [131, 242], [92, 207], [67, 184], [46, 159]]</t>
+  </si>
+  <si>
+    <t>[[232, 303], [200, 255], [187, 203], [174, 159], [154, 134], [257, 171], [256, 108], [258, 73], [262, 45], [289, 184], [311, 128], [326, 96], [339, 74], [309, 206], [342, 168], [365, 143], [382, 125], [319, 232], [352, 214], [372, 204], [389, 194]]</t>
+  </si>
+  <si>
+    <t>[[230, 303], [200, 255], [185, 204], [171, 160], [152, 134], [255, 175], [254, 113], [254, 78], [258, 50], [286, 187], [306, 130], [321, 97], [335, 74], [307, 209], [340, 170], [365, 146], [383, 128], [318, 234], [352, 213], [372, 203], [389, 194]]</t>
+  </si>
+  <si>
+    <t>[[213, 307], [238, 305], [262, 295], [282, 288], [298, 285], [252, 255], [268, 235], [276, 221], [282, 208], [236, 247], [239, 218], [239, 201], [238, 186], [220, 246], [216, 221], [212, 204], [210, 188], [206, 253], [196, 233], [190, 220], [185, 208]]</t>
+  </si>
+  <si>
+    <t>[[137, 332], [171, 313], [185, 273], [186, 238], [202, 217], [168, 227], [171, 186], [172, 160], [172, 137], [145, 223], [149, 175], [150, 145], [153, 118], [124, 228], [129, 182], [134, 153], [141, 128], [102, 239], [104, 206], [110, 184], [118, 163]]</t>
+  </si>
+  <si>
+    <t>[[138, 332], [172, 313], [187, 274], [189, 239], [205, 218], [170, 228], [173, 187], [174, 160], [174, 137], [147, 224], [150, 175], [152, 145], [154, 118], [126, 228], [130, 182], [136, 154], [142, 128], [104, 240], [106, 206], [112, 184], [120, 163]]</t>
+  </si>
+  <si>
+    <t>[[139, 333], [173, 314], [188, 275], [189, 240], [206, 218], [171, 229], [174, 187], [174, 161], [174, 137], [148, 224], [151, 176], [152, 145], [154, 118], [127, 229], [131, 183], [136, 154], [142, 129], [105, 240], [107, 206], [113, 185], [120, 164]]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>[[163, 287], [136, 238], [137, 199], [161, 179], [187, 181], [154, 177], [173, 152], [172, 168], [164, 180], [185, 186], [196, 169], [193, 183], [185, 195], [213, 201], [213, 190], [208, 203], [201, 215], [235, 218], [230, 208], [224, 219], [219, 229]]</t>
+  </si>
+  <si>
+    <t>[[117, 318], [148, 303], [184, 266], [187, 227], [158, 213], [168, 212], [168, 203], [165, 235], [162, 239], [136, 208], [133, 201], [136, 244], [137, 240], [105, 213], [102, 210], [111, 247], [113, 244], [76, 222], [79, 225], [89, 250], [93, 249]]</t>
+  </si>
+  <si>
+    <t>[[164, 215], [135, 176], [134, 139], [157, 121], [181, 124], [159, 102], [173, 105], [172, 121], [164, 131], [189, 110], [196, 119], [193, 132], [186, 142], [215, 127], [216, 136], [211, 147], [203, 156], [236, 148], [232, 156], [225, 166], [219, 173]]</t>
+  </si>
+  <si>
+    <t>[[435, 264], [467, 243], [481, 210], [488, 185], [488, 162], [455, 172], [481, 157], [482, 186], [470, 198], [440, 170], [471, 156], [471, 191], [455, 201], [422, 171], [457, 160], [456, 196], [438, 205], [401, 176], [438, 168], [441, 194], [426, 203]]</t>
+  </si>
+  <si>
+    <t>[[435, 266], [467, 242], [480, 209], [486, 184], [481, 162], [452, 171], [481, 158], [480, 188], [466, 199], [437, 170], [471, 157], [469, 192], [453, 201], [419, 171], [456, 160], [455, 196], [436, 205], [401, 176], [438, 167], [440, 193], [424, 202]]</t>
+  </si>
+  <si>
+    <t>[[219, 285], [186, 248], [172, 206], [176, 179], [189, 187], [220, 177], [216, 176], [212, 190], [210, 200], [246, 184], [239, 186], [234, 198], [231, 209], [267, 197], [258, 201], [252, 211], [247, 221], [283, 215], [275, 216], [269, 225], [264, 234]]</t>
+  </si>
+  <si>
+    <t>[[221, 283], [191, 246], [178, 205], [184, 179], [197, 185], [227, 177], [224, 180], [219, 194], [216, 203], [252, 186], [246, 189], [241, 201], [237, 212], [273, 201], [265, 204], [259, 213], [253, 224], [288, 218], [281, 219], [274, 228], [269, 236]]</t>
+  </si>
+  <si>
+    <t>[[169, 247], [204, 237], [246, 199], [251, 160], [224, 145], [225, 146], [232, 125], [228, 163], [224, 172], [194, 141], [200, 127], [200, 171], [196, 174], [164, 144], [169, 138], [174, 180], [172, 183], [133, 151], [142, 153], [151, 183], [152, 187]]</t>
+  </si>
+  <si>
+    <t>[[172, 251], [206, 239], [245, 201], [252, 165], [231, 149], [226, 148], [233, 127], [230, 164], [225, 173], [196, 143], [202, 128], [201, 173], [197, 175], [166, 146], [170, 140], [175, 181], [174, 183], [135, 153], [142, 154], [151, 183], [153, 187]]</t>
+  </si>
+  <si>
+    <t>[[228, 364], [203, 326], [196, 285], [205, 257], [217, 263], [244, 269], [235, 255], [228, 267], [227, 278], [267, 279], [254, 268], [247, 279], [245, 291], [284, 293], [270, 283], [263, 292], [260, 303], [296, 309], [284, 298], [276, 306], [273, 316]]</t>
+  </si>
+  <si>
+    <t>[[230, 366], [205, 327], [198, 285], [207, 257], [221, 264], [248, 271], [235, 255], [229, 269], [229, 280], [271, 282], [255, 269], [247, 281], [246, 292], [287, 296], [271, 285], [264, 294], [261, 305], [298, 311], [285, 299], [277, 307], [274, 317]]</t>
+  </si>
+  <si>
+    <t>[[184, 153], [236, 145], [274, 116], [293, 81], [293, 52], [253, 67], [272, 38], [264, 74], [252, 92], [227, 59], [246, 30], [236, 76], [222, 88], [198, 54], [217, 26], [211, 72], [200, 85], [163, 53], [183, 28], [186, 61], [179, 75]]</t>
+  </si>
+  <si>
+    <t>[[184, 155], [235, 146], [274, 114], [291, 79], [291, 49], [253, 66], [271, 36], [264, 73], [253, 91], [227, 59], [245, 29], [237, 74], [223, 87], [198, 55], [216, 26], [211, 73], [201, 86], [164, 53], [185, 30], [187, 63], [179, 76]]</t>
+  </si>
+  <si>
+    <t>[[183, 158], [236, 147], [272, 115], [289, 81], [290, 52], [251, 67], [270, 38], [263, 74], [251, 93], [226, 59], [244, 32], [235, 77], [221, 91], [198, 56], [216, 28], [211, 73], [200, 87], [163, 56], [184, 32], [185, 65], [179, 78]]</t>
+  </si>
+  <si>
+    <t>[[298, 282], [254, 261], [225, 220], [219, 181], [239, 160], [251, 177], [230, 157], [234, 192], [243, 201], [275, 175], [252, 159], [255, 201], [266, 206], [300, 179], [275, 176], [276, 217], [287, 220], [324, 187], [296, 190], [295, 218], [305, 219]]</t>
+  </si>
+  <si>
+    <t>[[299, 281], [254, 264], [224, 224], [220, 186], [236, 165], [248, 182], [229, 161], [232, 193], [242, 203], [273, 180], [251, 162], [254, 204], [266, 210], [298, 183], [275, 178], [275, 218], [286, 222], [323, 190], [298, 189], [294, 218], [303, 222]]</t>
+  </si>
+  <si>
+    <t>[[390, 230], [420, 197], [428, 166], [409, 148], [386, 146], [413, 141], [407, 120], [402, 134], [404, 150], [384, 139], [382, 129], [380, 142], [383, 154], [358, 145], [359, 139], [360, 151], [364, 164], [336, 154], [340, 154], [343, 166], [347, 176]]</t>
+  </si>
+  <si>
+    <t>[[94, 245], [145, 236], [201, 188], [218, 139], [197, 117], [171, 138], [166, 103], [164, 150], [168, 164], [133, 135], [128, 106], [130, 159], [132, 163], [99, 135], [94, 104], [98, 155], [102, 165], [62, 134], [57, 114], [63, 151], [69, 162]]</t>
+  </si>
+  <si>
+    <t>[[76, 239], [128, 227], [183, 182], [197, 130], [170, 106], [150, 132], [147, 95], [144, 141], [147, 154], [111, 129], [107, 97], [109, 153], [112, 154], [76, 128], [72, 97], [76, 149], [82, 156], [40, 126], [35, 107], [41, 145], [48, 156]]</t>
+  </si>
+  <si>
+    <t>[[80, 236], [132, 222], [186, 177], [199, 125], [174, 101], [153, 128], [149, 89], [146, 135], [150, 148], [114, 125], [110, 93], [111, 148], [115, 149], [79, 125], [74, 92], [79, 144], [85, 151], [42, 124], [36, 102], [44, 140], [51, 151]]</t>
+  </si>
+  <si>
+    <t>[[83, 237], [135, 224], [189, 177], [203, 126], [178, 102], [157, 127], [154, 91], [151, 138], [155, 148], [117, 125], [114, 94], [115, 149], [119, 148], [82, 124], [79, 94], [82, 145], [88, 148], [46, 122], [42, 103], [48, 140], [54, 148]]</t>
+  </si>
+  <si>
+    <t>[[134, 368], [174, 346], [198, 308], [181, 272], [151, 253], [196, 238], [202, 182], [201, 146], [198, 113], [167, 232], [174, 169], [175, 129], [177, 93], [138, 239], [147, 179], [152, 142], [157, 105], [109, 261], [123, 212], [130, 228], [134, 255]]</t>
+  </si>
+  <si>
+    <t>[[129, 368], [171, 345], [198, 307], [182, 270], [151, 248], [193, 236], [200, 177], [199, 142], [196, 110], [164, 230], [171, 166], [171, 126], [173, 89], [136, 236], [144, 178], [150, 141], [155, 103], [106, 259], [122, 209], [131, 226], [138, 253]]</t>
+  </si>
+  <si>
+    <t>[[126, 365], [168, 344], [195, 306], [177, 270], [145, 250], [191, 233], [196, 176], [193, 141], [190, 108], [163, 227], [169, 166], [168, 126], [167, 89], [134, 234], [145, 178], [148, 142], [150, 104], [106, 256], [121, 207], [128, 226], [132, 255]]</t>
+  </si>
+  <si>
+    <t>[[162, 298], [141, 253], [153, 213], [186, 200], [214, 199], [146, 202], [165, 153], [177, 125], [186, 103], [173, 210], [189, 158], [200, 127], [208, 103], [199, 221], [213, 165], [218, 134], [223, 112], [223, 231], [213, 197], [200, 202], [195, 214]]</t>
+  </si>
+  <si>
+    <t>[[160, 304], [137, 260], [146, 219], [178, 203], [204, 200], [140, 207], [159, 157], [171, 129], [181, 107], [168, 215], [184, 161], [195, 129], [202, 105], [195, 224], [208, 169], [212, 139], [216, 117], [218, 234], [211, 199], [199, 203], [195, 212]]</t>
+  </si>
+  <si>
+    <t>[[160, 310], [141, 264], [153, 223], [185, 208], [214, 206], [145, 210], [166, 159], [180, 131], [189, 109], [173, 219], [191, 164], [202, 133], [210, 108], [199, 229], [213, 172], [219, 142], [224, 119], [223, 240], [216, 202], [204, 203], [199, 211]]</t>
+  </si>
+  <si>
+    <t>[[174, 325], [201, 280], [248, 263], [280, 271], [299, 282], [264, 264], [311, 255], [338, 252], [360, 252], [274, 292], [321, 281], [348, 276], [371, 271], [278, 316], [319, 299], [342, 288], [360, 278], [277, 334], [300, 310], [312, 295], [322, 285]]</t>
+  </si>
+  <si>
+    <t>[[181, 332], [206, 287], [250, 271], [279, 279], [295, 291], [268, 273], [315, 263], [342, 261], [363, 260], [278, 301], [325, 289], [352, 282], [374, 278], [281, 325], [320, 308], [343, 295], [359, 285], [278, 343], [295, 319], [301, 302], [304, 291]]</t>
+  </si>
+  <si>
+    <t>[[144, 326], [127, 275], [142, 233], [175, 219], [203, 217], [133, 218], [156, 165], [170, 136], [180, 112], [161, 227], [182, 170], [195, 136], [204, 109], [187, 240], [207, 182], [215, 149], [221, 124], [210, 253], [208, 214], [195, 214], [189, 220]]</t>
+  </si>
+  <si>
+    <t>[[150, 318], [134, 269], [149, 228], [182, 215], [210, 214], [141, 214], [164, 163], [179, 135], [190, 113], [168, 224], [189, 169], [203, 137], [212, 111], [194, 236], [212, 179], [220, 148], [225, 124], [217, 249], [214, 210], [203, 210], [196, 216]]</t>
+  </si>
+  <si>
+    <t>[[151, 320], [134, 273], [147, 232], [179, 217], [205, 215], [141, 216], [164, 165], [180, 137], [190, 115], [168, 225], [190, 169], [203, 137], [213, 112], [194, 236], [213, 180], [220, 150], [226, 126], [217, 249], [215, 212], [204, 210], [199, 215]]</t>
+  </si>
+  <si>
+    <t>[[133, 248], [157, 272], [198, 286], [228, 271], [242, 243], [242, 273], [284, 270], [308, 266], [331, 261], [244, 253], [290, 253], [317, 249], [341, 244], [238, 234], [282, 236], [308, 236], [334, 232], [225, 215], [256, 225], [241, 234], [222, 238]]</t>
+  </si>
+  <si>
+    <t>[[136, 249], [161, 274], [201, 287], [231, 271], [245, 243], [243, 272], [284, 270], [309, 265], [331, 260], [245, 252], [291, 251], [317, 249], [341, 244], [238, 233], [282, 235], [308, 236], [334, 232], [224, 215], [256, 223], [243, 234], [225, 240]]</t>
+  </si>
+  <si>
+    <t>[[139, 252], [165, 276], [205, 289], [233, 276], [246, 249], [245, 274], [285, 271], [309, 267], [331, 262], [246, 254], [291, 254], [317, 252], [341, 247], [239, 235], [283, 238], [310, 239], [335, 236], [226, 217], [257, 227], [243, 238], [225, 244]]</t>
+  </si>
+  <si>
+    <t>[[224, 319], [219, 269], [242, 234], [273, 222], [295, 220], [257, 224], [289, 184], [308, 164], [325, 149], [281, 240], [313, 197], [331, 173], [347, 154], [298, 258], [324, 215], [337, 189], [347, 169], [308, 274], [317, 237], [316, 216], [316, 202]]</t>
+  </si>
+  <si>
+    <t>[[226, 322], [220, 271], [242, 236], [273, 223], [294, 221], [259, 227], [292, 185], [312, 165], [328, 150], [283, 243], [316, 199], [335, 174], [351, 155], [300, 260], [324, 216], [337, 190], [346, 172], [309, 274], [318, 236], [319, 215], [322, 200]]</t>
+  </si>
+  <si>
+    <t>[[229, 321], [224, 271], [245, 235], [275, 222], [295, 221], [265, 227], [298, 185], [318, 166], [334, 152], [288, 244], [321, 201], [339, 178], [353, 161], [303, 262], [326, 221], [333, 197], [337, 181], [312, 276], [319, 240], [318, 220], [317, 207]]</t>
+  </si>
+  <si>
+    <t>[[229, 324], [223, 274], [244, 238], [274, 228], [293, 228], [265, 229], [298, 188], [317, 168], [333, 153], [289, 246], [321, 204], [338, 180], [352, 163], [304, 264], [324, 225], [325, 203], [324, 189], [311, 279], [318, 245], [314, 226], [310, 216]]</t>
+  </si>
+  <si>
+    <t>[[408, 339], [427, 300], [415, 254], [380, 235], [350, 228], [423, 250], [408, 194], [400, 166], [392, 143], [397, 259], [383, 198], [376, 166], [370, 140], [370, 268], [355, 205], [353, 174], [350, 147], [346, 276], [346, 230], [356, 235], [363, 246]]</t>
+  </si>
+  <si>
+    <t>[[412, 338], [432, 299], [421, 255], [391, 236], [362, 231], [427, 247], [413, 192], [405, 164], [397, 140], [400, 256], [388, 196], [382, 165], [376, 140], [374, 265], [361, 203], [360, 173], [358, 148], [351, 274], [351, 227], [360, 233], [367, 245]]</t>
+  </si>
+  <si>
+    <t>[[413, 337], [433, 299], [423, 255], [391, 236], [362, 231], [429, 249], [415, 193], [408, 165], [400, 142], [403, 257], [391, 196], [385, 165], [379, 139], [376, 265], [365, 203], [364, 173], [362, 147], [353, 272], [353, 226], [362, 233], [368, 246]]</t>
+  </si>
+  <si>
+    <t>[[412, 337], [432, 302], [426, 259], [399, 237], [372, 229], [429, 250], [413, 194], [405, 167], [397, 144], [402, 259], [389, 197], [383, 166], [377, 139], [375, 267], [365, 205], [364, 174], [362, 148], [352, 275], [350, 227], [359, 233], [365, 245]]</t>
+  </si>
+  <si>
+    <t>[[144, 294], [127, 246], [142, 207], [175, 193], [202, 190], [129, 196], [150, 145], [163, 118], [172, 96], [154, 203], [173, 149], [186, 118], [194, 93], [179, 214], [197, 158], [205, 128], [211, 104], [203, 226], [200, 190], [188, 195], [183, 204]]</t>
+  </si>
+  <si>
+    <t>[[146, 298], [131, 251], [147, 211], [181, 199], [208, 197], [136, 196], [159, 148], [173, 122], [182, 101], [161, 204], [182, 153], [195, 124], [203, 101], [186, 215], [206, 161], [215, 131], [221, 107], [209, 228], [207, 195], [195, 200], [190, 210]]</t>
   </si>
 </sst>
 </file>
@@ -377,15 +701,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="195.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="206.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -406,10 +731,858 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/gesture_data.xlsx
+++ b/gesture_data.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-1185" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gestures Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -434,1754 +433,2792 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[174, 443], [232, 426], [281, 392], [315, 359], [344, 339], [247, 308], [272, 259], [285, 228], [294, 200], [212, 297], [220, 237], [224, 199], [224, 167], [178, 302], [173, 244], [170, 206], [168, 173], [146, 319], [124, 277], [112, 248], [103, 220]]</t>
+          <t>[[287, 274], [326, 259], [355, 235], [367, 206], [353, 191], [336, 210], [342, 187], [341, 210], [339, 220], [316, 207], [323, 183], [322, 211], [317, 221], [295, 206], [303, 183], [304, 212], [300, 223], [271, 207], [281, 189], [285, 209], [283, 220]]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A3" t="n">
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[177, 445], [234, 428], [282, 393], [316, 360], [345, 340], [248, 310], [273, 261], [286, 230], [295, 201], [213, 299], [220, 239], [224, 201], [225, 169], [179, 304], [173, 247], [170, 208], [168, 174], [146, 321], [124, 280], [112, 251], [103, 222]]</t>
+          <t>[[298, 274], [338, 258], [364, 234], [376, 206], [363, 193], [344, 209], [351, 187], [351, 210], [347, 221], [324, 206], [333, 183], [332, 212], [326, 221], [304, 206], [314, 183], [315, 212], [309, 223], [281, 207], [292, 189], [297, 208], [294, 219]]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A4" t="n">
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[186, 441], [242, 423], [289, 388], [321, 356], [349, 335], [251, 307], [276, 258], [290, 227], [300, 198], [217, 297], [225, 237], [228, 198], [230, 165], [184, 302], [177, 244], [174, 205], [172, 170], [151, 319], [127, 278], [112, 249], [102, 220]]</t>
+          <t>[[302, 273], [342, 258], [369, 234], [380, 206], [366, 192], [346, 208], [355, 187], [355, 210], [350, 222], [328, 205], [338, 183], [337, 212], [330, 223], [308, 205], [319, 183], [320, 213], [313, 224], [285, 206], [298, 188], [302, 208], [299, 220]]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A5" t="n">
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[188, 434], [244, 415], [291, 381], [321, 349], [349, 328], [253, 302], [278, 253], [291, 221], [301, 193], [218, 292], [226, 232], [230, 193], [231, 160], [185, 297], [179, 239], [176, 200], [175, 165], [152, 314], [128, 273], [114, 244], [104, 215]]</t>
+          <t>[[304, 270], [343, 257], [370, 233], [382, 206], [370, 192], [348, 207], [356, 184], [357, 207], [353, 220], [330, 205], [339, 181], [338, 210], [332, 221], [310, 204], [320, 182], [322, 210], [316, 223], [286, 206], [299, 187], [304, 207], [301, 219]]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A6" t="n">
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[188, 441], [244, 423], [290, 387], [322, 353], [350, 332], [254, 305], [279, 255], [292, 224], [301, 195], [220, 296], [227, 236], [231, 197], [231, 163], [186, 301], [181, 243], [178, 204], [176, 169], [153, 319], [130, 278], [116, 249], [106, 220]]</t>
+          <t>[[304, 269], [343, 256], [371, 233], [382, 205], [370, 191], [350, 206], [357, 184], [357, 207], [354, 220], [331, 204], [339, 180], [339, 209], [333, 221], [310, 204], [321, 181], [322, 210], [317, 223], [287, 205], [300, 187], [304, 207], [301, 218]]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A7" t="n">
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[506, 368], [551, 364], [584, 339], [605, 316], [623, 304], [560, 262], [579, 229], [589, 208], [593, 190], [535, 249], [542, 199], [546, 171], [546, 150], [512, 248], [506, 198], [503, 167], [498, 141], [490, 257], [476, 217], [468, 190], [461, 168]]</t>
+          <t>[[306, 271], [347, 259], [374, 234], [384, 206], [372, 192], [351, 208], [359, 185], [360, 208], [356, 221], [332, 206], [342, 182], [342, 211], [335, 222], [312, 205], [324, 183], [325, 212], [318, 224], [289, 207], [303, 188], [307, 208], [302, 219]]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A8" t="n">
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[516, 368], [562, 362], [592, 334], [615, 310], [636, 301], [566, 260], [585, 226], [594, 205], [598, 186], [543, 247], [551, 196], [555, 168], [555, 146], [521, 247], [517, 197], [514, 166], [507, 139], [499, 257], [488, 217], [480, 191], [472, 167]]</t>
+          <t>[[308, 274], [348, 262], [376, 239], [388, 211], [375, 197], [355, 212], [364, 192], [363, 215], [359, 226], [336, 209], [346, 187], [345, 215], [338, 225], [316, 209], [327, 187], [328, 216], [322, 227], [292, 210], [306, 192], [309, 212], [305, 223]]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A9" t="n">
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[458, 359], [509, 350], [542, 321], [565, 295], [585, 284], [511, 248], [530, 211], [539, 187], [542, 166], [485, 235], [493, 184], [496, 153], [494, 129], [460, 235], [455, 186], [450, 155], [444, 127], [436, 246], [420, 207], [410, 182], [400, 158]]</t>
+          <t>[[277, 347], [311, 331], [342, 310], [349, 284], [335, 269], [324, 281], [333, 264], [331, 287], [327, 295], [305, 278], [312, 264], [311, 288], [307, 296], [285, 279], [291, 266], [294, 289], [291, 297], [264, 282], [272, 272], [277, 287], [276, 295]]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A10" t="n">
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[458, 365], [509, 357], [543, 328], [565, 303], [586, 290], [512, 254], [532, 216], [541, 192], [546, 170], [486, 241], [493, 189], [497, 158], [497, 134], [460, 242], [455, 192], [452, 160], [448, 132], [437, 253], [420, 213], [409, 188], [400, 164]]</t>
+          <t>[[292, 275], [333, 258], [364, 241], [378, 217], [370, 202], [352, 216], [362, 199], [359, 217], [357, 221], [336, 210], [348, 192], [343, 217], [339, 221], [320, 207], [330, 191], [326, 216], [322, 221], [300, 205], [310, 193], [309, 211], [306, 217]]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A11" t="n">
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[313, 415], [283, 389], [262, 358], [245, 330], [227, 315], [302, 323], [293, 279], [288, 256], [286, 237], [326, 324], [332, 280], [338, 256], [342, 241], [346, 334], [364, 298], [375, 277], [382, 261], [361, 348], [380, 324], [388, 313], [394, 304]]</t>
+          <t>[[292, 243], [328, 237], [359, 223], [373, 200], [363, 185], [349, 201], [357, 183], [354, 192], [350, 199], [333, 193], [342, 174], [334, 196], [331, 206], [316, 188], [324, 171], [318, 194], [314, 205], [295, 186], [304, 173], [304, 189], [301, 198]]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A12" t="n">
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[315, 415], [285, 389], [266, 359], [250, 331], [232, 317], [306, 326], [298, 283], [294, 259], [292, 240], [329, 327], [337, 284], [343, 261], [348, 247], [349, 337], [367, 302], [379, 281], [386, 267], [364, 350], [384, 329], [392, 319], [399, 311]]</t>
+          <t>[[291, 241], [325, 240], [356, 225], [370, 201], [361, 187], [346, 201], [355, 183], [349, 200], [346, 208], [329, 194], [338, 177], [331, 201], [328, 206], [312, 190], [321, 174], [315, 199], [312, 206], [292, 186], [300, 175], [299, 193], [297, 200]]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A13" t="n">
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[316, 416], [287, 390], [268, 359], [253, 331], [235, 316], [309, 326], [302, 283], [298, 260], [297, 241], [333, 328], [341, 285], [348, 264], [353, 250], [352, 338], [369, 303], [381, 283], [388, 268], [367, 352], [386, 332], [396, 322], [403, 313]]</t>
+          <t>[[246, 207], [276, 204], [305, 189], [317, 168], [311, 156], [305, 171], [312, 154], [301, 166], [296, 178], [292, 166], [292, 149], [282, 167], [281, 177], [278, 163], [277, 148], [269, 166], [269, 176], [263, 160], [264, 149], [258, 163], [257, 173]]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A14" t="n">
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[320, 416], [290, 390], [271, 359], [255, 331], [238, 316], [312, 325], [304, 284], [301, 260], [299, 241], [335, 328], [343, 287], [349, 265], [355, 250], [354, 338], [371, 304], [382, 284], [390, 269], [369, 353], [388, 332], [397, 322], [404, 313]]</t>
+          <t>[[192, 209], [217, 203], [241, 188], [246, 164], [239, 153], [244, 177], [245, 153], [234, 165], [233, 176], [229, 172], [227, 151], [218, 170], [220, 179], [216, 169], [211, 153], [204, 173], [207, 181], [202, 167], [198, 156], [194, 171], [196, 179]]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A15" t="n">
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[320, 417], [291, 390], [273, 359], [257, 330], [240, 315], [315, 326], [307, 284], [304, 260], [303, 241], [338, 328], [346, 287], [353, 266], [358, 252], [357, 339], [373, 305], [385, 285], [393, 269], [370, 355], [390, 335], [400, 323], [408, 314]]</t>
+          <t>[[180, 225], [204, 217], [226, 201], [229, 177], [218, 167], [231, 192], [228, 169], [219, 181], [219, 190], [215, 188], [211, 166], [203, 187], [207, 193], [200, 185], [195, 168], [189, 189], [194, 196], [186, 183], [182, 171], [179, 186], [182, 193]]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A16" t="n">
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[[271, 452], [314, 437], [351, 408], [376, 383], [396, 368], [319, 346], [341, 312], [353, 291], [361, 273], [292, 339], [297, 293], [299, 265], [298, 243], [267, 343], [259, 301], [253, 274], [247, 251], [244, 356], [227, 326], [216, 306], [207, 287]]</t>
+          <t>[[187, 229], [214, 221], [238, 206], [241, 181], [229, 170], [240, 195], [240, 173], [231, 188], [231, 196], [225, 190], [222, 170], [215, 192], [219, 197], [210, 186], [204, 171], [200, 193], [205, 199], [195, 184], [191, 173], [188, 188], [190, 194]]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A17" t="n">
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[[277, 447], [320, 432], [356, 405], [380, 379], [399, 363], [324, 343], [345, 309], [357, 288], [364, 269], [297, 335], [301, 289], [304, 262], [303, 240], [272, 339], [263, 298], [258, 271], [252, 248], [249, 353], [232, 323], [222, 303], [213, 284]]</t>
+          <t>[[246, 266], [295, 257], [347, 218], [363, 171], [341, 145], [320, 168], [329, 139], [323, 180], [320, 189], [288, 164], [298, 135], [295, 186], [290, 190], [257, 165], [265, 140], [265, 189], [262, 194], [224, 165], [233, 152], [237, 187], [236, 192]]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A18" t="n">
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[[278, 447], [321, 432], [356, 404], [381, 378], [400, 362], [325, 342], [346, 308], [358, 287], [366, 268], [298, 335], [303, 288], [305, 261], [304, 239], [274, 339], [265, 297], [260, 270], [254, 246], [251, 352], [234, 322], [224, 303], [215, 284]]</t>
+          <t>[[261, 278], [308, 265], [360, 230], [374, 184], [350, 158], [332, 179], [346, 148], [339, 189], [332, 196], [301, 174], [315, 145], [310, 197], [305, 196], [271, 175], [282, 152], [282, 199], [277, 200], [238, 176], [249, 164], [254, 196], [251, 200]]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A19" t="n">
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[[280, 445], [322, 429], [356, 401], [382, 377], [401, 360], [326, 341], [347, 306], [358, 286], [366, 267], [299, 333], [303, 287], [306, 259], [304, 237], [274, 337], [265, 295], [258, 269], [252, 246], [251, 351], [235, 321], [224, 301], [216, 283]]</t>
+          <t>[[270, 279], [317, 263], [368, 228], [384, 184], [361, 159], [340, 177], [356, 150], [346, 191], [339, 194], [309, 172], [325, 146], [318, 196], [313, 194], [280, 174], [292, 152], [291, 198], [287, 198], [247, 175], [258, 164], [262, 195], [260, 198]]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A20" t="n">
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[[280, 445], [322, 429], [357, 402], [381, 378], [401, 361], [325, 342], [346, 308], [358, 286], [367, 268], [298, 334], [303, 288], [305, 260], [304, 238], [274, 338], [265, 297], [258, 270], [253, 246], [251, 352], [235, 323], [225, 303], [216, 284]]</t>
+          <t>[[276, 280], [324, 269], [377, 236], [391, 191], [370, 164], [350, 184], [364, 154], [356, 195], [351, 202], [319, 178], [333, 150], [328, 201], [322, 201], [289, 179], [299, 155], [299, 202], [295, 204], [255, 179], [266, 166], [271, 199], [268, 204]]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A21" t="n">
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[[289, 504], [255, 470], [234, 425], [226, 384], [229, 354], [276, 422], [288, 364], [296, 335], [303, 318], [312, 432], [329, 371], [335, 342], [339, 325], [340, 439], [359, 387], [366, 358], [369, 339], [360, 444], [373, 401], [376, 376], [375, 357]]</t>
+          <t>[[277, 281], [325, 274], [380, 241], [396, 194], [371, 169], [355, 187], [369, 159], [360, 199], [354, 207], [323, 181], [337, 154], [330, 206], [325, 206], [292, 181], [303, 159], [302, 206], [297, 208], [259, 180], [269, 168], [274, 201], [271, 206]]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A22" t="n">
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[[262, 364], [233, 332], [212, 297], [196, 265], [179, 246], [257, 262], [255, 215], [254, 190], [254, 170], [284, 265], [301, 218], [312, 193], [322, 176], [306, 277], [334, 241], [352, 221], [366, 206], [322, 293], [349, 273], [364, 262], [377, 251]]</t>
+          <t>[[337, 332], [303, 306], [291, 277], [304, 256], [326, 252], [311, 237], [319, 237], [320, 251], [319, 260], [337, 236], [342, 243], [341, 256], [338, 266], [360, 243], [361, 255], [357, 266], [352, 275], [379, 255], [379, 268], [375, 279], [369, 286]]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A23" t="n">
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[[275, 371], [244, 342], [224, 308], [209, 277], [192, 258], [269, 271], [267, 226], [267, 204], [268, 185], [296, 273], [310, 229], [321, 206], [330, 191], [318, 285], [342, 250], [359, 231], [372, 217], [333, 302], [358, 283], [372, 272], [384, 263]]</t>
+          <t>[[351, 327], [316, 295], [305, 263], [319, 242], [341, 239], [326, 226], [337, 223], [339, 238], [337, 250], [354, 228], [361, 229], [359, 243], [355, 255], [379, 237], [378, 241], [376, 254], [371, 265], [398, 251], [396, 255], [392, 265], [386, 274]]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A24" t="n">
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[[278, 371], [249, 341], [230, 307], [214, 276], [198, 258], [274, 271], [271, 228], [270, 205], [271, 186], [299, 274], [315, 231], [326, 209], [334, 194], [321, 286], [345, 253], [361, 233], [373, 219], [336, 303], [360, 284], [373, 273], [384, 263]]</t>
+          <t>[[356, 322], [321, 302], [306, 274], [316, 252], [334, 245], [329, 231], [335, 232], [337, 245], [335, 254], [355, 230], [358, 237], [357, 250], [354, 261], [379, 238], [377, 249], [373, 261], [370, 271], [398, 251], [396, 262], [391, 273], [387, 281]]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A25" t="n">
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[[281, 371], [253, 340], [235, 305], [220, 274], [205, 255], [279, 270], [278, 227], [278, 204], [280, 186], [305, 274], [322, 232], [332, 210], [342, 195], [326, 287], [351, 254], [368, 235], [381, 221], [341, 304], [365, 284], [378, 274], [390, 265]]</t>
+          <t>[[358, 321], [322, 301], [307, 273], [316, 251], [334, 245], [328, 231], [336, 230], [338, 243], [336, 252], [355, 230], [358, 235], [358, 248], [356, 259], [379, 237], [378, 246], [375, 258], [372, 268], [399, 249], [397, 258], [393, 269], [389, 277]]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A26" t="n">
+        <v>0</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[[282, 372], [254, 341], [237, 305], [224, 274], [208, 255], [282, 270], [282, 229], [282, 206], [284, 188], [308, 275], [324, 234], [335, 213], [344, 198], [328, 288], [353, 257], [370, 239], [383, 226], [342, 306], [365, 288], [377, 278], [388, 269]]</t>
+          <t>[[358, 321], [321, 300], [306, 272], [315, 249], [331, 241], [330, 229], [333, 226], [335, 239], [334, 249], [356, 229], [357, 232], [356, 245], [356, 256], [380, 236], [377, 244], [374, 255], [372, 265], [400, 248], [396, 256], [393, 266], [390, 275]]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A27" t="n">
+        <v>0</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[[187, 439], [253, 411], [307, 364], [344, 319], [383, 292], [243, 255], [264, 185], [275, 141], [280, 101], [191, 247], [188, 167], [185, 115], [180, 70], [145, 263], [120, 189], [103, 137], [89, 92], [106, 296], [57, 249], [25, 216], [-1, 183]]</t>
+          <t>[[363, 327], [325, 303], [310, 271], [318, 247], [336, 242], [338, 229], [343, 232], [345, 246], [343, 256], [367, 231], [368, 239], [366, 252], [364, 263], [392, 242], [390, 252], [386, 262], [382, 273], [412, 257], [409, 265], [404, 276], [400, 284]]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A28" t="n">
+        <v>0</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[[215, 457], [284, 430], [343, 380], [384, 334], [423, 303], [279, 264], [302, 192], [313, 146], [317, 104], [225, 256], [224, 171], [221, 119], [214, 74], [177, 271], [152, 195], [134, 144], [120, 98], [136, 304], [89, 254], [59, 220], [36, 186]]</t>
+          <t>[[367, 326], [329, 304], [312, 272], [319, 247], [337, 242], [339, 230], [341, 227], [343, 240], [342, 250], [367, 231], [366, 235], [365, 248], [365, 259], [392, 239], [388, 247], [384, 259], [382, 269], [412, 252], [408, 260], [404, 271], [400, 280]]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A29" t="n">
+        <v>0</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[[222, 453], [292, 425], [352, 377], [392, 334], [428, 303], [287, 261], [309, 190], [320, 145], [325, 103], [233, 253], [232, 169], [228, 116], [221, 71], [185, 269], [158, 193], [140, 142], [125, 96], [144, 303], [98, 252], [69, 218], [45, 183]]</t>
+          <t>[[368, 328], [331, 306], [314, 274], [320, 249], [337, 243], [339, 232], [346, 227], [348, 240], [345, 251], [366, 231], [370, 236], [369, 250], [368, 261], [391, 239], [391, 248], [388, 259], [384, 270], [412, 251], [411, 259], [407, 271], [403, 280]]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A30" t="n">
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[[229, 451], [296, 424], [356, 377], [399, 335], [435, 304], [294, 262], [316, 190], [327, 145], [332, 103], [239, 253], [238, 168], [235, 115], [228, 69], [191, 268], [164, 192], [145, 141], [131, 95], [150, 301], [104, 250], [75, 217], [52, 182]]</t>
+          <t>[[374, 328], [337, 304], [321, 272], [326, 247], [343, 242], [348, 233], [346, 227], [349, 238], [351, 248], [375, 233], [373, 235], [372, 247], [371, 259], [400, 242], [394, 247], [391, 258], [389, 268], [419, 255], [413, 259], [409, 269], [407, 278]]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A31" t="n">
+        <v>0</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[[502, 397], [552, 366], [578, 310], [599, 269], [624, 245], [532, 241], [543, 183], [546, 146], [544, 113], [501, 242], [489, 173], [481, 131], [468, 95], [477, 260], [454, 199], [437, 162], [418, 129], [460, 293], [436, 263], [419, 241], [401, 220]]</t>
+          <t>[[428, 401], [440, 365], [461, 349], [482, 355], [491, 368], [505, 343], [512, 354], [503, 361], [493, 362], [514, 367], [512, 376], [502, 380], [492, 380], [514, 391], [509, 399], [498, 401], [488, 400], [509, 413], [501, 418], [491, 419], [483, 416]]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A32" t="n">
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[[505, 398], [556, 367], [582, 310], [605, 268], [630, 243], [538, 241], [548, 184], [551, 147], [549, 114], [508, 242], [497, 175], [489, 132], [476, 96], [485, 262], [463, 201], [446, 163], [427, 128], [469, 295], [448, 265], [431, 242], [415, 218]]</t>
+          <t>[[439, 393], [445, 358], [465, 341], [486, 344], [496, 355], [511, 334], [512, 343], [503, 348], [495, 349], [520, 357], [516, 363], [507, 366], [498, 368], [521, 381], [515, 384], [505, 385], [496, 386], [516, 402], [510, 403], [501, 403], [493, 403]]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A33" t="n">
+        <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[[507, 394], [556, 361], [581, 305], [604, 265], [628, 241], [538, 237], [548, 180], [551, 144], [550, 112], [509, 238], [499, 171], [491, 129], [479, 93], [487, 258], [466, 197], [450, 159], [432, 125], [472, 291], [450, 260], [434, 237], [417, 213]]</t>
+          <t>[[444, 395], [450, 360], [471, 344], [493, 352], [502, 367], [518, 340], [515, 350], [504, 355], [496, 356], [526, 366], [517, 373], [507, 375], [498, 377], [524, 391], [514, 397], [504, 396], [495, 395], [517, 412], [505, 417], [496, 416], [490, 413]]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A34" t="n">
+        <v>0</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[[498, 393], [549, 361], [574, 304], [595, 264], [619, 239], [530, 235], [539, 178], [542, 141], [540, 108], [500, 236], [489, 168], [480, 125], [468, 89], [478, 256], [455, 195], [438, 157], [419, 122], [462, 289], [438, 258], [420, 236], [403, 213]]</t>
+          <t>[[447, 398], [451, 364], [471, 345], [491, 349], [500, 360], [519, 343], [518, 348], [509, 352], [502, 354], [527, 367], [521, 369], [511, 370], [503, 373], [526, 391], [519, 391], [509, 390], [500, 392], [519, 411], [513, 410], [505, 408], [498, 409]]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A35" t="n">
+        <v>0</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[[299, 470], [270, 440], [250, 405], [232, 376], [212, 363], [295, 375], [288, 328], [284, 301], [283, 280], [321, 379], [331, 331], [339, 304], [347, 285], [341, 389], [362, 352], [378, 330], [391, 315], [356, 403], [379, 379], [394, 368], [407, 358]]</t>
+          <t>[[449, 404], [451, 367], [472, 348], [493, 352], [502, 363], [523, 348], [515, 352], [505, 356], [498, 359], [530, 373], [519, 375], [509, 376], [501, 380], [528, 398], [517, 397], [507, 396], [498, 398], [520, 418], [511, 417], [502, 415], [496, 415]]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A36" t="n">
+        <v>0</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[[308, 470], [280, 440], [260, 405], [243, 375], [223, 362], [307, 376], [298, 328], [295, 301], [294, 279], [332, 380], [341, 331], [349, 305], [357, 286], [352, 389], [370, 351], [386, 330], [397, 314], [366, 402], [387, 376], [402, 365], [415, 356]]</t>
+          <t>[[446, 405], [450, 367], [472, 349], [494, 354], [503, 367], [522, 349], [513, 350], [502, 355], [496, 359], [529, 374], [518, 373], [507, 375], [500, 379], [527, 398], [516, 397], [506, 395], [497, 397], [519, 419], [512, 417], [503, 415], [496, 415]]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A37" t="n">
+        <v>0</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[[311, 471], [282, 440], [263, 404], [245, 374], [226, 361], [309, 375], [301, 328], [298, 302], [298, 280], [334, 379], [343, 332], [352, 306], [360, 288], [354, 390], [372, 352], [387, 331], [399, 315], [368, 403], [389, 377], [403, 366], [416, 357]]</t>
+          <t>[[447, 405], [451, 367], [472, 348], [494, 355], [503, 368], [523, 350], [511, 350], [500, 355], [494, 359], [530, 375], [516, 373], [505, 375], [498, 380], [527, 399], [515, 397], [504, 396], [497, 398], [519, 419], [509, 417], [500, 415], [495, 415]]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A38" t="n">
+        <v>0</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[[316, 468], [287, 438], [269, 401], [251, 372], [232, 358], [314, 373], [307, 326], [305, 299], [305, 279], [339, 377], [349, 331], [357, 306], [366, 288], [359, 387], [376, 350], [391, 330], [403, 315], [372, 401], [393, 377], [407, 366], [419, 357]]</t>
+          <t>[[459, 338], [472, 366], [497, 387], [521, 389], [532, 375], [517, 360], [536, 362], [513, 364], [504, 363], [515, 343], [533, 346], [505, 349], [499, 346], [510, 326], [527, 329], [501, 334], [494, 331], [504, 308], [515, 313], [498, 319], [491, 317]]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A39" t="n">
+        <v>0</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[[319, 468], [289, 437], [271, 401], [254, 371], [235, 356], [318, 372], [311, 325], [309, 299], [309, 278], [343, 376], [352, 331], [361, 306], [369, 289], [362, 386], [380, 350], [396, 330], [408, 316], [376, 399], [398, 375], [414, 365], [428, 356]]</t>
+          <t>[[461, 335], [472, 362], [497, 382], [521, 384], [533, 372], [516, 357], [536, 357], [513, 360], [504, 360], [515, 339], [532, 342], [505, 346], [499, 343], [510, 323], [526, 326], [500, 331], [494, 329], [504, 305], [514, 310], [496, 316], [490, 313]]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A40" t="n">
+        <v>0</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[[349, 411], [360, 371], [381, 343], [398, 318], [402, 297], [428, 367], [461, 345], [482, 335], [499, 328], [435, 390], [470, 385], [493, 384], [509, 386], [431, 410], [463, 415], [483, 420], [500, 426], [422, 426], [441, 436], [451, 442], [462, 448]]</t>
+          <t>[[459, 338], [470, 366], [496, 386], [520, 388], [532, 375], [516, 359], [536, 360], [514, 364], [505, 364], [514, 341], [532, 344], [504, 349], [499, 345], [509, 325], [526, 329], [500, 334], [494, 330], [503, 306], [514, 313], [495, 318], [490, 315]]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A41" t="n">
+        <v>0</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[[350, 410], [360, 371], [382, 343], [399, 319], [404, 298], [428, 367], [461, 346], [481, 335], [499, 328], [435, 390], [471, 386], [494, 385], [511, 388], [432, 411], [464, 415], [484, 420], [500, 426], [423, 425], [442, 437], [453, 443], [464, 449]]</t>
+          <t>[[459, 339], [470, 365], [496, 385], [519, 387], [531, 375], [518, 359], [537, 361], [515, 364], [505, 363], [515, 342], [532, 344], [505, 349], [498, 345], [510, 325], [526, 329], [500, 335], [494, 331], [503, 307], [514, 314], [497, 319], [491, 316]]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A42" t="n">
+        <v>0</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[[350, 414], [361, 376], [382, 347], [399, 323], [406, 305], [428, 372], [462, 350], [483, 340], [500, 334], [434, 395], [472, 391], [495, 391], [511, 393], [431, 415], [464, 421], [485, 426], [501, 431], [421, 431], [440, 443], [451, 449], [462, 455]]</t>
+          <t>[[457, 341], [470, 368], [496, 386], [519, 388], [531, 376], [516, 360], [535, 362], [512, 366], [502, 364], [513, 343], [531, 346], [503, 352], [497, 348], [508, 327], [525, 331], [499, 338], [492, 333], [502, 308], [514, 316], [496, 322], [490, 318]]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A43" t="n">
+        <v>0</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[[351, 419], [361, 380], [383, 350], [401, 327], [411, 310], [431, 374], [465, 353], [485, 344], [502, 338], [437, 398], [474, 395], [496, 394], [512, 396], [434, 419], [465, 425], [485, 429], [501, 433], [424, 435], [442, 446], [453, 451], [463, 456]]</t>
+          <t>[[456, 344], [473, 368], [498, 382], [519, 383], [530, 371], [518, 355], [535, 360], [514, 365], [505, 362], [516, 339], [532, 346], [507, 352], [500, 346], [511, 324], [527, 333], [502, 339], [495, 332], [504, 307], [518, 320], [500, 326], [492, 320]]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A44" t="n">
+        <v>0</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[[352, 419], [362, 380], [384, 351], [402, 328], [410, 309], [431, 375], [464, 355], [484, 345], [502, 339], [437, 399], [473, 395], [494, 394], [509, 396], [434, 420], [465, 424], [485, 429], [500, 433], [424, 435], [443, 446], [453, 452], [463, 458]]</t>
+          <t>[[161, 274], [204, 253], [240, 211], [249, 173], [231, 156], [208, 175], [206, 148], [207, 180], [209, 200], [179, 177], [176, 152], [180, 188], [182, 206], [151, 184], [148, 163], [155, 196], [158, 212], [124, 194], [124, 176], [131, 200], [135, 212]]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A45" t="n">
+        <v>0</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[[318, 392], [343, 419], [374, 438], [400, 454], [418, 467], [411, 393], [447, 398], [468, 400], [486, 399], [410, 369], [449, 358], [471, 351], [487, 343], [399, 350], [426, 327], [443, 312], [458, 300], [381, 337], [397, 313], [406, 298], [417, 284]]</t>
+          <t>[[178, 240], [227, 214], [256, 182], [265, 145], [250, 123], [222, 145], [227, 112], [231, 146], [227, 167], [196, 146], [202, 115], [207, 157], [203, 176], [170, 152], [176, 123], [184, 163], [181, 180], [141, 161], [150, 137], [160, 165], [158, 179]]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A46" t="n">
+        <v>0</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[[321, 395], [346, 422], [377, 440], [403, 457], [421, 471], [414, 394], [450, 400], [471, 403], [488, 402], [413, 370], [453, 359], [475, 353], [491, 345], [402, 352], [431, 329], [447, 314], [462, 302], [384, 340], [401, 316], [411, 300], [422, 287]]</t>
+          <t>[[173, 243], [222, 216], [252, 180], [262, 141], [246, 120], [220, 142], [224, 110], [227, 147], [226, 165], [192, 144], [196, 114], [203, 158], [199, 172], [165, 151], [172, 121], [180, 163], [177, 177], [136, 159], [145, 135], [155, 165], [153, 177]]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A47" t="n">
+        <v>0</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[[322, 396], [346, 421], [376, 439], [402, 455], [420, 469], [414, 394], [450, 399], [471, 402], [488, 401], [413, 371], [453, 359], [474, 353], [490, 345], [402, 353], [431, 329], [448, 314], [462, 302], [384, 340], [399, 316], [409, 300], [420, 286]]</t>
+          <t>[[176, 251], [226, 236], [265, 205], [283, 166], [266, 142], [242, 160], [247, 128], [244, 165], [242, 180], [212, 157], [219, 128], [218, 173], [215, 183], [184, 160], [190, 134], [192, 176], [190, 188], [154, 162], [160, 145], [167, 175], [167, 185]]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A48" t="n">
+        <v>0</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[[323, 396], [347, 421], [378, 439], [403, 456], [419, 471], [416, 395], [451, 400], [472, 403], [489, 402], [415, 371], [454, 359], [475, 351], [491, 343], [404, 354], [433, 330], [449, 315], [464, 303], [386, 342], [403, 318], [413, 302], [423, 288]]</t>
+          <t>[[187, 253], [235, 241], [275, 208], [293, 170], [279, 146], [251, 164], [259, 131], [256, 167], [252, 181], [222, 162], [231, 131], [230, 176], [225, 184], [194, 164], [202, 138], [204, 180], [201, 189], [163, 166], [173, 148], [179, 177], [176, 186]]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A49" t="n">
+        <v>0</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[[323, 396], [346, 421], [376, 439], [400, 456], [417, 470], [416, 395], [451, 401], [472, 404], [489, 403], [415, 372], [454, 359], [475, 352], [491, 345], [404, 355], [432, 330], [449, 315], [464, 302], [385, 343], [401, 319], [411, 303], [422, 289]]</t>
+          <t>[[193, 259], [238, 245], [280, 210], [297, 173], [281, 150], [254, 162], [261, 134], [257, 173], [253, 183], [224, 161], [233, 136], [232, 182], [228, 185], [196, 164], [203, 144], [205, 185], [203, 188], [166, 167], [174, 155], [179, 183], [178, 189]]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A50" t="n">
+        <v>0</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[[325, 396], [348, 422], [378, 441], [402, 458], [419, 472], [419, 398], [453, 404], [473, 407], [491, 406], [418, 375], [457, 364], [479, 357], [496, 350], [407, 357], [436, 331], [453, 317], [469, 304], [388, 345], [405, 321], [415, 306], [426, 293]]</t>
+          <t>[[244, 366], [224, 326], [227, 293], [247, 276], [267, 273], [232, 279], [260, 249], [259, 266], [249, 281], [259, 289], [281, 261], [279, 275], [269, 290], [283, 302], [296, 281], [293, 292], [284, 304], [302, 317], [308, 297], [303, 305], [297, 316]]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A51" t="n">
+        <v>0</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[[466, 456], [495, 426], [513, 389], [529, 361], [547, 343], [454, 348], [441, 308], [428, 286], [414, 268], [427, 358], [398, 320], [376, 300], [355, 285], [409, 376], [376, 345], [354, 328], [332, 312], [399, 401], [365, 390], [344, 383], [324, 374]]</t>
+          <t>[[295, 266], [279, 229], [284, 200], [303, 188], [321, 190], [287, 168], [306, 166], [308, 178], [302, 187], [310, 173], [323, 177], [322, 188], [316, 196], [333, 183], [340, 190], [337, 201], [330, 208], [353, 197], [354, 204], [350, 214], [343, 221]]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A52" t="n">
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[[465, 459], [494, 429], [514, 392], [530, 364], [548, 346], [455, 352], [443, 312], [430, 289], [416, 270], [429, 360], [401, 322], [380, 301], [360, 285], [410, 378], [379, 346], [357, 328], [336, 312], [399, 402], [366, 390], [345, 382], [325, 372]]</t>
+          <t>[[312, 268], [288, 238], [288, 210], [304, 195], [321, 192], [297, 173], [312, 168], [317, 181], [314, 191], [323, 175], [334, 177], [335, 189], [331, 200], [347, 184], [352, 191], [350, 202], [344, 211], [367, 198], [369, 207], [364, 217], [358, 224]]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A53" t="n">
+        <v>0</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[[452, 455], [482, 428], [503, 391], [521, 364], [539, 346], [447, 348], [433, 309], [421, 287], [408, 267], [420, 354], [394, 315], [374, 292], [354, 274], [401, 370], [370, 338], [348, 319], [327, 301], [388, 395], [355, 381], [335, 372], [315, 361]]</t>
+          <t>[[311, 267], [290, 235], [291, 207], [307, 192], [325, 191], [297, 172], [317, 166], [321, 178], [317, 189], [322, 173], [337, 176], [337, 188], [332, 198], [345, 182], [354, 189], [352, 201], [345, 210], [366, 196], [371, 205], [367, 216], [359, 224]]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A54" t="n">
+        <v>0</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[[447, 458], [478, 431], [502, 396], [520, 370], [539, 352], [444, 355], [431, 317], [417, 296], [402, 277], [417, 361], [392, 322], [372, 299], [352, 280], [397, 376], [367, 344], [345, 325], [325, 307], [384, 400], [352, 385], [332, 376], [313, 365]]</t>
+          <t>[[315, 269], [293, 237], [295, 207], [314, 193], [334, 194], [304, 171], [318, 169], [321, 182], [317, 191], [329, 174], [339, 179], [338, 191], [334, 200], [353, 185], [357, 193], [354, 204], [348, 212], [372, 200], [372, 209], [368, 219], [362, 226]]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A55" t="n">
+        <v>0</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[[399, 394], [435, 408], [467, 411], [493, 411], [512, 410], [476, 349], [505, 336], [523, 326], [536, 317], [469, 332], [499, 308], [517, 293], [529, 280], [457, 320], [478, 287], [492, 266], [503, 246], [440, 314], [452, 284], [459, 265], [466, 248]]</t>
+          <t>[[318, 271], [298, 237], [300, 208], [318, 195], [337, 196], [307, 176], [324, 168], [330, 180], [327, 191], [332, 179], [345, 179], [346, 191], [341, 201], [355, 189], [362, 194], [360, 205], [354, 213], [375, 203], [379, 209], [375, 220], [368, 227]]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A56" t="n">
+        <v>0</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[[402, 402], [435, 417], [465, 420], [491, 419], [513, 418], [479, 358], [509, 345], [526, 336], [539, 327], [473, 341], [504, 317], [522, 303], [534, 290], [461, 329], [483, 296], [496, 275], [507, 256], [444, 322], [455, 292], [463, 274], [470, 258]]</t>
+          <t>[[319, 279], [301, 243], [305, 213], [323, 200], [341, 199], [316, 182], [330, 174], [332, 185], [328, 195], [340, 186], [350, 184], [349, 196], [344, 206], [363, 198], [367, 198], [363, 208], [358, 218], [381, 214], [381, 213], [377, 222], [371, 230]]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A57" t="n">
+        <v>0</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[[244, 385], [285, 364], [317, 334], [338, 307], [355, 289], [278, 277], [290, 238], [295, 215], [296, 194], [250, 273], [246, 228], [243, 202], [237, 180], [226, 281], [210, 242], [199, 217], [189, 195], [204, 297], [181, 272], [165, 255], [153, 238]]</t>
+          <t>[[214, 258], [250, 248], [284, 232], [296, 204], [287, 185], [274, 203], [278, 179], [275, 189], [273, 197], [253, 197], [257, 173], [251, 202], [252, 213], [233, 194], [235, 174], [231, 204], [231, 216], [211, 193], [215, 178], [214, 200], [214, 211]]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A58" t="n">
+        <v>0</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[[257, 389], [298, 370], [329, 340], [348, 314], [365, 297], [290, 283], [302, 245], [307, 221], [309, 200], [263, 279], [260, 234], [257, 207], [253, 185], [239, 286], [224, 246], [215, 220], [207, 199], [218, 301], [195, 275], [180, 257], [168, 240]]</t>
+          <t>[[227, 258], [262, 251], [298, 233], [311, 206], [302, 188], [288, 200], [294, 178], [290, 192], [287, 203], [267, 194], [272, 172], [266, 201], [266, 212], [247, 192], [249, 175], [246, 204], [246, 216], [223, 192], [229, 180], [229, 201], [230, 212]]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A59" t="n">
+        <v>0</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[[262, 389], [303, 371], [336, 343], [356, 317], [372, 299], [298, 285], [311, 246], [315, 222], [317, 201], [271, 280], [270, 235], [268, 208], [263, 186], [247, 286], [235, 246], [225, 220], [216, 198], [226, 301], [205, 275], [191, 257], [180, 239]]</t>
+          <t>[[230, 258], [268, 248], [302, 231], [316, 205], [308, 188], [292, 201], [298, 175], [293, 192], [291, 205], [271, 195], [277, 171], [271, 201], [271, 211], [251, 192], [255, 174], [250, 205], [250, 215], [228, 192], [233, 178], [233, 200], [233, 209]]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A60" t="n">
+        <v>0</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[[264, 389], [305, 371], [337, 342], [356, 316], [373, 299], [300, 285], [311, 246], [316, 222], [317, 200], [273, 280], [272, 236], [269, 208], [264, 186], [249, 287], [237, 246], [227, 220], [218, 198], [228, 302], [206, 275], [192, 257], [181, 239]]</t>
+          <t>[[239, 264], [276, 256], [314, 240], [327, 210], [314, 191], [303, 205], [311, 178], [303, 203], [301, 215], [282, 199], [289, 175], [282, 207], [280, 217], [261, 197], [265, 177], [261, 210], [260, 221], [237, 197], [242, 183], [243, 206], [243, 216]]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A61" t="n">
+        <v>0</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[[271, 396], [314, 381], [345, 350], [364, 322], [381, 308], [308, 290], [321, 251], [325, 227], [327, 205], [281, 285], [279, 240], [277, 212], [272, 190], [256, 291], [243, 251], [235, 225], [227, 203], [236, 307], [213, 280], [200, 262], [188, 245]]</t>
+          <t>[[248, 272], [285, 264], [321, 248], [335, 220], [323, 201], [311, 211], [319, 186], [313, 211], [310, 223], [289, 205], [297, 182], [290, 216], [289, 225], [268, 204], [273, 186], [269, 218], [268, 228], [244, 204], [250, 190], [251, 214], [251, 223]]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A62" t="n">
+        <v>0</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[[277, 404], [319, 388], [350, 357], [369, 329], [387, 313], [313, 297], [325, 257], [330, 232], [332, 210], [285, 292], [285, 246], [283, 217], [278, 194], [262, 298], [249, 257], [240, 230], [231, 207], [241, 314], [220, 286], [206, 268], [195, 250]]</t>
+          <t>[[455, 367], [458, 331], [478, 314], [499, 321], [507, 334], [524, 316], [514, 325], [503, 330], [497, 331], [533, 338], [520, 345], [509, 347], [502, 350], [533, 359], [519, 364], [508, 364], [501, 364], [527, 379], [514, 384], [504, 382], [498, 381]]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A63" t="n">
+        <v>0</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[[208, 394], [180, 367], [162, 336], [145, 311], [125, 300], [198, 300], [193, 255], [190, 228], [189, 208], [222, 303], [236, 257], [245, 231], [253, 214], [243, 313], [267, 276], [283, 255], [295, 240], [259, 327], [284, 306], [298, 296], [309, 285]]</t>
+          <t>[[454, 371], [468, 330], [488, 311], [508, 313], [516, 325], [531, 320], [531, 320], [518, 324], [509, 328], [538, 344], [534, 341], [522, 341], [512, 344], [535, 367], [527, 359], [516, 359], [506, 362], [528, 385], [524, 379], [514, 377], [506, 377]]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A64" t="n">
+        <v>0</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[[221, 392], [193, 365], [175, 334], [158, 309], [140, 297], [212, 298], [209, 254], [207, 227], [207, 207], [236, 301], [252, 257], [262, 233], [270, 215], [256, 312], [281, 277], [298, 258], [310, 243], [272, 326], [297, 308], [311, 298], [322, 287]]</t>
+          <t>[[464, 373], [466, 336], [486, 314], [506, 316], [515, 328], [533, 323], [522, 326], [513, 329], [508, 332], [540, 344], [528, 345], [518, 347], [511, 351], [539, 365], [526, 364], [516, 363], [510, 365], [533, 384], [522, 381], [514, 379], [508, 380]]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A65" t="n">
+        <v>0</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[[229, 393], [203, 367], [185, 336], [169, 309], [150, 297], [224, 300], [223, 255], [221, 229], [222, 208], [248, 304], [264, 261], [275, 236], [284, 219], [268, 316], [293, 282], [310, 262], [322, 247], [283, 331], [308, 312], [322, 302], [334, 293]]</t>
+          <t>[[466, 374], [468, 335], [488, 314], [508, 317], [518, 330], [535, 324], [523, 324], [513, 328], [509, 331], [542, 346], [529, 343], [518, 345], [512, 349], [541, 367], [527, 362], [517, 361], [512, 364], [534, 384], [523, 379], [515, 378], [510, 379]]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A66" t="n">
+        <v>0</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[[232, 398], [208, 368], [193, 335], [179, 307], [162, 295], [233, 303], [234, 258], [235, 231], [236, 211], [256, 308], [276, 266], [289, 243], [299, 227], [276, 321], [303, 287], [321, 269], [334, 254], [290, 336], [316, 319], [331, 309], [344, 300]]</t>
+          <t>[[459, 370], [471, 330], [491, 309], [510, 310], [516, 321], [534, 322], [534, 323], [521, 325], [511, 328], [541, 345], [537, 342], [524, 342], [514, 345], [538, 367], [529, 359], [518, 359], [508, 361], [531, 384], [525, 378], [516, 376], [507, 376]]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A67" t="n">
+        <v>0</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[[236, 402], [212, 371], [196, 337], [183, 308], [166, 295], [237, 306], [236, 261], [236, 234], [237, 213], [260, 313], [280, 270], [292, 247], [302, 231], [279, 325], [306, 290], [324, 271], [337, 257], [293, 341], [321, 322], [336, 313], [349, 303]]</t>
+          <t>[[453, 331], [487, 354], [527, 364], [554, 363], [568, 352], [543, 345], [574, 344], [555, 350], [543, 351], [540, 324], [568, 323], [544, 331], [535, 330], [532, 304], [557, 306], [535, 315], [525, 313], [521, 283], [536, 290], [522, 300], [514, 300]]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A68" t="n">
+        <v>0</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[[241, 374], [290, 361], [335, 332], [371, 309], [397, 293], [311, 255], [334, 214], [346, 188], [353, 165], [279, 244], [287, 190], [290, 157], [289, 131], [250, 247], [241, 196], [235, 163], [228, 135], [221, 262], [199, 225], [185, 201], [173, 177]]</t>
+          <t>[[513, 230], [536, 258], [562, 276], [588, 279], [599, 264], [570, 256], [590, 258], [581, 257], [573, 257], [568, 239], [588, 238], [570, 240], [559, 242], [563, 222], [582, 221], [560, 225], [546, 228], [555, 204], [570, 204], [555, 209], [543, 213]]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A69" t="n">
+        <v>0</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[[235, 374], [284, 362], [329, 334], [362, 311], [389, 296], [303, 258], [326, 216], [338, 191], [345, 168], [271, 247], [279, 193], [282, 160], [280, 132], [241, 250], [234, 199], [226, 167], [219, 138], [213, 266], [191, 228], [176, 205], [165, 181]]</t>
+          <t>[[517, 222], [538, 250], [563, 269], [592, 271], [605, 257], [572, 253], [593, 256], [583, 254], [575, 252], [573, 234], [594, 234], [574, 235], [565, 236], [569, 216], [590, 215], [566, 219], [552, 221], [563, 198], [578, 199], [562, 204], [550, 206]]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A70" t="n">
+        <v>0</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[[232, 376], [280, 363], [324, 335], [358, 311], [384, 295], [298, 260], [320, 218], [332, 192], [339, 169], [267, 249], [274, 196], [277, 163], [275, 135], [237, 253], [229, 202], [221, 169], [214, 140], [208, 268], [186, 231], [172, 207], [160, 184]]</t>
+          <t>[[518, 215], [539, 244], [565, 263], [592, 266], [606, 253], [576, 246], [598, 248], [588, 247], [578, 246], [576, 228], [597, 227], [577, 228], [565, 230], [573, 210], [592, 209], [568, 213], [554, 215], [566, 192], [581, 193], [564, 197], [553, 200]]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A71" t="n">
+        <v>0</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[[233, 375], [281, 362], [323, 334], [357, 310], [384, 295], [298, 260], [320, 218], [332, 192], [339, 168], [267, 249], [275, 196], [278, 162], [277, 134], [238, 253], [230, 202], [223, 169], [216, 139], [210, 269], [188, 231], [174, 207], [162, 183]]</t>
+          <t>[[522, 207], [541, 235], [564, 253], [589, 257], [603, 245], [574, 238], [594, 243], [589, 240], [580, 237], [575, 221], [596, 222], [581, 220], [568, 221], [572, 204], [591, 204], [572, 204], [556, 206], [567, 187], [581, 188], [567, 190], [555, 193]]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A72" t="n">
+        <v>0</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[[238, 392], [280, 372], [319, 335], [331, 298], [310, 279], [291, 284], [306, 259], [304, 297], [296, 304], [264, 283], [278, 262], [279, 308], [271, 307], [235, 287], [250, 275], [255, 315], [247, 316], [206, 294], [224, 287], [232, 315], [225, 319]]</t>
+          <t>[[514, 142], [538, 166], [565, 181], [590, 178], [596, 163], [569, 172], [590, 170], [579, 165], [569, 165], [565, 156], [585, 148], [567, 148], [556, 153], [560, 140], [576, 131], [558, 135], [547, 141], [553, 124], [566, 119], [553, 122], [545, 126]]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A73" t="n">
+        <v>0</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[[233, 372], [273, 354], [311, 324], [326, 290], [308, 269], [290, 277], [303, 247], [299, 284], [292, 292], [263, 275], [275, 250], [274, 294], [268, 294], [235, 278], [246, 260], [249, 300], [244, 301], [206, 283], [220, 271], [226, 298], [221, 303]]</t>
+          <t>[[506, 112], [528, 133], [555, 146], [581, 139], [589, 124], [562, 136], [582, 135], [571, 130], [563, 129], [559, 119], [578, 113], [559, 115], [549, 120], [554, 104], [571, 96], [550, 102], [538, 108], [547, 88], [558, 83], [545, 89], [537, 93]]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A74" t="n">
+        <v>0</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[[231, 355], [271, 340], [311, 308], [323, 273], [303, 254], [288, 264], [303, 235], [298, 272], [291, 279], [262, 262], [275, 236], [273, 279], [267, 281], [235, 264], [247, 244], [249, 284], [244, 286], [206, 268], [221, 255], [226, 282], [222, 287]]</t>
+          <t>[[524, 157], [534, 138], [547, 135], [562, 135], [571, 139], [556, 148], [571, 143], [565, 140], [558, 140], [562, 160], [579, 152], [570, 148], [564, 149], [569, 173], [584, 164], [577, 159], [570, 161], [576, 189], [591, 183], [588, 179], [585, 178]]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A75" t="n">
+        <v>0</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[[235, 342], [277, 328], [317, 298], [328, 262], [309, 242], [292, 256], [307, 228], [302, 264], [296, 269], [268, 253], [280, 226], [278, 269], [272, 271], [242, 255], [253, 234], [254, 274], [249, 277], [213, 257], [227, 245], [232, 271], [226, 276]]</t>
+          <t>[[538, 219], [554, 249], [587, 267], [616, 264], [619, 244], [600, 242], [616, 244], [601, 248], [592, 249], [597, 225], [612, 225], [591, 231], [581, 232], [591, 208], [605, 207], [582, 217], [570, 219], [582, 191], [595, 192], [577, 200], [565, 202]]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A76" t="n">
+        <v>0</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[[243, 344], [285, 328], [323, 298], [335, 264], [318, 246], [299, 258], [313, 229], [309, 264], [304, 271], [275, 255], [287, 228], [285, 269], [279, 272], [249, 256], [260, 235], [263, 273], [257, 277], [221, 259], [235, 245], [241, 270], [235, 276]]</t>
+          <t>[[543, 269], [562, 295], [597, 313], [624, 312], [635, 297], [606, 283], [625, 286], [627, 292], [623, 294], [602, 266], [624, 267], [602, 273], [585, 274], [595, 248], [617, 250], [593, 260], [575, 262], [583, 230], [603, 234], [587, 243], [572, 245]]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A77" t="n">
+        <v>0</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[[104, 298], [136, 279], [170, 246], [175, 210], [155, 194], [153, 213], [147, 189], [148, 220], [152, 225], [126, 214], [119, 194], [125, 232], [129, 231], [101, 219], [95, 202], [102, 236], [107, 238], [76, 224], [73, 214], [81, 237], [86, 242]]</t>
+          <t>[[565, 284], [601, 302], [632, 305], [653, 299], [664, 292], [634, 272], [652, 267], [641, 278], [627, 283], [625, 258], [646, 255], [630, 268], [613, 272], [614, 246], [636, 242], [620, 256], [604, 262], [600, 234], [623, 232], [612, 245], [599, 251]]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A78" t="n">
+        <v>0</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[[110, 298], [140, 284], [175, 249], [180, 212], [160, 195], [155, 213], [150, 190], [151, 222], [155, 229], [128, 216], [123, 196], [129, 234], [132, 234], [104, 220], [99, 203], [107, 238], [111, 240], [80, 224], [78, 215], [85, 239], [89, 243]]</t>
+          <t>[[610, 255], [622, 240], [632, 224], [642, 213], [651, 205], [615, 203], [636, 193], [650, 198], [656, 204], [615, 200], [637, 193], [649, 200], [654, 206], [617, 200], [640, 193], [650, 200], [656, 205], [621, 201], [640, 195], [650, 199], [655, 204]]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A79" t="n">
+        <v>0</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[[117, 304], [148, 296], [187, 261], [192, 221], [171, 203], [168, 223], [162, 202], [162, 232], [167, 239], [140, 223], [135, 204], [139, 244], [144, 243], [116, 226], [110, 210], [117, 246], [122, 248], [90, 228], [87, 222], [94, 247], [99, 251]]</t>
+          <t>[[408, 260], [434, 249], [459, 227], [478, 208], [490, 193], [440, 194], [457, 177], [469, 184], [478, 194], [427, 191], [442, 175], [452, 187], [457, 198], [413, 192], [427, 175], [437, 188], [440, 200], [398, 195], [411, 181], [420, 190], [423, 200]]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A80" t="n">
+        <v>0</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[[123, 307], [153, 295], [191, 259], [198, 222], [176, 204], [170, 223], [167, 201], [167, 233], [170, 239], [143, 223], [140, 204], [144, 244], [147, 243], [119, 227], [115, 211], [121, 246], [125, 247], [93, 229], [92, 223], [98, 247], [102, 250]]</t>
+          <t>[[235, 256], [267, 237], [290, 209], [301, 187], [304, 174], [275, 186], [281, 168], [282, 177], [283, 188], [261, 186], [262, 170], [264, 184], [267, 197], [247, 189], [248, 175], [249, 190], [251, 202], [233, 195], [236, 184], [237, 195], [239, 205]]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A81" t="n">
+        <v>0</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[[547, 333], [587, 309], [603, 284], [614, 263], [609, 244], [571, 248], [590, 228], [594, 253], [584, 266], [558, 246], [583, 226], [586, 257], [573, 270], [542, 243], [573, 224], [574, 257], [559, 269], [522, 242], [555, 227], [560, 252], [549, 264]]</t>
+          <t>[[149, 279], [173, 259], [193, 234], [192, 210], [182, 203], [186, 226], [182, 203], [177, 220], [179, 230], [170, 227], [163, 208], [161, 230], [167, 237], [156, 231], [147, 217], [149, 239], [155, 244], [140, 236], [136, 225], [137, 240], [141, 247]]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A82" t="n">
+        <v>0</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[[546, 320], [574, 296], [580, 271], [586, 250], [583, 235], [542, 236], [564, 224], [572, 245], [564, 260], [532, 234], [562, 222], [570, 249], [558, 264], [520, 234], [555, 223], [561, 251], [547, 265], [507, 237], [542, 228], [549, 249], [538, 261]]</t>
+          <t>[[277, 376], [257, 338], [259, 308], [275, 294], [292, 294], [264, 282], [281, 271], [283, 284], [279, 294], [287, 287], [299, 282], [299, 294], [293, 303], [308, 298], [314, 297], [312, 308], [306, 317], [326, 311], [329, 310], [325, 320], [318, 327]]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A83" t="n">
+        <v>0</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[[563, 334], [590, 311], [596, 287], [602, 268], [601, 251], [551, 247], [580, 235], [588, 259], [579, 273], [541, 245], [577, 236], [586, 264], [575, 278], [531, 246], [572, 237], [579, 265], [565, 278], [523, 251], [561, 244], [567, 264], [556, 276]]</t>
+          <t>[[294, 341], [269, 307], [267, 279], [280, 265], [297, 264], [278, 251], [282, 248], [284, 261], [284, 271], [300, 252], [303, 254], [302, 265], [299, 275], [321, 261], [320, 264], [318, 275], [315, 284], [338, 272], [335, 275], [331, 284], [328, 292]]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A84" t="n">
+        <v>0</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[[563, 341], [593, 317], [599, 297], [607, 277], [607, 259], [551, 260], [585, 248], [591, 272], [582, 284], [544, 257], [586, 249], [593, 276], [581, 288], [539, 256], [583, 248], [587, 277], [571, 289], [534, 256], [574, 252], [576, 273], [562, 284]]</t>
+          <t>[[308, 305], [280, 285], [272, 261], [284, 246], [302, 243], [285, 223], [295, 228], [297, 240], [293, 247], [308, 222], [314, 230], [313, 241], [311, 250], [329, 228], [332, 240], [328, 250], [324, 258], [347, 238], [349, 252], [345, 262], [340, 269]]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A85" t="n">
+        <v>0</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[[332, 396], [303, 359], [297, 328], [308, 309], [325, 309], [321, 298], [331, 301], [333, 317], [328, 329], [345, 297], [353, 307], [350, 322], [344, 332], [368, 305], [372, 316], [367, 331], [361, 340], [388, 320], [391, 331], [385, 344], [379, 352]]</t>
+          <t>[[318, 305], [288, 287], [278, 262], [291, 246], [309, 244], [295, 224], [300, 226], [302, 237], [300, 245], [319, 224], [321, 230], [320, 240], [318, 250], [340, 232], [340, 240], [337, 249], [333, 258], [358, 243], [356, 252], [352, 262], [348, 268]]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A86" t="n">
+        <v>0</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[[337, 378], [305, 353], [289, 323], [294, 300], [307, 303], [324, 289], [328, 294], [326, 308], [323, 317], [347, 291], [347, 302], [344, 314], [341, 324], [368, 301], [365, 312], [361, 323], [356, 332], [386, 315], [383, 323], [378, 333], [373, 341]]</t>
+          <t>[[324, 312], [296, 281], [291, 251], [305, 235], [323, 233], [304, 223], [316, 216], [320, 227], [318, 237], [328, 224], [338, 222], [336, 235], [331, 245], [350, 233], [353, 235], [350, 246], [344, 256], [367, 245], [368, 249], [364, 258], [357, 265]]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A87" t="n">
+        <v>0</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[[339, 378], [307, 351], [293, 322], [298, 300], [311, 303], [327, 289], [329, 295], [327, 309], [324, 318], [351, 292], [350, 302], [346, 314], [343, 324], [372, 302], [368, 313], [363, 324], [358, 332], [389, 316], [385, 325], [380, 335], [376, 341]]</t>
+          <t>[[332, 301], [303, 283], [293, 259], [305, 243], [323, 242], [310, 221], [318, 224], [320, 236], [317, 244], [334, 221], [338, 228], [337, 239], [335, 249], [355, 228], [356, 238], [353, 249], [349, 257], [373, 239], [372, 250], [368, 259], [364, 266]]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A88" t="n">
+        <v>0</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[[344, 378], [311, 351], [300, 322], [307, 303], [321, 304], [329, 290], [333, 296], [331, 311], [328, 321], [354, 293], [353, 303], [349, 316], [346, 325], [375, 303], [371, 314], [366, 325], [362, 333], [393, 317], [389, 326], [384, 335], [380, 341]]</t>
+          <t>[[334, 302], [304, 284], [294, 260], [307, 243], [325, 241], [311, 221], [320, 225], [322, 237], [319, 245], [335, 221], [340, 229], [339, 241], [336, 249], [356, 229], [358, 239], [354, 249], [350, 258], [373, 240], [374, 251], [369, 261], [365, 268]]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A89" t="n">
+        <v>0</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[[385, 432], [362, 394], [362, 366], [377, 353], [394, 354], [399, 351], [392, 343], [385, 356], [381, 369], [424, 366], [419, 362], [410, 374], [405, 385], [443, 386], [437, 384], [428, 392], [420, 402], [456, 406], [451, 408], [441, 414], [435, 420]]</t>
+          <t>[[331, 309], [304, 279], [299, 252], [312, 237], [330, 235], [315, 218], [329, 217], [331, 231], [328, 241], [339, 221], [349, 223], [347, 236], [342, 246], [361, 232], [364, 236], [361, 247], [355, 257], [377, 245], [378, 251], [374, 260], [368, 268]]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A90" t="n">
+        <v>0</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[[195, 349], [253, 323], [290, 290], [306, 249], [296, 225], [263, 266], [275, 237], [276, 248], [276, 255], [234, 262], [246, 238], [248, 254], [245, 261], [207, 262], [216, 240], [219, 257], [218, 268], [180, 264], [185, 241], [190, 253], [191, 262]]</t>
+          <t>[[344, 300], [317, 280], [312, 255], [327, 240], [345, 238], [326, 221], [337, 223], [337, 234], [333, 241], [350, 222], [357, 228], [355, 238], [351, 246], [372, 230], [374, 238], [370, 249], [366, 256], [389, 242], [389, 251], [384, 260], [380, 266]]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A91" t="n">
+        <v>0</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[[213, 324], [262, 304], [302, 263], [314, 218], [295, 197], [275, 222], [277, 185], [274, 224], [273, 238], [244, 221], [245, 187], [245, 235], [245, 243], [214, 225], [214, 194], [218, 240], [219, 252], [181, 231], [182, 207], [191, 240], [194, 253]]</t>
+          <t>[[346, 183], [388, 182], [425, 163], [441, 134], [426, 119], [407, 134], [420, 115], [413, 138], [408, 146], [391, 128], [403, 112], [395, 140], [388, 145], [373, 124], [384, 108], [377, 137], [370, 145], [351, 120], [363, 108], [359, 128], [354, 136]]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A92" t="n">
+        <v>0</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[[220, 331], [269, 321], [313, 278], [326, 232], [306, 213], [285, 232], [285, 199], [282, 239], [282, 253], [252, 232], [252, 200], [253, 248], [253, 258], [222, 235], [220, 206], [225, 253], [227, 265], [189, 239], [190, 222], [198, 256], [202, 266]]</t>
+          <t>[[351, 154], [393, 152], [424, 132], [436, 104], [421, 89], [404, 108], [413, 91], [412, 107], [409, 116], [388, 101], [402, 82], [397, 107], [389, 118], [372, 95], [386, 77], [381, 105], [373, 118], [350, 92], [366, 76], [365, 96], [359, 109]]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A93" t="n">
+        <v>0</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[[224, 338], [273, 322], [316, 283], [327, 237], [307, 216], [287, 238], [290, 203], [286, 244], [286, 255], [255, 237], [258, 205], [258, 253], [257, 258], [226, 241], [227, 211], [231, 257], [231, 265], [193, 245], [195, 225], [203, 257], [206, 267]]</t>
+          <t>[[326, 155], [367, 152], [398, 132], [409, 106], [395, 93], [381, 111], [389, 91], [389, 103], [386, 114], [365, 105], [375, 85], [371, 105], [365, 117], [348, 100], [358, 81], [354, 103], [348, 116], [328, 98], [338, 81], [338, 96], [334, 107]]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A94" t="n">
+        <v>0</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[[334, 424], [367, 413], [395, 386], [407, 359], [391, 348], [375, 358], [382, 340], [379, 365], [376, 373], [357, 356], [364, 339], [361, 370], [358, 374], [338, 357], [346, 341], [346, 371], [342, 377], [317, 359], [327, 346], [329, 367], [326, 374]]</t>
+          <t>[[299, 159], [341, 154], [374, 135], [387, 109], [379, 96], [362, 113], [370, 92], [364, 106], [361, 118], [344, 107], [353, 88], [345, 110], [342, 121], [326, 103], [334, 85], [327, 109], [323, 122], [305, 100], [315, 85], [311, 102], [308, 112]]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A95" t="n">
+        <v>0</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[[341, 418], [373, 408], [399, 382], [410, 357], [397, 346], [380, 357], [386, 337], [383, 361], [381, 368], [362, 355], [369, 336], [367, 365], [363, 369], [343, 357], [351, 339], [351, 367], [347, 373], [323, 358], [331, 344], [335, 363], [333, 371]]</t>
+          <t>[[157, 192], [191, 178], [218, 155], [224, 124], [210, 114], [212, 141], [221, 118], [209, 132], [203, 143], [194, 137], [195, 115], [188, 140], [191, 150], [176, 135], [174, 118], [170, 144], [173, 156], [157, 134], [155, 121], [154, 139], [156, 149]]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A96" t="n">
+        <v>0</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[[343, 418], [375, 408], [402, 383], [412, 357], [397, 346], [381, 356], [389, 337], [386, 362], [382, 369], [363, 355], [371, 337], [369, 367], [365, 372], [345, 356], [353, 339], [354, 367], [350, 375], [324, 359], [333, 344], [338, 364], [336, 373]]</t>
+          <t>[[157, 193], [190, 182], [217, 158], [223, 127], [208, 117], [210, 145], [217, 123], [207, 137], [202, 148], [191, 141], [194, 118], [186, 142], [188, 155], [174, 139], [173, 121], [169, 147], [172, 160], [155, 138], [154, 125], [153, 143], [155, 154]]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A97" t="n">
+        <v>0</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[[343, 419], [374, 410], [401, 385], [412, 359], [398, 348], [382, 359], [388, 339], [385, 362], [382, 371], [364, 357], [370, 339], [368, 368], [365, 373], [345, 358], [352, 341], [353, 369], [349, 376], [325, 361], [333, 346], [337, 365], [335, 374]]</t>
+          <t>[[166, 187], [200, 176], [228, 155], [235, 128], [225, 116], [223, 141], [229, 120], [218, 131], [213, 141], [205, 137], [206, 116], [198, 136], [201, 147], [188, 136], [184, 119], [180, 142], [183, 153], [169, 135], [167, 122], [165, 137], [167, 147]]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A98" t="n">
+        <v>0</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[[347, 428], [379, 419], [408, 397], [418, 373], [406, 361], [391, 367], [399, 349], [396, 372], [392, 381], [373, 364], [381, 350], [378, 377], [373, 383], [354, 364], [362, 350], [361, 378], [357, 385], [332, 366], [343, 354], [345, 373], [342, 381]]</t>
+          <t>[[181, 189], [216, 178], [244, 154], [250, 125], [236, 114], [240, 143], [249, 121], [237, 131], [232, 143], [222, 137], [226, 115], [216, 135], [216, 147], [204, 135], [204, 117], [197, 139], [199, 152], [185, 134], [186, 120], [183, 134], [183, 144]]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A99" t="n">
+        <v>0</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[[286, 429], [235, 377], [216, 321], [223, 277], [246, 271], [256, 278], [267, 248], [263, 267], [257, 288], [297, 283], [298, 261], [292, 280], [287, 299], [333, 297], [322, 282], [317, 297], [312, 313], [362, 315], [346, 302], [339, 315], [336, 329]]</t>
+          <t>[[198, 190], [234, 178], [264, 156], [274, 127], [260, 116], [259, 142], [269, 121], [257, 130], [250, 141], [240, 136], [247, 114], [235, 135], [235, 147], [222, 133], [224, 115], [216, 139], [218, 152], [202, 130], [204, 118], [202, 134], [203, 144]]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A100" t="n">
+        <v>0</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[[300, 414], [248, 360], [228, 302], [237, 260], [265, 261], [281, 261], [279, 234], [273, 255], [270, 276], [324, 268], [311, 247], [301, 264], [299, 286], [357, 284], [337, 268], [328, 280], [325, 299], [381, 304], [361, 288], [353, 299], [351, 316]]</t>
+          <t>[[294, 310], [276, 275], [279, 250], [297, 240], [314, 243], [280, 232], [297, 225], [298, 235], [294, 242], [302, 237], [313, 230], [312, 239], [307, 248], [322, 246], [325, 242], [323, 250], [319, 259], [339, 257], [336, 254], [333, 262], [330, 269]]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A101" t="n">
+        <v>0</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[[311, 396], [259, 346], [240, 290], [248, 247], [273, 245], [292, 248], [289, 224], [284, 243], [283, 261], [333, 256], [319, 240], [310, 255], [309, 273], [367, 273], [346, 261], [338, 272], [334, 290], [390, 294], [369, 282], [361, 294], [358, 310]]</t>
+          <t>[[308, 290], [291, 260], [293, 238], [309, 228], [324, 229], [289, 216], [310, 215], [311, 226], [304, 233], [309, 216], [324, 221], [324, 231], [319, 237], [329, 222], [339, 228], [337, 239], [331, 246], [348, 232], [353, 238], [350, 248], [344, 255]]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A102" t="n">
+        <v>0</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[[318, 393], [266, 342], [247, 287], [257, 244], [283, 242], [300, 245], [295, 223], [290, 243], [290, 262], [340, 252], [325, 238], [317, 256], [316, 274], [373, 268], [352, 258], [343, 271], [341, 289], [396, 288], [375, 277], [367, 290], [365, 306]]</t>
+          <t>[[323, 280], [301, 258], [299, 237], [312, 225], [328, 224], [304, 211], [317, 213], [318, 224], [314, 231], [324, 210], [334, 217], [333, 227], [329, 234], [344, 215], [350, 224], [348, 234], [342, 241], [362, 225], [365, 235], [362, 245], [357, 250]]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A103" t="n">
+        <v>0</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[[241, 411], [294, 372], [335, 311], [351, 258], [324, 232], [302, 265], [296, 219], [296, 265], [296, 292], [264, 269], [258, 230], [265, 286], [267, 305], [228, 282], [222, 247], [235, 300], [241, 319], [191, 299], [189, 273], [203, 312], [210, 329]]</t>
+          <t>[[332, 279], [309, 259], [305, 238], [317, 225], [333, 223], [314, 206], [325, 212], [326, 224], [321, 231], [336, 206], [342, 215], [341, 226], [337, 234], [356, 213], [359, 224], [355, 234], [351, 241], [373, 224], [373, 236], [370, 245], [365, 250]]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A104" t="n">
+        <v>0</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[[246, 393], [303, 370], [353, 304], [365, 245], [335, 219], [313, 249], [311, 206], [311, 258], [310, 279], [272, 252], [272, 214], [277, 275], [276, 288], [234, 262], [234, 227], [245, 285], [245, 297], [194, 273], [200, 252], [212, 291], [214, 300]]</t>
+          <t>[[333, 280], [309, 260], [305, 239], [317, 226], [333, 224], [316, 206], [326, 211], [327, 223], [323, 230], [337, 206], [343, 215], [342, 226], [339, 233], [357, 213], [360, 225], [356, 235], [351, 241], [373, 224], [375, 237], [371, 246], [366, 251]]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A105" t="n">
+        <v>0</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[[256, 401], [310, 375], [358, 311], [372, 256], [346, 233], [317, 254], [320, 214], [321, 268], [317, 284], [277, 258], [282, 222], [289, 284], [284, 290], [240, 268], [244, 236], [257, 293], [254, 300], [201, 280], [210, 262], [223, 299], [222, 306]]</t>
+          <t>[[336, 282], [312, 261], [309, 239], [322, 226], [338, 225], [320, 208], [329, 212], [331, 225], [327, 233], [343, 210], [348, 217], [347, 228], [344, 236], [363, 218], [366, 227], [362, 237], [357, 245], [379, 231], [379, 242], [374, 251], [370, 256]]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A106" t="n">
+        <v>0</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[[256, 404], [310, 379], [358, 319], [374, 265], [350, 238], [319, 261], [321, 219], [320, 270], [317, 289], [280, 263], [282, 227], [288, 286], [285, 295], [243, 273], [245, 241], [256, 295], [256, 303], [204, 284], [211, 265], [224, 300], [225, 308]]</t>
+          <t>[[353, 280], [331, 259], [329, 238], [343, 226], [359, 227], [340, 212], [351, 215], [351, 227], [346, 234], [361, 213], [369, 220], [367, 230], [363, 238], [379, 220], [385, 228], [381, 238], [376, 246], [396, 231], [398, 241], [393, 250], [389, 255]]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A107" t="n">
+        <v>0</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[[161, 353], [128, 311], [119, 276], [135, 254], [160, 248], [119, 248], [143, 223], [148, 235], [143, 249], [150, 246], [167, 229], [170, 242], [164, 256], [181, 251], [186, 242], [187, 254], [182, 267], [208, 260], [205, 256], [203, 267], [198, 279]]</t>
+          <t>[[268, 410], [302, 397], [328, 373], [340, 348], [333, 330], [308, 344], [318, 325], [315, 344], [309, 355], [290, 342], [300, 324], [298, 347], [293, 358], [272, 343], [282, 328], [283, 349], [280, 359], [252, 345], [264, 335], [268, 349], [267, 357]]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A108" t="n">
+        <v>0</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[[169, 343], [136, 301], [128, 266], [143, 245], [165, 237], [136, 238], [156, 215], [160, 227], [155, 240], [166, 236], [180, 224], [181, 237], [175, 250], [194, 242], [198, 238], [197, 251], [191, 263], [219, 253], [216, 251], [214, 262], [209, 273]]</t>
+          <t>[[297, 366], [333, 358], [356, 341], [367, 321], [364, 304], [343, 314], [350, 294], [347, 313], [342, 326], [327, 311], [335, 290], [332, 313], [326, 325], [309, 309], [319, 289], [317, 314], [312, 325], [289, 309], [301, 293], [302, 310], [298, 320]]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A109" t="n">
+        <v>0</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[[178, 337], [148, 298], [142, 263], [158, 243], [179, 237], [153, 234], [174, 216], [178, 227], [172, 239], [182, 234], [196, 227], [197, 239], [191, 250], [210, 242], [214, 241], [213, 252], [207, 264], [233, 255], [234, 254], [231, 264], [225, 275]]</t>
+          <t>[[302, 365], [337, 358], [359, 343], [369, 322], [366, 306], [345, 315], [353, 296], [350, 315], [344, 328], [330, 311], [339, 291], [335, 316], [329, 328], [313, 310], [324, 290], [322, 315], [316, 327], [294, 310], [306, 294], [307, 311], [304, 322]]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A110" t="n">
+        <v>0</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[[191, 336], [161, 297], [157, 263], [173, 242], [195, 238], [168, 236], [185, 217], [189, 228], [184, 239], [196, 237], [207, 229], [208, 241], [203, 251], [223, 245], [224, 243], [223, 254], [219, 264], [246, 258], [243, 256], [240, 265], [235, 274]]</t>
+          <t>[[309, 361], [342, 355], [365, 338], [374, 317], [371, 300], [350, 310], [360, 291], [358, 310], [351, 324], [336, 307], [346, 286], [343, 311], [336, 324], [319, 305], [329, 286], [328, 312], [322, 324], [299, 306], [311, 291], [313, 309], [309, 319]]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A111" t="n">
+        <v>0</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[[561, 344], [593, 313], [607, 285], [613, 259], [604, 242], [575, 264], [591, 247], [592, 267], [581, 277], [561, 262], [582, 244], [583, 270], [570, 280], [544, 260], [568, 243], [570, 271], [555, 280], [525, 261], [552, 246], [556, 265], [545, 274]]</t>
+          <t>[[121, 391], [140, 381], [161, 358], [163, 337], [154, 327], [148, 337], [135, 324], [134, 341], [139, 348], [132, 340], [118, 329], [122, 349], [130, 353], [120, 343], [106, 335], [111, 353], [120, 357], [109, 347], [97, 341], [101, 356], [110, 361]]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A112" t="n">
+        <v>0</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[[559, 326], [594, 306], [608, 280], [617, 257], [606, 242], [579, 256], [593, 238], [598, 260], [591, 274], [565, 254], [582, 236], [587, 266], [574, 278], [547, 253], [569, 235], [574, 267], [559, 278], [526, 253], [553, 239], [559, 261], [547, 272]]</t>
+          <t>[[123, 389], [144, 379], [164, 356], [166, 336], [154, 327], [150, 333], [137, 326], [139, 343], [145, 347], [134, 335], [122, 330], [128, 350], [135, 351], [121, 339], [110, 335], [115, 354], [123, 355], [108, 344], [99, 342], [105, 355], [112, 358]]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A113" t="n">
+        <v>0</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[[546, 319], [580, 301], [596, 276], [604, 251], [591, 237], [567, 251], [580, 232], [586, 254], [579, 270], [553, 249], [569, 231], [574, 261], [562, 274], [536, 248], [557, 230], [561, 262], [546, 274], [514, 248], [540, 233], [546, 254], [535, 266]]</t>
+          <t>[[125, 391], [144, 382], [165, 361], [169, 338], [157, 327], [152, 338], [140, 326], [141, 343], [147, 348], [136, 339], [125, 328], [129, 349], [136, 352], [123, 342], [111, 334], [116, 353], [124, 356], [110, 346], [101, 342], [105, 355], [113, 359]]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A114" t="n">
+        <v>0</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[[556, 331], [586, 313], [601, 289], [609, 266], [599, 249], [572, 260], [586, 244], [592, 266], [586, 280], [558, 258], [576, 242], [581, 271], [571, 284], [540, 257], [564, 243], [568, 274], [555, 286], [519, 259], [547, 247], [553, 268], [543, 279]]</t>
+          <t>[[271, 406], [323, 375], [365, 331], [381, 291], [363, 270], [334, 286], [339, 257], [340, 294], [338, 309], [300, 289], [306, 262], [310, 309], [308, 323], [266, 298], [274, 280], [283, 326], [282, 340], [233, 311], [243, 296], [253, 328], [253, 341]]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A115" t="n">
+        <v>0</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[[555, 337], [584, 318], [599, 293], [608, 270], [599, 253], [568, 263], [585, 246], [590, 270], [583, 283], [554, 261], [576, 245], [581, 275], [569, 287], [537, 260], [564, 247], [568, 278], [553, 288], [518, 263], [549, 252], [554, 273], [542, 283]]</t>
+          <t>[[280, 341], [333, 322], [377, 282], [397, 239], [381, 209], [348, 235], [353, 198], [351, 234], [349, 257], [317, 234], [322, 201], [321, 250], [319, 271], [284, 240], [288, 215], [292, 263], [292, 282], [250, 249], [256, 229], [263, 263], [265, 279]]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A116" t="n">
+        <v>0</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[[250, 365], [302, 351], [340, 297], [350, 245], [345, 211], [312, 246], [315, 202], [315, 246], [313, 270], [279, 248], [284, 210], [286, 263], [283, 279], [247, 253], [250, 226], [255, 277], [256, 290], [213, 260], [220, 237], [227, 273], [227, 286]]</t>
+          <t>[[290, 316], [353, 290], [398, 248], [419, 201], [405, 168], [368, 197], [378, 155], [376, 197], [370, 223], [335, 195], [345, 154], [346, 208], [340, 233], [302, 199], [312, 167], [316, 220], [313, 242], [264, 207], [278, 181], [286, 218], [284, 237]]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A117" t="n">
+        <v>0</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[[256, 360], [310, 344], [348, 290], [356, 238], [350, 202], [319, 240], [322, 195], [325, 241], [322, 261], [286, 242], [290, 204], [296, 259], [292, 269], [253, 247], [257, 220], [265, 271], [264, 279], [218, 254], [226, 232], [235, 268], [234, 279]]</t>
+          <t>[[294, 312], [356, 288], [401, 248], [424, 202], [411, 169], [371, 195], [384, 154], [380, 196], [373, 222], [339, 193], [351, 154], [350, 208], [344, 232], [306, 197], [317, 166], [321, 219], [317, 242], [269, 205], [282, 180], [291, 218], [289, 237]]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A118" t="n">
+        <v>0</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[[261, 364], [316, 343], [354, 292], [361, 243], [355, 206], [324, 242], [327, 197], [329, 241], [326, 263], [291, 243], [295, 205], [300, 258], [296, 272], [259, 248], [262, 221], [269, 271], [268, 281], [224, 255], [231, 234], [240, 269], [240, 281]]</t>
+          <t>[[362, 271], [321, 243], [310, 205], [321, 180], [339, 178], [334, 165], [328, 168], [331, 187], [333, 200], [364, 165], [357, 171], [356, 188], [356, 202], [390, 174], [381, 185], [376, 200], [374, 211], [411, 189], [401, 202], [395, 214], [393, 223]]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A119" t="n">
+        <v>0</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[[263, 364], [318, 345], [355, 293], [363, 244], [359, 208], [326, 243], [330, 199], [332, 243], [329, 264], [293, 244], [298, 207], [303, 259], [299, 272], [260, 249], [265, 223], [271, 272], [270, 281], [226, 256], [235, 236], [242, 269], [240, 280]]</t>
+          <t>[[373, 282], [327, 256], [309, 211], [308, 176], [315, 172], [347, 170], [331, 174], [329, 191], [332, 201], [377, 173], [358, 178], [355, 193], [357, 205], [401, 186], [383, 188], [378, 200], [378, 212], [419, 201], [403, 201], [398, 212], [398, 222]]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A120" t="n">
+        <v>0</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[[265, 364], [319, 343], [356, 293], [364, 245], [358, 209], [326, 243], [331, 200], [333, 243], [330, 265], [294, 244], [300, 208], [304, 260], [300, 273], [261, 249], [267, 223], [273, 272], [271, 281], [226, 256], [237, 236], [244, 269], [242, 280]]</t>
+          <t>[[372, 288], [324, 261], [303, 216], [299, 178], [308, 173], [345, 171], [323, 176], [320, 195], [324, 207], [375, 173], [351, 181], [346, 197], [349, 209], [399, 186], [377, 191], [371, 204], [372, 217], [417, 202], [398, 203], [392, 214], [394, 225]]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A121" t="n">
+        <v>0</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[[317, 398], [293, 361], [290, 326], [302, 304], [315, 300], [323, 308], [337, 297], [331, 309], [323, 319], [351, 321], [356, 313], [348, 321], [342, 332], [373, 339], [375, 329], [367, 335], [361, 346], [390, 357], [387, 349], [379, 355], [373, 363]]</t>
+          <t>[[381, 299], [325, 268], [301, 215], [294, 169], [303, 161], [351, 161], [327, 160], [323, 182], [329, 196], [387, 166], [358, 169], [352, 187], [356, 201], [416, 182], [389, 183], [381, 197], [383, 211], [438, 202], [415, 198], [409, 211], [412, 223]]</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A122" t="n">
+        <v>0</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[[308, 319], [273, 293], [256, 259], [262, 233], [278, 232], [290, 219], [300, 222], [299, 237], [293, 246], [317, 221], [322, 229], [319, 244], [313, 255], [341, 232], [339, 243], [335, 255], [329, 264], [360, 246], [357, 255], [351, 265], [346, 273]]</t>
+          <t>[[392, 319], [329, 284], [301, 226], [296, 174], [308, 166], [356, 169], [334, 160], [331, 183], [336, 199], [396, 172], [367, 172], [361, 191], [365, 207], [427, 188], [400, 187], [392, 202], [394, 219], [451, 207], [426, 202], [420, 217], [422, 233]]</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A123" t="n">
+        <v>0</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[[311, 327], [276, 301], [259, 266], [265, 240], [280, 241], [296, 227], [302, 232], [300, 248], [296, 257], [322, 230], [323, 238], [320, 253], [316, 264], [346, 240], [342, 251], [337, 263], [332, 273], [365, 256], [359, 265], [354, 275], [349, 284]]</t>
+          <t>[[384, 327], [319, 289], [293, 230], [287, 177], [299, 168], [349, 170], [327, 168], [324, 191], [329, 206], [390, 174], [361, 178], [355, 198], [359, 214], [423, 192], [395, 193], [387, 210], [389, 227], [449, 214], [424, 210], [417, 225], [419, 240]]</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A124" t="n">
+        <v>0</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[[319, 324], [283, 297], [269, 265], [274, 240], [289, 240], [301, 228], [311, 227], [310, 241], [305, 252], [328, 231], [333, 235], [329, 249], [325, 260], [352, 241], [351, 248], [347, 259], [342, 269], [372, 255], [368, 262], [363, 272], [358, 280]]</t>
+          <t>[[400, 339], [338, 300], [310, 237], [305, 182], [319, 175], [358, 183], [346, 172], [345, 193], [349, 210], [399, 185], [379, 184], [375, 203], [379, 219], [435, 199], [412, 198], [406, 214], [406, 231], [463, 217], [441, 214], [435, 229], [436, 244]]</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A125" t="n">
+        <v>0</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[[324, 327], [290, 300], [276, 266], [282, 242], [296, 243], [312, 229], [316, 233], [315, 247], [311, 256], [339, 233], [338, 241], [334, 254], [331, 264], [362, 244], [357, 253], [352, 264], [348, 273], [380, 259], [374, 267], [368, 277], [364, 284]]</t>
+          <t>[[127, 313], [159, 300], [189, 276], [202, 249], [191, 235], [177, 254], [174, 229], [166, 246], [166, 257], [157, 254], [151, 231], [148, 257], [154, 266], [138, 255], [132, 237], [131, 263], [137, 273], [120, 257], [114, 246], [115, 264], [122, 273]]</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A126" t="n">
+        <v>0</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[[230, 372], [288, 343], [331, 280], [348, 224], [328, 190], [298, 230], [298, 182], [297, 234], [295, 254], [259, 233], [259, 194], [263, 254], [263, 263], [221, 242], [221, 211], [230, 267], [233, 275], [182, 251], [187, 230], [196, 269], [198, 280]]</t>
+          <t>[[139, 305], [172, 294], [203, 271], [216, 244], [204, 230], [191, 249], [189, 224], [181, 241], [181, 252], [170, 247], [167, 224], [163, 249], [168, 259], [152, 248], [147, 230], [146, 257], [151, 267], [133, 250], [129, 237], [130, 255], [135, 265]]</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A127" t="n">
+        <v>0</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[[238, 362], [294, 336], [336, 275], [353, 219], [333, 184], [300, 220], [303, 173], [304, 224], [301, 246], [262, 224], [266, 185], [272, 246], [268, 257], [224, 233], [228, 203], [239, 258], [238, 267], [186, 244], [193, 220], [205, 258], [204, 270]]</t>
+          <t>[[149, 300], [182, 289], [213, 267], [226, 241], [215, 226], [200, 245], [199, 220], [193, 239], [193, 250], [180, 243], [178, 220], [174, 247], [179, 256], [161, 244], [158, 226], [157, 253], [161, 263], [143, 245], [139, 233], [140, 252], [145, 261]]</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A128" t="n">
+        <v>0</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[[248, 357], [304, 329], [344, 268], [359, 212], [336, 180], [310, 215], [313, 171], [314, 224], [311, 240], [271, 219], [274, 183], [281, 243], [277, 248], [234, 228], [238, 199], [248, 253], [246, 258], [196, 238], [204, 220], [215, 256], [212, 264]]</t>
+          <t>[[158, 303], [193, 292], [224, 268], [237, 242], [223, 228], [209, 245], [208, 220], [204, 240], [204, 252], [189, 243], [186, 220], [185, 249], [189, 258], [170, 244], [167, 226], [168, 255], [172, 266], [151, 247], [148, 234], [151, 254], [155, 264]]</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A129" t="n">
+        <v>0</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[[259, 358], [315, 331], [353, 270], [369, 216], [349, 183], [318, 217], [322, 174], [324, 225], [321, 241], [281, 222], [285, 187], [292, 244], [287, 249], [245, 231], [250, 202], [260, 255], [257, 259], [209, 241], [218, 221], [227, 258], [223, 266]]</t>
+          <t>[[390, 252], [432, 239], [470, 218], [491, 193], [488, 169], [456, 170], [470, 153], [469, 178], [463, 186], [432, 165], [447, 149], [444, 181], [437, 185], [405, 165], [421, 152], [419, 185], [410, 190], [375, 168], [392, 160], [394, 183], [387, 189]]</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A130" t="n">
+        <v>0</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[[111, 362], [155, 352], [196, 312], [213, 268], [197, 243], [177, 270], [173, 237], [169, 274], [171, 289], [144, 269], [141, 239], [141, 284], [144, 290], [116, 270], [113, 243], [114, 286], [118, 295], [85, 270], [84, 253], [87, 285], [92, 294]]</t>
+          <t>[[374, 159], [429, 150], [464, 128], [485, 97], [477, 74], [448, 88], [460, 59], [453, 86], [445, 105], [425, 81], [436, 52], [429, 89], [421, 107], [399, 78], [412, 51], [407, 89], [401, 107], [369, 78], [384, 57], [384, 85], [380, 100]]</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A131" t="n">
+        <v>0</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[[116, 357], [161, 338], [201, 302], [216, 260], [199, 235], [180, 261], [177, 229], [174, 267], [175, 279], [148, 259], [146, 233], [146, 277], [149, 280], [119, 261], [117, 237], [119, 279], [124, 286], [89, 264], [87, 248], [93, 278], [98, 286]]</t>
+          <t>[[387, 163], [440, 150], [475, 130], [496, 101], [492, 76], [461, 94], [473, 63], [466, 88], [458, 106], [438, 87], [450, 56], [442, 90], [434, 108], [413, 83], [426, 53], [421, 88], [414, 107], [383, 81], [398, 59], [398, 85], [395, 101]]</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A132" t="n">
+        <v>0</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[[127, 355], [172, 342], [214, 304], [230, 262], [215, 236], [193, 263], [194, 228], [188, 266], [187, 278], [163, 262], [162, 231], [160, 276], [162, 279], [134, 262], [133, 236], [134, 278], [138, 285], [105, 262], [104, 245], [108, 276], [113, 285]]</t>
+          <t>[[391, 165], [442, 152], [476, 130], [496, 103], [492, 78], [461, 93], [474, 64], [468, 90], [460, 109], [438, 87], [451, 58], [444, 92], [435, 111], [413, 84], [428, 55], [423, 92], [415, 111], [384, 82], [400, 60], [400, 87], [395, 104]]</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A133" t="n">
+        <v>0</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[[146, 363], [187, 356], [230, 314], [246, 273], [233, 249], [211, 269], [212, 240], [209, 276], [211, 290], [181, 268], [181, 244], [181, 286], [182, 294], [153, 270], [152, 247], [155, 290], [157, 301], [122, 273], [123, 258], [128, 290], [130, 301]]</t>
+          <t>[[393, 168], [443, 155], [477, 133], [495, 105], [492, 80], [461, 95], [474, 68], [468, 95], [459, 114], [439, 89], [452, 61], [446, 96], [436, 114], [414, 86], [429, 60], [425, 96], [417, 114], [385, 86], [402, 64], [403, 91], [398, 106]]</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A134" t="n">
+        <v>0</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[[557, 343], [593, 318], [599, 287], [603, 264], [606, 244], [576, 260], [596, 242], [598, 266], [588, 282], [563, 257], [588, 237], [590, 270], [575, 285], [546, 254], [576, 236], [577, 271], [558, 284], [523, 254], [557, 241], [561, 265], [547, 277]]</t>
+          <t>[[394, 166], [446, 154], [478, 132], [497, 105], [494, 81], [462, 95], [476, 68], [470, 95], [460, 114], [440, 89], [454, 62], [447, 97], [437, 116], [416, 86], [431, 61], [426, 96], [418, 115], [388, 85], [404, 64], [405, 91], [400, 106]]</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A135" t="n">
+        <v>0</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[[560, 350], [594, 322], [599, 291], [604, 269], [610, 250], [573, 261], [596, 245], [598, 270], [587, 284], [560, 258], [590, 241], [592, 274], [576, 289], [544, 257], [579, 241], [579, 276], [561, 289], [524, 259], [560, 247], [565, 272], [550, 283]]</t>
+          <t>[[393, 165], [445, 153], [478, 131], [496, 104], [493, 79], [462, 94], [476, 67], [470, 95], [460, 114], [440, 88], [454, 62], [447, 97], [437, 114], [416, 85], [432, 59], [427, 96], [418, 113], [388, 84], [405, 63], [406, 90], [400, 105]]</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A136" t="n">
+        <v>0</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[[560, 350], [593, 322], [598, 291], [604, 269], [609, 248], [568, 260], [593, 244], [597, 269], [587, 284], [556, 258], [588, 240], [591, 274], [576, 289], [541, 256], [578, 242], [579, 277], [560, 290], [522, 258], [559, 247], [564, 272], [549, 284]]</t>
+          <t>[[397, 166], [445, 154], [477, 131], [495, 105], [493, 81], [462, 95], [476, 69], [472, 95], [462, 113], [441, 90], [456, 62], [450, 95], [439, 113], [417, 86], [433, 59], [430, 95], [420, 114], [389, 85], [407, 64], [409, 90], [402, 107]]</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A137" t="n">
+        <v>0</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[[391, 432], [401, 388], [424, 355], [447, 344], [451, 359], [476, 383], [461, 370], [447, 372], [441, 378], [480, 408], [466, 392], [453, 393], [446, 400], [476, 429], [465, 414], [454, 413], [446, 418], [466, 446], [460, 434], [452, 432], [445, 435]]</t>
+          <t>[[325, 278], [288, 253], [267, 219], [266, 187], [278, 184], [299, 184], [308, 169], [307, 182], [303, 194], [328, 186], [330, 177], [327, 190], [325, 202], [352, 193], [348, 191], [344, 200], [342, 211], [372, 204], [365, 201], [361, 211], [358, 220]]</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A138" t="n">
+        <v>0</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[[388, 432], [399, 388], [423, 355], [447, 344], [451, 359], [475, 384], [461, 369], [446, 372], [440, 377], [479, 408], [465, 391], [452, 391], [445, 398], [474, 430], [463, 413], [453, 411], [445, 416], [464, 447], [459, 432], [450, 430], [443, 434]]</t>
+          <t>[[333, 286], [298, 257], [283, 224], [286, 195], [299, 187], [305, 192], [315, 179], [317, 192], [314, 203], [333, 193], [338, 187], [337, 199], [335, 211], [360, 201], [358, 201], [356, 212], [352, 223], [382, 214], [378, 214], [373, 225], [369, 234]]</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A139" t="n">
+        <v>0</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[[394, 440], [404, 396], [429, 363], [453, 350], [454, 366], [478, 392], [463, 375], [449, 378], [444, 385], [482, 416], [467, 398], [454, 399], [448, 407], [476, 436], [465, 420], [455, 418], [449, 424], [466, 453], [461, 439], [453, 437], [446, 441]]</t>
+          <t>[[337, 285], [301, 256], [287, 225], [289, 197], [302, 186], [304, 197], [310, 180], [313, 190], [313, 204], [331, 196], [334, 183], [333, 193], [332, 206], [358, 201], [355, 194], [353, 204], [351, 216], [382, 212], [375, 207], [371, 216], [368, 226]]</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A140" t="n">
+        <v>0</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[[393, 441], [403, 398], [427, 364], [451, 351], [454, 366], [479, 393], [462, 374], [448, 377], [442, 384], [483, 416], [467, 397], [453, 397], [446, 405], [477, 437], [465, 419], [455, 417], [448, 423], [466, 454], [461, 438], [452, 436], [446, 441]]</t>
+          <t>[[345, 281], [308, 256], [294, 222], [298, 193], [313, 187], [313, 197], [317, 178], [317, 191], [316, 205], [341, 196], [340, 181], [339, 193], [338, 205], [367, 201], [362, 191], [360, 202], [357, 214], [390, 211], [382, 203], [377, 212], [375, 222]]</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A141" t="n">
+        <v>0</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[[391, 393], [416, 419], [446, 433], [474, 434], [484, 416], [463, 400], [486, 402], [461, 411], [450, 409], [458, 383], [479, 387], [450, 398], [442, 392], [451, 366], [473, 371], [445, 383], [435, 376], [441, 346], [460, 356], [441, 366], [431, 361]]</t>
+          <t>[[354, 280], [318, 257], [303, 219], [306, 187], [319, 186], [334, 194], [339, 175], [335, 187], [331, 201], [360, 197], [359, 183], [355, 194], [353, 206], [383, 205], [378, 194], [374, 204], [370, 216], [403, 216], [396, 205], [390, 214], [388, 224]]</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A142" t="n">
+        <v>0</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[[392, 377], [417, 404], [446, 418], [473, 417], [482, 399], [457, 386], [480, 389], [459, 397], [447, 395], [453, 369], [475, 372], [448, 382], [438, 377], [447, 352], [469, 355], [443, 367], [432, 362], [437, 332], [457, 339], [440, 349], [430, 346]]</t>
+          <t>[[363, 282], [328, 255], [315, 219], [321, 189], [338, 188], [346, 197], [352, 177], [347, 189], [342, 203], [372, 201], [373, 186], [368, 196], [365, 209], [395, 211], [392, 199], [387, 208], [382, 220], [415, 225], [410, 211], [403, 219], [399, 229]]</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A143" t="n">
+        <v>0</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[[395, 378], [418, 408], [444, 422], [470, 422], [481, 405], [457, 390], [480, 392], [459, 400], [447, 399], [454, 373], [475, 375], [449, 385], [439, 380], [448, 356], [470, 360], [444, 370], [433, 364], [440, 335], [460, 346], [442, 355], [431, 350]]</t>
+          <t>[[289, 297], [333, 283], [364, 263], [378, 235], [368, 217], [345, 230], [352, 205], [347, 228], [343, 245], [324, 226], [330, 201], [327, 232], [324, 247], [302, 226], [309, 202], [308, 232], [306, 249], [277, 228], [286, 208], [289, 230], [288, 244]]</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A144" t="n">
+        <v>0</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[[394, 380], [418, 409], [444, 422], [470, 423], [482, 407], [458, 391], [481, 392], [459, 401], [447, 401], [454, 374], [476, 376], [449, 387], [439, 382], [447, 358], [470, 361], [444, 373], [433, 367], [439, 338], [459, 346], [443, 356], [432, 351]]</t>
+          <t>[[303, 303], [347, 289], [377, 268], [390, 240], [380, 221], [357, 234], [367, 210], [362, 236], [356, 252], [337, 231], [346, 207], [343, 239], [337, 253], [315, 230], [326, 207], [325, 239], [320, 254], [290, 232], [303, 213], [306, 236], [303, 249]]</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A145" t="n">
+        <v>1</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[[397, 380], [418, 408], [446, 423], [474, 423], [485, 406], [460, 392], [482, 393], [460, 402], [449, 401], [456, 375], [478, 377], [450, 388], [441, 382], [450, 358], [473, 362], [446, 373], [436, 367], [442, 338], [462, 346], [445, 356], [435, 352]]</t>
+          <t>[[155, 417], [205, 375], [233, 308], [221, 247], [183, 213], [227, 218], [234, 135], [230, 80], [226, 32], [176, 222], [190, 147], [201, 184], [209, 231], [126, 238], [137, 225], [148, 295], [155, 345], [80, 263], [96, 252], [111, 307], [118, 344]]</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A146" t="n">
+        <v>1</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[[401, 383], [420, 412], [448, 428], [475, 427], [485, 412], [463, 397], [485, 399], [462, 407], [452, 405], [459, 379], [480, 383], [453, 392], [446, 386], [453, 362], [476, 367], [449, 377], [440, 371], [447, 341], [465, 351], [447, 360], [438, 355]]</t>
+          <t>[[133, 425], [176, 381], [197, 317], [180, 263], [140, 228], [185, 215], [180, 127], [167, 73], [158, 27], [134, 225], [140, 145], [136, 176], [135, 220], [84, 247], [86, 231], [101, 297], [114, 346], [41, 275], [45, 265], [65, 316], [80, 352]]</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A147" t="n">
+        <v>1</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[[401, 385], [421, 414], [449, 429], [475, 430], [486, 414], [464, 399], [486, 400], [464, 409], [453, 409], [460, 381], [481, 385], [454, 395], [446, 389], [454, 364], [477, 369], [450, 380], [441, 374], [447, 344], [466, 355], [448, 363], [438, 357]]</t>
+          <t>[[140, 426], [183, 380], [206, 316], [189, 263], [148, 231], [190, 214], [185, 127], [172, 73], [164, 27], [138, 225], [144, 145], [143, 181], [144, 228], [89, 246], [94, 231], [108, 298], [121, 346], [46, 273], [52, 261], [71, 310], [85, 344]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[[508, 463], [572, 444], [622, 399], [643, 364], [635, 338], [578, 294], [592, 218], [600, 167], [603, 125], [541, 285], [595, 230], [641, 236], [668, 253], [510, 290], [588, 305], [584, 359], [565, 388], [488, 310], [557, 343], [553, 382], [535, 399]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[[488, 450], [554, 433], [615, 383], [650, 349], [666, 326], [578, 282], [594, 211], [603, 162], [607, 120], [544, 272], [595, 224], [644, 228], [676, 237], [513, 275], [582, 292], [579, 346], [562, 376], [489, 293], [551, 321], [548, 363], [533, 385]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[[400, 409], [459, 382], [518, 324], [559, 280], [567, 237], [471, 226], [481, 152], [483, 104], [479, 65], [431, 221], [478, 163], [525, 184], [552, 216], [394, 229], [462, 235], [467, 296], [455, 333], [364, 250], [429, 271], [434, 317], [424, 345]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[[392, 416], [455, 388], [514, 330], [554, 286], [563, 245], [464, 232], [473, 157], [476, 106], [474, 66], [425, 228], [471, 170], [520, 188], [548, 219], [390, 237], [458, 244], [464, 306], [453, 345], [362, 258], [425, 281], [428, 329], [416, 358]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>[[317, 451], [342, 436], [366, 406], [377, 378], [368, 364], [347, 355], [346, 310], [341, 285], [335, 264], [324, 355], [337, 320], [348, 338], [355, 359], [302, 361], [322, 361], [328, 394], [330, 418], [281, 371], [299, 378], [308, 404], [312, 421]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>[[317, 450], [343, 435], [365, 408], [377, 381], [373, 363], [348, 355], [348, 309], [343, 284], [337, 262], [325, 353], [340, 319], [352, 337], [359, 358], [303, 358], [325, 362], [331, 394], [332, 416], [283, 367], [303, 380], [311, 406], [315, 423]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[[264, 340], [307, 321], [344, 270], [354, 218], [334, 180], [323, 209], [328, 145], [324, 106], [318, 72], [290, 209], [306, 150], [315, 167], [318, 190], [255, 217], [271, 191], [277, 244], [277, 282], [219, 230], [237, 218], [251, 258], [257, 287]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>[[267, 343], [310, 322], [347, 272], [360, 223], [342, 185], [326, 211], [330, 147], [326, 108], [322, 76], [293, 210], [310, 150], [318, 166], [322, 191], [259, 218], [277, 195], [281, 247], [281, 286], [223, 231], [241, 220], [254, 260], [260, 290]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>[[172, 358], [208, 335], [230, 292], [227, 247], [207, 215], [219, 253], [218, 208], [211, 178], [205, 150], [193, 253], [199, 214], [201, 210], [201, 210], [165, 260], [166, 239], [173, 275], [178, 304], [137, 271], [143, 262], [154, 292], [162, 315]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[[159, 356], [191, 330], [210, 287], [210, 247], [191, 222], [198, 250], [197, 202], [191, 171], [185, 146], [173, 252], [179, 205], [181, 204], [180, 216], [146, 260], [148, 240], [155, 273], [161, 303], [119, 274], [124, 262], [134, 289], [142, 312]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>[[153, 360], [186, 332], [203, 288], [203, 249], [182, 228], [187, 252], [182, 202], [175, 172], [168, 146], [161, 256], [166, 212], [168, 209], [168, 216], [135, 266], [136, 245], [147, 278], [156, 308], [108, 282], [115, 268], [129, 294], [139, 316]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>[[165, 366], [197, 341], [216, 297], [217, 257], [195, 233], [201, 257], [199, 206], [193, 176], [188, 150], [175, 260], [182, 216], [188, 224], [191, 240], [149, 269], [153, 250], [164, 285], [171, 314], [122, 283], [130, 271], [144, 297], [153, 319]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[[177, 368], [210, 346], [230, 304], [232, 264], [212, 239], [217, 261], [218, 213], [214, 182], [211, 156], [190, 264], [195, 218], [201, 225], [205, 242], [162, 272], [171, 255], [179, 291], [183, 320], [134, 285], [147, 277], [160, 305], [167, 327]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>[[537, 365], [570, 345], [593, 319], [613, 300], [631, 283], [554, 273], [559, 240], [561, 217], [562, 197], [540, 272], [579, 254], [605, 265], [619, 278], [530, 278], [575, 283], [574, 310], [564, 324], [526, 289], [564, 296], [564, 315], [555, 324]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[[541, 367], [574, 350], [599, 326], [620, 308], [631, 295], [565, 277], [571, 244], [574, 221], [574, 202], [551, 276], [589, 260], [614, 272], [628, 286], [540, 281], [583, 292], [580, 316], [570, 329], [534, 291], [572, 303], [570, 319], [561, 327]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[[536, 368], [570, 351], [595, 328], [616, 309], [631, 296], [562, 278], [569, 246], [573, 222], [574, 202], [547, 277], [586, 260], [611, 274], [624, 290], [537, 282], [580, 294], [578, 318], [567, 331], [532, 293], [570, 306], [567, 323], [557, 331]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[[532, 368], [567, 351], [590, 327], [612, 310], [631, 294], [556, 278], [565, 245], [569, 221], [571, 201], [542, 276], [582, 260], [609, 274], [622, 289], [532, 282], [578, 294], [575, 319], [563, 331], [528, 294], [567, 306], [564, 324], [553, 332]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>[[533, 371], [568, 355], [592, 330], [612, 313], [630, 299], [558, 280], [566, 248], [570, 224], [572, 204], [544, 278], [584, 265], [610, 280], [623, 295], [534, 285], [578, 298], [575, 322], [563, 334], [530, 296], [567, 311], [565, 328], [554, 335]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[[529, 368], [564, 350], [587, 326], [608, 309], [627, 294], [553, 276], [561, 244], [565, 220], [567, 199], [538, 275], [578, 260], [604, 275], [617, 291], [528, 282], [574, 294], [572, 319], [562, 331], [524, 295], [562, 308], [561, 325], [551, 332]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>[[200, 398], [240, 375], [270, 326], [268, 278], [238, 244], [264, 249], [274, 178], [273, 132], [273, 93], [225, 250], [239, 189], [240, 203], [239, 228], [185, 260], [195, 247], [201, 302], [202, 342], [148, 275], [162, 269], [170, 311], [171, 339]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>[[197, 373], [240, 347], [267, 299], [260, 249], [231, 213], [261, 223], [270, 153], [268, 107], [268, 67], [221, 225], [231, 161], [232, 186], [234, 220], [181, 237], [191, 224], [197, 279], [200, 316], [144, 252], [156, 240], [164, 282], [164, 310]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[[188, 333], [229, 303], [250, 249], [241, 199], [215, 163], [243, 178], [250, 107], [248, 61], [247, 22], [203, 180], [211, 110], [207, 126], [204, 156], [164, 194], [173, 182], [179, 235], [182, 270], [127, 214], [140, 206], [149, 248], [153, 274]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[[150, 349], [188, 315], [201, 261], [181, 213], [150, 184], [199, 189], [201, 118], [197, 71], [193, 33], [160, 194], [156, 123], [149, 145], [146, 180], [122, 211], [119, 195], [125, 239], [131, 272], [90, 235], [92, 216], [101, 248], [108, 274]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[[90, 387], [122, 337], [120, 276], [76, 242], [39, 232], [114, 212], [104, 142], [93, 97], [88, 60], [75, 225], [58, 169], [39, 196], [35, 231], [42, 247], [23, 236], [33, 280], [51, 312], [19, 275], [4, 267], [17, 299], [36, 326]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>[[37, 392], [18, 350], [9, 298], [-1, 264], [-22, 233], [30, 222], [20, 157], [7, 116], [-6, 82], [36, 231], [25, 157], [8, 113], [-7, 77], [36, 261], [21, 199], [2, 180], [-12, 165], [33, 304], [16, 273], [-2, 266], [-16, 262]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>[[31, 395], [8, 340], [-10, 290], [-26, 255], [-46, 222], [2, 236], [-7, 174], [-18, 133], [-24, 100], [18, 254], [8, 185], [-4, 143], [-17, 107], [29, 286], [22, 225], [6, 185], [-8, 155], [33, 327], [14, 304], [-8, 288], [-30, 276]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>[[379, 372], [427, 350], [469, 308], [497, 274], [493, 251], [435, 228], [449, 168], [456, 130], [457, 98], [403, 225], [444, 185], [482, 204], [503, 231], [375, 232], [426, 246], [428, 289], [419, 316], [352, 248], [398, 264], [400, 296], [390, 317]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>[[426, 382], [477, 360], [521, 322], [553, 293], [569, 269], [487, 245], [502, 187], [510, 150], [513, 118], [459, 241], [508, 206], [545, 224], [566, 247], [434, 247], [488, 261], [483, 301], [469, 322], [415, 262], [461, 281], [458, 310], [445, 324]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>[[446, 385], [497, 365], [543, 325], [578, 297], [596, 273], [509, 250], [524, 195], [530, 159], [532, 129], [481, 246], [529, 210], [567, 229], [589, 252], [458, 252], [513, 267], [509, 306], [496, 327], [442, 267], [490, 287], [486, 316], [473, 329]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>[[435, 380], [482, 359], [523, 320], [555, 294], [570, 271], [491, 249], [507, 196], [516, 160], [520, 131], [465, 246], [509, 212], [545, 230], [566, 252], [441, 251], [491, 263], [487, 303], [473, 324], [420, 264], [465, 279], [462, 308], [449, 321]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>[[350, 371], [396, 351], [431, 315], [443, 283], [425, 264], [409, 240], [419, 184], [423, 147], [423, 118], [379, 238], [410, 193], [442, 209], [462, 232], [351, 244], [392, 256], [391, 296], [379, 316], [325, 258], [363, 271], [364, 299], [353, 312]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>[[269, 400], [311, 372], [339, 327], [344, 289], [331, 263], [308, 265], [308, 205], [304, 170], [297, 140], [276, 267], [295, 224], [311, 254], [316, 279], [248, 278], [279, 287], [287, 324], [282, 340], [223, 295], [256, 308], [264, 335], [260, 345]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>[[211, 435], [244, 404], [267, 361], [273, 325], [253, 308], [239, 293], [233, 233], [225, 197], [214, 167], [205, 298], [216, 256], [231, 286], [239, 315], [174, 312], [199, 317], [212, 360], [214, 383], [147, 330], [169, 339], [183, 368], [186, 382]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>[[209, 473], [243, 446], [265, 408], [267, 376], [246, 361], [246, 339], [243, 279], [237, 244], [232, 214], [214, 341], [223, 307], [233, 332], [241, 359], [183, 351], [200, 363], [210, 403], [215, 428], [156, 365], [173, 382], [183, 412], [188, 428]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>[[237, 504], [266, 479], [289, 446], [289, 420], [271, 403], [266, 375], [263, 320], [259, 287], [254, 258], [233, 378], [245, 347], [260, 379], [265, 404], [203, 390], [223, 400], [236, 437], [238, 452], [177, 408], [195, 422], [206, 447], [206, 454]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>[[242, 509], [271, 493], [297, 468], [305, 445], [289, 429], [278, 392], [275, 339], [272, 306], [267, 279], [245, 392], [261, 368], [275, 401], [279, 425], [216, 404], [237, 425], [248, 462], [249, 477], [190, 421], [209, 444], [222, 471], [222, 480]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>[[249, 489], [279, 470], [306, 438], [318, 410], [304, 395], [286, 371], [289, 320], [286, 288], [282, 261], [257, 370], [273, 339], [287, 366], [295, 393], [229, 377], [252, 390], [260, 427], [261, 450], [204, 390], [224, 408], [233, 434], [234, 447]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>[[235, 442], [269, 415], [291, 374], [292, 337], [270, 315], [273, 323], [274, 271], [271, 239], [269, 211], [244, 325], [254, 291], [265, 317], [273, 344], [216, 333], [234, 331], [242, 369], [245, 396], [190, 346], [207, 345], [216, 373], [220, 392]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>[[238, 377], [271, 353], [293, 315], [297, 279], [279, 255], [273, 266], [274, 215], [269, 185], [265, 158], [245, 268], [255, 230], [264, 233], [272, 241], [216, 275], [234, 270], [241, 309], [245, 339], [190, 287], [209, 286], [219, 316], [224, 338]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>[[278, 351], [314, 330], [344, 286], [342, 247], [324, 224], [322, 243], [323, 194], [320, 163], [317, 138], [295, 243], [304, 208], [318, 205], [329, 209], [269, 248], [286, 244], [292, 281], [295, 311], [243, 259], [264, 255], [272, 285], [274, 308]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>[[331, 324], [365, 307], [394, 272], [412, 240], [413, 211], [373, 221], [378, 173], [379, 145], [378, 121], [350, 219], [366, 185], [386, 184], [400, 189], [325, 222], [348, 221], [350, 258], [348, 286], [300, 230], [324, 231], [328, 259], [327, 280]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>[[370, 303], [406, 286], [435, 252], [451, 221], [460, 193], [409, 202], [417, 159], [420, 131], [422, 107], [389, 200], [412, 168], [436, 166], [453, 172], [367, 202], [398, 196], [397, 234], [392, 264], [346, 206], [376, 203], [379, 232], [376, 255]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>[[387, 282], [421, 268], [452, 236], [473, 205], [480, 176], [428, 188], [437, 147], [441, 120], [443, 98], [409, 185], [434, 153], [458, 151], [473, 158], [388, 185], [420, 175], [417, 213], [409, 243], [366, 188], [399, 183], [400, 212], [393, 236]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>[[377, 258], [412, 246], [442, 214], [463, 185], [471, 156], [422, 166], [431, 126], [434, 100], [436, 79], [403, 163], [426, 132], [447, 130], [462, 135], [380, 163], [409, 156], [406, 192], [400, 221], [357, 166], [386, 161], [389, 191], [384, 214]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>[[373, 256], [408, 241], [438, 208], [459, 179], [466, 150], [415, 165], [424, 125], [429, 99], [433, 78], [397, 162], [419, 132], [441, 128], [457, 132], [375, 162], [404, 151], [402, 187], [396, 217], [353, 164], [383, 157], [384, 186], [380, 210]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>[[274, 294], [311, 274], [344, 232], [353, 195], [335, 172], [323, 186], [330, 140], [332, 110], [332, 84], [297, 186], [311, 152], [327, 151], [338, 151], [270, 191], [293, 188], [295, 224], [291, 245], [242, 201], [267, 200], [272, 229], [269, 245]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>[[212, 301], [250, 274], [278, 232], [278, 193], [254, 170], [265, 189], [272, 138], [274, 107], [275, 81], [235, 189], [247, 152], [254, 167], [257, 184], [207, 195], [220, 192], [226, 229], [227, 254], [178, 206], [195, 206], [203, 235], [204, 253]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>[[157, 292], [189, 265], [209, 224], [211, 186], [190, 160], [203, 177], [211, 125], [213, 93], [213, 65], [175, 178], [183, 134], [191, 156], [195, 182], [146, 185], [156, 178], [161, 216], [161, 242], [118, 196], [131, 192], [139, 220], [140, 238]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>[[122, 292], [152, 267], [168, 229], [166, 193], [148, 167], [163, 177], [168, 125], [169, 91], [168, 61], [135, 179], [141, 133], [150, 150], [157, 175], [105, 189], [114, 174], [120, 213], [122, 241], [77, 202], [87, 187], [96, 216], [98, 237]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>[[96, 291], [123, 262], [133, 221], [125, 184], [103, 162], [133, 175], [135, 122], [133, 89], [132, 60], [104, 178], [106, 132], [106, 150], [109, 173], [76, 188], [77, 175], [83, 212], [88, 237], [50, 202], [53, 189], [62, 216], [66, 236]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>[[91, 293], [117, 266], [127, 229], [119, 193], [99, 168], [128, 175], [130, 126], [127, 94], [126, 65], [99, 180], [97, 136], [99, 155], [103, 179], [70, 191], [71, 179], [79, 216], [84, 243], [45, 205], [49, 196], [58, 223], [63, 244]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>[[204, 364], [240, 344], [270, 312], [277, 279], [257, 260], [255, 258], [263, 209], [267, 180], [269, 154], [228, 256], [243, 222], [254, 241], [260, 261], [201, 260], [220, 266], [224, 300], [223, 320], [176, 270], [195, 279], [201, 304], [200, 319]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>[[268, 381], [302, 368], [334, 338], [349, 312], [337, 295], [316, 280], [326, 232], [330, 202], [331, 178], [291, 275], [316, 245], [338, 263], [349, 284], [267, 279], [300, 293], [300, 324], [292, 339], [247, 289], [277, 306], [276, 329], [268, 339]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>[[339, 413], [377, 398], [408, 369], [429, 348], [443, 331], [386, 308], [399, 264], [407, 234], [412, 209], [364, 305], [400, 282], [426, 298], [442, 317], [345, 311], [387, 328], [383, 358], [372, 374], [330, 322], [365, 341], [364, 364], [355, 373]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>[[402, 425], [445, 407], [475, 378], [500, 361], [522, 347], [445, 316], [459, 275], [466, 246], [470, 222], [425, 314], [471, 297], [500, 315], [515, 333], [410, 323], [459, 340], [455, 368], [442, 381], [400, 338], [441, 356], [440, 376], [430, 385]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>[[440, 422], [484, 405], [513, 378], [539, 360], [562, 344], [481, 316], [496, 278], [504, 251], [508, 228], [464, 314], [512, 297], [543, 314], [560, 330], [453, 322], [505, 338], [499, 366], [485, 378], [450, 337], [493, 356], [489, 376], [477, 382]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>[[438, 423], [483, 406], [511, 378], [535, 359], [559, 345], [476, 316], [491, 278], [500, 251], [504, 227], [460, 315], [508, 297], [540, 315], [557, 333], [450, 324], [502, 339], [498, 368], [484, 380], [446, 339], [490, 358], [487, 377], [475, 383]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>[[392, 438], [429, 414], [454, 386], [474, 368], [489, 352], [424, 326], [431, 285], [436, 255], [438, 230], [402, 325], [440, 307], [469, 325], [483, 343], [385, 335], [431, 354], [430, 383], [417, 394], [374, 353], [415, 374], [414, 394], [401, 399]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>[[345, 441], [383, 420], [409, 391], [427, 368], [439, 349], [378, 330], [384, 285], [387, 256], [389, 232], [357, 330], [391, 307], [420, 322], [438, 341], [339, 340], [384, 354], [385, 384], [377, 399], [327, 356], [367, 372], [369, 393], [361, 403]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>[[313, 444], [345, 423], [371, 395], [387, 372], [385, 356], [344, 338], [350, 292], [352, 263], [350, 238], [320, 337], [346, 308], [372, 326], [386, 345], [300, 345], [338, 360], [340, 392], [331, 406], [283, 359], [317, 376], [319, 398], [311, 406]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>[[276, 440], [307, 421], [332, 394], [349, 374], [356, 359], [311, 336], [319, 289], [323, 260], [323, 236], [288, 334], [314, 306], [337, 327], [349, 348], [267, 340], [301, 357], [306, 389], [300, 404], [249, 352], [278, 372], [282, 395], [275, 403]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>[[227, 420], [258, 403], [285, 373], [295, 347], [281, 333], [268, 317], [275, 272], [278, 245], [277, 221], [243, 316], [260, 287], [275, 308], [281, 330], [219, 322], [244, 333], [248, 364], [243, 380], [198, 334], [222, 345], [226, 368], [220, 378]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>[[181, 409], [210, 389], [234, 359], [240, 333], [223, 321], [221, 306], [225, 260], [226, 233], [226, 210], [194, 306], [206, 277], [215, 300], [220, 320], [169, 312], [187, 323], [193, 355], [194, 370], [147, 322], [164, 336], [171, 359], [173, 369]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>[[169, 394], [198, 375], [220, 346], [226, 320], [211, 303], [210, 290], [214, 245], [213, 216], [212, 191], [183, 288], [194, 257], [200, 278], [205, 302], [156, 293], [170, 306], [176, 339], [179, 361], [132, 303], [145, 317], [153, 342], [157, 357]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>[[163, 374], [194, 352], [216, 319], [218, 286], [197, 267], [201, 269], [207, 222], [206, 194], [205, 168], [175, 268], [185, 236], [193, 256], [199, 278], [148, 275], [164, 279], [171, 314], [173, 337], [124, 286], [139, 293], [147, 318], [149, 332]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>[[134, 328], [163, 304], [179, 267], [177, 232], [155, 212], [163, 223], [163, 173], [159, 143], [155, 116], [136, 225], [142, 189], [150, 205], [157, 224], [110, 233], [121, 231], [131, 266], [137, 290], [85, 246], [98, 246], [110, 272], [116, 289]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>[[131, 307], [160, 283], [173, 248], [170, 213], [152, 187], [158, 197], [156, 148], [152, 118], [149, 91], [130, 201], [137, 159], [143, 179], [147, 203], [102, 210], [114, 202], [124, 239], [129, 265], [77, 221], [90, 217], [102, 247], [107, 267]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>[[192, 302], [225, 274], [247, 233], [244, 196], [221, 176], [225, 191], [227, 143], [224, 113], [221, 87], [198, 194], [207, 158], [218, 161], [225, 169], [172, 201], [189, 196], [197, 232], [200, 259], [146, 214], [166, 211], [177, 238], [180, 259]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>[[226, 296], [262, 272], [289, 233], [296, 198], [278, 175], [262, 186], [265, 138], [264, 109], [262, 84], [235, 187], [245, 152], [261, 157], [274, 168], [208, 194], [231, 193], [239, 228], [241, 254], [183, 206], [208, 206], [219, 235], [224, 256]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>[[285, 289], [318, 269], [348, 237], [365, 210], [361, 189], [321, 185], [329, 137], [333, 108], [334, 84], [298, 184], [319, 149], [341, 156], [356, 172], [275, 188], [305, 189], [308, 226], [306, 253], [253, 197], [281, 200], [287, 229], [287, 251]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>[[348, 307], [382, 290], [411, 259], [428, 235], [437, 212], [389, 207], [401, 163], [409, 135], [413, 112], [368, 203], [399, 175], [424, 184], [438, 198], [349, 205], [383, 211], [380, 245], [370, 265], [329, 213], [362, 220], [362, 245], [355, 260]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>[[403, 342], [438, 329], [469, 300], [494, 279], [511, 260], [448, 242], [462, 201], [471, 173], [476, 150], [429, 237], [468, 212], [495, 226], [510, 244], [411, 238], [451, 249], [444, 280], [430, 297], [396, 245], [432, 260], [428, 284], [416, 295]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>[[378, 332], [415, 317], [447, 287], [467, 264], [482, 246], [429, 232], [443, 194], [451, 168], [455, 145], [410, 229], [441, 202], [468, 217], [484, 235], [392, 231], [431, 240], [425, 272], [413, 288], [376, 238], [411, 250], [408, 273], [397, 283]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>[[317, 317], [351, 300], [381, 269], [400, 243], [406, 219], [357, 217], [369, 175], [376, 147], [380, 124], [337, 215], [363, 183], [387, 192], [401, 207], [316, 219], [350, 224], [348, 258], [339, 277], [296, 227], [328, 233], [329, 260], [321, 274]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>[[289, 326], [320, 310], [349, 280], [367, 253], [367, 229], [322, 226], [334, 181], [340, 153], [343, 128], [300, 224], [326, 192], [351, 202], [365, 218], [279, 228], [313, 231], [312, 266], [304, 288], [259, 238], [291, 243], [294, 270], [288, 287]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>[[272, 343], [303, 328], [332, 297], [351, 272], [351, 253], [310, 242], [322, 198], [327, 169], [330, 144], [287, 240], [310, 209], [333, 221], [347, 240], [265, 244], [296, 250], [296, 285], [290, 308], [244, 253], [274, 262], [276, 289], [272, 306]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>[[267, 357], [298, 341], [326, 313], [343, 287], [338, 269], [305, 258], [317, 214], [322, 186], [325, 162], [282, 256], [304, 227], [325, 240], [339, 258], [260, 260], [289, 267], [290, 303], [285, 327], [238, 269], [267, 280], [269, 306], [264, 323]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>[[261, 359], [293, 343], [322, 313], [339, 286], [335, 268], [300, 256], [312, 214], [317, 186], [320, 162], [277, 255], [298, 227], [319, 240], [333, 259], [254, 259], [286, 265], [288, 301], [284, 326], [233, 269], [263, 279], [267, 306], [264, 324]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>[[256, 387], [287, 371], [314, 340], [330, 315], [327, 297], [296, 286], [307, 241], [311, 211], [314, 186], [273, 284], [296, 253], [316, 267], [328, 285], [251, 287], [280, 292], [281, 327], [276, 350], [230, 296], [257, 304], [260, 330], [256, 347]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>[[255, 424], [284, 410], [310, 383], [324, 362], [322, 346], [293, 326], [303, 279], [307, 251], [310, 228], [269, 324], [290, 297], [310, 313], [321, 332], [246, 329], [274, 341], [278, 370], [273, 387], [226, 340], [252, 355], [255, 377], [249, 389]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>[[158, 470], [181, 448], [195, 418], [192, 397], [173, 387], [174, 367], [172, 325], [169, 299], [164, 278], [149, 374], [154, 349], [165, 374], [171, 393], [127, 387], [138, 388], [150, 415], [154, 428], [107, 403], [117, 405], [129, 424], [133, 432]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>[[130, 457], [151, 432], [162, 404], [158, 380], [139, 368], [147, 352], [144, 310], [139, 282], [134, 258], [121, 356], [123, 328], [133, 358], [139, 382], [98, 367], [104, 371], [116, 402], [122, 417], [77, 382], [84, 389], [95, 410], [101, 419]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>[[110, 446], [131, 421], [141, 394], [137, 372], [118, 360], [129, 343], [127, 298], [123, 271], [118, 247], [104, 346], [105, 313], [110, 342], [115, 369], [80, 355], [84, 360], [94, 391], [102, 409], [59, 367], [64, 374], [74, 396], [81, 408]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>[[101, 421], [123, 401], [134, 375], [130, 349], [116, 330], [127, 321], [126, 275], [122, 246], [119, 221], [102, 324], [104, 293], [106, 325], [109, 352], [79, 332], [81, 330], [88, 360], [93, 379], [58, 342], [60, 340], [69, 361], [74, 375]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>[[129, 389], [155, 370], [170, 345], [171, 319], [159, 300], [164, 292], [165, 247], [165, 220], [163, 197], [139, 292], [142, 269], [146, 303], [148, 331], [115, 298], [118, 303], [125, 333], [128, 352], [94, 307], [98, 310], [106, 331], [109, 344]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>[[177, 367], [206, 347], [225, 315], [228, 285], [212, 267], [212, 269], [217, 226], [219, 199], [219, 176], [187, 269], [197, 237], [206, 249], [212, 267], [163, 273], [179, 278], [185, 309], [187, 331], [141, 283], [157, 290], [165, 314], [169, 331]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>[[363, 343], [395, 326], [421, 298], [437, 277], [448, 258], [399, 248], [410, 210], [416, 185], [420, 164], [381, 246], [411, 220], [436, 228], [450, 239], [363, 249], [400, 252], [396, 283], [386, 300], [348, 257], [381, 262], [380, 284], [372, 295]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>[[426, 343], [456, 327], [481, 296], [502, 275], [513, 254], [453, 248], [462, 209], [467, 184], [470, 164], [437, 245], [468, 219], [494, 227], [510, 241], [420, 248], [458, 250], [455, 279], [442, 296], [406, 254], [442, 259], [442, 281], [431, 292]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>[[258, 434], [236, 387], [243, 348], [268, 326], [289, 320], [264, 326], [267, 276], [271, 248], [274, 225], [294, 336], [296, 296], [284, 306], [274, 321], [315, 353], [308, 330], [298, 338], [292, 350], [330, 370], [322, 350], [314, 358], [310, 368]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>[[257, 384], [234, 338], [243, 298], [264, 278], [284, 276], [261, 269], [264, 222], [267, 198], [270, 179], [290, 276], [290, 245], [281, 258], [272, 273], [314, 292], [303, 278], [295, 289], [288, 302], [331, 309], [320, 297], [313, 306], [309, 317]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>[[259, 385], [235, 338], [243, 296], [264, 272], [283, 266], [264, 267], [267, 217], [270, 191], [272, 170], [294, 274], [293, 240], [281, 253], [272, 269], [319, 291], [307, 273], [296, 284], [290, 298], [336, 308], [325, 292], [317, 302], [313, 315]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>[[258, 388], [235, 339], [243, 297], [264, 273], [284, 268], [263, 267], [267, 216], [270, 190], [273, 168], [294, 275], [293, 239], [281, 252], [271, 268], [319, 292], [306, 271], [296, 282], [289, 297], [337, 310], [324, 292], [316, 301], [312, 314]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>[[252, 395], [228, 343], [238, 299], [260, 274], [281, 269], [259, 271], [265, 215], [269, 187], [272, 163], [292, 279], [293, 239], [279, 253], [268, 270], [317, 297], [306, 275], [294, 286], [287, 302], [335, 316], [324, 297], [315, 307], [310, 321]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>[[343, 334], [313, 282], [320, 234], [344, 211], [365, 208], [352, 195], [355, 150], [356, 123], [358, 103], [387, 204], [385, 189], [373, 205], [368, 220], [412, 227], [403, 218], [392, 230], [387, 244], [430, 249], [424, 239], [416, 249], [411, 264]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>[[369, 253], [341, 212], [346, 172], [366, 152], [380, 148], [378, 129], [379, 95], [378, 77], [382, 64], [411, 135], [407, 138], [397, 153], [393, 166], [435, 156], [424, 161], [413, 173], [408, 184], [450, 177], [440, 180], [431, 188], [425, 198]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[[364, 259], [339, 218], [345, 179], [369, 164], [386, 163], [376, 138], [377, 105], [379, 86], [383, 73], [409, 144], [406, 148], [399, 163], [396, 174], [432, 164], [423, 171], [415, 182], [409, 191], [447, 186], [440, 190], [432, 198], [426, 206]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>[[302, 278], [282, 233], [295, 194], [315, 174], [333, 170], [316, 155], [323, 121], [327, 101], [332, 87], [347, 160], [348, 158], [340, 172], [335, 183], [371, 179], [365, 180], [355, 190], [349, 201], [388, 199], [382, 198], [374, 206], [368, 216]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[[235, 298], [215, 252], [229, 214], [251, 191], [270, 184], [248, 172], [260, 132], [266, 111], [272, 96], [278, 179], [286, 162], [277, 173], [269, 186], [302, 197], [300, 189], [289, 200], [281, 211], [320, 217], [315, 209], [306, 217], [298, 227]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>[[186, 312], [171, 262], [186, 224], [209, 204], [229, 199], [202, 185], [215, 145], [223, 124], [229, 108], [230, 193], [244, 173], [239, 185], [230, 198], [253, 211], [257, 202], [249, 214], [239, 225], [271, 231], [271, 224], [263, 233], [253, 242]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>[[135, 338], [117, 288], [130, 251], [151, 229], [172, 223], [143, 214], [157, 168], [164, 146], [170, 128], [169, 219], [189, 196], [185, 211], [176, 225], [193, 237], [200, 227], [192, 241], [184, 253], [212, 256], [212, 250], [205, 261], [197, 272]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>[[159, 515], [140, 474], [147, 436], [169, 412], [190, 405], [156, 410], [161, 356], [165, 325], [168, 301], [184, 419], [196, 372], [188, 385], [180, 402], [208, 435], [214, 401], [205, 412], [198, 425], [228, 453], [229, 424], [220, 432], [216, 444]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>[[180, 502], [163, 458], [171, 421], [191, 399], [211, 391], [182, 399], [189, 349], [193, 320], [197, 296], [210, 408], [220, 366], [212, 379], [204, 395], [233, 424], [235, 399], [227, 409], [220, 421], [251, 442], [248, 420], [240, 429], [236, 440]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>[[247, 475], [229, 428], [237, 390], [259, 369], [280, 365], [253, 367], [258, 319], [263, 292], [266, 270], [282, 377], [286, 339], [278, 350], [270, 366], [305, 394], [300, 375], [292, 385], [285, 397], [323, 412], [316, 395], [309, 404], [304, 415]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>[[288, 472], [267, 426], [271, 385], [291, 363], [310, 359], [300, 360], [303, 313], [306, 287], [307, 266], [329, 372], [327, 335], [315, 345], [307, 359], [350, 388], [338, 367], [328, 375], [321, 387], [363, 405], [352, 386], [344, 393], [340, 403]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>[[330, 469], [309, 424], [312, 379], [334, 361], [357, 368], [346, 360], [348, 313], [350, 288], [352, 269], [375, 371], [372, 339], [360, 351], [352, 366], [395, 389], [382, 370], [372, 379], [366, 390], [407, 406], [398, 389], [390, 396], [385, 406]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>[[375, 455], [356, 409], [355, 363], [376, 344], [397, 351], [396, 345], [393, 301], [393, 277], [394, 258], [425, 357], [416, 328], [401, 339], [393, 353], [443, 375], [427, 356], [415, 364], [408, 377], [453, 392], [441, 375], [432, 382], [428, 394]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>[[408, 435], [383, 392], [379, 349], [392, 327], [407, 330], [424, 326], [421, 281], [420, 258], [421, 240], [452, 338], [436, 316], [420, 328], [416, 341], [468, 356], [450, 338], [437, 345], [432, 357], [477, 372], [463, 356], [453, 362], [448, 374]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>[[438, 434], [416, 392], [411, 348], [422, 328], [437, 335], [461, 330], [454, 288], [450, 265], [452, 247], [487, 343], [467, 322], [452, 334], [448, 346], [500, 360], [481, 342], [468, 349], [464, 360], [507, 376], [493, 359], [483, 364], [479, 376]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>[[463, 414], [439, 377], [429, 335], [433, 315], [444, 322], [479, 313], [472, 274], [468, 253], [468, 235], [504, 325], [482, 308], [468, 320], [466, 331], [517, 342], [498, 326], [485, 334], [482, 345], [525, 358], [510, 344], [500, 350], [497, 362]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>[[492, 408], [469, 373], [460, 334], [459, 317], [462, 322], [514, 315], [501, 277], [495, 257], [495, 240], [536, 328], [512, 310], [496, 320], [493, 331], [546, 345], [526, 329], [511, 335], [508, 344], [550, 360], [535, 346], [524, 351], [521, 361]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>[[501, 382], [478, 348], [467, 311], [464, 296], [466, 301], [519, 289], [507, 255], [501, 235], [501, 219], [542, 301], [519, 286], [503, 297], [501, 308], [554, 318], [534, 304], [521, 310], [518, 319], [558, 334], [543, 321], [534, 325], [530, 335]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>[[499, 346], [471, 315], [460, 279], [456, 267], [455, 271], [510, 252], [497, 221], [489, 203], [489, 188], [534, 264], [513, 255], [497, 266], [494, 277], [546, 282], [527, 273], [514, 279], [510, 287], [553, 298], [537, 289], [527, 293], [524, 302]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>[[487, 280], [458, 248], [444, 214], [441, 201], [442, 204], [487, 177], [474, 146], [466, 128], [465, 113], [513, 184], [494, 178], [482, 192], [480, 203], [530, 202], [511, 195], [501, 203], [498, 213], [539, 218], [524, 211], [516, 217], [513, 227]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>[[490, 254], [460, 224], [444, 187], [440, 171], [446, 174], [491, 149], [476, 115], [468, 96], [467, 80], [518, 158], [495, 148], [482, 162], [481, 175], [533, 175], [514, 165], [502, 174], [499, 185], [542, 191], [526, 181], [517, 188], [515, 199]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>[[151, 288], [127, 240], [138, 203], [153, 179], [173, 171], [149, 162], [157, 116], [160, 93], [163, 74], [176, 165], [188, 142], [183, 158], [176, 173], [201, 181], [203, 170], [196, 184], [189, 197], [222, 198], [219, 190], [212, 201], [206, 213]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>[[176, 436], [211, 402], [224, 346], [207, 296], [175, 262], [221, 269], [218, 200], [210, 157], [203, 119], [182, 276], [182, 211], [180, 234], [182, 265], [144, 292], [148, 277], [159, 327], [167, 361], [112, 313], [120, 300], [133, 339], [143, 366]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>[[167, 459], [201, 426], [215, 377], [195, 338], [161, 313], [202, 283], [195, 212], [184, 168], [175, 131], [162, 294], [156, 241], [148, 275], [147, 313], [125, 312], [122, 313], [135, 364], [149, 399], [96, 333], [93, 329], [106, 364], [121, 390]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>[[167, 455], [200, 418], [214, 371], [193, 334], [159, 309], [199, 278], [190, 207], [179, 163], [169, 126], [158, 289], [153, 236], [146, 275], [146, 315], [121, 309], [119, 308], [133, 360], [147, 394], [92, 333], [90, 327], [106, 364], [123, 388]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>[[170, 452], [205, 416], [220, 368], [199, 331], [165, 307], [204, 275], [194, 206], [183, 162], [175, 125], [164, 286], [159, 233], [152, 274], [155, 314], [129, 305], [126, 303], [137, 354], [152, 387], [101, 327], [94, 319], [107, 353], [124, 377]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>[[164, 454], [198, 417], [209, 365], [173, 332], [134, 318], [188, 278], [178, 206], [169, 162], [160, 126], [148, 291], [141, 242], [141, 285], [147, 325], [113, 313], [109, 306], [123, 354], [136, 383], [86, 339], [79, 326], [93, 356], [110, 378]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>[[131, 455], [163, 415], [164, 364], [121, 339], [79, 322], [143, 274], [126, 205], [111, 162], [99, 126], [102, 291], [79, 250], [78, 293], [86, 331], [68, 318], [52, 317], [74, 366], [97, 393], [44, 347], [29, 343], [49, 376], [73, 394]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>[[192, 450], [226, 412], [243, 364], [223, 327], [187, 310], [223, 278], [211, 203], [201, 159], [193, 122], [184, 287], [179, 235], [184, 278], [191, 318], [149, 304], [149, 304], [159, 350], [170, 378], [118, 323], [116, 319], [127, 349], [136, 368]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>[[351, 425], [402, 402], [445, 358], [456, 318], [426, 296], [425, 268], [426, 199], [422, 156], [416, 120], [382, 265], [400, 227], [423, 259], [437, 287], [344, 278], [371, 300], [380, 338], [379, 351], [311, 301], [335, 324], [344, 349], [342, 352]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>[[454, 436], [511, 418], [559, 383], [592, 357], [597, 337], [526, 288], [538, 224], [542, 183], [542, 149], [489, 282], [536, 247], [568, 282], [582, 318], [457, 292], [513, 323], [513, 367], [501, 387], [433, 312], [479, 348], [479, 377], [465, 384]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>[[282, 372], [321, 338], [344, 292], [340, 252], [326, 225], [320, 232], [321, 164], [319, 126], [314, 95], [286, 234], [303, 184], [320, 215], [326, 245], [256, 245], [286, 252], [302, 293], [305, 315], [229, 262], [256, 266], [271, 290], [273, 302]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>[[180, 371], [214, 326], [224, 273], [206, 234], [175, 219], [208, 232], [205, 168], [202, 128], [199, 95], [177, 241], [181, 192], [189, 222], [194, 255], [147, 255], [153, 241], [166, 278], [173, 304], [120, 273], [128, 257], [142, 282], [147, 302]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>[[102, 348], [128, 306], [129, 257], [101, 219], [67, 203], [119, 204], [114, 145], [105, 108], [99, 76], [86, 215], [73, 159], [72, 183], [77, 213], [56, 235], [51, 222], [67, 260], [81, 288], [31, 261], [27, 243], [44, 269], [60, 291]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>[[52, 335], [76, 299], [80, 250], [53, 211], [20, 187], [74, 185], [65, 131], [54, 96], [45, 66], [42, 194], [18, 152], [7, 184], [9, 221], [11, 211], [-9, 197], [0, 240], [17, 275], [-12, 232], [-28, 221], [-14, 255], [4, 284]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>[[47, 306], [67, 271], [64, 227], [38, 193], [5, 163], [61, 165], [50, 113], [40, 78], [33, 49], [31, 179], [12, 140], [-3, 146], [-12, 161], [4, 199], [-11, 177], [-7, 211], [2, 240], [-17, 218], [-32, 208], [-24, 234], [-9, 255]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>[[142, 308], [171, 275], [178, 228], [163, 186], [135, 164], [167, 175], [165, 118], [160, 82], [155, 51], [138, 183], [133, 132], [140, 145], [148, 168], [111, 199], [108, 181], [123, 214], [134, 241], [85, 219], [85, 203], [102, 228], [113, 248]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>[[194, 321], [228, 286], [241, 239], [232, 195], [203, 175], [227, 193], [227, 136], [225, 99], [223, 68], [198, 198], [199, 160], [208, 189], [216, 222], [169, 209], [175, 198], [186, 235], [193, 265], [143, 225], [150, 215], [163, 242], [170, 265]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>[[476, 289], [508, 290], [544, 262], [570, 239], [581, 209], [516, 202], [525, 155], [533, 122], [534, 95], [490, 199], [526, 166], [557, 184], [570, 204], [468, 206], [514, 209], [513, 248], [499, 266], [451, 220], [494, 232], [494, 260], [481, 272]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>[[481, 312], [521, 293], [555, 257], [581, 228], [595, 201], [522, 196], [534, 145], [542, 113], [544, 86], [497, 194], [534, 155], [565, 169], [581, 191], [475, 199], [519, 206], [518, 243], [507, 265], [457, 211], [499, 220], [500, 248], [490, 264]]</t>
         </is>
       </c>
     </row>

--- a/gesture_data.xlsx
+++ b/gesture_data.xlsx
@@ -2,27 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-1185" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gestures Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,15 +45,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,21 +425,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Gesture</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Landmarks</t>
         </is>
@@ -434,2791 +447,3001 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[287, 274], [326, 259], [355, 235], [367, 206], [353, 191], [336, 210], [342, 187], [341, 210], [339, 220], [316, 207], [323, 183], [322, 211], [317, 221], [295, 206], [303, 183], [304, 212], [300, 223], [271, 207], [281, 189], [285, 209], [283, 220]]</t>
+          <t>[[0, 198, 307], [1, 228, 287], [2, 249, 249], [3, 234, 216], [4, 209, 195], [5, 250, 197], [6, 260, 145], [7, 265, 114], [8, 266, 87], [9, 221, 198], [10, 225, 179], [11, 225, 215], [12, 223, 233], [13, 195, 205], [14, 196, 196], [15, 201, 231], [16, 203, 244], [17, 169, 216], [18, 174, 209], [19, 181, 233], [20, 181, 243]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[298, 274], [338, 258], [364, 234], [376, 206], [363, 193], [344, 209], [351, 187], [351, 210], [347, 221], [324, 206], [333, 183], [332, 212], [326, 221], [304, 206], [314, 183], [315, 212], [309, 223], [281, 207], [292, 189], [297, 208], [294, 219]]</t>
+          <t>[[0, 188, 322], [1, 217, 303], [2, 234, 264], [3, 218, 233], [4, 193, 217], [5, 236, 213], [6, 244, 160], [7, 247, 131], [8, 248, 103], [9, 208, 214], [10, 210, 197], [11, 210, 233], [12, 210, 247], [13, 182, 221], [14, 181, 214], [15, 187, 249], [16, 189, 258], [17, 157, 232], [18, 160, 228], [19, 166, 252], [20, 168, 259]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[302, 273], [342, 258], [369, 234], [380, 206], [366, 192], [346, 208], [355, 187], [355, 210], [350, 222], [328, 205], [338, 183], [337, 212], [330, 223], [308, 205], [319, 183], [320, 213], [313, 224], [285, 206], [298, 188], [302, 208], [299, 220]]</t>
+          <t>[[0, 166, 322], [1, 191, 299], [2, 205, 262], [3, 189, 230], [4, 165, 210], [5, 212, 214], [6, 219, 161], [7, 223, 130], [8, 224, 102], [9, 186, 215], [10, 185, 193], [11, 186, 229], [12, 187, 248], [13, 160, 223], [14, 156, 210], [15, 163, 246], [16, 167, 259], [17, 136, 234], [18, 135, 222], [19, 143, 246], [20, 146, 257]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[304, 270], [343, 257], [370, 233], [382, 206], [370, 192], [348, 207], [356, 184], [357, 207], [353, 220], [330, 205], [339, 181], [338, 210], [332, 221], [310, 204], [320, 182], [322, 210], [316, 223], [286, 206], [299, 187], [304, 207], [301, 219]]</t>
+          <t>[[0, 151, 310], [1, 175, 288], [2, 187, 251], [3, 171, 221], [4, 147, 199], [5, 195, 201], [6, 202, 151], [7, 205, 121], [8, 206, 94], [9, 168, 203], [10, 165, 180], [11, 167, 214], [12, 169, 235], [13, 143, 211], [14, 137, 197], [15, 145, 230], [16, 150, 245], [17, 120, 224], [18, 117, 212], [19, 125, 235], [20, 130, 248]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[304, 269], [343, 256], [371, 233], [382, 205], [370, 191], [350, 206], [357, 184], [357, 207], [354, 220], [331, 204], [339, 180], [339, 209], [333, 221], [310, 204], [321, 181], [322, 210], [317, 223], [287, 205], [300, 187], [304, 207], [301, 218]]</t>
+          <t>[[0, 151, 284], [1, 176, 259], [2, 187, 219], [3, 173, 186], [4, 153, 166], [5, 200, 175], [6, 206, 125], [7, 209, 94], [8, 210, 67], [9, 172, 176], [10, 169, 147], [11, 169, 181], [12, 170, 203], [13, 145, 183], [14, 141, 164], [15, 146, 196], [16, 149, 213], [17, 122, 197], [18, 120, 183], [19, 125, 205], [20, 127, 218]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[306, 271], [347, 259], [374, 234], [384, 206], [372, 192], [351, 208], [359, 185], [360, 208], [356, 221], [332, 206], [342, 182], [342, 211], [335, 222], [312, 205], [324, 183], [325, 212], [318, 224], [289, 207], [303, 188], [307, 208], [302, 219]]</t>
+          <t>[[0, 168, 248], [1, 197, 223], [2, 212, 184], [3, 200, 150], [4, 179, 129], [5, 216, 140], [6, 225, 91], [7, 230, 62], [8, 231, 36], [9, 189, 142], [10, 187, 115], [11, 189, 146], [12, 190, 168], [13, 163, 151], [14, 161, 135], [15, 168, 166], [16, 170, 183], [17, 140, 164], [18, 142, 152], [19, 148, 174], [20, 148, 186]]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[308, 274], [348, 262], [376, 239], [388, 211], [375, 197], [355, 212], [364, 192], [363, 215], [359, 226], [336, 209], [346, 187], [345, 215], [338, 225], [316, 209], [327, 187], [328, 216], [322, 227], [292, 210], [306, 192], [309, 212], [305, 223]]</t>
+          <t>[[0, 195, 233], [1, 224, 212], [2, 245, 175], [3, 232, 142], [4, 210, 122], [5, 241, 128], [6, 252, 81], [7, 259, 51], [8, 261, 26], [9, 214, 131], [10, 216, 106], [11, 217, 140], [12, 217, 158], [13, 189, 140], [14, 191, 128], [15, 198, 161], [16, 198, 174], [17, 166, 153], [18, 171, 140], [19, 178, 161], [20, 177, 172]]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[277, 347], [311, 331], [342, 310], [349, 284], [335, 269], [324, 281], [333, 264], [331, 287], [327, 295], [305, 278], [312, 264], [311, 288], [307, 296], [285, 279], [291, 266], [294, 289], [291, 297], [264, 282], [272, 272], [277, 287], [276, 295]]</t>
+          <t>[[0, 216, 242], [1, 246, 219], [2, 267, 183], [3, 256, 149], [4, 235, 128], [5, 262, 135], [6, 274, 88], [7, 281, 59], [8, 283, 34], [9, 234, 137], [10, 240, 113], [11, 242, 149], [12, 239, 165], [13, 209, 145], [14, 215, 135], [15, 221, 170], [16, 219, 180], [17, 186, 158], [18, 195, 146], [19, 202, 169], [20, 198, 177]]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[292, 275], [333, 258], [364, 241], [378, 217], [370, 202], [352, 216], [362, 199], [359, 217], [357, 221], [336, 210], [348, 192], [343, 217], [339, 221], [320, 207], [330, 191], [326, 216], [322, 221], [300, 205], [310, 193], [309, 211], [306, 217]]</t>
+          <t>[[0, 258, 270], [1, 289, 248], [2, 311, 211], [3, 301, 179], [4, 279, 159], [5, 301, 160], [6, 311, 115], [7, 316, 86], [8, 316, 60], [9, 272, 162], [10, 282, 147], [11, 285, 184], [12, 280, 198], [13, 247, 171], [14, 257, 167], [15, 265, 203], [16, 261, 212], [17, 224, 184], [18, 238, 181], [19, 246, 205], [20, 243, 212]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[292, 243], [328, 237], [359, 223], [373, 200], [363, 185], [349, 201], [357, 183], [354, 192], [350, 199], [333, 193], [342, 174], [334, 196], [331, 206], [316, 188], [324, 171], [318, 194], [314, 205], [295, 186], [304, 173], [304, 189], [301, 198]]</t>
+          <t>[[0, 276, 289], [1, 306, 269], [2, 329, 232], [3, 320, 200], [4, 298, 182], [5, 317, 179], [6, 325, 133], [7, 329, 105], [8, 329, 79], [9, 289, 181], [10, 299, 169], [11, 303, 204], [12, 299, 216], [13, 264, 190], [14, 275, 190], [15, 283, 222], [16, 280, 229], [17, 241, 203], [18, 255, 205], [19, 265, 227], [20, 264, 232]]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[291, 241], [325, 240], [356, 225], [370, 201], [361, 187], [346, 201], [355, 183], [349, 200], [346, 208], [329, 194], [338, 177], [331, 201], [328, 206], [312, 190], [321, 174], [315, 199], [312, 206], [292, 186], [300, 175], [299, 193], [297, 200]]</t>
+          <t>[[0, 294, 319], [1, 327, 300], [2, 350, 265], [3, 342, 235], [4, 321, 219], [5, 336, 212], [6, 344, 165], [7, 348, 136], [8, 348, 109], [9, 308, 210], [10, 318, 209], [11, 321, 243], [12, 317, 255], [13, 283, 218], [14, 295, 228], [15, 301, 259], [16, 300, 267], [17, 261, 231], [18, 275, 240], [19, 285, 262], [20, 285, 267]]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[246, 207], [276, 204], [305, 189], [317, 168], [311, 156], [305, 171], [312, 154], [301, 166], [296, 178], [292, 166], [292, 149], [282, 167], [281, 177], [278, 163], [277, 148], [269, 166], [269, 176], [263, 160], [264, 149], [258, 163], [257, 173]]</t>
+          <t>[[0, 300, 339], [1, 333, 321], [2, 356, 286], [3, 349, 258], [4, 328, 243], [5, 343, 232], [6, 350, 189], [7, 353, 161], [8, 353, 136], [9, 314, 229], [10, 326, 234], [11, 328, 268], [12, 323, 280], [13, 290, 236], [14, 304, 253], [15, 309, 283], [16, 306, 290], [17, 269, 249], [18, 285, 266], [19, 293, 288], [20, 291, 291]]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[192, 209], [217, 203], [241, 188], [246, 164], [239, 153], [244, 177], [245, 153], [234, 165], [233, 176], [229, 172], [227, 151], [218, 170], [220, 179], [216, 169], [211, 153], [204, 173], [207, 181], [202, 167], [198, 156], [194, 171], [196, 179]]</t>
+          <t>[[0, 296, 355], [1, 329, 338], [2, 353, 303], [3, 346, 275], [4, 323, 262], [5, 339, 249], [6, 345, 205], [7, 347, 178], [8, 346, 153], [9, 310, 245], [10, 320, 250], [11, 322, 282], [12, 319, 295], [13, 286, 252], [14, 298, 269], [15, 304, 297], [16, 302, 304], [17, 265, 265], [18, 280, 284], [19, 287, 304], [20, 285, 307]]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[180, 225], [204, 217], [226, 201], [229, 177], [218, 167], [231, 192], [228, 169], [219, 181], [219, 190], [215, 188], [211, 166], [203, 187], [207, 193], [200, 185], [195, 168], [189, 189], [194, 196], [186, 183], [182, 171], [179, 186], [182, 193]]</t>
+          <t>[[0, 281, 377], [1, 312, 359], [2, 334, 326], [3, 323, 305], [4, 299, 297], [5, 318, 273], [6, 323, 230], [7, 324, 203], [8, 322, 178], [9, 291, 270], [10, 303, 276], [11, 303, 308], [12, 298, 318], [13, 267, 279], [14, 277, 296], [15, 282, 323], [16, 280, 326], [17, 246, 292], [18, 256, 308], [19, 263, 326], [20, 262, 328]]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[[187, 229], [214, 221], [238, 206], [241, 181], [229, 170], [240, 195], [240, 173], [231, 188], [231, 196], [225, 190], [222, 170], [215, 192], [219, 197], [210, 186], [204, 171], [200, 193], [205, 199], [195, 184], [191, 173], [188, 188], [190, 194]]</t>
+          <t>[[0, 249, 392], [1, 279, 376], [2, 300, 346], [3, 287, 326], [4, 263, 318], [5, 285, 290], [6, 286, 248], [7, 284, 221], [8, 280, 198], [9, 258, 287], [10, 268, 295], [11, 267, 324], [12, 265, 336], [13, 235, 295], [14, 241, 316], [15, 244, 341], [16, 245, 345], [17, 213, 308], [18, 219, 327], [19, 225, 345], [20, 227, 347]]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[[246, 266], [295, 257], [347, 218], [363, 171], [341, 145], [320, 168], [329, 139], [323, 180], [320, 189], [288, 164], [298, 135], [295, 186], [290, 190], [257, 165], [265, 140], [265, 189], [262, 194], [224, 165], [233, 152], [237, 187], [236, 192]]</t>
+          <t>[[0, 215, 404], [1, 241, 390], [2, 259, 360], [3, 243, 342], [4, 219, 334], [5, 249, 306], [6, 247, 263], [7, 243, 237], [8, 239, 214], [9, 223, 303], [10, 225, 306], [11, 225, 337], [12, 226, 353], [13, 200, 310], [14, 198, 322], [15, 202, 349], [16, 208, 359], [17, 179, 320], [18, 178, 332], [19, 184, 352], [20, 190, 359]]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[[261, 278], [308, 265], [360, 230], [374, 184], [350, 158], [332, 179], [346, 148], [339, 189], [332, 196], [301, 174], [315, 145], [310, 197], [305, 196], [271, 175], [282, 152], [282, 199], [277, 200], [238, 176], [249, 164], [254, 196], [251, 200]]</t>
+          <t>[[0, 192, 406], [1, 216, 389], [2, 230, 359], [3, 212, 342], [4, 188, 333], [5, 222, 307], [6, 218, 263], [7, 212, 236], [8, 207, 212], [9, 197, 304], [10, 194, 311], [11, 196, 342], [12, 202, 354], [13, 174, 310], [14, 169, 324], [15, 175, 352], [16, 183, 356], [17, 154, 319], [18, 150, 332], [19, 157, 353], [20, 164, 358]]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[[270, 279], [317, 263], [368, 228], [384, 184], [361, 159], [340, 177], [356, 150], [346, 191], [339, 194], [309, 172], [325, 146], [318, 196], [313, 194], [280, 174], [292, 152], [291, 198], [287, 198], [247, 175], [258, 164], [262, 195], [260, 198]]</t>
+          <t>[[0, 161, 394], [1, 183, 375], [2, 191, 343], [3, 168, 324], [4, 143, 312], [5, 189, 296], [6, 184, 250], [7, 177, 223], [8, 172, 199], [9, 165, 298], [10, 158, 294], [11, 161, 326], [12, 169, 340], [13, 143, 304], [14, 134, 307], [15, 141, 336], [16, 150, 344], [17, 124, 315], [18, 115, 312], [19, 123, 332], [20, 130, 342]]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[[276, 280], [324, 269], [377, 236], [391, 191], [370, 164], [350, 184], [364, 154], [356, 195], [351, 202], [319, 178], [333, 150], [328, 201], [322, 201], [289, 179], [299, 155], [299, 202], [295, 204], [255, 179], [266, 166], [271, 199], [268, 204]]</t>
+          <t>[[0, 147, 392], [1, 167, 373], [2, 174, 340], [3, 148, 321], [4, 122, 310], [5, 171, 289], [6, 164, 244], [7, 158, 216], [8, 153, 192], [9, 145, 291], [10, 139, 288], [11, 143, 321], [12, 150, 334], [13, 122, 299], [14, 114, 304], [15, 122, 334], [16, 131, 339], [17, 103, 311], [18, 95, 313], [19, 103, 334], [20, 111, 340]]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[[277, 281], [325, 274], [380, 241], [396, 194], [371, 169], [355, 187], [369, 159], [360, 199], [354, 207], [323, 181], [337, 154], [330, 206], [325, 206], [292, 181], [303, 159], [302, 206], [297, 208], [259, 180], [269, 168], [274, 201], [271, 206]]</t>
+          <t>[[0, 133, 379], [1, 152, 358], [2, 158, 324], [3, 132, 302], [4, 105, 288], [5, 160, 276], [6, 153, 228], [7, 148, 199], [8, 143, 174], [9, 134, 277], [10, 127, 269], [11, 130, 303], [12, 138, 318], [13, 110, 285], [14, 101, 285], [15, 110, 315], [16, 119, 322], [17, 91, 296], [18, 82, 294], [19, 91, 315], [20, 99, 322]]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[[337, 332], [303, 306], [291, 277], [304, 256], [326, 252], [311, 237], [319, 237], [320, 251], [319, 260], [337, 236], [342, 243], [341, 256], [338, 266], [360, 243], [361, 255], [357, 266], [352, 275], [379, 255], [379, 268], [375, 279], [369, 286]]</t>
+          <t>[[0, 128, 371], [1, 147, 351], [2, 152, 315], [3, 124, 292], [4, 99, 277], [5, 155, 262], [6, 148, 213], [7, 142, 183], [8, 137, 157], [9, 129, 266], [10, 119, 254], [11, 122, 290], [12, 130, 306], [13, 104, 274], [14, 92, 272], [15, 101, 305], [16, 112, 312], [17, 85, 286], [18, 72, 282], [19, 82, 304], [20, 91, 312]]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[[351, 327], [316, 295], [305, 263], [319, 242], [341, 239], [326, 226], [337, 223], [339, 238], [337, 250], [354, 228], [361, 229], [359, 243], [355, 255], [379, 237], [378, 241], [376, 254], [371, 265], [398, 251], [396, 255], [392, 265], [386, 274]]</t>
+          <t>[[0, 124, 346], [1, 143, 323], [2, 148, 287], [3, 125, 261], [4, 99, 244], [5, 156, 239], [6, 151, 187], [7, 146, 157], [8, 141, 130], [9, 130, 242], [10, 119, 223], [11, 122, 258], [12, 131, 278], [13, 106, 250], [14, 94, 242], [15, 102, 274], [16, 112, 284], [17, 86, 262], [18, 75, 253], [19, 83, 274], [20, 92, 285]]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[[356, 322], [321, 302], [306, 274], [316, 252], [334, 245], [329, 231], [335, 232], [337, 245], [335, 254], [355, 230], [358, 237], [357, 250], [354, 261], [379, 238], [377, 249], [373, 261], [370, 271], [398, 251], [396, 262], [391, 273], [387, 281]]</t>
+          <t>[[0, 123, 311], [1, 142, 289], [2, 150, 253], [3, 130, 226], [4, 107, 206], [5, 158, 200], [6, 156, 149], [7, 152, 118], [8, 148, 93], [9, 131, 204], [10, 123, 183], [11, 126, 216], [12, 132, 236], [13, 107, 214], [14, 96, 202], [15, 103, 232], [16, 112, 245], [17, 86, 227], [18, 78, 217], [19, 85, 237], [20, 92, 246]]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[[358, 321], [322, 301], [307, 273], [316, 251], [334, 245], [328, 231], [336, 230], [338, 243], [336, 252], [355, 230], [358, 235], [358, 248], [356, 259], [379, 237], [378, 246], [375, 258], [372, 268], [399, 249], [397, 258], [393, 269], [389, 277]]</t>
+          <t>[[0, 139, 277], [1, 162, 254], [2, 175, 217], [3, 157, 187], [4, 134, 166], [5, 184, 166], [6, 186, 115], [7, 186, 84], [8, 183, 58], [9, 157, 169], [10, 151, 148], [11, 152, 182], [12, 156, 203], [13, 132, 178], [14, 123, 162], [15, 131, 194], [16, 137, 210], [17, 109, 191], [18, 104, 179], [19, 111, 200], [20, 116, 212]]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[[358, 321], [321, 300], [306, 272], [315, 249], [331, 241], [330, 229], [333, 226], [335, 239], [334, 249], [356, 229], [357, 232], [356, 245], [356, 256], [380, 236], [377, 244], [374, 255], [372, 265], [400, 248], [396, 256], [393, 266], [390, 275]]</t>
+          <t>[[0, 149, 271], [1, 175, 248], [2, 189, 209], [3, 171, 178], [4, 148, 159], [5, 195, 161], [6, 198, 109], [7, 197, 77], [8, 195, 50], [9, 168, 163], [10, 163, 140], [11, 163, 175], [12, 166, 195], [13, 142, 171], [14, 135, 158], [15, 142, 191], [16, 148, 204], [17, 119, 184], [18, 117, 172], [19, 124, 194], [20, 128, 206]]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[[363, 327], [325, 303], [310, 271], [318, 247], [336, 242], [338, 229], [343, 232], [345, 246], [343, 256], [367, 231], [368, 239], [366, 252], [364, 263], [392, 242], [390, 252], [386, 262], [382, 273], [412, 257], [409, 265], [404, 276], [400, 284]]</t>
+          <t>[[0, 174, 260], [1, 202, 236], [2, 217, 199], [3, 202, 168], [4, 178, 149], [5, 221, 150], [6, 223, 97], [7, 223, 66], [8, 220, 40], [9, 193, 153], [10, 192, 131], [11, 192, 165], [12, 192, 185], [13, 167, 162], [14, 163, 149], [15, 170, 181], [16, 172, 196], [17, 142, 174], [18, 144, 161], [19, 150, 183], [20, 151, 194]]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[[367, 326], [329, 304], [312, 272], [319, 247], [337, 242], [339, 230], [341, 227], [343, 240], [342, 250], [367, 231], [366, 235], [365, 248], [365, 259], [392, 239], [388, 247], [384, 259], [382, 269], [412, 252], [408, 260], [404, 271], [400, 280]]</t>
+          <t>[[0, 206, 254], [1, 236, 229], [2, 254, 192], [3, 240, 162], [4, 216, 144], [5, 250, 141], [6, 254, 90], [7, 255, 58], [8, 254, 31], [9, 222, 146], [10, 223, 126], [11, 225, 161], [12, 225, 178], [13, 196, 156], [14, 196, 147], [15, 204, 180], [16, 205, 191], [17, 172, 170], [18, 176, 158], [19, 184, 179], [20, 183, 189]]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[[368, 328], [331, 306], [314, 274], [320, 249], [337, 243], [339, 232], [346, 227], [348, 240], [345, 251], [366, 231], [370, 236], [369, 250], [368, 261], [391, 239], [391, 248], [388, 259], [384, 270], [412, 251], [411, 259], [407, 271], [403, 280]]</t>
+          <t>[[0, 251, 259], [1, 281, 232], [2, 299, 190], [3, 285, 159], [4, 258, 145], [5, 290, 143], [6, 295, 93], [7, 296, 64], [8, 294, 37], [9, 262, 148], [10, 269, 130], [11, 273, 166], [12, 269, 180], [13, 237, 160], [14, 241, 151], [15, 251, 185], [16, 249, 195], [17, 212, 175], [18, 220, 165], [19, 230, 187], [20, 227, 196]]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[[374, 328], [337, 304], [321, 272], [326, 247], [343, 242], [348, 233], [346, 227], [349, 238], [351, 248], [375, 233], [373, 235], [372, 247], [371, 259], [400, 242], [394, 247], [391, 258], [389, 268], [419, 255], [413, 259], [409, 269], [407, 278]]</t>
+          <t>[[0, 285, 264], [1, 315, 238], [2, 335, 197], [3, 322, 164], [4, 295, 148], [5, 321, 147], [6, 327, 98], [7, 331, 66], [8, 330, 39], [9, 291, 151], [10, 302, 132], [11, 305, 172], [12, 298, 188], [13, 266, 162], [14, 277, 156], [15, 285, 193], [16, 279, 203], [17, 242, 178], [18, 255, 170], [19, 265, 193], [20, 262, 200]]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[[428, 401], [440, 365], [461, 349], [482, 355], [491, 368], [505, 343], [512, 354], [503, 361], [493, 362], [514, 367], [512, 376], [502, 380], [492, 380], [514, 391], [509, 399], [498, 401], [488, 400], [509, 413], [501, 418], [491, 419], [483, 416]]</t>
+          <t>[[0, 311, 266], [1, 339, 239], [2, 356, 198], [3, 341, 168], [4, 314, 155], [5, 335, 150], [6, 337, 101], [7, 338, 72], [8, 335, 46], [9, 307, 157], [10, 318, 140], [11, 324, 176], [12, 318, 194], [13, 284, 171], [14, 296, 164], [15, 306, 197], [16, 300, 210], [17, 262, 189], [18, 275, 179], [19, 286, 200], [20, 284, 210]]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[[439, 393], [445, 358], [465, 341], [486, 344], [496, 355], [511, 334], [512, 343], [503, 348], [495, 349], [520, 357], [516, 363], [507, 366], [498, 368], [521, 381], [515, 384], [505, 385], [496, 386], [516, 402], [510, 403], [501, 403], [493, 403]]</t>
+          <t>[[0, 345, 278], [1, 376, 254], [2, 394, 211], [3, 380, 178], [4, 355, 165], [5, 371, 163], [6, 371, 113], [7, 372, 84], [8, 367, 57], [9, 341, 170], [10, 355, 148], [11, 364, 185], [12, 359, 203], [13, 318, 183], [14, 336, 178], [15, 347, 212], [16, 341, 223], [17, 297, 199], [18, 317, 196], [19, 329, 218], [20, 324, 226]]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[[444, 395], [450, 360], [471, 344], [493, 352], [502, 367], [518, 340], [515, 350], [504, 355], [496, 356], [526, 366], [517, 373], [507, 375], [498, 377], [524, 391], [514, 397], [504, 396], [495, 395], [517, 412], [505, 417], [496, 416], [490, 413]]</t>
+          <t>[[0, 362, 293], [1, 395, 268], [2, 417, 225], [3, 407, 190], [4, 381, 178], [5, 393, 174], [6, 397, 126], [7, 398, 96], [8, 394, 69], [9, 362, 177], [10, 379, 168], [11, 385, 206], [12, 379, 220], [13, 338, 188], [14, 361, 194], [15, 369, 228], [16, 361, 236], [17, 319, 204], [18, 345, 212], [19, 353, 235], [20, 344, 239]]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[[447, 398], [451, 364], [471, 345], [491, 349], [500, 360], [519, 343], [518, 348], [509, 352], [502, 354], [527, 367], [521, 369], [511, 370], [503, 373], [526, 391], [519, 391], [509, 390], [500, 392], [519, 411], [513, 410], [505, 408], [498, 409]]</t>
+          <t>[[0, 385, 309], [1, 418, 284], [2, 439, 244], [3, 432, 210], [4, 409, 197], [5, 420, 189], [6, 423, 143], [7, 423, 114], [8, 419, 89], [9, 389, 191], [10, 405, 187], [11, 411, 224], [12, 405, 237], [13, 364, 202], [14, 384, 212], [15, 392, 244], [16, 386, 254], [17, 343, 219], [18, 364, 226], [19, 375, 248], [20, 371, 256]]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[[449, 404], [451, 367], [472, 348], [493, 352], [502, 363], [523, 348], [515, 352], [505, 356], [498, 359], [530, 373], [519, 375], [509, 376], [501, 380], [528, 398], [517, 397], [507, 396], [498, 398], [520, 418], [511, 417], [502, 415], [496, 415]]</t>
+          <t>[[0, 381, 330], [1, 416, 307], [2, 438, 266], [3, 432, 236], [4, 408, 226], [5, 417, 214], [6, 425, 170], [7, 428, 143], [8, 427, 117], [9, 387, 214], [10, 403, 219], [11, 407, 253], [12, 401, 266], [13, 363, 225], [14, 383, 241], [15, 389, 271], [16, 384, 277], [17, 344, 241], [18, 366, 257], [19, 373, 278], [20, 369, 280]]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[[446, 405], [450, 367], [472, 349], [494, 354], [503, 367], [522, 349], [513, 350], [502, 355], [496, 359], [529, 374], [518, 373], [507, 375], [500, 379], [527, 398], [516, 397], [506, 395], [497, 397], [519, 419], [512, 417], [503, 415], [496, 415]]</t>
+          <t>[[0, 366, 351], [1, 400, 330], [2, 423, 290], [3, 416, 260], [4, 390, 253], [5, 402, 237], [6, 408, 194], [7, 410, 167], [8, 408, 141], [9, 372, 236], [10, 387, 241], [11, 391, 277], [12, 385, 287], [13, 348, 246], [14, 367, 264], [15, 373, 295], [16, 368, 299], [17, 328, 262], [18, 349, 281], [19, 358, 302], [20, 354, 304]]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[[447, 405], [451, 367], [472, 348], [494, 355], [503, 368], [523, 350], [511, 350], [500, 355], [494, 359], [530, 375], [516, 373], [505, 375], [498, 380], [527, 399], [515, 397], [504, 396], [497, 398], [519, 419], [509, 417], [500, 415], [495, 415]]</t>
+          <t>[[0, 355, 366], [1, 388, 346], [2, 410, 308], [3, 403, 278], [4, 377, 272], [5, 390, 256], [6, 397, 213], [7, 399, 186], [8, 397, 161], [9, 361, 254], [10, 376, 259], [11, 379, 291], [12, 373, 304], [13, 337, 264], [14, 354, 279], [15, 361, 308], [16, 358, 315], [17, 317, 279], [18, 335, 294], [19, 346, 314], [20, 345, 318]]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[[459, 338], [472, 366], [497, 387], [521, 389], [532, 375], [517, 360], [536, 362], [513, 364], [504, 363], [515, 343], [533, 346], [505, 349], [499, 346], [510, 326], [527, 329], [501, 334], [494, 331], [504, 308], [515, 313], [498, 319], [491, 317]]</t>
+          <t>[[0, 341, 383], [1, 372, 363], [2, 392, 329], [3, 383, 305], [4, 359, 299], [5, 375, 275], [6, 379, 235], [7, 380, 209], [8, 379, 184], [9, 346, 272], [10, 360, 286], [11, 360, 317], [12, 356, 325], [13, 323, 282], [14, 337, 306], [15, 341, 331], [16, 339, 333], [17, 303, 298], [18, 317, 320], [19, 324, 338], [20, 323, 338]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[[461, 335], [472, 362], [497, 382], [521, 384], [533, 372], [516, 357], [536, 357], [513, 360], [504, 360], [515, 339], [532, 342], [505, 346], [499, 343], [510, 323], [526, 326], [500, 331], [494, 329], [504, 305], [514, 310], [496, 316], [490, 313]]</t>
+          <t>[[0, 328, 394], [1, 356, 374], [2, 376, 341], [3, 366, 319], [4, 342, 310], [5, 359, 287], [6, 362, 246], [7, 362, 219], [8, 360, 194], [9, 330, 284], [10, 343, 296], [11, 345, 327], [12, 341, 335], [13, 305, 295], [14, 318, 316], [15, 325, 343], [16, 324, 346], [17, 284, 310], [18, 297, 330], [19, 307, 348], [20, 308, 350]]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[[459, 338], [470, 366], [496, 386], [520, 388], [532, 375], [516, 359], [536, 360], [514, 364], [505, 364], [514, 341], [532, 344], [504, 349], [499, 345], [509, 325], [526, 329], [500, 334], [494, 330], [503, 306], [514, 313], [495, 318], [490, 315]]</t>
+          <t>[[0, 304, 399], [1, 335, 380], [2, 354, 346], [3, 342, 324], [4, 317, 315], [5, 339, 295], [6, 341, 253], [7, 341, 226], [8, 338, 201], [9, 311, 293], [10, 317, 298], [11, 319, 328], [12, 317, 341], [13, 287, 302], [14, 294, 320], [15, 299, 346], [16, 300, 352], [17, 266, 316], [18, 275, 335], [19, 283, 353], [20, 285, 355]]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[[459, 339], [470, 365], [496, 385], [519, 387], [531, 375], [518, 359], [537, 361], [515, 364], [505, 363], [515, 342], [532, 344], [505, 349], [498, 345], [510, 325], [526, 329], [500, 335], [494, 331], [503, 307], [514, 314], [497, 319], [491, 316]]</t>
+          <t>[[0, 277, 410], [1, 306, 390], [2, 324, 357], [3, 308, 336], [4, 283, 328], [5, 311, 306], [6, 312, 263], [7, 311, 236], [8, 307, 212], [9, 284, 304], [10, 287, 305], [11, 289, 337], [12, 289, 351], [13, 260, 312], [14, 262, 329], [15, 269, 356], [16, 272, 361], [17, 239, 325], [18, 244, 342], [19, 252, 361], [20, 254, 363]]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[[457, 341], [470, 368], [496, 386], [519, 388], [531, 376], [516, 360], [535, 362], [512, 366], [502, 364], [513, 343], [531, 346], [503, 352], [497, 348], [508, 327], [525, 331], [499, 338], [492, 333], [502, 308], [514, 316], [496, 322], [490, 318]]</t>
+          <t>[[0, 258, 412], [1, 284, 391], [2, 300, 358], [3, 283, 338], [4, 258, 328], [5, 290, 307], [6, 290, 265], [7, 287, 240], [8, 283, 215], [9, 262, 306], [10, 266, 314], [11, 269, 346], [12, 269, 354], [13, 238, 315], [14, 240, 335], [15, 249, 362], [16, 253, 362], [17, 217, 328], [18, 223, 349], [19, 232, 368], [20, 233, 367]]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[[456, 344], [473, 368], [498, 382], [519, 383], [530, 371], [518, 355], [535, 360], [514, 365], [505, 362], [516, 339], [532, 346], [507, 352], [500, 346], [511, 324], [527, 333], [502, 339], [495, 332], [504, 307], [518, 320], [500, 326], [492, 320]]</t>
+          <t>[[0, 235, 400], [1, 260, 380], [2, 275, 344], [3, 255, 320], [4, 229, 309], [5, 266, 294], [6, 265, 248], [7, 263, 222], [8, 258, 197], [9, 238, 294], [10, 240, 292], [11, 245, 325], [12, 245, 336], [13, 214, 303], [14, 215, 312], [15, 225, 341], [16, 229, 346], [17, 194, 317], [18, 198, 327], [19, 209, 348], [20, 212, 351]]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[[161, 274], [204, 253], [240, 211], [249, 173], [231, 156], [208, 175], [206, 148], [207, 180], [209, 200], [179, 177], [176, 152], [180, 188], [182, 206], [151, 184], [148, 163], [155, 196], [158, 212], [124, 194], [124, 176], [131, 200], [135, 212]]</t>
+          <t>[[0, 220, 395], [1, 245, 373], [2, 258, 336], [3, 238, 311], [4, 212, 299], [5, 253, 289], [6, 250, 241], [7, 247, 215], [8, 242, 191], [9, 227, 291], [10, 223, 283], [11, 228, 316], [12, 232, 328], [13, 203, 299], [14, 197, 302], [15, 207, 333], [16, 214, 338], [17, 182, 311], [18, 179, 315], [19, 190, 337], [20, 196, 341]]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[[178, 240], [227, 214], [256, 182], [265, 145], [250, 123], [222, 145], [227, 112], [231, 146], [227, 167], [196, 146], [202, 115], [207, 157], [203, 176], [170, 152], [176, 123], [184, 163], [181, 180], [141, 161], [150, 137], [160, 165], [158, 179]]</t>
+          <t>[[0, 201, 363], [1, 225, 340], [2, 238, 302], [3, 222, 273], [4, 196, 258], [5, 237, 255], [6, 236, 206], [7, 233, 178], [8, 227, 153], [9, 211, 258], [10, 207, 238], [11, 212, 273], [12, 215, 290], [13, 188, 267], [14, 182, 258], [15, 191, 292], [16, 196, 303], [17, 166, 280], [18, 163, 271], [19, 173, 295], [20, 177, 305]]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[[173, 243], [222, 216], [252, 180], [262, 141], [246, 120], [220, 142], [224, 110], [227, 147], [226, 165], [192, 144], [196, 114], [203, 158], [199, 172], [165, 151], [172, 121], [180, 163], [177, 177], [136, 159], [145, 135], [155, 165], [153, 177]]</t>
+          <t>[[0, 193, 350], [1, 216, 327], [2, 227, 290], [3, 208, 262], [4, 182, 247], [5, 227, 245], [6, 225, 197], [7, 222, 169], [8, 217, 144], [9, 201, 250], [10, 196, 230], [11, 201, 265], [12, 205, 282], [13, 178, 260], [14, 171, 247], [15, 182, 281], [16, 188, 293], [17, 157, 273], [18, 154, 262], [19, 165, 285], [20, 169, 295]]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[[176, 251], [226, 236], [265, 205], [283, 166], [266, 142], [242, 160], [247, 128], [244, 165], [242, 180], [212, 157], [219, 128], [218, 173], [215, 183], [184, 160], [190, 134], [192, 176], [190, 188], [154, 162], [160, 145], [167, 175], [167, 185]]</t>
+          <t>[[0, 181, 339], [1, 203, 317], [2, 216, 279], [3, 198, 249], [4, 173, 231], [5, 217, 231], [6, 214, 183], [7, 210, 155], [8, 205, 130], [9, 192, 234], [10, 185, 211], [11, 189, 244], [12, 194, 263], [13, 169, 244], [14, 161, 231], [15, 170, 262], [16, 177, 275], [17, 148, 257], [18, 144, 248], [19, 153, 271], [20, 158, 280]]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[[187, 253], [235, 241], [275, 208], [293, 170], [279, 146], [251, 164], [259, 131], [256, 167], [252, 181], [222, 162], [231, 131], [230, 176], [225, 184], [194, 164], [202, 138], [204, 180], [201, 189], [163, 166], [173, 148], [179, 177], [176, 186]]</t>
+          <t>[[0, 174, 313], [1, 195, 289], [2, 207, 254], [3, 190, 225], [4, 166, 207], [5, 212, 208], [6, 210, 160], [7, 207, 133], [8, 203, 108], [9, 187, 212], [10, 180, 190], [11, 183, 222], [12, 188, 240], [13, 164, 222], [14, 155, 207], [15, 164, 239], [16, 170, 252], [17, 143, 235], [18, 139, 225], [19, 147, 247], [20, 152, 257]]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[[193, 259], [238, 245], [280, 210], [297, 173], [281, 150], [254, 162], [261, 134], [257, 173], [253, 183], [224, 161], [233, 136], [232, 182], [228, 185], [196, 164], [203, 144], [205, 185], [203, 188], [166, 167], [174, 155], [179, 183], [178, 189]]</t>
+          <t>[[0, 169, 290], [1, 191, 264], [2, 203, 226], [3, 184, 195], [4, 160, 182], [5, 211, 186], [6, 210, 140], [7, 206, 112], [8, 202, 87], [9, 185, 190], [10, 177, 165], [11, 179, 195], [12, 184, 213], [13, 162, 200], [14, 152, 183], [15, 160, 212], [16, 166, 225], [17, 141, 214], [18, 136, 203], [19, 142, 222], [20, 147, 234]]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[[244, 366], [224, 326], [227, 293], [247, 276], [267, 273], [232, 279], [260, 249], [259, 266], [249, 281], [259, 289], [281, 261], [279, 275], [269, 290], [283, 302], [296, 281], [293, 292], [284, 304], [302, 317], [308, 297], [303, 305], [297, 316]]</t>
+          <t>[[0, 170, 270], [1, 193, 245], [2, 207, 206], [3, 188, 175], [4, 164, 159], [5, 212, 166], [6, 212, 119], [7, 209, 92], [8, 206, 68], [9, 186, 170], [10, 181, 145], [11, 185, 176], [12, 189, 193], [13, 163, 180], [14, 156, 164], [15, 165, 195], [16, 170, 206], [17, 142, 194], [18, 139, 184], [19, 147, 206], [20, 149, 215]]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[[295, 266], [279, 229], [284, 200], [303, 188], [321, 190], [287, 168], [306, 166], [308, 178], [302, 187], [310, 173], [323, 177], [322, 188], [316, 196], [333, 183], [340, 190], [337, 201], [330, 208], [353, 197], [354, 204], [350, 214], [343, 221]]</t>
+          <t>[[0, 181, 249], [1, 206, 225], [2, 220, 187], [3, 205, 154], [4, 183, 137], [5, 225, 146], [6, 226, 99], [7, 224, 71], [8, 221, 46], [9, 200, 150], [10, 194, 125], [11, 196, 155], [12, 200, 173], [13, 177, 159], [14, 170, 143], [15, 177, 173], [16, 181, 186], [17, 155, 173], [18, 153, 163], [19, 159, 184], [20, 162, 194]]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[[312, 268], [288, 238], [288, 210], [304, 195], [321, 192], [297, 173], [312, 168], [317, 181], [314, 191], [323, 175], [334, 177], [335, 189], [331, 200], [347, 184], [352, 191], [350, 202], [344, 211], [367, 198], [369, 207], [364, 217], [358, 224]]</t>
+          <t>[[0, 189, 222], [1, 215, 199], [2, 230, 161], [3, 216, 127], [4, 195, 108], [5, 236, 120], [6, 239, 74], [7, 238, 47], [8, 235, 23], [9, 210, 123], [10, 208, 98], [11, 211, 128], [12, 213, 143], [13, 187, 132], [14, 184, 115], [15, 191, 146], [16, 194, 157], [17, 166, 146], [18, 166, 136], [19, 172, 157], [20, 173, 166]]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[[311, 267], [290, 235], [291, 207], [307, 192], [325, 191], [297, 172], [317, 166], [321, 178], [317, 189], [322, 173], [337, 176], [337, 188], [332, 198], [345, 182], [354, 189], [352, 201], [345, 210], [366, 196], [371, 205], [367, 216], [359, 224]]</t>
+          <t>[[0, 200, 204], [1, 227, 182], [2, 243, 147], [3, 233, 114], [4, 215, 93], [5, 247, 104], [6, 252, 60], [7, 252, 33], [8, 250, 10], [9, 222, 107], [10, 221, 84], [11, 223, 116], [12, 224, 131], [13, 199, 116], [14, 197, 99], [15, 203, 131], [16, 205, 143], [17, 177, 129], [18, 178, 118], [19, 185, 140], [20, 186, 150]]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[[315, 269], [293, 237], [295, 207], [314, 193], [334, 194], [304, 171], [318, 169], [321, 182], [317, 191], [329, 174], [339, 179], [338, 191], [334, 200], [353, 185], [357, 193], [354, 204], [348, 212], [372, 200], [372, 209], [368, 219], [362, 226]]</t>
+          <t>[[0, 220, 192], [1, 248, 169], [2, 266, 132], [3, 253, 99], [4, 231, 82], [5, 264, 94], [6, 269, 50], [7, 269, 24], [8, 267, 0], [9, 240, 98], [10, 238, 76], [11, 242, 107], [12, 245, 120], [13, 217, 107], [14, 215, 95], [15, 223, 125], [16, 226, 133], [17, 196, 121], [18, 198, 108], [19, 205, 129], [20, 204, 137]]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[[318, 271], [298, 237], [300, 208], [318, 195], [337, 196], [307, 176], [324, 168], [330, 180], [327, 191], [332, 179], [345, 179], [346, 191], [341, 201], [355, 189], [362, 194], [360, 205], [354, 213], [375, 203], [379, 209], [375, 220], [368, 227]]</t>
+          <t>[[0, 244, 210], [1, 272, 190], [2, 290, 153], [3, 278, 122], [4, 255, 105], [5, 283, 115], [6, 288, 70], [7, 289, 45], [8, 286, 21], [9, 258, 121], [10, 261, 98], [11, 266, 132], [12, 264, 144], [13, 236, 132], [14, 238, 118], [15, 249, 150], [16, 248, 158], [17, 214, 146], [18, 220, 133], [19, 231, 155], [20, 229, 163]]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[[319, 279], [301, 243], [305, 213], [323, 200], [341, 199], [316, 182], [330, 174], [332, 185], [328, 195], [340, 186], [350, 184], [349, 196], [344, 206], [363, 198], [367, 198], [363, 208], [358, 218], [381, 214], [381, 213], [377, 222], [371, 230]]</t>
+          <t>[[0, 248, 222], [1, 277, 203], [2, 295, 167], [3, 282, 136], [4, 260, 118], [5, 288, 128], [6, 293, 84], [7, 295, 58], [8, 292, 34], [9, 262, 133], [10, 267, 111], [11, 271, 145], [12, 269, 161], [13, 240, 144], [14, 245, 128], [15, 254, 161], [16, 252, 172], [17, 218, 158], [18, 227, 142], [19, 236, 165], [20, 233, 176]]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[[214, 258], [250, 248], [284, 232], [296, 204], [287, 185], [274, 203], [278, 179], [275, 189], [273, 197], [253, 197], [257, 173], [251, 202], [252, 213], [233, 194], [235, 174], [231, 204], [231, 216], [211, 193], [215, 178], [214, 200], [214, 211]]</t>
+          <t>[[0, 253, 241], [1, 281, 223], [2, 300, 186], [3, 287, 156], [4, 265, 139], [5, 292, 145], [6, 297, 100], [7, 298, 75], [8, 295, 51], [9, 266, 149], [10, 271, 129], [11, 274, 163], [12, 272, 178], [13, 244, 159], [14, 249, 147], [15, 258, 180], [16, 256, 190], [17, 223, 173], [18, 231, 160], [19, 240, 183], [20, 237, 191]]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[[227, 258], [262, 251], [298, 233], [311, 206], [302, 188], [288, 200], [294, 178], [290, 192], [287, 203], [267, 194], [272, 172], [266, 201], [266, 212], [247, 192], [249, 175], [246, 204], [246, 216], [223, 192], [229, 180], [229, 201], [230, 212]]</t>
+          <t>[[0, 270, 244], [1, 298, 225], [2, 317, 187], [3, 305, 157], [4, 281, 144], [5, 306, 146], [6, 310, 102], [7, 311, 76], [8, 309, 52], [9, 281, 151], [10, 286, 133], [11, 290, 166], [12, 287, 180], [13, 260, 161], [14, 265, 152], [15, 273, 183], [16, 271, 193], [17, 239, 175], [18, 248, 166], [19, 256, 186], [20, 253, 193]]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[[230, 258], [268, 248], [302, 231], [316, 205], [308, 188], [292, 201], [298, 175], [293, 192], [291, 205], [271, 195], [277, 171], [271, 201], [271, 211], [251, 192], [255, 174], [250, 205], [250, 215], [228, 192], [233, 178], [233, 200], [233, 209]]</t>
+          <t>[[0, 287, 247], [1, 313, 229], [2, 333, 192], [3, 326, 160], [4, 304, 146], [5, 325, 150], [6, 329, 106], [7, 331, 80], [8, 328, 56], [9, 299, 153], [10, 307, 138], [11, 309, 173], [12, 305, 183], [13, 277, 162], [14, 285, 156], [15, 292, 189], [16, 288, 195], [17, 256, 174], [18, 267, 168], [19, 276, 190], [20, 272, 195]]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[[239, 264], [276, 256], [314, 240], [327, 210], [314, 191], [303, 205], [311, 178], [303, 203], [301, 215], [282, 199], [289, 175], [282, 207], [280, 217], [261, 197], [265, 177], [261, 210], [260, 221], [237, 197], [242, 183], [243, 206], [243, 216]]</t>
+          <t>[[0, 294, 244], [1, 322, 226], [2, 341, 191], [3, 336, 160], [4, 318, 146], [5, 331, 151], [6, 336, 107], [7, 338, 81], [8, 336, 59], [9, 307, 154], [10, 313, 136], [11, 316, 169], [12, 313, 183], [13, 285, 162], [14, 292, 156], [15, 297, 186], [16, 296, 196], [17, 265, 173], [18, 274, 167], [19, 281, 186], [20, 281, 194]]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[[248, 272], [285, 264], [321, 248], [335, 220], [323, 201], [311, 211], [319, 186], [313, 211], [310, 223], [289, 205], [297, 182], [290, 216], [289, 225], [268, 204], [273, 186], [269, 218], [268, 228], [244, 204], [250, 190], [251, 214], [251, 223]]</t>
+          <t>[[0, 324, 239], [1, 352, 222], [2, 372, 188], [3, 365, 157], [4, 345, 142], [5, 358, 149], [6, 361, 106], [7, 361, 81], [8, 357, 57], [9, 334, 153], [10, 344, 136], [11, 348, 167], [12, 343, 178], [13, 313, 161], [14, 324, 154], [15, 330, 184], [16, 326, 191], [17, 294, 173], [18, 306, 167], [19, 315, 187], [20, 311, 193]]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[[455, 367], [458, 331], [478, 314], [499, 321], [507, 334], [524, 316], [514, 325], [503, 330], [497, 331], [533, 338], [520, 345], [509, 347], [502, 350], [533, 359], [519, 364], [508, 364], [501, 364], [527, 379], [514, 384], [504, 382], [498, 381]]</t>
+          <t>[[0, 357, 270], [1, 388, 254], [2, 411, 220], [3, 408, 189], [4, 388, 174], [5, 395, 172], [6, 400, 132], [7, 402, 107], [8, 398, 84], [9, 369, 172], [10, 386, 165], [11, 389, 198], [12, 382, 208], [13, 349, 180], [14, 368, 185], [15, 371, 214], [16, 363, 221], [17, 330, 192], [18, 352, 199], [19, 357, 219], [20, 350, 223]]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[[454, 371], [468, 330], [488, 311], [508, 313], [516, 325], [531, 320], [531, 320], [518, 324], [509, 328], [538, 344], [534, 341], [522, 341], [512, 344], [535, 367], [527, 359], [516, 359], [506, 362], [528, 385], [524, 379], [514, 377], [506, 377]]</t>
+          <t>[[0, 374, 302], [1, 405, 285], [2, 425, 253], [3, 425, 225], [4, 406, 211], [5, 414, 203], [6, 421, 163], [7, 424, 138], [8, 423, 116], [9, 388, 202], [10, 402, 199], [11, 404, 228], [12, 400, 243], [13, 365, 209], [14, 383, 220], [15, 386, 248], [16, 382, 260], [17, 345, 221], [18, 364, 227], [19, 370, 248], [20, 367, 258]]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[[464, 373], [466, 336], [486, 314], [506, 316], [515, 328], [533, 323], [522, 326], [513, 329], [508, 332], [540, 344], [528, 345], [518, 347], [511, 351], [539, 365], [526, 364], [516, 363], [510, 365], [533, 384], [522, 381], [514, 379], [508, 380]]</t>
+          <t>[[0, 361, 335], [1, 393, 321], [2, 417, 291], [3, 415, 264], [4, 397, 252], [5, 406, 239], [6, 414, 203], [7, 417, 178], [8, 417, 155], [9, 380, 235], [10, 394, 242], [11, 393, 271], [12, 386, 283], [13, 357, 241], [14, 373, 259], [15, 374, 285], [16, 368, 293], [17, 337, 253], [18, 354, 268], [19, 358, 289], [20, 354, 294]]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[[466, 374], [468, 335], [488, 314], [508, 317], [518, 330], [535, 324], [523, 324], [513, 328], [509, 331], [542, 346], [529, 343], [518, 345], [512, 349], [541, 367], [527, 362], [517, 361], [512, 364], [534, 384], [523, 379], [515, 378], [510, 379]]</t>
+          <t>[[0, 348, 357], [1, 382, 343], [2, 407, 312], [3, 403, 287], [4, 381, 279], [5, 394, 262], [6, 404, 226], [7, 406, 203], [8, 406, 180], [9, 368, 256], [10, 382, 267], [11, 380, 295], [12, 373, 305], [13, 345, 263], [14, 360, 283], [15, 360, 308], [16, 354, 312], [17, 325, 276], [18, 341, 294], [19, 346, 312], [20, 342, 315]]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[[459, 370], [471, 330], [491, 309], [510, 310], [516, 321], [534, 322], [534, 323], [521, 325], [511, 328], [541, 345], [537, 342], [524, 342], [514, 345], [538, 367], [529, 359], [518, 359], [508, 361], [531, 384], [525, 378], [516, 376], [507, 376]]</t>
+          <t>[[0, 324, 361], [1, 356, 346], [2, 380, 315], [3, 375, 290], [4, 352, 283], [5, 368, 266], [6, 375, 228], [7, 376, 204], [8, 376, 180], [9, 342, 261], [10, 353, 268], [11, 351, 298], [12, 345, 308], [13, 319, 267], [14, 330, 285], [15, 332, 311], [16, 329, 315], [17, 298, 278], [18, 310, 297], [19, 317, 316], [20, 315, 318]]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[[453, 331], [487, 354], [527, 364], [554, 363], [568, 352], [543, 345], [574, 344], [555, 350], [543, 351], [540, 324], [568, 323], [544, 331], [535, 330], [532, 304], [557, 306], [535, 315], [525, 313], [521, 283], [536, 290], [522, 300], [514, 300]]</t>
+          <t>[[0, 297, 368], [1, 330, 352], [2, 353, 323], [3, 345, 301], [4, 321, 294], [5, 340, 275], [6, 347, 237], [7, 347, 212], [8, 345, 189], [9, 315, 270], [10, 327, 275], [11, 325, 302], [12, 320, 314], [13, 293, 277], [14, 302, 293], [15, 303, 316], [16, 301, 322], [17, 273, 289], [18, 282, 305], [19, 286, 320], [20, 284, 322]]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[[513, 230], [536, 258], [562, 276], [588, 279], [599, 264], [570, 256], [590, 258], [581, 257], [573, 257], [568, 239], [588, 238], [570, 240], [559, 242], [563, 222], [582, 221], [560, 225], [546, 228], [555, 204], [570, 204], [555, 209], [543, 213]]</t>
+          <t>[[0, 256, 374], [1, 285, 356], [2, 305, 323], [3, 290, 302], [4, 266, 296], [5, 293, 276], [6, 294, 236], [7, 290, 211], [8, 285, 189], [9, 268, 275], [10, 272, 280], [11, 272, 308], [12, 272, 321], [13, 245, 282], [14, 246, 298], [15, 251, 322], [16, 254, 328], [17, 225, 294], [18, 228, 308], [19, 234, 324], [20, 237, 327]]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[[517, 222], [538, 250], [563, 269], [592, 271], [605, 257], [572, 253], [593, 256], [583, 254], [575, 252], [573, 234], [594, 234], [574, 235], [565, 236], [569, 216], [590, 215], [566, 219], [552, 221], [563, 198], [578, 199], [562, 204], [550, 206]]</t>
+          <t>[[0, 228, 384], [1, 254, 365], [2, 272, 331], [3, 257, 310], [4, 232, 304], [5, 262, 286], [6, 260, 243], [7, 255, 219], [8, 249, 196], [9, 237, 285], [10, 238, 289], [11, 240, 319], [12, 241, 330], [13, 214, 291], [14, 212, 305], [15, 218, 331], [16, 223, 336], [17, 194, 302], [18, 194, 315], [19, 201, 334], [20, 205, 337]]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[[518, 215], [539, 244], [565, 263], [592, 266], [606, 253], [576, 246], [598, 248], [588, 247], [578, 246], [576, 228], [597, 227], [577, 228], [565, 230], [573, 210], [592, 209], [568, 213], [554, 215], [566, 192], [581, 193], [564, 197], [553, 200]]</t>
+          <t>[[0, 198, 383], [1, 223, 363], [2, 235, 330], [3, 221, 309], [4, 197, 298], [5, 232, 288], [6, 228, 242], [7, 223, 217], [8, 218, 194], [9, 208, 287], [10, 203, 284], [11, 206, 314], [12, 211, 324], [13, 186, 293], [14, 180, 298], [15, 186, 326], [16, 193, 331], [17, 166, 301], [18, 162, 308], [19, 169, 327], [20, 174, 333]]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[[522, 207], [541, 235], [564, 253], [589, 257], [603, 245], [574, 238], [594, 243], [589, 240], [580, 237], [575, 221], [596, 222], [581, 220], [568, 221], [572, 204], [591, 204], [572, 204], [556, 206], [567, 187], [581, 188], [567, 190], [555, 193]]</t>
+          <t>[[0, 171, 377], [1, 192, 355], [2, 199, 321], [3, 180, 300], [4, 156, 288], [5, 200, 279], [6, 194, 233], [7, 188, 207], [8, 182, 184], [9, 176, 282], [10, 168, 270], [11, 172, 301], [12, 178, 318], [13, 153, 289], [14, 143, 288], [15, 151, 317], [16, 159, 327], [17, 133, 300], [18, 126, 298], [19, 135, 318], [20, 142, 326]]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[[514, 142], [538, 166], [565, 181], [590, 178], [596, 163], [569, 172], [590, 170], [579, 165], [569, 165], [565, 156], [585, 148], [567, 148], [556, 153], [560, 140], [576, 131], [558, 135], [547, 141], [553, 124], [566, 119], [553, 122], [545, 126]]</t>
+          <t>[[0, 151, 369], [1, 173, 346], [2, 183, 312], [3, 167, 286], [4, 143, 272], [5, 188, 268], [6, 186, 220], [7, 182, 193], [8, 177, 169], [9, 164, 269], [10, 157, 253], [11, 157, 284], [12, 161, 303], [13, 141, 275], [14, 131, 269], [15, 136, 298], [16, 143, 311], [17, 120, 285], [18, 113, 280], [19, 119, 300], [20, 126, 310]]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[[506, 112], [528, 133], [555, 146], [581, 139], [589, 124], [562, 136], [582, 135], [571, 130], [563, 129], [559, 119], [578, 113], [559, 115], [549, 120], [554, 104], [571, 96], [550, 102], [538, 108], [547, 88], [558, 83], [545, 89], [537, 93]]</t>
+          <t>[[0, 133, 348], [1, 153, 324], [2, 161, 290], [3, 145, 265], [4, 122, 249], [5, 168, 248], [6, 165, 200], [7, 161, 173], [8, 156, 149], [9, 144, 251], [10, 137, 232], [11, 139, 263], [12, 143, 282], [13, 121, 258], [14, 111, 248], [15, 117, 278], [16, 124, 291], [17, 101, 268], [18, 94, 260], [19, 101, 281], [20, 107, 291]]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[[524, 157], [534, 138], [547, 135], [562, 135], [571, 139], [556, 148], [571, 143], [565, 140], [558, 140], [562, 160], [579, 152], [570, 148], [564, 149], [569, 173], [584, 164], [577, 159], [570, 161], [576, 189], [591, 183], [588, 179], [585, 178]]</t>
+          <t>[[0, 112, 328], [1, 129, 302], [2, 134, 268], [3, 116, 244], [4, 91, 230], [5, 142, 227], [6, 137, 180], [7, 133, 153], [8, 127, 129], [9, 118, 232], [10, 107, 213], [11, 111, 245], [12, 118, 264], [13, 95, 241], [14, 82, 231], [15, 92, 261], [16, 100, 273], [17, 75, 254], [18, 67, 247], [19, 76, 267], [20, 84, 276]]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[[538, 219], [554, 249], [587, 267], [616, 264], [619, 244], [600, 242], [616, 244], [601, 248], [592, 249], [597, 225], [612, 225], [591, 231], [581, 232], [591, 208], [605, 207], [582, 217], [570, 219], [582, 191], [595, 192], [577, 200], [565, 202]]</t>
+          <t>[[0, 102, 318], [1, 119, 293], [2, 125, 257], [3, 104, 231], [4, 79, 215], [5, 134, 213], [6, 128, 166], [7, 123, 138], [8, 118, 113], [9, 108, 219], [10, 99, 196], [11, 102, 227], [12, 108, 246], [13, 84, 229], [14, 73, 215], [15, 82, 244], [16, 90, 256], [17, 64, 242], [18, 57, 232], [19, 66, 252], [20, 73, 261]]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[[543, 269], [562, 295], [597, 313], [624, 312], [635, 297], [606, 283], [625, 286], [627, 292], [623, 294], [602, 266], [624, 267], [602, 273], [585, 274], [595, 248], [617, 250], [593, 260], [575, 262], [583, 230], [603, 234], [587, 243], [572, 245]]</t>
+          <t>[[0, 97, 301], [1, 114, 276], [2, 122, 240], [3, 104, 212], [4, 78, 195], [5, 134, 196], [6, 129, 149], [7, 124, 120], [8, 119, 95], [9, 107, 200], [10, 96, 178], [11, 99, 210], [12, 106, 230], [13, 83, 210], [14, 70, 195], [15, 79, 225], [16, 88, 239], [17, 62, 224], [18, 55, 215], [19, 63, 235], [20, 69, 245]]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[[565, 284], [601, 302], [632, 305], [653, 299], [664, 292], [634, 272], [652, 267], [641, 278], [627, 283], [625, 258], [646, 255], [630, 268], [613, 272], [614, 246], [636, 242], [620, 256], [604, 262], [600, 234], [623, 232], [612, 245], [599, 251]]</t>
+          <t>[[0, 104, 289], [1, 121, 262], [2, 129, 224], [3, 113, 195], [4, 89, 180], [5, 142, 182], [6, 139, 133], [7, 134, 104], [8, 130, 79], [9, 116, 186], [10, 105, 163], [11, 108, 193], [12, 115, 213], [13, 91, 195], [14, 79, 179], [15, 86, 207], [16, 94, 221], [17, 70, 210], [18, 63, 199], [19, 68, 217], [20, 73, 228]]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[[610, 255], [622, 240], [632, 224], [642, 213], [651, 205], [615, 203], [636, 193], [650, 198], [656, 204], [615, 200], [637, 193], [649, 200], [654, 206], [617, 200], [640, 193], [650, 200], [656, 205], [621, 201], [640, 195], [650, 199], [655, 204]]</t>
+          <t>[[0, 119, 267], [1, 140, 242], [2, 151, 205], [3, 137, 175], [4, 117, 156], [5, 162, 159], [6, 161, 111], [7, 157, 81], [8, 153, 56], [9, 136, 163], [10, 128, 140], [11, 130, 173], [12, 136, 192], [13, 111, 172], [14, 102, 155], [15, 108, 187], [16, 116, 201], [17, 88, 185], [18, 83, 172], [19, 90, 193], [20, 94, 204]]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[[408, 260], [434, 249], [459, 227], [478, 208], [490, 193], [440, 194], [457, 177], [469, 184], [478, 194], [427, 191], [442, 175], [452, 187], [457, 198], [413, 192], [427, 175], [437, 188], [440, 200], [398, 195], [411, 181], [420, 190], [423, 200]]</t>
+          <t>[[0, 132, 257], [1, 156, 233], [2, 170, 195], [3, 158, 162], [4, 137, 144], [5, 179, 149], [6, 181, 100], [7, 179, 71], [8, 176, 46], [9, 152, 152], [10, 148, 129], [11, 151, 162], [12, 155, 180], [13, 127, 160], [14, 122, 146], [15, 129, 178], [16, 135, 190], [17, 105, 173], [18, 104, 161], [19, 110, 183], [20, 111, 194]]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[[235, 256], [267, 237], [290, 209], [301, 187], [304, 174], [275, 186], [281, 168], [282, 177], [283, 188], [261, 186], [262, 170], [264, 184], [267, 197], [247, 189], [248, 175], [249, 190], [251, 202], [233, 195], [236, 184], [237, 195], [239, 205]]</t>
+          <t>[[0, 156, 239], [1, 183, 215], [2, 200, 179], [3, 192, 146], [4, 174, 126], [5, 206, 134], [6, 211, 85], [7, 210, 56], [8, 208, 30], [9, 180, 136], [10, 175, 113], [11, 177, 147], [12, 180, 164], [13, 155, 144], [14, 151, 130], [15, 156, 163], [16, 160, 176], [17, 131, 156], [18, 131, 144], [19, 137, 167], [20, 138, 179]]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[[149, 279], [173, 259], [193, 234], [192, 210], [182, 203], [186, 226], [182, 203], [177, 220], [179, 230], [170, 227], [163, 208], [161, 230], [167, 237], [156, 231], [147, 217], [149, 239], [155, 244], [140, 236], [136, 225], [137, 240], [141, 247]]</t>
+          <t>[[0, 187, 234], [1, 214, 207], [2, 234, 168], [3, 224, 135], [4, 198, 123], [5, 228, 128], [6, 232, 80], [7, 231, 52], [8, 228, 26], [9, 202, 132], [10, 202, 111], [11, 206, 144], [12, 207, 160], [13, 178, 143], [14, 177, 132], [15, 186, 162], [16, 187, 173], [17, 157, 157], [18, 160, 147], [19, 168, 166], [20, 167, 175]]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[[277, 376], [257, 338], [259, 308], [275, 294], [292, 294], [264, 282], [281, 271], [283, 284], [279, 294], [287, 287], [299, 282], [299, 294], [293, 303], [308, 298], [314, 297], [312, 308], [306, 317], [326, 311], [329, 310], [325, 320], [318, 327]]</t>
+          <t>[[0, 209, 235], [1, 237, 213], [2, 258, 174], [3, 250, 138], [4, 227, 121], [5, 253, 131], [6, 259, 84], [7, 260, 55], [8, 259, 29], [9, 227, 134], [10, 229, 110], [11, 230, 147], [12, 229, 162], [13, 203, 142], [14, 204, 132], [15, 211, 166], [16, 210, 176], [17, 181, 154], [18, 186, 146], [19, 194, 168], [20, 191, 176]]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[[294, 341], [269, 307], [267, 279], [280, 265], [297, 264], [278, 251], [282, 248], [284, 261], [284, 271], [300, 252], [303, 254], [302, 265], [299, 275], [321, 261], [320, 264], [318, 275], [315, 284], [338, 272], [335, 275], [331, 284], [328, 292]]</t>
+          <t>[[0, 218, 244], [1, 248, 224], [2, 268, 187], [3, 258, 154], [4, 236, 134], [5, 263, 143], [6, 268, 95], [7, 269, 66], [8, 266, 41], [9, 236, 146], [10, 240, 124], [11, 242, 160], [12, 240, 176], [13, 212, 155], [14, 215, 143], [15, 223, 178], [16, 222, 188], [17, 189, 168], [18, 196, 157], [19, 205, 181], [20, 203, 190]]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[[308, 305], [280, 285], [272, 261], [284, 246], [302, 243], [285, 223], [295, 228], [297, 240], [293, 247], [308, 222], [314, 230], [313, 241], [311, 250], [329, 228], [332, 240], [328, 250], [324, 258], [347, 238], [349, 252], [345, 262], [340, 269]]</t>
+          <t>[[0, 220, 258], [1, 250, 238], [2, 271, 202], [3, 261, 169], [4, 238, 150], [5, 267, 159], [6, 274, 111], [7, 275, 83], [8, 274, 57], [9, 240, 161], [10, 244, 140], [11, 245, 175], [12, 243, 191], [13, 216, 169], [14, 219, 158], [15, 226, 192], [16, 225, 203], [17, 192, 182], [18, 200, 172], [19, 208, 196], [20, 205, 205]]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[[318, 305], [288, 287], [278, 262], [291, 246], [309, 244], [295, 224], [300, 226], [302, 237], [300, 245], [319, 224], [321, 230], [320, 240], [318, 250], [340, 232], [340, 240], [337, 249], [333, 258], [358, 243], [356, 252], [352, 262], [348, 268]]</t>
+          <t>[[0, 234, 284], [1, 263, 266], [2, 286, 231], [3, 278, 200], [4, 255, 182], [5, 282, 186], [6, 287, 138], [7, 288, 110], [8, 286, 84], [9, 256, 186], [10, 260, 170], [11, 260, 205], [12, 257, 219], [13, 232, 192], [14, 234, 187], [15, 240, 220], [16, 240, 230], [17, 209, 202], [18, 215, 200], [19, 223, 222], [20, 223, 230]]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[[324, 312], [296, 281], [291, 251], [305, 235], [323, 233], [304, 223], [316, 216], [320, 227], [318, 237], [328, 224], [338, 222], [336, 235], [331, 245], [350, 233], [353, 235], [350, 246], [344, 256], [367, 245], [368, 249], [364, 258], [357, 265]]</t>
+          <t>[[0, 249, 302], [1, 279, 282], [2, 297, 245], [3, 289, 213], [4, 265, 196], [5, 290, 200], [6, 292, 151], [7, 291, 121], [8, 287, 95], [9, 265, 202], [10, 271, 184], [11, 274, 215], [12, 271, 233], [13, 242, 210], [14, 245, 200], [15, 251, 230], [16, 251, 244], [17, 219, 222], [18, 226, 212], [19, 234, 234], [20, 235, 246]]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[[332, 301], [303, 283], [293, 259], [305, 243], [323, 242], [310, 221], [318, 224], [320, 236], [317, 244], [334, 221], [338, 228], [337, 239], [335, 249], [355, 228], [356, 238], [353, 249], [349, 257], [373, 239], [372, 250], [368, 259], [364, 266]]</t>
+          <t>[[0, 253, 307], [1, 282, 284], [2, 300, 247], [3, 289, 219], [4, 266, 206], [5, 289, 202], [6, 290, 157], [7, 287, 130], [8, 283, 106], [9, 263, 205], [10, 268, 188], [11, 271, 222], [12, 270, 238], [13, 240, 214], [14, 245, 209], [15, 252, 241], [16, 252, 251], [17, 218, 227], [18, 224, 221], [19, 234, 242], [20, 235, 250]]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[[334, 302], [304, 284], [294, 260], [307, 243], [325, 241], [311, 221], [320, 225], [322, 237], [319, 245], [335, 221], [340, 229], [339, 241], [336, 249], [356, 229], [358, 239], [354, 249], [350, 258], [373, 240], [374, 251], [369, 261], [365, 268]]</t>
+          <t>[[0, 298, 330], [1, 330, 313], [2, 349, 279], [3, 339, 251], [4, 317, 239], [5, 337, 230], [6, 341, 185], [7, 341, 158], [8, 338, 133], [9, 311, 230], [10, 322, 226], [11, 325, 256], [12, 321, 267], [13, 288, 239], [14, 299, 246], [15, 305, 273], [16, 303, 280], [17, 267, 251], [18, 280, 258], [19, 288, 278], [20, 287, 282]]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[[331, 309], [304, 279], [299, 252], [312, 237], [330, 235], [315, 218], [329, 217], [331, 231], [328, 241], [339, 221], [349, 223], [347, 236], [342, 246], [361, 232], [364, 236], [361, 247], [355, 257], [377, 245], [378, 251], [374, 260], [368, 268]]</t>
+          <t>[[0, 332, 357], [1, 365, 340], [2, 389, 306], [3, 386, 276], [4, 364, 265], [5, 376, 252], [6, 383, 213], [7, 385, 186], [8, 383, 162], [9, 349, 248], [10, 366, 254], [11, 366, 285], [12, 359, 295], [13, 326, 255], [14, 343, 274], [15, 346, 302], [16, 342, 308], [17, 305, 268], [18, 324, 287], [19, 330, 308], [20, 327, 311]]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[[344, 300], [317, 280], [312, 255], [327, 240], [345, 238], [326, 221], [337, 223], [337, 234], [333, 241], [350, 222], [357, 228], [355, 238], [351, 246], [372, 230], [374, 238], [370, 249], [366, 256], [389, 242], [389, 251], [384, 260], [380, 266]]</t>
+          <t>[[0, 310, 366], [1, 344, 346], [2, 368, 315], [3, 363, 291], [4, 339, 283], [5, 354, 262], [6, 362, 224], [7, 364, 199], [8, 363, 175], [9, 327, 258], [10, 343, 265], [11, 343, 295], [12, 336, 304], [13, 303, 267], [14, 319, 283], [15, 320, 309], [16, 314, 314], [17, 282, 281], [18, 298, 296], [19, 302, 314], [20, 297, 317]]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[[346, 183], [388, 182], [425, 163], [441, 134], [426, 119], [407, 134], [420, 115], [413, 138], [408, 146], [391, 128], [403, 112], [395, 140], [388, 145], [373, 124], [384, 108], [377, 137], [370, 145], [351, 120], [363, 108], [359, 128], [354, 136]]</t>
+          <t>[[0, 265, 364], [1, 298, 344], [2, 317, 308], [3, 307, 280], [4, 282, 272], [5, 306, 264], [6, 310, 220], [7, 308, 192], [8, 306, 168], [9, 280, 263], [10, 289, 255], [11, 292, 281], [12, 292, 298], [13, 257, 269], [14, 262, 275], [15, 267, 300], [16, 268, 313], [17, 235, 281], [18, 242, 286], [19, 249, 304], [20, 251, 313]]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[[351, 154], [393, 152], [424, 132], [436, 104], [421, 89], [404, 108], [413, 91], [412, 107], [409, 116], [388, 101], [402, 82], [397, 107], [389, 118], [372, 95], [386, 77], [381, 105], [373, 118], [350, 92], [366, 76], [365, 96], [359, 109]]</t>
+          <t>[[0, 234, 363], [1, 261, 341], [2, 278, 304], [3, 263, 276], [4, 238, 265], [5, 271, 257], [6, 270, 210], [7, 267, 184], [8, 261, 159], [9, 244, 258], [10, 245, 249], [11, 249, 284], [12, 249, 292], [13, 220, 265], [14, 219, 270], [15, 227, 302], [16, 230, 305], [17, 197, 277], [18, 200, 284], [19, 209, 306], [20, 210, 308]]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[[326, 155], [367, 152], [398, 132], [409, 106], [395, 93], [381, 111], [389, 91], [389, 103], [386, 114], [365, 105], [375, 85], [371, 105], [365, 117], [348, 100], [358, 81], [354, 103], [348, 116], [328, 98], [338, 81], [338, 96], [334, 107]]</t>
+          <t>[[0, 214, 351], [1, 239, 328], [2, 255, 292], [3, 240, 264], [4, 214, 251], [5, 251, 245], [6, 250, 197], [7, 246, 170], [8, 240, 146], [9, 225, 247], [10, 223, 231], [11, 226, 264], [12, 228, 281], [13, 201, 254], [14, 197, 252], [15, 204, 283], [16, 209, 294], [17, 179, 265], [18, 178, 266], [19, 187, 288], [20, 191, 296]]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[[299, 159], [341, 154], [374, 135], [387, 109], [379, 96], [362, 113], [370, 92], [364, 106], [361, 118], [344, 107], [353, 88], [345, 110], [342, 121], [326, 103], [334, 85], [327, 109], [323, 122], [305, 100], [315, 85], [311, 102], [308, 112]]</t>
+          <t>[[0, 208, 335], [1, 233, 311], [2, 248, 276], [3, 236, 249], [4, 211, 233], [5, 247, 230], [6, 246, 181], [7, 243, 153], [8, 238, 128], [9, 221, 232], [10, 218, 214], [11, 221, 247], [12, 224, 266], [13, 197, 240], [14, 193, 234], [15, 200, 266], [16, 204, 278], [17, 175, 250], [18, 174, 247], [19, 182, 269], [20, 185, 278]]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[[157, 192], [191, 178], [218, 155], [224, 124], [210, 114], [212, 141], [221, 118], [209, 132], [203, 143], [194, 137], [195, 115], [188, 140], [191, 150], [176, 135], [174, 118], [170, 144], [173, 156], [157, 134], [155, 121], [154, 139], [156, 149]]</t>
+          <t>[[0, 199, 311], [1, 225, 288], [2, 240, 252], [3, 229, 222], [4, 204, 204], [5, 241, 206], [6, 242, 156], [7, 239, 128], [8, 235, 103], [9, 214, 207], [10, 212, 188], [11, 215, 221], [12, 218, 239], [13, 190, 215], [14, 186, 207], [15, 193, 238], [16, 197, 251], [17, 167, 227], [18, 167, 220], [19, 175, 242], [20, 178, 252]]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[[157, 193], [190, 182], [217, 158], [223, 127], [208, 117], [210, 145], [217, 123], [207, 137], [202, 148], [191, 141], [194, 118], [186, 142], [188, 155], [174, 139], [173, 121], [169, 147], [172, 160], [155, 138], [154, 125], [153, 143], [155, 154]]</t>
+          <t>[[0, 172, 287], [1, 197, 263], [2, 210, 227], [3, 196, 197], [4, 172, 179], [5, 214, 182], [6, 214, 131], [7, 211, 103], [8, 208, 78], [9, 188, 184], [10, 183, 162], [11, 186, 196], [12, 189, 215], [13, 163, 193], [14, 159, 180], [15, 166, 213], [16, 170, 227], [17, 141, 205], [18, 141, 194], [19, 149, 216], [20, 151, 227]]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[[166, 187], [200, 176], [228, 155], [235, 128], [225, 116], [223, 141], [229, 120], [218, 131], [213, 141], [205, 137], [206, 116], [198, 136], [201, 147], [188, 136], [184, 119], [180, 142], [183, 153], [169, 135], [167, 122], [165, 137], [167, 147]]</t>
+          <t>[[0, 149, 278], [1, 171, 251], [2, 182, 213], [3, 167, 184], [4, 141, 169], [5, 190, 172], [6, 187, 122], [7, 184, 93], [8, 180, 67], [9, 164, 176], [10, 155, 153], [11, 157, 185], [12, 162, 205], [13, 139, 184], [14, 130, 171], [15, 138, 202], [16, 145, 216], [17, 117, 197], [18, 114, 187], [19, 122, 208], [20, 127, 219]]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[[181, 189], [216, 178], [244, 154], [250, 125], [236, 114], [240, 143], [249, 121], [237, 131], [232, 143], [222, 137], [226, 115], [216, 135], [216, 147], [204, 135], [204, 117], [197, 139], [199, 152], [185, 134], [186, 120], [183, 134], [183, 144]]</t>
+          <t>[[0, 133, 273], [1, 152, 244], [2, 160, 208], [3, 144, 179], [4, 120, 162], [5, 170, 167], [6, 168, 117], [7, 165, 88], [8, 161, 61], [9, 145, 171], [10, 135, 145], [11, 139, 177], [12, 144, 197], [13, 121, 181], [14, 110, 163], [15, 119, 194], [16, 127, 209], [17, 100, 195], [18, 94, 181], [19, 102, 202], [20, 108, 213]]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[[198, 190], [234, 178], [264, 156], [274, 127], [260, 116], [259, 142], [269, 121], [257, 130], [250, 141], [240, 136], [247, 114], [235, 135], [235, 147], [222, 133], [224, 115], [216, 139], [218, 152], [202, 130], [204, 118], [202, 134], [203, 144]]</t>
+          <t>[[0, 112, 270], [1, 129, 242], [2, 135, 204], [3, 116, 177], [4, 91, 161], [5, 146, 162], [6, 140, 114], [7, 134, 85], [8, 128, 59], [9, 121, 168], [10, 107, 144], [11, 112, 174], [12, 119, 193], [13, 97, 179], [14, 83, 164], [15, 94, 194], [16, 103, 206], [17, 78, 194], [18, 69, 182], [19, 78, 202], [20, 85, 213]]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[[294, 310], [276, 275], [279, 250], [297, 240], [314, 243], [280, 232], [297, 225], [298, 235], [294, 242], [302, 237], [313, 230], [312, 239], [307, 248], [322, 246], [325, 242], [323, 250], [319, 259], [339, 257], [336, 254], [333, 262], [330, 269]]</t>
+          <t>[[0, 151, 266], [1, 174, 238], [2, 187, 201], [3, 170, 173], [4, 145, 160], [5, 185, 160], [6, 183, 112], [7, 178, 85], [8, 172, 60], [9, 159, 166], [10, 155, 144], [11, 161, 177], [12, 164, 194], [13, 136, 177], [14, 131, 163], [15, 142, 195], [16, 146, 205], [17, 114, 192], [18, 114, 180], [19, 123, 201], [20, 124, 210]]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[[308, 290], [291, 260], [293, 238], [309, 228], [324, 229], [289, 216], [310, 215], [311, 226], [304, 233], [309, 216], [324, 221], [324, 231], [319, 237], [329, 222], [339, 228], [337, 239], [331, 246], [348, 232], [353, 238], [350, 248], [344, 255]]</t>
+          <t>[[0, 208, 269], [1, 235, 245], [2, 253, 208], [3, 241, 179], [4, 216, 164], [5, 242, 164], [6, 243, 118], [7, 242, 90], [8, 238, 65], [9, 216, 168], [10, 222, 149], [11, 225, 185], [12, 222, 200], [13, 193, 179], [14, 198, 171], [15, 206, 204], [16, 204, 214], [17, 171, 194], [18, 178, 184], [19, 187, 205], [20, 185, 214]]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[[323, 280], [301, 258], [299, 237], [312, 225], [328, 224], [304, 211], [317, 213], [318, 224], [314, 231], [324, 210], [334, 217], [333, 227], [329, 234], [344, 215], [350, 224], [348, 234], [342, 241], [362, 225], [365, 235], [362, 245], [357, 250]]</t>
+          <t>[[0, 217, 334], [1, 243, 311], [2, 249, 271], [3, 213, 257], [4, 183, 248], [5, 245, 217], [6, 265, 178], [7, 277, 152], [8, 285, 132], [9, 216, 218], [10, 206, 168], [11, 201, 136], [12, 195, 111], [13, 194, 233], [14, 191, 219], [15, 205, 246], [16, 212, 264], [17, 178, 253], [18, 183, 251], [19, 196, 270], [20, 203, 282]]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[[332, 279], [309, 259], [305, 238], [317, 225], [333, 223], [314, 206], [325, 212], [326, 224], [321, 231], [336, 206], [342, 215], [341, 226], [337, 234], [356, 213], [359, 224], [355, 234], [351, 241], [373, 224], [373, 236], [370, 245], [365, 250]]</t>
+          <t>[[0, 214, 329], [1, 240, 305], [2, 245, 266], [3, 212, 252], [4, 182, 245], [5, 241, 212], [6, 260, 172], [7, 273, 145], [8, 281, 125], [9, 211, 213], [10, 200, 162], [11, 194, 130], [12, 188, 105], [13, 189, 228], [14, 186, 215], [15, 201, 242], [16, 208, 260], [17, 174, 249], [18, 178, 247], [19, 192, 265], [20, 199, 278]]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[[333, 280], [309, 260], [305, 239], [317, 226], [333, 224], [316, 206], [326, 211], [327, 223], [323, 230], [337, 206], [343, 215], [342, 226], [339, 233], [357, 213], [360, 225], [356, 235], [351, 241], [373, 224], [375, 237], [371, 246], [366, 251]]</t>
+          <t>[[0, 207, 321], [1, 233, 298], [2, 238, 260], [3, 203, 247], [4, 174, 238], [5, 234, 208], [6, 251, 166], [7, 261, 139], [8, 267, 118], [9, 206, 209], [10, 197, 158], [11, 192, 126], [12, 187, 100], [13, 184, 223], [14, 180, 210], [15, 195, 236], [16, 202, 254], [17, 168, 243], [18, 173, 241], [19, 186, 260], [20, 193, 272]]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[[336, 282], [312, 261], [309, 239], [322, 226], [338, 225], [320, 208], [329, 212], [331, 225], [327, 233], [343, 210], [348, 217], [347, 228], [344, 236], [363, 218], [366, 227], [362, 237], [357, 245], [379, 231], [379, 242], [374, 251], [370, 256]]</t>
+          <t>[[0, 207, 321], [1, 234, 298], [2, 239, 259], [3, 204, 245], [4, 175, 237], [5, 235, 208], [6, 249, 166], [7, 257, 139], [8, 262, 117], [9, 208, 209], [10, 201, 160], [11, 197, 128], [12, 193, 101], [13, 186, 223], [14, 183, 209], [15, 196, 236], [16, 202, 255], [17, 170, 242], [18, 175, 241], [19, 187, 260], [20, 192, 272]]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[[353, 280], [331, 259], [329, 238], [343, 226], [359, 227], [340, 212], [351, 215], [351, 227], [346, 234], [361, 213], [369, 220], [367, 230], [363, 238], [379, 220], [385, 228], [381, 238], [376, 246], [396, 231], [398, 241], [393, 250], [389, 255]]</t>
+          <t>[[0, 210, 320], [1, 238, 296], [2, 243, 257], [3, 208, 242], [4, 179, 234], [5, 236, 209], [6, 237, 164], [7, 238, 135], [8, 236, 112], [9, 212, 210], [10, 211, 161], [11, 212, 128], [12, 211, 101], [13, 191, 223], [14, 188, 211], [15, 200, 238], [16, 205, 255], [17, 174, 241], [18, 180, 241], [19, 191, 260], [20, 195, 271]]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[[268, 410], [302, 397], [328, 373], [340, 348], [333, 330], [308, 344], [318, 325], [315, 344], [309, 355], [290, 342], [300, 324], [298, 347], [293, 358], [272, 343], [282, 328], [283, 349], [280, 359], [252, 345], [264, 335], [268, 349], [267, 357]]</t>
+          <t>[[0, 212, 325], [1, 240, 301], [2, 245, 262], [3, 213, 246], [4, 185, 238], [5, 238, 215], [6, 237, 170], [7, 236, 141], [8, 232, 117], [9, 214, 217], [10, 214, 167], [11, 214, 134], [12, 214, 108], [13, 194, 230], [14, 191, 213], [15, 202, 240], [16, 209, 259], [17, 176, 248], [18, 180, 240], [19, 192, 259], [20, 197, 272]]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[[297, 366], [333, 358], [356, 341], [367, 321], [364, 304], [343, 314], [350, 294], [347, 313], [342, 326], [327, 311], [335, 290], [332, 313], [326, 325], [309, 309], [319, 289], [317, 314], [312, 325], [289, 309], [301, 293], [302, 310], [298, 320]]</t>
+          <t>[[0, 205, 335], [1, 232, 311], [2, 236, 273], [3, 203, 259], [4, 176, 253], [5, 230, 227], [6, 229, 184], [7, 226, 155], [8, 223, 131], [9, 206, 228], [10, 206, 180], [11, 206, 147], [12, 205, 120], [13, 186, 239], [14, 182, 224], [15, 192, 250], [16, 198, 268], [17, 169, 256], [18, 173, 253], [19, 184, 271], [20, 189, 282]]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[[302, 365], [337, 358], [359, 343], [369, 322], [366, 306], [345, 315], [353, 296], [350, 315], [344, 328], [330, 311], [339, 291], [335, 316], [329, 328], [313, 310], [324, 290], [322, 315], [316, 327], [294, 310], [306, 294], [307, 311], [304, 322]]</t>
+          <t>[[0, 197, 348], [1, 222, 324], [2, 227, 287], [3, 195, 274], [4, 168, 268], [5, 219, 241], [6, 218, 198], [7, 216, 169], [8, 213, 146], [9, 196, 241], [10, 196, 194], [11, 195, 162], [12, 193, 135], [13, 177, 253], [14, 172, 238], [15, 183, 263], [16, 189, 281], [17, 161, 270], [18, 165, 268], [19, 176, 285], [20, 181, 296]]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[[309, 361], [342, 355], [365, 338], [374, 317], [371, 300], [350, 310], [360, 291], [358, 310], [351, 324], [336, 307], [346, 286], [343, 311], [336, 324], [319, 305], [329, 286], [328, 312], [322, 324], [299, 306], [311, 291], [313, 309], [309, 319]]</t>
+          <t>[[0, 180, 362], [1, 201, 339], [2, 201, 305], [3, 169, 293], [4, 142, 285], [5, 200, 257], [6, 197, 217], [7, 192, 190], [8, 187, 167], [9, 177, 257], [10, 176, 212], [11, 174, 181], [12, 172, 154], [13, 158, 268], [14, 150, 255], [15, 159, 279], [16, 166, 295], [17, 143, 285], [18, 145, 287], [19, 154, 304], [20, 161, 314]]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[[121, 391], [140, 381], [161, 358], [163, 337], [154, 327], [148, 337], [135, 324], [134, 341], [139, 348], [132, 340], [118, 329], [122, 349], [130, 353], [120, 343], [106, 335], [111, 353], [120, 357], [109, 347], [97, 341], [101, 356], [110, 361]]</t>
+          <t>[[0, 160, 360], [1, 178, 338], [2, 174, 305], [3, 142, 291], [4, 115, 281], [5, 174, 258], [6, 171, 218], [7, 167, 191], [8, 162, 168], [9, 154, 259], [10, 152, 215], [11, 148, 185], [12, 144, 158], [13, 136, 271], [14, 124, 257], [15, 132, 280], [16, 141, 296], [17, 122, 288], [18, 116, 284], [19, 126, 299], [20, 135, 309]]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[[123, 389], [144, 379], [164, 356], [166, 336], [154, 327], [150, 333], [137, 326], [139, 343], [145, 347], [134, 335], [122, 330], [128, 350], [135, 351], [121, 339], [110, 335], [115, 354], [123, 355], [108, 344], [99, 342], [105, 355], [112, 358]]</t>
+          <t>[[0, 143, 347], [1, 160, 324], [2, 153, 290], [3, 120, 275], [4, 95, 263], [5, 158, 245], [6, 153, 205], [7, 149, 177], [8, 144, 154], [9, 138, 246], [10, 134, 200], [11, 130, 169], [12, 126, 143], [13, 120, 257], [14, 106, 242], [15, 114, 266], [16, 123, 282], [17, 106, 273], [18, 96, 268], [19, 106, 284], [20, 115, 294]]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[[125, 391], [144, 382], [165, 361], [169, 338], [157, 327], [152, 338], [140, 326], [141, 343], [147, 348], [136, 339], [125, 328], [129, 349], [136, 352], [123, 342], [111, 334], [116, 353], [124, 356], [110, 346], [101, 342], [105, 355], [113, 359]]</t>
+          <t>[[0, 133, 330], [1, 151, 306], [2, 145, 270], [3, 113, 255], [4, 87, 244], [5, 150, 227], [6, 146, 184], [7, 142, 155], [8, 138, 131], [9, 129, 228], [10, 126, 179], [11, 122, 148], [12, 118, 121], [13, 111, 238], [14, 97, 221], [15, 106, 245], [16, 115, 261], [17, 96, 253], [18, 88, 247], [19, 98, 264], [20, 107, 274]]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[[271, 406], [323, 375], [365, 331], [381, 291], [363, 270], [334, 286], [339, 257], [340, 294], [338, 309], [300, 289], [306, 262], [310, 309], [308, 323], [266, 298], [274, 280], [283, 326], [282, 340], [233, 311], [243, 296], [253, 328], [253, 341]]</t>
+          <t>[[0, 124, 306], [1, 143, 280], [2, 137, 242], [3, 105, 222], [4, 79, 207], [5, 142, 199], [6, 137, 153], [7, 134, 123], [8, 129, 98], [9, 120, 199], [10, 117, 147], [11, 113, 114], [12, 108, 87], [13, 101, 210], [14, 84, 188], [15, 93, 215], [16, 103, 233], [17, 84, 227], [18, 74, 215], [19, 84, 233], [20, 93, 246]]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[[280, 341], [333, 322], [377, 282], [397, 239], [381, 209], [348, 235], [353, 198], [351, 234], [349, 257], [317, 234], [322, 201], [321, 250], [319, 271], [284, 240], [288, 215], [292, 263], [292, 282], [250, 249], [256, 229], [263, 263], [265, 279]]</t>
+          <t>[[0, 129, 274], [1, 149, 246], [2, 147, 209], [3, 118, 186], [4, 92, 174], [5, 150, 163], [6, 146, 117], [7, 142, 87], [8, 138, 62], [9, 128, 163], [10, 125, 112], [11, 121, 78], [12, 116, 50], [13, 108, 175], [14, 95, 152], [15, 104, 178], [16, 113, 196], [17, 91, 192], [18, 84, 178], [19, 92, 195], [20, 100, 207]]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[[290, 316], [353, 290], [398, 248], [419, 201], [405, 168], [368, 197], [378, 155], [376, 197], [370, 223], [335, 195], [345, 154], [346, 208], [340, 233], [302, 199], [312, 167], [316, 220], [313, 242], [264, 207], [278, 181], [286, 218], [284, 237]]</t>
+          <t>[[0, 157, 255], [1, 182, 228], [2, 183, 189], [3, 152, 170], [4, 125, 157], [5, 184, 145], [6, 182, 99], [7, 179, 70], [8, 174, 46], [9, 160, 144], [10, 159, 94], [11, 156, 61], [12, 152, 33], [13, 139, 156], [14, 127, 137], [15, 138, 163], [16, 147, 181], [17, 121, 173], [18, 119, 166], [19, 129, 182], [20, 137, 194]]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[[294, 312], [356, 288], [401, 248], [424, 202], [411, 169], [371, 195], [384, 154], [380, 196], [373, 222], [339, 193], [351, 154], [350, 208], [344, 232], [306, 197], [317, 166], [321, 219], [317, 242], [269, 205], [282, 180], [291, 218], [289, 237]]</t>
+          <t>[[0, 192, 254], [1, 221, 228], [2, 226, 188], [3, 194, 167], [4, 166, 158], [5, 225, 143], [6, 226, 95], [7, 224, 65], [8, 221, 40], [9, 200, 143], [10, 202, 90], [11, 202, 55], [12, 200, 26], [13, 177, 154], [14, 172, 132], [15, 182, 159], [16, 188, 179], [17, 158, 172], [18, 161, 165], [19, 171, 183], [20, 176, 196]]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[[362, 271], [321, 243], [310, 205], [321, 180], [339, 178], [334, 165], [328, 168], [331, 187], [333, 200], [364, 165], [357, 171], [356, 188], [356, 202], [390, 174], [381, 185], [376, 200], [374, 211], [411, 189], [401, 202], [395, 214], [393, 223]]</t>
+          <t>[[0, 237, 246], [1, 268, 219], [2, 280, 177], [3, 249, 156], [4, 219, 149], [5, 269, 132], [6, 271, 83], [7, 270, 53], [8, 267, 28], [9, 243, 131], [10, 245, 78], [11, 247, 43], [12, 246, 13], [13, 219, 142], [14, 221, 121], [15, 231, 150], [16, 236, 171], [17, 199, 161], [18, 209, 155], [19, 221, 174], [20, 226, 187]]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[[373, 282], [327, 256], [309, 211], [308, 176], [315, 172], [347, 170], [331, 174], [329, 191], [332, 201], [377, 173], [358, 178], [355, 193], [357, 205], [401, 186], [383, 188], [378, 200], [378, 212], [419, 201], [403, 201], [398, 212], [398, 222]]</t>
+          <t>[[0, 278, 250], [1, 312, 224], [2, 325, 181], [3, 296, 160], [4, 264, 150], [5, 311, 129], [6, 313, 82], [7, 311, 52], [8, 308, 28], [9, 285, 131], [10, 288, 78], [11, 289, 43], [12, 287, 15], [13, 261, 145], [14, 261, 124], [15, 273, 157], [16, 279, 180], [17, 239, 167], [18, 248, 162], [19, 262, 183], [20, 270, 198]]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[[372, 288], [324, 261], [303, 216], [299, 178], [308, 173], [345, 171], [323, 176], [320, 195], [324, 207], [375, 173], [351, 181], [346, 197], [349, 209], [399, 186], [377, 191], [371, 204], [372, 217], [417, 202], [398, 203], [392, 214], [394, 225]]</t>
+          <t>[[0, 314, 274], [1, 347, 249], [2, 361, 205], [3, 336, 182], [4, 307, 173], [5, 341, 158], [6, 344, 108], [7, 344, 77], [8, 342, 51], [9, 314, 159], [10, 320, 102], [11, 324, 66], [12, 325, 38], [13, 290, 172], [14, 299, 149], [15, 312, 182], [16, 317, 206], [17, 268, 192], [18, 284, 181], [19, 300, 203], [20, 306, 221]]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[[381, 299], [325, 268], [301, 215], [294, 169], [303, 161], [351, 161], [327, 160], [323, 182], [329, 196], [387, 166], [358, 169], [352, 187], [356, 201], [416, 182], [389, 183], [381, 197], [383, 211], [438, 202], [415, 198], [409, 211], [412, 223]]</t>
+          <t>[[0, 328, 301], [1, 364, 279], [2, 380, 236], [3, 355, 215], [4, 325, 207], [5, 360, 185], [6, 364, 135], [7, 364, 106], [8, 361, 81], [9, 332, 186], [10, 340, 130], [11, 343, 95], [12, 341, 68], [13, 307, 198], [14, 316, 177], [15, 331, 211], [16, 337, 236], [17, 284, 217], [18, 305, 212], [19, 322, 236], [20, 330, 254]]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[[392, 319], [329, 284], [301, 226], [296, 174], [308, 166], [356, 169], [334, 160], [331, 183], [336, 199], [396, 172], [367, 172], [361, 191], [365, 207], [427, 188], [400, 187], [392, 202], [394, 219], [451, 207], [426, 202], [420, 217], [422, 233]]</t>
+          <t>[[0, 340, 325], [1, 374, 304], [2, 392, 263], [3, 367, 242], [4, 338, 236], [5, 373, 212], [6, 380, 163], [7, 381, 134], [8, 379, 109], [9, 345, 211], [10, 354, 155], [11, 360, 120], [12, 360, 91], [13, 319, 221], [14, 332, 208], [15, 345, 240], [16, 349, 262], [17, 296, 240], [18, 319, 242], [19, 335, 266], [20, 341, 281]]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[[384, 327], [319, 289], [293, 230], [287, 177], [299, 168], [349, 170], [327, 168], [324, 191], [329, 206], [390, 174], [361, 178], [355, 198], [359, 214], [423, 192], [395, 193], [387, 210], [389, 227], [449, 214], [424, 210], [417, 225], [419, 240]]</t>
+          <t>[[0, 333, 365], [1, 370, 347], [2, 389, 302], [3, 364, 279], [4, 332, 276], [5, 373, 252], [6, 379, 204], [7, 380, 174], [8, 377, 148], [9, 345, 250], [10, 353, 197], [11, 359, 163], [12, 361, 134], [13, 319, 261], [14, 330, 242], [15, 341, 274], [16, 343, 294], [17, 297, 278], [18, 317, 280], [19, 330, 303], [20, 334, 315]]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[[400, 339], [338, 300], [310, 237], [305, 182], [319, 175], [358, 183], [346, 172], [345, 193], [349, 210], [399, 185], [379, 184], [375, 203], [379, 219], [435, 199], [412, 198], [406, 214], [406, 231], [463, 217], [441, 214], [435, 229], [436, 244]]</t>
+          <t>[[0, 323, 379], [1, 355, 360], [2, 373, 319], [3, 349, 301], [4, 319, 296], [5, 358, 269], [6, 363, 222], [7, 365, 192], [8, 362, 167], [9, 330, 268], [10, 338, 217], [11, 344, 184], [12, 344, 156], [13, 304, 278], [14, 314, 267], [15, 325, 297], [16, 328, 314], [17, 283, 296], [18, 302, 305], [19, 315, 326], [20, 319, 335]]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[[127, 313], [159, 300], [189, 276], [202, 249], [191, 235], [177, 254], [174, 229], [166, 246], [166, 257], [157, 254], [151, 231], [148, 257], [154, 266], [138, 255], [132, 237], [131, 263], [137, 273], [120, 257], [114, 246], [115, 264], [122, 273]]</t>
+          <t>[[0, 294, 402], [1, 325, 381], [2, 338, 344], [3, 311, 329], [4, 280, 328], [5, 325, 295], [6, 330, 253], [7, 330, 226], [8, 327, 203], [9, 299, 293], [10, 306, 246], [11, 310, 214], [12, 311, 185], [13, 275, 304], [14, 278, 292], [15, 288, 320], [16, 293, 339], [17, 255, 323], [18, 265, 327], [19, 279, 345], [20, 288, 356]]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[[139, 305], [172, 294], [203, 271], [216, 244], [204, 230], [191, 249], [189, 224], [181, 241], [181, 252], [170, 247], [167, 224], [163, 249], [168, 259], [152, 248], [147, 230], [146, 257], [151, 267], [133, 250], [129, 237], [130, 255], [135, 265]]</t>
+          <t>[[0, 255, 415], [1, 283, 394], [2, 292, 360], [3, 262, 349], [4, 231, 346], [5, 282, 309], [6, 282, 267], [7, 279, 238], [8, 274, 213], [9, 256, 309], [10, 260, 262], [11, 261, 229], [12, 259, 200], [13, 234, 321], [14, 230, 311], [15, 241, 339], [16, 248, 356], [17, 215, 340], [18, 218, 343], [19, 231, 361], [20, 239, 371]]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[[149, 300], [182, 289], [213, 267], [226, 241], [215, 226], [200, 245], [199, 220], [193, 239], [193, 250], [180, 243], [178, 220], [174, 247], [179, 256], [161, 244], [158, 226], [157, 253], [161, 263], [143, 245], [139, 233], [140, 252], [145, 261]]</t>
+          <t>[[0, 182, 404], [1, 205, 384], [2, 208, 351], [3, 176, 340], [4, 147, 333], [5, 204, 300], [6, 206, 260], [7, 205, 232], [8, 202, 208], [9, 180, 299], [10, 183, 253], [11, 182, 222], [12, 181, 195], [13, 160, 310], [14, 152, 300], [15, 160, 326], [16, 168, 343], [17, 143, 329], [18, 143, 332], [19, 154, 349], [20, 163, 360]]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[[158, 303], [193, 292], [224, 268], [237, 242], [223, 228], [209, 245], [208, 220], [204, 240], [204, 252], [189, 243], [186, 220], [185, 249], [189, 258], [170, 244], [167, 226], [168, 255], [172, 266], [151, 247], [148, 234], [151, 254], [155, 264]]</t>
+          <t>[[0, 157, 391], [1, 178, 370], [2, 177, 336], [3, 143, 324], [4, 114, 317], [5, 174, 285], [6, 174, 245], [7, 172, 218], [8, 167, 194], [9, 150, 284], [10, 153, 239], [11, 151, 209], [12, 148, 181], [13, 130, 296], [14, 121, 284], [15, 130, 311], [16, 137, 328], [17, 114, 316], [18, 113, 319], [19, 124, 335], [20, 132, 345]]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[[390, 252], [432, 239], [470, 218], [491, 193], [488, 169], [456, 170], [470, 153], [469, 178], [463, 186], [432, 165], [447, 149], [444, 181], [437, 185], [405, 165], [421, 152], [419, 185], [410, 190], [375, 168], [392, 160], [394, 183], [387, 189]]</t>
+          <t>[[0, 135, 380], [1, 154, 357], [2, 149, 322], [3, 113, 309], [4, 84, 302], [5, 148, 274], [6, 145, 232], [7, 141, 203], [8, 136, 179], [9, 124, 273], [10, 124, 225], [11, 121, 192], [12, 117, 164], [13, 104, 285], [14, 90, 269], [15, 99, 296], [16, 108, 314], [17, 88, 305], [18, 82, 301], [19, 94, 317], [20, 103, 328]]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[[374, 159], [429, 150], [464, 128], [485, 97], [477, 74], [448, 88], [460, 59], [453, 86], [445, 105], [425, 81], [436, 52], [429, 89], [421, 107], [399, 78], [412, 51], [407, 89], [401, 107], [369, 78], [384, 57], [384, 85], [380, 100]]</t>
+          <t>[[0, 132, 368], [1, 150, 343], [2, 144, 308], [3, 110, 295], [4, 80, 288], [5, 144, 260], [6, 143, 217], [7, 139, 188], [8, 135, 163], [9, 121, 260], [10, 120, 210], [11, 116, 177], [12, 113, 149], [13, 101, 272], [14, 87, 255], [15, 96, 282], [16, 106, 300], [17, 85, 291], [18, 78, 284], [19, 90, 301], [20, 101, 314]]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[[387, 163], [440, 150], [475, 130], [496, 101], [492, 76], [461, 94], [473, 63], [466, 88], [458, 106], [438, 87], [450, 56], [442, 90], [434, 108], [413, 83], [426, 53], [421, 88], [414, 107], [383, 81], [398, 59], [398, 85], [395, 101]]</t>
+          <t>[[0, 131, 354], [1, 150, 328], [2, 145, 292], [3, 111, 279], [4, 81, 270], [5, 145, 246], [6, 143, 201], [7, 139, 171], [8, 135, 145], [9, 122, 245], [10, 122, 193], [11, 118, 159], [12, 115, 131], [13, 102, 256], [14, 86, 237], [15, 96, 266], [16, 107, 285], [17, 86, 274], [18, 75, 265], [19, 87, 282], [20, 99, 295]]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[[391, 165], [442, 152], [476, 130], [496, 103], [492, 78], [461, 93], [474, 64], [468, 90], [460, 109], [438, 87], [451, 58], [444, 92], [435, 111], [413, 84], [428, 55], [423, 92], [415, 111], [384, 82], [400, 60], [400, 87], [395, 104]]</t>
+          <t>[[0, 136, 335], [1, 156, 310], [2, 154, 273], [3, 118, 258], [4, 87, 248], [5, 153, 226], [6, 151, 181], [7, 148, 151], [8, 144, 124], [9, 129, 224], [10, 129, 171], [11, 126, 138], [12, 123, 109], [13, 108, 235], [14, 92, 215], [15, 101, 245], [16, 110, 264], [17, 92, 253], [18, 79, 242], [19, 90, 261], [20, 102, 274]]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[[393, 168], [443, 155], [477, 133], [495, 105], [492, 80], [461, 95], [474, 68], [468, 95], [459, 114], [439, 89], [452, 61], [446, 96], [436, 114], [414, 86], [429, 60], [425, 96], [417, 114], [385, 86], [402, 64], [403, 91], [398, 106]]</t>
+          <t>[[0, 159, 316], [1, 181, 289], [2, 181, 250], [3, 144, 236], [4, 114, 229], [5, 182, 199], [6, 201, 158], [7, 211, 130], [8, 218, 107], [9, 154, 199], [10, 149, 146], [11, 144, 112], [12, 139, 83], [13, 132, 213], [14, 122, 196], [15, 133, 221], [16, 141, 238], [17, 115, 234], [18, 111, 225], [19, 125, 242], [20, 135, 255]]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[[394, 166], [446, 154], [478, 132], [497, 105], [494, 81], [462, 95], [476, 68], [470, 95], [460, 114], [440, 89], [454, 62], [447, 97], [437, 116], [416, 86], [431, 61], [426, 96], [418, 115], [388, 85], [404, 64], [405, 91], [400, 106]]</t>
+          <t>[[0, 180, 307], [1, 204, 282], [2, 205, 242], [3, 169, 226], [4, 138, 219], [5, 206, 190], [6, 227, 149], [7, 239, 121], [8, 246, 98], [9, 178, 188], [10, 174, 134], [11, 171, 99], [12, 166, 69], [13, 155, 202], [14, 146, 182], [15, 156, 208], [16, 163, 226], [17, 137, 224], [18, 136, 215], [19, 149, 233], [20, 158, 247]]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[[393, 165], [445, 153], [478, 131], [496, 104], [493, 79], [462, 94], [476, 67], [470, 95], [460, 114], [440, 88], [454, 62], [447, 97], [437, 114], [416, 85], [432, 59], [427, 96], [418, 113], [388, 84], [405, 63], [406, 90], [400, 105]]</t>
+          <t>[[0, 195, 308], [1, 222, 284], [2, 223, 242], [3, 185, 226], [4, 153, 220], [5, 224, 188], [6, 244, 146], [7, 256, 117], [8, 264, 94], [9, 195, 186], [10, 191, 132], [11, 188, 96], [12, 185, 66], [13, 171, 200], [14, 162, 184], [15, 174, 212], [16, 182, 231], [17, 154, 222], [18, 153, 218], [19, 167, 237], [20, 177, 251]]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[[397, 166], [445, 154], [477, 131], [495, 105], [493, 81], [462, 95], [476, 69], [472, 95], [462, 113], [441, 90], [456, 62], [450, 95], [439, 113], [417, 86], [433, 59], [430, 95], [420, 114], [389, 85], [407, 64], [409, 90], [402, 107]]</t>
+          <t>[[0, 197, 306], [1, 224, 282], [2, 227, 239], [3, 189, 223], [4, 156, 215], [5, 226, 184], [6, 246, 141], [7, 256, 112], [8, 263, 89], [9, 196, 183], [10, 193, 128], [11, 190, 92], [12, 187, 60], [13, 172, 198], [14, 165, 177], [15, 177, 206], [16, 184, 227], [17, 154, 220], [18, 155, 213], [19, 168, 234], [20, 177, 249]]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[[325, 278], [288, 253], [267, 219], [266, 187], [278, 184], [299, 184], [308, 169], [307, 182], [303, 194], [328, 186], [330, 177], [327, 190], [325, 202], [352, 193], [348, 191], [344, 200], [342, 211], [372, 204], [365, 201], [361, 211], [358, 220]]</t>
+          <t>[[0, 207, 284], [1, 236, 258], [2, 243, 215], [3, 204, 200], [4, 171, 193], [5, 237, 161], [6, 257, 119], [7, 268, 91], [8, 274, 67], [9, 206, 160], [10, 204, 105], [11, 201, 69], [12, 197, 38], [13, 182, 174], [14, 177, 152], [15, 189, 178], [16, 195, 198], [17, 164, 196], [18, 168, 190], [19, 182, 208], [20, 190, 222]]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[[333, 286], [298, 257], [283, 224], [286, 195], [299, 187], [305, 192], [315, 179], [317, 192], [314, 203], [333, 193], [338, 187], [337, 199], [335, 211], [360, 201], [358, 201], [356, 212], [352, 223], [382, 214], [378, 214], [373, 225], [369, 234]]</t>
+          <t>[[0, 225, 270], [1, 259, 246], [2, 268, 201], [3, 229, 183], [4, 195, 175], [5, 258, 147], [6, 277, 103], [7, 288, 75], [8, 293, 52], [9, 227, 145], [10, 225, 87], [11, 225, 50], [12, 222, 18], [13, 202, 158], [14, 199, 137], [15, 212, 167], [16, 218, 189], [17, 181, 180], [18, 187, 175], [19, 200, 198], [20, 207, 213]]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[[337, 285], [301, 256], [287, 225], [289, 197], [302, 186], [304, 197], [310, 180], [313, 190], [313, 204], [331, 196], [334, 183], [333, 193], [332, 206], [358, 201], [355, 194], [353, 204], [351, 216], [382, 212], [375, 207], [371, 216], [368, 226]]</t>
+          <t>[[0, 233, 270], [1, 267, 247], [2, 277, 201], [3, 238, 182], [4, 204, 172], [5, 267, 148], [6, 284, 101], [7, 294, 73], [8, 299, 50], [9, 235, 146], [10, 233, 87], [11, 233, 50], [12, 230, 19], [13, 210, 159], [14, 207, 137], [15, 221, 167], [16, 227, 190], [17, 190, 179], [18, 196, 177], [19, 209, 200], [20, 216, 216]]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[[345, 281], [308, 256], [294, 222], [298, 193], [313, 187], [313, 197], [317, 178], [317, 191], [316, 205], [341, 196], [340, 181], [339, 193], [338, 205], [367, 201], [362, 191], [360, 202], [357, 214], [390, 211], [382, 203], [377, 212], [375, 222]]</t>
+          <t>[[0, 254, 279], [1, 288, 256], [2, 302, 210], [3, 266, 193], [4, 230, 189], [5, 290, 156], [6, 307, 110], [7, 316, 82], [8, 321, 58], [9, 258, 154], [10, 256, 96], [11, 257, 58], [12, 255, 28], [13, 232, 167], [14, 235, 150], [15, 247, 181], [16, 252, 202], [17, 212, 188], [18, 223, 187], [19, 236, 210], [20, 241, 225]]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[[354, 280], [318, 257], [303, 219], [306, 187], [319, 186], [334, 194], [339, 175], [335, 187], [331, 201], [360, 197], [359, 183], [355, 194], [353, 206], [383, 205], [378, 194], [374, 204], [370, 216], [403, 216], [396, 205], [390, 214], [388, 224]]</t>
+          <t>[[0, 270, 279], [1, 305, 256], [2, 318, 212], [3, 281, 195], [4, 246, 190], [5, 306, 159], [6, 323, 114], [7, 331, 85], [8, 334, 62], [9, 275, 158], [10, 273, 100], [11, 272, 63], [12, 270, 33], [13, 249, 171], [14, 251, 153], [15, 264, 184], [16, 268, 205], [17, 228, 191], [18, 239, 190], [19, 251, 213], [20, 256, 228]]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[[363, 282], [328, 255], [315, 219], [321, 189], [338, 188], [346, 197], [352, 177], [347, 189], [342, 203], [372, 201], [373, 186], [368, 196], [365, 209], [395, 211], [392, 199], [387, 208], [382, 220], [415, 225], [410, 211], [403, 219], [399, 229]]</t>
+          <t>[[0, 296, 291], [1, 328, 270], [2, 342, 229], [3, 312, 211], [4, 280, 203], [5, 332, 174], [6, 346, 129], [7, 353, 102], [8, 356, 79], [9, 302, 172], [10, 299, 117], [11, 300, 83], [12, 298, 54], [13, 277, 185], [14, 279, 167], [15, 290, 198], [16, 294, 220], [17, 256, 206], [18, 267, 209], [19, 281, 233], [20, 287, 248]]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[[289, 297], [333, 283], [364, 263], [378, 235], [368, 217], [345, 230], [352, 205], [347, 228], [343, 245], [324, 226], [330, 201], [327, 232], [324, 247], [302, 226], [309, 202], [308, 232], [306, 249], [277, 228], [286, 208], [289, 230], [288, 244]]</t>
+          <t>[[0, 306, 309], [1, 336, 286], [2, 348, 246], [3, 322, 227], [4, 291, 219], [5, 340, 191], [6, 353, 148], [7, 360, 120], [8, 363, 98], [9, 311, 191], [10, 307, 136], [11, 306, 103], [12, 304, 77], [13, 286, 204], [14, 287, 186], [15, 299, 217], [16, 304, 237], [17, 266, 226], [18, 276, 227], [19, 289, 250], [20, 294, 264]]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[[303, 303], [347, 289], [377, 268], [390, 240], [380, 221], [357, 234], [367, 210], [362, 236], [356, 252], [337, 231], [346, 207], [343, 239], [337, 253], [315, 230], [326, 207], [325, 239], [320, 254], [290, 232], [303, 213], [306, 236], [303, 249]]</t>
+          <t>[[0, 314, 338], [1, 345, 318], [2, 359, 278], [3, 332, 258], [4, 302, 249], [5, 352, 222], [6, 366, 179], [7, 373, 151], [8, 377, 128], [9, 322, 220], [10, 317, 167], [11, 316, 135], [12, 313, 109], [13, 298, 232], [14, 297, 216], [15, 308, 244], [16, 312, 264], [17, 279, 252], [18, 286, 256], [19, 297, 279], [20, 302, 293]]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[[155, 417], [205, 375], [233, 308], [221, 247], [183, 213], [227, 218], [234, 135], [230, 80], [226, 32], [176, 222], [190, 147], [201, 184], [209, 231], [126, 238], [137, 225], [148, 295], [155, 345], [80, 263], [96, 252], [111, 307], [118, 344]]</t>
+          <t>[[0, 339, 366], [1, 372, 352], [2, 391, 318], [3, 369, 300], [4, 340, 290], [5, 384, 258], [6, 400, 215], [7, 408, 187], [8, 412, 163], [9, 355, 255], [10, 352, 203], [11, 352, 171], [12, 351, 145], [13, 330, 266], [14, 337, 262], [15, 346, 290], [16, 349, 307], [17, 311, 284], [18, 324, 294], [19, 336, 317], [20, 342, 330]]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[[133, 425], [176, 381], [197, 317], [180, 263], [140, 228], [185, 215], [180, 127], [167, 73], [158, 27], [134, 225], [140, 145], [136, 176], [135, 220], [84, 247], [86, 231], [101, 297], [114, 346], [41, 275], [45, 265], [65, 316], [80, 352]]</t>
+          <t>[[0, 336, 383], [1, 367, 368], [2, 386, 335], [3, 366, 318], [4, 339, 312], [5, 382, 277], [6, 399, 234], [7, 408, 206], [8, 412, 182], [9, 352, 274], [10, 350, 224], [11, 349, 193], [12, 346, 164], [13, 326, 285], [14, 333, 275], [15, 342, 304], [16, 345, 321], [17, 306, 305], [18, 318, 313], [19, 330, 335], [20, 335, 346]]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[[140, 426], [183, 380], [206, 316], [189, 263], [148, 231], [190, 214], [185, 127], [172, 73], [164, 27], [138, 225], [144, 145], [143, 181], [144, 228], [89, 246], [94, 231], [108, 298], [121, 346], [46, 273], [52, 261], [71, 310], [85, 344]]</t>
+          <t>[[0, 315, 394], [1, 345, 381], [2, 362, 349], [3, 338, 333], [4, 309, 323], [5, 359, 289], [6, 376, 246], [7, 386, 219], [8, 391, 194], [9, 329, 287], [10, 324, 239], [11, 320, 208], [12, 315, 181], [13, 305, 298], [14, 308, 294], [15, 318, 322], [16, 321, 338], [17, 287, 316], [18, 296, 329], [19, 307, 351], [20, 314, 362]]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[[508, 463], [572, 444], [622, 399], [643, 364], [635, 338], [578, 294], [592, 218], [600, 167], [603, 125], [541, 285], [595, 230], [641, 236], [668, 253], [510, 290], [588, 305], [584, 359], [565, 388], [488, 310], [557, 343], [553, 382], [535, 399]]</t>
+          <t>[[0, 297, 405], [1, 325, 388], [2, 338, 357], [3, 312, 342], [4, 283, 335], [5, 336, 301], [6, 354, 258], [7, 365, 230], [8, 370, 206], [9, 306, 298], [10, 298, 251], [11, 291, 220], [12, 285, 192], [13, 282, 310], [14, 282, 305], [15, 293, 334], [16, 299, 350], [17, 264, 329], [18, 270, 337], [19, 282, 357], [20, 289, 367]]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[[488, 450], [554, 433], [615, 383], [650, 349], [666, 326], [578, 282], [594, 211], [603, 162], [607, 120], [544, 272], [595, 224], [644, 228], [676, 237], [513, 275], [582, 292], [579, 346], [562, 376], [489, 293], [551, 321], [548, 363], [533, 385]]</t>
+          <t>[[0, 267, 410], [1, 295, 393], [2, 305, 362], [3, 277, 347], [4, 248, 338], [5, 301, 306], [6, 321, 265], [7, 332, 238], [8, 339, 215], [9, 272, 305], [10, 263, 259], [11, 257, 227], [12, 250, 200], [13, 249, 318], [14, 246, 307], [15, 258, 335], [16, 265, 353], [17, 232, 338], [18, 235, 337], [19, 247, 356], [20, 255, 368]]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[[400, 409], [459, 382], [518, 324], [559, 280], [567, 237], [471, 226], [481, 152], [483, 104], [479, 65], [431, 221], [478, 163], [525, 184], [552, 216], [394, 229], [462, 235], [467, 296], [455, 333], [364, 250], [429, 271], [434, 317], [424, 345]]</t>
+          <t>[[0, 251, 407], [1, 278, 389], [2, 285, 358], [3, 257, 344], [4, 228, 337], [5, 282, 304], [6, 301, 263], [7, 312, 236], [8, 319, 213], [9, 253, 303], [10, 242, 257], [11, 235, 226], [12, 228, 200], [13, 230, 316], [14, 225, 307], [15, 239, 334], [16, 247, 352], [17, 214, 335], [18, 216, 335], [19, 229, 354], [20, 238, 366]]</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[[392, 416], [455, 388], [514, 330], [554, 286], [563, 245], [464, 232], [473, 157], [476, 106], [474, 66], [425, 228], [471, 170], [520, 188], [548, 219], [390, 237], [458, 244], [464, 306], [453, 345], [362, 258], [425, 281], [428, 329], [416, 358]]</t>
+          <t>[[0, 236, 405], [1, 260, 385], [2, 264, 353], [3, 235, 339], [4, 206, 331], [5, 262, 302], [6, 280, 261], [7, 289, 234], [8, 294, 211], [9, 234, 301], [10, 226, 254], [11, 221, 222], [12, 215, 195], [13, 213, 314], [14, 207, 300], [15, 219, 325], [16, 226, 342], [17, 197, 333], [18, 200, 333], [19, 214, 350], [20, 221, 363]]</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[[317, 451], [342, 436], [366, 406], [377, 378], [368, 364], [347, 355], [346, 310], [341, 285], [335, 264], [324, 355], [337, 320], [348, 338], [355, 359], [302, 361], [322, 361], [328, 394], [330, 418], [281, 371], [299, 378], [308, 404], [312, 421]]</t>
+          <t>[[0, 215, 394], [1, 236, 375], [2, 235, 341], [3, 203, 328], [4, 175, 318], [5, 231, 293], [6, 231, 252], [7, 229, 225], [8, 225, 202], [9, 208, 292], [10, 211, 247], [11, 211, 217], [12, 209, 191], [13, 188, 303], [14, 179, 287], [15, 188, 312], [16, 196, 330], [17, 173, 322], [18, 174, 321], [19, 186, 339], [20, 196, 351]]</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[[317, 450], [343, 435], [365, 408], [377, 381], [373, 363], [348, 355], [348, 309], [343, 284], [337, 262], [325, 353], [340, 319], [352, 337], [359, 358], [303, 358], [325, 362], [331, 394], [332, 416], [283, 367], [303, 380], [311, 406], [315, 423]]</t>
+          <t>[[0, 200, 380], [1, 219, 359], [2, 218, 325], [3, 186, 310], [4, 160, 298], [5, 214, 279], [6, 213, 238], [7, 211, 210], [8, 208, 187], [9, 192, 280], [10, 194, 234], [11, 192, 203], [12, 189, 177], [13, 174, 291], [14, 163, 274], [15, 173, 300], [16, 182, 318], [17, 159, 310], [18, 157, 306], [19, 169, 325], [20, 178, 338]]</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[[264, 340], [307, 321], [344, 270], [354, 218], [334, 180], [323, 209], [328, 145], [324, 106], [318, 72], [290, 209], [306, 150], [315, 167], [318, 190], [255, 217], [271, 191], [277, 244], [277, 282], [219, 230], [237, 218], [251, 258], [257, 287]]</t>
+          <t>[[0, 178, 362], [1, 196, 341], [2, 194, 307], [3, 162, 292], [4, 136, 280], [5, 194, 260], [6, 193, 221], [7, 191, 193], [8, 188, 171], [9, 172, 260], [10, 174, 215], [11, 173, 185], [12, 170, 160], [13, 153, 272], [14, 141, 254], [15, 150, 279], [16, 158, 298], [17, 138, 291], [18, 134, 285], [19, 146, 304], [20, 156, 317]]</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[[267, 343], [310, 322], [347, 272], [360, 223], [342, 185], [326, 211], [330, 147], [326, 108], [322, 76], [293, 210], [310, 150], [318, 166], [322, 191], [259, 218], [277, 195], [281, 247], [281, 286], [223, 231], [241, 220], [254, 260], [260, 290]]</t>
+          <t>[[0, 158, 354], [1, 173, 333], [2, 168, 302], [3, 137, 284], [4, 111, 272], [5, 171, 253], [6, 168, 212], [7, 165, 184], [8, 159, 161], [9, 150, 252], [10, 150, 206], [11, 147, 175], [12, 144, 149], [13, 131, 263], [14, 116, 242], [15, 123, 267], [16, 131, 285], [17, 116, 281], [18, 106, 274], [19, 117, 290], [20, 128, 303]]</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[[172, 358], [208, 335], [230, 292], [227, 247], [207, 215], [219, 253], [218, 208], [211, 178], [205, 150], [193, 253], [199, 214], [201, 210], [201, 210], [165, 260], [166, 239], [173, 275], [178, 304], [137, 271], [143, 262], [154, 292], [162, 315]]</t>
+          <t>[[0, 148, 342], [1, 162, 317], [2, 153, 283], [3, 122, 263], [4, 94, 249], [5, 159, 238], [6, 154, 194], [7, 151, 166], [8, 146, 142], [9, 138, 239], [10, 135, 190], [11, 132, 158], [12, 127, 132], [13, 118, 250], [14, 101, 227], [15, 111, 254], [16, 121, 274], [17, 102, 267], [18, 92, 254], [19, 103, 274], [20, 114, 290]]</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>[[159, 356], [191, 330], [210, 287], [210, 247], [191, 222], [198, 250], [197, 202], [191, 171], [185, 146], [173, 252], [179, 205], [181, 204], [180, 216], [146, 260], [148, 240], [155, 273], [161, 303], [119, 274], [124, 262], [134, 289], [142, 312]]</t>
+          <t>[[0, 136, 322], [1, 150, 298], [2, 143, 262], [3, 112, 239], [4, 84, 223], [5, 151, 216], [6, 148, 171], [7, 146, 143], [8, 142, 119], [9, 128, 217], [10, 127, 166], [11, 124, 134], [12, 120, 107], [13, 108, 228], [14, 92, 204], [15, 101, 230], [16, 110, 249], [17, 92, 245], [18, 81, 229], [19, 91, 248], [20, 101, 264]]</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>[[153, 360], [186, 332], [203, 288], [203, 249], [182, 228], [187, 252], [182, 202], [175, 172], [168, 146], [161, 256], [166, 212], [168, 209], [168, 216], [135, 266], [136, 245], [147, 278], [156, 308], [108, 282], [115, 268], [129, 294], [139, 316]]</t>
+          <t>[[0, 134, 308], [1, 149, 284], [2, 143, 248], [3, 112, 225], [4, 85, 210], [5, 153, 203], [6, 151, 158], [7, 148, 128], [8, 146, 103], [9, 131, 202], [10, 130, 151], [11, 128, 118], [12, 125, 90], [13, 111, 212], [14, 94, 188], [15, 103, 217], [16, 112, 238], [17, 94, 229], [18, 82, 214], [19, 92, 235], [20, 102, 251]]</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[[165, 366], [197, 341], [216, 297], [217, 257], [195, 233], [201, 257], [199, 206], [193, 176], [188, 150], [175, 260], [182, 216], [188, 224], [191, 240], [149, 269], [153, 250], [164, 285], [171, 314], [122, 283], [130, 271], [144, 297], [153, 319]]</t>
+          <t>[[0, 138, 297], [1, 154, 272], [2, 149, 236], [3, 118, 213], [4, 91, 198], [5, 160, 190], [6, 158, 145], [7, 156, 115], [8, 154, 91], [9, 137, 190], [10, 136, 138], [11, 134, 104], [12, 131, 77], [13, 116, 200], [14, 100, 179], [15, 109, 207], [16, 119, 226], [17, 99, 218], [18, 89, 204], [19, 100, 225], [20, 110, 240]]</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[[177, 368], [210, 346], [230, 304], [232, 264], [212, 239], [217, 261], [218, 213], [214, 182], [211, 156], [190, 264], [195, 218], [201, 225], [205, 242], [162, 272], [171, 255], [179, 291], [183, 320], [134, 285], [147, 277], [160, 305], [167, 327]]</t>
+          <t>[[0, 156, 283], [1, 176, 258], [2, 175, 220], [3, 145, 196], [4, 119, 182], [5, 185, 178], [6, 186, 131], [7, 186, 100], [8, 183, 74], [9, 162, 177], [10, 164, 123], [11, 163, 88], [12, 161, 59], [13, 139, 186], [14, 127, 159], [15, 136, 188], [16, 144, 209], [17, 120, 203], [18, 115, 188], [19, 125, 208], [20, 134, 225]]</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[[537, 365], [570, 345], [593, 319], [613, 300], [631, 283], [554, 273], [559, 240], [561, 217], [562, 197], [540, 272], [579, 254], [605, 265], [619, 278], [530, 278], [575, 283], [574, 310], [564, 324], [526, 289], [564, 296], [564, 315], [555, 324]]</t>
+          <t>[[0, 167, 279], [1, 190, 252], [2, 188, 212], [3, 160, 188], [4, 135, 173], [5, 199, 173], [6, 202, 124], [7, 202, 93], [8, 200, 66], [9, 176, 171], [10, 179, 117], [11, 179, 80], [12, 178, 50], [13, 154, 180], [14, 141, 151], [15, 150, 180], [16, 158, 202], [17, 134, 196], [18, 129, 179], [19, 140, 199], [20, 148, 215]]</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[[541, 367], [574, 350], [599, 326], [620, 308], [631, 295], [565, 277], [571, 244], [574, 221], [574, 202], [551, 276], [589, 260], [614, 272], [628, 286], [540, 281], [583, 292], [580, 316], [570, 329], [534, 291], [572, 303], [570, 319], [561, 327]]</t>
+          <t>[[0, 189, 277], [1, 216, 250], [2, 218, 212], [3, 191, 188], [4, 166, 175], [5, 225, 173], [6, 231, 125], [7, 232, 93], [8, 231, 67], [9, 201, 170], [10, 207, 116], [11, 210, 79], [12, 210, 48], [13, 178, 179], [14, 169, 150], [15, 179, 179], [16, 186, 200], [17, 157, 195], [18, 157, 181], [19, 169, 200], [20, 177, 216]]</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[[536, 368], [570, 351], [595, 328], [616, 309], [631, 296], [562, 278], [569, 246], [573, 222], [574, 202], [547, 277], [586, 260], [611, 274], [624, 290], [537, 282], [580, 294], [578, 318], [567, 331], [532, 293], [570, 306], [567, 323], [557, 331]]</t>
+          <t>[[0, 210, 276], [1, 240, 250], [2, 244, 210], [3, 219, 185], [4, 193, 171], [5, 251, 170], [6, 256, 122], [7, 258, 91], [8, 256, 64], [9, 226, 167], [10, 232, 112], [11, 235, 77], [12, 235, 47], [13, 200, 176], [14, 196, 147], [15, 204, 173], [16, 210, 194], [17, 179, 194], [18, 184, 186], [19, 197, 206], [20, 205, 223]]</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[[532, 368], [567, 351], [590, 327], [612, 310], [631, 294], [556, 278], [565, 245], [569, 221], [571, 201], [542, 276], [582, 260], [609, 274], [622, 289], [532, 282], [578, 294], [575, 319], [563, 331], [528, 294], [567, 306], [564, 324], [553, 332]]</t>
+          <t>[[0, 251, 269], [1, 282, 241], [2, 289, 198], [3, 265, 170], [4, 238, 157], [5, 289, 156], [6, 296, 107], [7, 299, 76], [8, 298, 50], [9, 265, 154], [10, 272, 99], [11, 275, 63], [12, 276, 34], [13, 239, 165], [14, 239, 135], [15, 250, 166], [16, 256, 190], [17, 216, 184], [18, 225, 171], [19, 241, 194], [20, 250, 213]]</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[[533, 371], [568, 355], [592, 330], [612, 313], [630, 299], [558, 280], [566, 248], [570, 224], [572, 204], [544, 278], [584, 265], [610, 280], [623, 295], [534, 285], [578, 298], [575, 322], [563, 334], [530, 296], [567, 311], [565, 328], [554, 335]]</t>
+          <t>[[0, 269, 275], [1, 299, 248], [2, 305, 202], [3, 280, 177], [4, 250, 167], [5, 305, 160], [6, 310, 112], [7, 311, 82], [8, 309, 56], [9, 280, 159], [10, 286, 105], [11, 287, 69], [12, 287, 40], [13, 255, 171], [14, 252, 144], [15, 263, 176], [16, 269, 200], [17, 233, 190], [18, 241, 179], [19, 257, 203], [20, 267, 222]]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[[529, 368], [564, 350], [587, 326], [608, 309], [627, 294], [553, 276], [561, 244], [565, 220], [567, 199], [538, 275], [578, 260], [604, 275], [617, 291], [528, 282], [574, 294], [572, 319], [562, 331], [524, 295], [562, 308], [561, 325], [551, 332]]</t>
+          <t>[[0, 291, 291], [1, 321, 267], [2, 330, 221], [3, 308, 194], [4, 279, 182], [5, 325, 177], [6, 330, 127], [7, 331, 97], [8, 329, 70], [9, 299, 176], [10, 306, 121], [11, 310, 85], [12, 310, 56], [13, 274, 188], [14, 275, 159], [15, 286, 191], [16, 292, 215], [17, 253, 206], [18, 266, 197], [19, 283, 222], [20, 293, 242]]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[[200, 398], [240, 375], [270, 326], [268, 278], [238, 244], [264, 249], [274, 178], [273, 132], [273, 93], [225, 250], [239, 189], [240, 203], [239, 228], [185, 260], [195, 247], [201, 302], [202, 342], [148, 275], [162, 269], [170, 311], [171, 339]]</t>
+          <t>[[0, 355, 316], [1, 386, 294], [2, 400, 253], [3, 377, 231], [4, 347, 221], [5, 386, 196], [6, 386, 147], [7, 385, 116], [8, 381, 89], [9, 358, 198], [10, 361, 144], [11, 363, 109], [12, 363, 80], [13, 333, 212], [14, 338, 193], [15, 351, 225], [16, 358, 250], [17, 313, 234], [18, 328, 239], [19, 348, 266], [20, 363, 285]]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[[197, 373], [240, 347], [267, 299], [260, 249], [231, 213], [261, 223], [270, 153], [268, 107], [268, 67], [221, 225], [231, 161], [232, 186], [234, 220], [181, 237], [191, 224], [197, 279], [200, 316], [144, 252], [156, 240], [164, 282], [164, 310]]</t>
+          <t>[[0, 378, 320], [1, 410, 295], [2, 424, 254], [3, 402, 235], [4, 373, 228], [5, 407, 200], [6, 409, 152], [7, 406, 121], [8, 401, 95], [9, 378, 201], [10, 386, 149], [11, 388, 114], [12, 387, 85], [13, 353, 216], [14, 360, 196], [15, 374, 232], [16, 382, 259], [17, 333, 240], [18, 351, 242], [19, 371, 268], [20, 385, 287]]</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[[188, 333], [229, 303], [250, 249], [241, 199], [215, 163], [243, 178], [250, 107], [248, 61], [247, 22], [203, 180], [211, 110], [207, 126], [204, 156], [164, 194], [173, 182], [179, 235], [182, 270], [127, 214], [140, 206], [149, 248], [153, 274]]</t>
+          <t>[[0, 399, 330], [1, 431, 311], [2, 448, 270], [3, 430, 247], [4, 402, 240], [5, 434, 216], [6, 441, 168], [7, 444, 138], [8, 442, 112], [9, 405, 214], [10, 417, 163], [11, 423, 129], [12, 424, 101], [13, 379, 225], [14, 391, 213], [15, 401, 243], [16, 405, 267], [17, 358, 245], [18, 382, 254], [19, 401, 283], [20, 413, 302]]</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[[150, 349], [188, 315], [201, 261], [181, 213], [150, 184], [199, 189], [201, 118], [197, 71], [193, 33], [160, 194], [156, 123], [149, 145], [146, 180], [122, 211], [119, 195], [125, 239], [131, 272], [90, 235], [92, 216], [101, 248], [108, 274]]</t>
+          <t>[[0, 392, 341], [1, 427, 323], [2, 446, 282], [3, 428, 259], [4, 399, 252], [5, 432, 229], [6, 439, 178], [7, 441, 147], [8, 439, 119], [9, 403, 227], [10, 414, 176], [11, 422, 143], [12, 424, 115], [13, 376, 237], [14, 389, 222], [15, 399, 254], [16, 402, 277], [17, 355, 255], [18, 380, 266], [19, 398, 295], [20, 408, 314]]</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[[90, 387], [122, 337], [120, 276], [76, 242], [39, 232], [114, 212], [104, 142], [93, 97], [88, 60], [75, 225], [58, 169], [39, 196], [35, 231], [42, 247], [23, 236], [33, 280], [51, 312], [19, 275], [4, 267], [17, 299], [36, 326]]</t>
+          <t>[[0, 377, 375], [1, 413, 358], [2, 435, 318], [3, 418, 294], [4, 388, 287], [5, 422, 265], [6, 431, 216], [7, 433, 187], [8, 431, 160], [9, 393, 260], [10, 404, 210], [11, 413, 176], [12, 416, 148], [13, 366, 267], [14, 382, 255], [15, 390, 288], [16, 391, 311], [17, 346, 284], [18, 374, 300], [19, 392, 329], [20, 401, 347]]</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[[37, 392], [18, 350], [9, 298], [-1, 264], [-22, 233], [30, 222], [20, 157], [7, 116], [-6, 82], [36, 231], [25, 157], [8, 113], [-7, 77], [36, 261], [21, 199], [2, 180], [-12, 165], [33, 304], [16, 273], [-2, 266], [-16, 262]]</t>
+          <t>[[0, 368, 404], [1, 403, 389], [2, 426, 354], [3, 411, 333], [4, 383, 328], [5, 416, 297], [6, 426, 251], [7, 428, 222], [8, 426, 196], [9, 388, 291], [10, 401, 246], [11, 409, 214], [12, 412, 188], [13, 362, 298], [14, 375, 301], [15, 384, 331], [16, 388, 350], [17, 342, 315], [18, 363, 338], [19, 379, 364], [20, 388, 379]]</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[[31, 395], [8, 340], [-10, 290], [-26, 255], [-46, 222], [2, 236], [-7, 174], [-18, 133], [-24, 100], [18, 254], [8, 185], [-4, 143], [-17, 107], [29, 286], [22, 225], [6, 185], [-8, 155], [33, 327], [14, 304], [-8, 288], [-30, 276]]</t>
+          <t>[[0, 360, 434], [1, 393, 421], [2, 417, 388], [3, 403, 368], [4, 375, 362], [5, 409, 331], [6, 419, 287], [7, 423, 258], [8, 422, 231], [9, 379, 324], [10, 394, 280], [11, 404, 249], [12, 410, 222], [13, 352, 330], [14, 369, 329], [15, 375, 359], [16, 375, 379], [17, 331, 347], [18, 355, 371], [19, 372, 398], [20, 382, 415]]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[[379, 372], [427, 350], [469, 308], [497, 274], [493, 251], [435, 228], [449, 168], [456, 130], [457, 98], [403, 225], [444, 185], [482, 204], [503, 231], [375, 232], [426, 246], [428, 289], [419, 316], [352, 248], [398, 264], [400, 296], [390, 317]]</t>
+          <t>[[0, 350, 448], [1, 382, 432], [2, 403, 395], [3, 385, 373], [4, 354, 367], [5, 392, 343], [6, 400, 298], [7, 403, 270], [8, 402, 244], [9, 364, 338], [10, 377, 291], [11, 386, 259], [12, 389, 231], [13, 338, 345], [14, 352, 334], [15, 356, 362], [16, 354, 381], [17, 316, 362], [18, 342, 379], [19, 360, 407], [20, 370, 425]]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[[426, 382], [477, 360], [521, 322], [553, 293], [569, 269], [487, 245], [502, 187], [510, 150], [513, 118], [459, 241], [508, 206], [545, 224], [566, 247], [434, 247], [488, 261], [483, 301], [469, 322], [415, 262], [461, 281], [458, 310], [445, 324]]</t>
+          <t>[[0, 338, 461], [1, 367, 441], [2, 385, 404], [3, 365, 383], [4, 336, 380], [5, 374, 352], [6, 381, 308], [7, 383, 278], [8, 381, 252], [9, 346, 349], [10, 357, 302], [11, 363, 270], [12, 365, 243], [13, 321, 357], [14, 329, 346], [15, 339, 375], [16, 343, 397], [17, 298, 375], [18, 317, 386], [19, 337, 414], [20, 349, 435]]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[[446, 385], [497, 365], [543, 325], [578, 297], [596, 273], [509, 250], [524, 195], [530, 159], [532, 129], [481, 246], [529, 210], [567, 229], [589, 252], [458, 252], [513, 267], [509, 306], [496, 327], [442, 267], [490, 287], [486, 316], [473, 329]]</t>
+          <t>[[0, 315, 463], [1, 346, 443], [2, 362, 404], [3, 338, 383], [4, 309, 377], [5, 348, 354], [6, 354, 309], [7, 355, 280], [8, 353, 253], [9, 320, 351], [10, 330, 305], [11, 336, 272], [12, 339, 244], [13, 294, 361], [14, 303, 343], [15, 314, 378], [16, 319, 403], [17, 273, 379], [18, 293, 387], [19, 311, 415], [20, 321, 434]]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[[435, 380], [482, 359], [523, 320], [555, 294], [570, 271], [491, 249], [507, 196], [516, 160], [520, 131], [465, 246], [509, 212], [545, 230], [566, 252], [441, 251], [491, 263], [487, 303], [473, 324], [420, 264], [465, 279], [462, 308], [449, 321]]</t>
+          <t>[[0, 305, 458], [1, 333, 437], [2, 345, 394], [3, 322, 372], [4, 293, 367], [5, 335, 344], [6, 340, 299], [7, 340, 270], [8, 338, 244], [9, 308, 343], [10, 317, 297], [11, 322, 264], [12, 323, 236], [13, 282, 355], [14, 290, 336], [15, 302, 369], [16, 308, 394], [17, 261, 374], [18, 280, 378], [19, 298, 405], [20, 308, 424]]</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>[[350, 371], [396, 351], [431, 315], [443, 283], [425, 264], [409, 240], [419, 184], [423, 147], [423, 118], [379, 238], [410, 193], [442, 209], [462, 232], [351, 244], [392, 256], [391, 296], [379, 316], [325, 258], [363, 271], [364, 299], [353, 312]]</t>
+          <t>[[0, 281, 448], [1, 311, 424], [2, 321, 383], [3, 297, 362], [4, 268, 354], [5, 314, 335], [6, 318, 289], [7, 318, 258], [8, 315, 231], [9, 288, 334], [10, 296, 284], [11, 299, 249], [12, 298, 219], [13, 262, 345], [14, 264, 324], [15, 274, 355], [16, 280, 379], [17, 239, 363], [18, 252, 365], [19, 269, 391], [20, 281, 411]]</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[[269, 400], [311, 372], [339, 327], [344, 289], [331, 263], [308, 265], [308, 205], [304, 170], [297, 140], [276, 267], [295, 224], [311, 254], [316, 279], [248, 278], [279, 287], [287, 324], [282, 340], [223, 295], [256, 308], [264, 335], [260, 345]]</t>
+          <t>[[0, 242, 439], [1, 271, 413], [2, 277, 372], [3, 253, 351], [4, 224, 340], [5, 277, 320], [6, 276, 273], [7, 273, 243], [8, 268, 217], [9, 252, 320], [10, 258, 269], [11, 258, 235], [12, 257, 205], [13, 227, 331], [14, 224, 312], [15, 233, 341], [16, 240, 362], [17, 205, 351], [18, 213, 355], [19, 228, 380], [20, 239, 397]]</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[[211, 435], [244, 404], [267, 361], [273, 325], [253, 308], [239, 293], [233, 233], [225, 197], [214, 167], [205, 298], [216, 256], [231, 286], [239, 315], [174, 312], [199, 317], [212, 360], [214, 383], [147, 330], [169, 339], [183, 368], [186, 382]]</t>
+          <t>[[0, 218, 440], [1, 245, 414], [2, 248, 371], [3, 217, 349], [4, 187, 339], [5, 245, 322], [6, 245, 273], [7, 242, 240], [8, 239, 213], [9, 220, 322], [10, 222, 269], [11, 221, 233], [12, 220, 203], [13, 195, 334], [14, 190, 312], [15, 202, 345], [16, 210, 369], [17, 174, 354], [18, 179, 349], [19, 194, 374], [20, 203, 391]]</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[[209, 473], [243, 446], [265, 408], [267, 376], [246, 361], [246, 339], [243, 279], [237, 244], [232, 214], [214, 341], [223, 307], [233, 332], [241, 359], [183, 351], [200, 363], [210, 403], [215, 428], [156, 365], [173, 382], [183, 412], [188, 428]]</t>
+          <t>[[0, 198, 430], [1, 223, 405], [2, 226, 362], [3, 194, 339], [4, 164, 325], [5, 224, 311], [6, 223, 262], [7, 222, 230], [8, 218, 203], [9, 198, 311], [10, 200, 257], [11, 199, 222], [12, 198, 193], [13, 174, 323], [14, 168, 295], [15, 179, 327], [16, 187, 350], [17, 154, 343], [18, 157, 339], [19, 172, 364], [20, 183, 381]]</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[[237, 504], [266, 479], [289, 446], [289, 420], [271, 403], [266, 375], [263, 320], [259, 287], [254, 258], [233, 378], [245, 347], [260, 379], [265, 404], [203, 390], [223, 400], [236, 437], [238, 452], [177, 408], [195, 422], [206, 447], [206, 454]]</t>
+          <t>[[0, 175, 414], [1, 200, 389], [2, 201, 346], [3, 169, 321], [4, 139, 304], [5, 204, 296], [6, 203, 246], [7, 202, 214], [8, 198, 187], [9, 179, 296], [10, 181, 241], [11, 180, 206], [12, 178, 177], [13, 155, 308], [14, 146, 280], [15, 157, 313], [16, 165, 336], [17, 134, 328], [18, 135, 320], [19, 149, 346], [20, 160, 365]]</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[[242, 509], [271, 493], [297, 468], [305, 445], [289, 429], [278, 392], [275, 339], [272, 306], [267, 279], [245, 392], [261, 368], [275, 401], [279, 425], [216, 404], [237, 425], [248, 462], [249, 477], [190, 421], [209, 444], [222, 471], [222, 480]]</t>
+          <t>[[0, 157, 401], [1, 179, 375], [2, 179, 334], [3, 147, 311], [4, 119, 295], [5, 184, 285], [6, 181, 235], [7, 179, 204], [8, 175, 178], [9, 159, 285], [10, 159, 230], [11, 157, 195], [12, 155, 166], [13, 135, 296], [14, 124, 269], [15, 135, 302], [16, 144, 325], [17, 114, 316], [18, 114, 310], [19, 128, 336], [20, 138, 354]]</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[[249, 489], [279, 470], [306, 438], [318, 410], [304, 395], [286, 371], [289, 320], [286, 288], [282, 261], [257, 370], [273, 339], [287, 366], [295, 393], [229, 377], [252, 390], [260, 427], [261, 450], [204, 390], [224, 408], [233, 434], [234, 447]]</t>
+          <t>[[0, 141, 393], [1, 163, 369], [2, 164, 327], [3, 133, 303], [4, 105, 284], [5, 172, 280], [6, 170, 230], [7, 168, 198], [8, 165, 171], [9, 146, 279], [10, 147, 224], [11, 146, 189], [12, 143, 160], [13, 122, 290], [14, 113, 261], [15, 122, 292], [16, 129, 315], [17, 101, 308], [18, 101, 301], [19, 114, 327], [20, 123, 345]]</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[[235, 442], [269, 415], [291, 374], [292, 337], [270, 315], [273, 323], [274, 271], [271, 239], [269, 211], [244, 325], [254, 291], [265, 317], [273, 344], [216, 333], [234, 331], [242, 369], [245, 396], [190, 346], [207, 345], [216, 373], [220, 392]]</t>
+          <t>[[0, 138, 379], [1, 160, 354], [2, 159, 312], [3, 128, 286], [4, 102, 265], [5, 169, 267], [6, 168, 216], [7, 167, 185], [8, 165, 157], [9, 144, 265], [10, 144, 209], [11, 143, 174], [12, 142, 145], [13, 119, 275], [14, 111, 246], [15, 120, 276], [16, 127, 298], [17, 98, 292], [18, 98, 285], [19, 110, 310], [20, 119, 327]]</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[[238, 377], [271, 353], [293, 315], [297, 279], [279, 255], [273, 266], [274, 215], [269, 185], [265, 158], [245, 268], [255, 230], [264, 233], [272, 241], [216, 275], [234, 270], [241, 309], [245, 339], [190, 287], [209, 286], [219, 316], [224, 338]]</t>
+          <t>[[0, 138, 359], [1, 162, 331], [2, 160, 289], [3, 131, 262], [4, 105, 241], [5, 170, 245], [6, 171, 195], [7, 170, 164], [8, 167, 136], [9, 146, 244], [10, 147, 188], [11, 146, 153], [12, 144, 123], [13, 120, 254], [14, 112, 223], [15, 120, 253], [16, 127, 276], [17, 98, 271], [18, 99, 263], [19, 112, 288], [20, 121, 308]]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[[278, 351], [314, 330], [344, 286], [342, 247], [324, 224], [322, 243], [323, 194], [320, 163], [317, 138], [295, 243], [304, 208], [318, 205], [329, 209], [269, 248], [286, 244], [292, 281], [295, 311], [243, 259], [264, 255], [272, 285], [274, 308]]</t>
+          <t>[[0, 143, 342], [1, 166, 314], [2, 165, 271], [3, 138, 243], [4, 113, 222], [5, 176, 228], [6, 177, 177], [7, 177, 145], [8, 175, 118], [9, 151, 227], [10, 153, 171], [11, 153, 135], [12, 152, 106], [13, 126, 238], [14, 118, 206], [15, 127, 237], [16, 134, 260], [17, 104, 255], [18, 105, 245], [19, 119, 270], [20, 128, 290]]</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[[331, 324], [365, 307], [394, 272], [412, 240], [413, 211], [373, 221], [378, 173], [379, 145], [378, 121], [350, 219], [366, 185], [386, 184], [400, 189], [325, 222], [348, 221], [350, 258], [348, 286], [300, 230], [324, 231], [328, 259], [327, 280]]</t>
+          <t>[[0, 154, 322], [1, 179, 292], [2, 179, 249], [3, 153, 220], [4, 128, 201], [5, 190, 208], [6, 192, 158], [7, 192, 126], [8, 190, 99], [9, 166, 207], [10, 169, 150], [11, 169, 115], [12, 168, 84], [13, 140, 217], [14, 134, 185], [15, 141, 217], [16, 148, 241], [17, 118, 235], [18, 119, 223], [19, 132, 248], [20, 142, 268]]</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[[370, 303], [406, 286], [435, 252], [451, 221], [460, 193], [409, 202], [417, 159], [420, 131], [422, 107], [389, 200], [412, 168], [436, 166], [453, 172], [367, 202], [398, 196], [397, 234], [392, 264], [346, 206], [376, 203], [379, 232], [376, 255]]</t>
+          <t>[[0, 168, 305], [1, 197, 273], [2, 201, 229], [3, 174, 201], [4, 148, 186], [5, 208, 191], [6, 211, 143], [7, 211, 113], [8, 209, 87], [9, 182, 190], [10, 187, 136], [11, 188, 101], [12, 187, 72], [13, 156, 201], [14, 152, 168], [15, 160, 198], [16, 167, 222], [17, 133, 219], [18, 137, 206], [19, 151, 230], [20, 162, 250]]</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[[387, 282], [421, 268], [452, 236], [473, 205], [480, 176], [428, 188], [437, 147], [441, 120], [443, 98], [409, 185], [434, 153], [458, 151], [473, 158], [388, 185], [420, 175], [417, 213], [409, 243], [366, 188], [399, 183], [400, 212], [393, 236]]</t>
+          <t>[[0, 189, 298], [1, 221, 269], [2, 227, 224], [3, 202, 195], [4, 175, 181], [5, 232, 186], [6, 236, 140], [7, 238, 109], [8, 236, 84], [9, 206, 185], [10, 214, 132], [11, 216, 98], [12, 215, 69], [13, 181, 195], [14, 178, 165], [15, 187, 194], [16, 193, 217], [17, 157, 214], [18, 163, 201], [19, 178, 225], [20, 188, 246]]</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[[377, 258], [412, 246], [442, 214], [463, 185], [471, 156], [422, 166], [431, 126], [434, 100], [436, 79], [403, 163], [426, 132], [447, 130], [462, 135], [380, 163], [409, 156], [406, 192], [400, 221], [357, 166], [386, 161], [389, 191], [384, 214]]</t>
+          <t>[[0, 205, 299], [1, 235, 272], [2, 244, 227], [3, 220, 197], [4, 193, 180], [5, 248, 187], [6, 254, 139], [7, 257, 109], [8, 256, 84], [9, 222, 185], [10, 230, 132], [11, 234, 97], [12, 234, 69], [13, 196, 196], [14, 195, 166], [15, 204, 197], [16, 208, 220], [17, 172, 214], [18, 180, 201], [19, 195, 227], [20, 204, 248]]</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[[373, 256], [408, 241], [438, 208], [459, 179], [466, 150], [415, 165], [424, 125], [429, 99], [433, 78], [397, 162], [419, 132], [441, 128], [457, 132], [375, 162], [404, 151], [402, 187], [396, 217], [353, 164], [383, 157], [384, 186], [380, 210]]</t>
+          <t>[[0, 212, 300], [1, 243, 272], [2, 253, 226], [3, 229, 196], [4, 201, 181], [5, 254, 188], [6, 261, 140], [7, 263, 111], [8, 262, 85], [9, 229, 186], [10, 237, 134], [11, 241, 100], [12, 241, 72], [13, 203, 196], [14, 205, 164], [15, 213, 195], [16, 218, 219], [17, 179, 214], [18, 189, 202], [19, 204, 227], [20, 213, 247]]</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[[274, 294], [311, 274], [344, 232], [353, 195], [335, 172], [323, 186], [330, 140], [332, 110], [332, 84], [297, 186], [311, 152], [327, 151], [338, 151], [270, 191], [293, 188], [295, 224], [291, 245], [242, 201], [267, 200], [272, 229], [269, 245]]</t>
+          <t>[[0, 221, 306], [1, 253, 278], [2, 263, 232], [3, 240, 202], [4, 213, 185], [5, 266, 192], [6, 273, 146], [7, 276, 116], [8, 276, 91], [9, 240, 190], [10, 250, 138], [11, 255, 105], [12, 257, 77], [13, 213, 200], [14, 216, 167], [15, 223, 198], [16, 227, 223], [17, 189, 218], [18, 199, 205], [19, 214, 232], [20, 223, 254]]</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[[212, 301], [250, 274], [278, 232], [278, 193], [254, 170], [265, 189], [272, 138], [274, 107], [275, 81], [235, 189], [247, 152], [254, 167], [257, 184], [207, 195], [220, 192], [226, 229], [227, 254], [178, 206], [195, 206], [203, 235], [204, 253]]</t>
+          <t>[[0, 218, 302], [1, 251, 275], [2, 261, 229], [3, 236, 200], [4, 209, 185], [5, 262, 189], [6, 269, 143], [7, 272, 113], [8, 271, 88], [9, 236, 188], [10, 245, 135], [11, 249, 102], [12, 250, 75], [13, 211, 198], [14, 211, 167], [15, 220, 197], [16, 224, 221], [17, 186, 217], [18, 197, 205], [19, 211, 232], [20, 220, 252]]</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[[157, 292], [189, 265], [209, 224], [211, 186], [190, 160], [203, 177], [211, 125], [213, 93], [213, 65], [175, 178], [183, 134], [191, 156], [195, 182], [146, 185], [156, 178], [161, 216], [161, 242], [118, 196], [131, 192], [139, 220], [140, 238]]</t>
+          <t>[[0, 221, 306], [1, 253, 279], [2, 262, 231], [3, 238, 201], [4, 211, 186], [5, 262, 192], [6, 269, 145], [7, 271, 115], [8, 270, 90], [9, 237, 191], [10, 246, 138], [11, 250, 105], [12, 250, 77], [13, 212, 201], [14, 212, 167], [15, 221, 196], [16, 226, 219], [17, 188, 219], [18, 199, 208], [19, 214, 233], [20, 224, 254]]</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[[122, 292], [152, 267], [168, 229], [166, 193], [148, 167], [163, 177], [168, 125], [169, 91], [168, 61], [135, 179], [141, 133], [150, 150], [157, 175], [105, 189], [114, 174], [120, 213], [122, 241], [77, 202], [87, 187], [96, 216], [98, 237]]</t>
+          <t>[[0, 236, 321], [1, 265, 293], [2, 273, 246], [3, 250, 217], [4, 224, 200], [5, 274, 205], [6, 278, 159], [7, 280, 129], [8, 278, 104], [9, 249, 205], [10, 256, 152], [11, 258, 119], [12, 258, 91], [13, 224, 217], [14, 223, 187], [15, 233, 217], [16, 239, 240], [17, 201, 236], [18, 209, 223], [19, 226, 247], [20, 236, 267]]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[[96, 291], [123, 262], [133, 221], [125, 184], [103, 162], [133, 175], [135, 122], [133, 89], [132, 60], [104, 178], [106, 132], [106, 150], [109, 173], [76, 188], [77, 175], [83, 212], [88, 237], [50, 202], [53, 189], [62, 216], [66, 236]]</t>
+          <t>[[0, 301, 361], [1, 336, 335], [2, 347, 294], [3, 324, 268], [4, 297, 256], [5, 338, 247], [6, 342, 200], [7, 343, 169], [8, 340, 143], [9, 313, 246], [10, 323, 194], [11, 327, 159], [12, 328, 131], [13, 288, 256], [14, 292, 229], [15, 302, 257], [16, 308, 282], [17, 265, 274], [18, 278, 270], [19, 296, 293], [20, 307, 313]]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[[91, 293], [117, 266], [127, 229], [119, 193], [99, 168], [128, 175], [130, 126], [127, 94], [126, 65], [99, 180], [97, 136], [99, 155], [103, 179], [70, 191], [71, 179], [79, 216], [84, 243], [45, 205], [49, 196], [58, 223], [63, 244]]</t>
+          <t>[[0, 315, 439], [1, 348, 421], [2, 371, 381], [3, 356, 356], [4, 328, 351], [5, 361, 329], [6, 374, 287], [7, 379, 259], [8, 381, 233], [9, 334, 324], [10, 352, 281], [11, 363, 248], [12, 369, 221], [13, 308, 331], [14, 322, 319], [15, 328, 351], [16, 328, 376], [17, 285, 347], [18, 309, 357], [19, 325, 386], [20, 334, 407]]</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[[204, 364], [240, 344], [270, 312], [277, 279], [257, 260], [255, 258], [263, 209], [267, 180], [269, 154], [228, 256], [243, 222], [254, 241], [260, 261], [201, 260], [220, 266], [224, 300], [223, 320], [176, 270], [195, 279], [201, 304], [200, 319]]</t>
+          <t>[[0, 273, 448], [1, 304, 426], [2, 320, 389], [3, 297, 370], [4, 269, 365], [5, 314, 338], [6, 322, 296], [7, 324, 270], [8, 323, 247], [9, 288, 335], [10, 298, 289], [11, 304, 259], [12, 305, 233], [13, 263, 344], [14, 268, 329], [15, 276, 358], [16, 280, 380], [17, 240, 363], [18, 254, 373], [19, 269, 398], [20, 279, 414]]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[[268, 381], [302, 368], [334, 338], [349, 312], [337, 295], [316, 280], [326, 232], [330, 202], [331, 178], [291, 275], [316, 245], [338, 263], [349, 284], [267, 279], [300, 293], [300, 324], [292, 339], [247, 289], [277, 306], [276, 329], [268, 339]]</t>
+          <t>[[0, 225, 457], [1, 253, 435], [2, 261, 396], [3, 235, 376], [4, 207, 365], [5, 259, 346], [6, 261, 302], [7, 259, 272], [8, 255, 246], [9, 234, 344], [10, 241, 297], [11, 242, 264], [12, 241, 236], [13, 210, 354], [14, 207, 336], [15, 214, 366], [16, 220, 387], [17, 188, 372], [18, 194, 377], [19, 207, 400], [20, 217, 416]]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[[339, 413], [377, 398], [408, 369], [429, 348], [443, 331], [386, 308], [399, 264], [407, 234], [412, 209], [364, 305], [400, 282], [426, 298], [442, 317], [345, 311], [387, 328], [383, 358], [372, 374], [330, 322], [365, 341], [364, 364], [355, 373]]</t>
+          <t>[[0, 198, 423], [1, 223, 397], [2, 224, 357], [3, 193, 335], [4, 165, 322], [5, 219, 309], [6, 216, 261], [7, 213, 230], [8, 208, 203], [9, 193, 309], [10, 193, 257], [11, 190, 222], [12, 186, 194], [13, 169, 321], [14, 164, 298], [15, 176, 330], [16, 185, 353], [17, 149, 340], [18, 154, 335], [19, 169, 360], [20, 181, 379]]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>[[402, 425], [445, 407], [475, 378], [500, 361], [522, 347], [445, 316], [459, 275], [466, 246], [470, 222], [425, 314], [471, 297], [500, 315], [515, 333], [410, 323], [459, 340], [455, 368], [442, 381], [400, 338], [441, 356], [440, 376], [430, 385]]</t>
+          <t>[[0, 220, 340], [1, 248, 316], [2, 261, 279], [3, 236, 252], [4, 210, 239], [5, 261, 235], [6, 262, 190], [7, 259, 163], [8, 255, 139], [9, 238, 232], [10, 241, 185], [11, 239, 156], [12, 238, 130], [13, 216, 237], [14, 218, 197], [15, 221, 169], [16, 223, 140], [17, 195, 253], [18, 202, 233], [19, 211, 252], [20, 216, 272]]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[[440, 422], [484, 405], [513, 378], [539, 360], [562, 344], [481, 316], [496, 278], [504, 251], [508, 228], [464, 314], [512, 297], [543, 314], [560, 330], [453, 322], [505, 338], [499, 366], [485, 378], [450, 337], [493, 356], [489, 376], [477, 382]]</t>
+          <t>[[0, 215, 339], [1, 243, 314], [2, 254, 277], [3, 228, 252], [4, 200, 242], [5, 255, 236], [6, 256, 191], [7, 253, 165], [8, 250, 141], [9, 232, 233], [10, 235, 188], [11, 233, 159], [12, 232, 133], [13, 210, 238], [14, 212, 199], [15, 216, 172], [16, 218, 144], [17, 190, 253], [18, 197, 234], [19, 206, 252], [20, 209, 272]]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[[438, 423], [483, 406], [511, 378], [535, 359], [559, 345], [476, 316], [491, 278], [500, 251], [504, 227], [460, 315], [508, 297], [540, 315], [557, 333], [450, 324], [502, 339], [498, 368], [484, 380], [446, 339], [490, 358], [487, 377], [475, 383]]</t>
+          <t>[[0, 208, 340], [1, 235, 319], [2, 247, 282], [3, 219, 259], [4, 192, 247], [5, 248, 241], [6, 248, 199], [7, 245, 173], [8, 242, 149], [9, 225, 238], [10, 227, 194], [11, 225, 165], [12, 225, 138], [13, 203, 242], [14, 204, 204], [15, 207, 176], [16, 209, 148], [17, 183, 254], [18, 191, 244], [19, 199, 265], [20, 203, 284]]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[[392, 438], [429, 414], [454, 386], [474, 368], [489, 352], [424, 326], [431, 285], [436, 255], [438, 230], [402, 325], [440, 307], [469, 325], [483, 343], [385, 335], [431, 354], [430, 383], [417, 394], [374, 353], [415, 374], [414, 394], [401, 399]]</t>
+          <t>[[0, 196, 348], [1, 222, 327], [2, 230, 292], [3, 200, 271], [4, 176, 261], [5, 234, 253], [6, 234, 211], [7, 231, 185], [8, 228, 161], [9, 211, 250], [10, 212, 206], [11, 210, 177], [12, 210, 151], [13, 191, 254], [14, 191, 216], [15, 193, 189], [16, 195, 162], [17, 173, 265], [18, 177, 254], [19, 184, 271], [20, 187, 289]]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[[345, 441], [383, 420], [409, 391], [427, 368], [439, 349], [378, 330], [384, 285], [387, 256], [389, 232], [357, 330], [391, 307], [420, 322], [438, 341], [339, 340], [384, 354], [385, 384], [377, 399], [327, 356], [367, 372], [369, 393], [361, 403]]</t>
+          <t>[[0, 175, 347], [1, 198, 328], [2, 207, 293], [3, 177, 269], [4, 151, 259], [5, 212, 252], [6, 212, 210], [7, 209, 184], [8, 205, 162], [9, 190, 248], [10, 191, 206], [11, 188, 178], [12, 187, 155], [13, 170, 253], [14, 170, 216], [15, 172, 191], [16, 174, 167], [17, 153, 265], [18, 154, 251], [19, 161, 261], [20, 164, 273]]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[[313, 444], [345, 423], [371, 395], [387, 372], [385, 356], [344, 338], [350, 292], [352, 263], [350, 238], [320, 337], [346, 308], [372, 326], [386, 345], [300, 345], [338, 360], [340, 392], [331, 406], [283, 359], [317, 376], [319, 398], [311, 406]]</t>
+          <t>[[0, 137, 339], [1, 157, 321], [2, 161, 288], [3, 131, 264], [4, 104, 251], [5, 172, 246], [6, 170, 204], [7, 164, 176], [8, 158, 152], [9, 151, 239], [10, 150, 196], [11, 145, 168], [12, 142, 145], [13, 133, 239], [14, 131, 200], [15, 130, 173], [16, 128, 150], [17, 117, 245], [18, 118, 212], [19, 121, 191], [20, 121, 174]]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>[[276, 440], [307, 421], [332, 394], [349, 374], [356, 359], [311, 336], [319, 289], [323, 260], [323, 236], [288, 334], [314, 306], [337, 327], [349, 348], [267, 340], [301, 357], [306, 389], [300, 404], [249, 352], [278, 372], [282, 395], [275, 403]]</t>
+          <t>[[0, 128, 332], [1, 145, 311], [2, 147, 272], [3, 116, 247], [4, 85, 235], [5, 158, 232], [6, 153, 187], [7, 146, 158], [8, 140, 132], [9, 135, 230], [10, 129, 184], [11, 122, 153], [12, 119, 126], [13, 115, 235], [14, 109, 194], [15, 109, 165], [16, 109, 137], [17, 98, 247], [18, 94, 234], [19, 99, 246], [20, 103, 259]]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>[[227, 420], [258, 403], [285, 373], [295, 347], [281, 333], [268, 317], [275, 272], [278, 245], [277, 221], [243, 316], [260, 287], [275, 308], [281, 330], [219, 322], [244, 333], [248, 364], [243, 380], [198, 334], [222, 345], [226, 368], [220, 378]]</t>
+          <t>[[0, 120, 314], [1, 138, 292], [2, 140, 251], [3, 107, 225], [4, 76, 215], [5, 151, 212], [6, 145, 165], [7, 137, 135], [8, 131, 109], [9, 127, 209], [10, 121, 162], [11, 114, 129], [12, 111, 102], [13, 107, 215], [14, 100, 171], [15, 99, 141], [16, 100, 112], [17, 91, 227], [18, 86, 212], [19, 91, 225], [20, 94, 239]]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[[181, 409], [210, 389], [234, 359], [240, 333], [223, 321], [221, 306], [225, 260], [226, 233], [226, 210], [194, 306], [206, 277], [215, 300], [220, 320], [169, 312], [187, 323], [193, 355], [194, 370], [147, 322], [164, 336], [171, 359], [173, 369]]</t>
+          <t>[[0, 128, 292], [1, 149, 272], [2, 151, 235], [3, 120, 206], [4, 91, 192], [5, 167, 195], [6, 163, 147], [7, 155, 115], [8, 149, 89], [9, 144, 190], [10, 140, 141], [11, 134, 108], [12, 131, 81], [13, 123, 193], [14, 118, 148], [15, 118, 117], [16, 118, 89], [17, 106, 202], [18, 103, 175], [19, 106, 167], [20, 106, 162]]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[[169, 394], [198, 375], [220, 346], [226, 320], [211, 303], [210, 290], [214, 245], [213, 216], [212, 191], [183, 288], [194, 257], [200, 278], [205, 302], [156, 293], [170, 306], [176, 339], [179, 361], [132, 303], [145, 317], [153, 342], [157, 357]]</t>
+          <t>[[0, 159, 270], [1, 189, 244], [2, 199, 205], [3, 166, 179], [4, 138, 170], [5, 204, 166], [6, 202, 123], [7, 197, 94], [8, 193, 70], [9, 179, 163], [10, 178, 117], [11, 173, 87], [12, 171, 61], [13, 157, 168], [14, 155, 124], [15, 155, 98], [16, 154, 73], [17, 136, 181], [18, 136, 163], [19, 143, 174], [20, 147, 187]]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>[[163, 374], [194, 352], [216, 319], [218, 286], [197, 267], [201, 269], [207, 222], [206, 194], [205, 168], [175, 268], [185, 236], [193, 256], [199, 278], [148, 275], [164, 279], [171, 314], [173, 337], [124, 286], [139, 293], [147, 318], [149, 332]]</t>
+          <t>[[0, 190, 276], [1, 219, 251], [2, 231, 211], [3, 200, 185], [4, 174, 176], [5, 236, 170], [6, 236, 128], [7, 233, 100], [8, 229, 76], [9, 212, 169], [10, 213, 122], [11, 209, 93], [12, 207, 66], [13, 189, 175], [14, 187, 133], [15, 189, 107], [16, 190, 82], [17, 167, 189], [18, 171, 174], [19, 181, 193], [20, 187, 212]]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>[[134, 328], [163, 304], [179, 267], [177, 232], [155, 212], [163, 223], [163, 173], [159, 143], [155, 116], [136, 225], [142, 189], [150, 205], [157, 224], [110, 233], [121, 231], [131, 266], [137, 290], [85, 246], [98, 246], [110, 272], [116, 289]]</t>
+          <t>[[0, 232, 275], [1, 264, 250], [2, 280, 208], [3, 249, 179], [4, 220, 170], [5, 277, 167], [6, 280, 124], [7, 279, 96], [8, 276, 72], [9, 253, 165], [10, 256, 118], [11, 255, 88], [12, 254, 61], [13, 229, 171], [14, 231, 126], [15, 234, 96], [16, 236, 67], [17, 206, 186], [18, 211, 165], [19, 221, 184], [20, 228, 203]]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[[131, 307], [160, 283], [173, 248], [170, 213], [152, 187], [158, 197], [156, 148], [152, 118], [149, 91], [130, 201], [137, 159], [143, 179], [147, 203], [102, 210], [114, 202], [124, 239], [129, 265], [77, 221], [90, 217], [102, 247], [107, 267]]</t>
+          <t>[[0, 247, 274], [1, 279, 250], [2, 295, 206], [3, 264, 177], [4, 234, 171], [5, 289, 165], [6, 290, 121], [7, 288, 94], [8, 284, 70], [9, 265, 162], [10, 267, 116], [11, 264, 86], [12, 262, 59], [13, 242, 168], [14, 243, 126], [15, 246, 95], [16, 246, 65], [17, 219, 182], [18, 227, 165], [19, 239, 185], [20, 246, 205]]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>[[192, 302], [225, 274], [247, 233], [244, 196], [221, 176], [225, 191], [227, 143], [224, 113], [221, 87], [198, 194], [207, 158], [218, 161], [225, 169], [172, 201], [189, 196], [197, 232], [200, 259], [146, 214], [166, 211], [177, 238], [180, 259]]</t>
+          <t>[[0, 325, 304], [1, 359, 284], [2, 379, 245], [3, 351, 218], [4, 323, 209], [5, 375, 203], [6, 380, 162], [7, 380, 135], [8, 377, 110], [9, 352, 199], [10, 359, 152], [11, 360, 120], [12, 360, 91], [13, 328, 203], [14, 334, 159], [15, 341, 128], [16, 345, 98], [17, 302, 215], [18, 313, 201], [19, 323, 222], [20, 329, 242]]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>[[226, 296], [262, 272], [289, 233], [296, 198], [278, 175], [262, 186], [265, 138], [264, 109], [262, 84], [235, 187], [245, 152], [261, 157], [274, 168], [208, 194], [231, 193], [239, 228], [241, 254], [183, 206], [208, 206], [219, 235], [224, 256]]</t>
+          <t>[[0, 363, 300], [1, 397, 278], [2, 416, 237], [3, 387, 214], [4, 358, 207], [5, 401, 193], [6, 404, 148], [7, 404, 119], [8, 400, 94], [9, 377, 191], [10, 380, 142], [11, 378, 110], [12, 375, 83], [13, 354, 199], [14, 356, 154], [15, 359, 123], [16, 361, 96], [17, 330, 214], [18, 341, 201], [19, 356, 218], [20, 367, 237]]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[[285, 289], [318, 269], [348, 237], [365, 210], [361, 189], [321, 185], [329, 137], [333, 108], [334, 84], [298, 184], [319, 149], [341, 156], [356, 172], [275, 188], [305, 189], [308, 226], [306, 253], [253, 197], [281, 200], [287, 229], [287, 251]]</t>
+          <t>[[0, 394, 292], [1, 426, 268], [2, 446, 229], [3, 419, 205], [4, 390, 201], [5, 425, 182], [6, 428, 136], [7, 427, 109], [8, 422, 84], [9, 403, 181], [10, 407, 132], [11, 404, 101], [12, 400, 74], [13, 382, 190], [14, 383, 148], [15, 386, 116], [16, 386, 87], [17, 359, 207], [18, 372, 191], [19, 387, 209], [20, 398, 230]]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>[[348, 307], [382, 290], [411, 259], [428, 235], [437, 212], [389, 207], [401, 163], [409, 135], [413, 112], [368, 203], [399, 175], [424, 184], [438, 198], [349, 205], [383, 211], [380, 245], [370, 265], [329, 213], [362, 220], [362, 245], [355, 260]]</t>
+          <t>[[0, 405, 296], [1, 438, 272], [2, 459, 235], [3, 436, 208], [4, 407, 205], [5, 441, 189], [6, 447, 143], [7, 448, 117], [8, 444, 94], [9, 418, 186], [10, 425, 136], [11, 423, 105], [12, 419, 77], [13, 396, 193], [14, 399, 151], [15, 404, 120], [16, 405, 89], [17, 373, 212], [18, 387, 192], [19, 404, 210], [20, 415, 231]]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>[[403, 342], [438, 329], [469, 300], [494, 279], [511, 260], [448, 242], [462, 201], [471, 173], [476, 150], [429, 237], [468, 212], [495, 226], [510, 244], [411, 238], [451, 249], [444, 280], [430, 297], [396, 245], [432, 260], [428, 284], [416, 295]]</t>
+          <t>[[0, 422, 301], [1, 453, 283], [2, 474, 243], [3, 448, 218], [4, 418, 208], [5, 458, 195], [6, 460, 151], [7, 458, 124], [8, 453, 100], [9, 435, 193], [10, 439, 147], [11, 437, 117], [12, 433, 90], [13, 411, 201], [14, 416, 161], [15, 420, 131], [16, 420, 103], [17, 387, 216], [18, 404, 203], [19, 419, 224], [20, 428, 245]]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>[[378, 332], [415, 317], [447, 287], [467, 264], [482, 246], [429, 232], [443, 194], [451, 168], [455, 145], [410, 229], [441, 202], [468, 217], [484, 235], [392, 231], [431, 240], [425, 272], [413, 288], [376, 238], [411, 250], [408, 273], [397, 283]]</t>
+          <t>[[0, 422, 335], [1, 457, 319], [2, 477, 282], [3, 453, 259], [4, 423, 250], [5, 459, 232], [6, 461, 187], [7, 459, 158], [8, 455, 133], [9, 435, 230], [10, 442, 182], [11, 442, 150], [12, 440, 123], [13, 411, 237], [14, 418, 195], [15, 423, 163], [16, 425, 134], [17, 386, 253], [18, 408, 242], [19, 425, 262], [20, 435, 281]]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>[[317, 317], [351, 300], [381, 269], [400, 243], [406, 219], [357, 217], [369, 175], [376, 147], [380, 124], [337, 215], [363, 183], [387, 192], [401, 207], [316, 219], [350, 224], [348, 258], [339, 277], [296, 227], [328, 233], [329, 260], [321, 274]]</t>
+          <t>[[0, 428, 349], [1, 460, 333], [2, 481, 298], [3, 461, 276], [4, 436, 266], [5, 465, 247], [6, 469, 206], [7, 469, 181], [8, 465, 159], [9, 443, 245], [10, 451, 199], [11, 451, 171], [12, 448, 145], [13, 420, 252], [14, 428, 214], [15, 432, 184], [16, 432, 155], [17, 396, 269], [18, 417, 259], [19, 435, 278], [20, 446, 297]]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>[[289, 326], [320, 310], [349, 280], [367, 253], [367, 229], [322, 226], [334, 181], [340, 153], [343, 128], [300, 224], [326, 192], [351, 202], [365, 218], [279, 228], [313, 231], [312, 266], [304, 288], [259, 238], [291, 243], [294, 270], [288, 287]]</t>
+          <t>[[0, 425, 369], [1, 459, 354], [2, 480, 323], [3, 462, 302], [4, 436, 297], [5, 464, 275], [6, 468, 234], [7, 469, 208], [8, 465, 185], [9, 442, 272], [10, 450, 229], [11, 449, 199], [12, 446, 173], [13, 421, 279], [14, 428, 243], [15, 432, 213], [16, 432, 184], [17, 398, 294], [18, 416, 283], [19, 432, 300], [20, 441, 319]]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>[[272, 343], [303, 328], [332, 297], [351, 272], [351, 253], [310, 242], [322, 198], [327, 169], [330, 144], [287, 240], [310, 209], [333, 221], [347, 240], [265, 244], [296, 250], [296, 285], [290, 308], [244, 253], [274, 262], [276, 289], [272, 306]]</t>
+          <t>[[0, 415, 390], [1, 446, 377], [2, 467, 346], [3, 444, 330], [4, 417, 327], [5, 452, 301], [6, 456, 261], [7, 457, 236], [8, 453, 213], [9, 430, 299], [10, 438, 257], [11, 437, 228], [12, 434, 202], [13, 408, 305], [14, 417, 271], [15, 422, 242], [16, 423, 213], [17, 385, 319], [18, 401, 314], [19, 416, 332], [20, 425, 349]]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>[[267, 357], [298, 341], [326, 313], [343, 287], [338, 269], [305, 258], [317, 214], [322, 186], [325, 162], [282, 256], [304, 227], [325, 240], [339, 258], [260, 260], [289, 267], [290, 303], [285, 327], [238, 269], [267, 280], [269, 306], [264, 323]]</t>
+          <t>[[0, 399, 402], [1, 430, 391], [2, 452, 362], [3, 430, 345], [4, 405, 344], [5, 439, 318], [6, 443, 279], [7, 444, 254], [8, 441, 231], [9, 417, 315], [10, 426, 274], [11, 425, 246], [12, 422, 219], [13, 395, 320], [14, 405, 288], [15, 410, 261], [16, 412, 233], [17, 371, 333], [18, 388, 326], [19, 402, 344], [20, 411, 361]]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>[[261, 359], [293, 343], [322, 313], [339, 286], [335, 268], [300, 256], [312, 214], [317, 186], [320, 162], [277, 255], [298, 227], [319, 240], [333, 259], [254, 259], [286, 265], [288, 301], [284, 326], [233, 269], [263, 279], [267, 306], [264, 324]]</t>
+          <t>[[0, 379, 407], [1, 408, 395], [2, 428, 365], [3, 405, 348], [4, 378, 344], [5, 420, 321], [6, 424, 284], [7, 424, 261], [8, 421, 239], [9, 398, 317], [10, 406, 278], [11, 406, 252], [12, 404, 227], [13, 375, 322], [14, 383, 293], [15, 389, 266], [16, 391, 239], [17, 353, 335], [18, 369, 336], [19, 380, 355], [20, 386, 371]]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>[[256, 387], [287, 371], [314, 340], [330, 315], [327, 297], [296, 286], [307, 241], [311, 211], [314, 186], [273, 284], [296, 253], [316, 267], [328, 285], [251, 287], [280, 292], [281, 327], [276, 350], [230, 296], [257, 304], [260, 330], [256, 347]]</t>
+          <t>[[0, 346, 424], [1, 376, 410], [2, 393, 379], [3, 366, 365], [4, 337, 363], [5, 386, 336], [6, 387, 299], [7, 384, 274], [8, 380, 252], [9, 363, 332], [10, 366, 294], [11, 364, 267], [12, 361, 243], [13, 341, 337], [14, 345, 307], [15, 347, 280], [16, 347, 255], [17, 321, 350], [18, 335, 351], [19, 344, 367], [20, 349, 381]]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>[[255, 424], [284, 410], [310, 383], [324, 362], [322, 346], [293, 326], [303, 279], [307, 251], [310, 228], [269, 324], [290, 297], [310, 313], [321, 332], [246, 329], [274, 341], [278, 370], [273, 387], [226, 340], [252, 355], [255, 377], [249, 389]]</t>
+          <t>[[0, 313, 431], [1, 343, 416], [2, 357, 387], [3, 325, 374], [4, 297, 372], [5, 348, 344], [6, 348, 309], [7, 344, 285], [8, 338, 263], [9, 327, 341], [10, 329, 304], [11, 327, 278], [12, 323, 255], [13, 307, 346], [14, 308, 318], [15, 309, 294], [16, 307, 272], [17, 288, 359], [18, 295, 357], [19, 301, 367], [20, 304, 374]]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>[[158, 470], [181, 448], [195, 418], [192, 397], [173, 387], [174, 367], [172, 325], [169, 299], [164, 278], [149, 374], [154, 349], [165, 374], [171, 393], [127, 387], [138, 388], [150, 415], [154, 428], [107, 403], [117, 405], [129, 424], [133, 432]]</t>
+          <t>[[0, 264, 428], [1, 288, 413], [2, 295, 385], [3, 265, 371], [4, 239, 364], [5, 294, 341], [6, 290, 306], [7, 284, 282], [8, 277, 262], [9, 273, 337], [10, 270, 301], [11, 264, 276], [12, 259, 255], [13, 255, 342], [14, 251, 309], [15, 249, 287], [16, 247, 266], [17, 239, 353], [18, 239, 339], [19, 246, 344], [20, 251, 349]]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>[[130, 457], [151, 432], [162, 404], [158, 380], [139, 368], [147, 352], [144, 310], [139, 282], [134, 258], [121, 356], [123, 328], [133, 358], [139, 382], [98, 367], [104, 371], [116, 402], [122, 417], [77, 382], [84, 389], [95, 410], [101, 419]]</t>
+          <t>[[0, 237, 424], [1, 257, 406], [2, 258, 375], [3, 225, 361], [4, 199, 354], [5, 258, 330], [6, 250, 296], [7, 241, 273], [8, 232, 252], [9, 237, 328], [10, 229, 292], [11, 221, 268], [12, 216, 246], [13, 220, 334], [14, 211, 302], [15, 207, 281], [16, 203, 259], [17, 205, 347], [18, 203, 337], [19, 209, 346], [20, 213, 355]]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>[[110, 446], [131, 421], [141, 394], [137, 372], [118, 360], [129, 343], [127, 298], [123, 271], [118, 247], [104, 346], [105, 313], [110, 342], [115, 369], [80, 355], [84, 360], [94, 391], [102, 409], [59, 367], [64, 374], [74, 396], [81, 408]]</t>
+          <t>[[0, 222, 419], [1, 247, 403], [2, 256, 369], [3, 225, 352], [4, 197, 342], [5, 259, 325], [6, 259, 284], [7, 255, 259], [8, 251, 235], [9, 236, 321], [10, 237, 279], [11, 234, 252], [12, 232, 227], [13, 215, 325], [14, 216, 291], [15, 218, 267], [16, 219, 241], [17, 197, 338], [18, 200, 332], [19, 205, 350], [20, 208, 364]]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>[[101, 421], [123, 401], [134, 375], [130, 349], [116, 330], [127, 321], [126, 275], [122, 246], [119, 221], [102, 324], [104, 293], [106, 325], [109, 352], [79, 332], [81, 330], [88, 360], [93, 379], [58, 342], [60, 340], [69, 361], [74, 375]]</t>
+          <t>[[0, 218, 417], [1, 243, 402], [2, 254, 368], [3, 224, 349], [4, 197, 339], [5, 257, 323], [6, 258, 282], [7, 255, 256], [8, 251, 232], [9, 235, 319], [10, 237, 277], [11, 235, 249], [12, 233, 224], [13, 214, 322], [14, 217, 289], [15, 219, 263], [16, 220, 237], [17, 196, 333], [18, 199, 328], [19, 204, 346], [20, 205, 362]]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>[[129, 389], [155, 370], [170, 345], [171, 319], [159, 300], [164, 292], [165, 247], [165, 220], [163, 197], [139, 292], [142, 269], [146, 303], [148, 331], [115, 298], [118, 303], [125, 333], [128, 352], [94, 307], [98, 310], [106, 331], [109, 344]]</t>
+          <t>[[0, 206, 408], [1, 231, 393], [2, 242, 360], [3, 212, 342], [4, 185, 331], [5, 249, 316], [6, 251, 276], [7, 250, 251], [8, 247, 228], [9, 227, 310], [10, 231, 270], [11, 230, 243], [12, 229, 218], [13, 207, 313], [14, 210, 281], [15, 214, 255], [16, 216, 229], [17, 189, 323], [18, 193, 318], [19, 198, 333], [20, 199, 348]]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>[[177, 367], [206, 347], [225, 315], [228, 285], [212, 267], [212, 269], [217, 226], [219, 199], [219, 176], [187, 269], [197, 237], [206, 249], [212, 267], [163, 273], [179, 278], [185, 309], [187, 331], [141, 283], [157, 290], [165, 314], [169, 331]]</t>
+          <t>[[0, 177, 390], [1, 200, 376], [2, 208, 345], [3, 179, 323], [4, 153, 310], [5, 218, 304], [6, 221, 265], [7, 219, 239], [8, 216, 216], [9, 198, 297], [10, 202, 258], [11, 201, 230], [12, 201, 206], [13, 179, 299], [14, 181, 266], [15, 185, 241], [16, 188, 217], [17, 161, 308], [18, 163, 297], [19, 168, 303], [20, 170, 309]]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>[[363, 343], [395, 326], [421, 298], [437, 277], [448, 258], [399, 248], [410, 210], [416, 185], [420, 164], [381, 246], [411, 220], [436, 228], [450, 239], [363, 249], [400, 252], [396, 283], [386, 300], [348, 257], [381, 262], [380, 284], [372, 295]]</t>
+          <t>[[0, 161, 375], [1, 183, 360], [2, 190, 328], [3, 160, 305], [4, 134, 291], [5, 201, 287], [6, 203, 247], [7, 202, 220], [8, 199, 197], [9, 181, 281], [10, 184, 240], [11, 183, 212], [12, 182, 187], [13, 162, 284], [14, 163, 249], [15, 167, 223], [16, 170, 199], [17, 145, 293], [18, 146, 282], [19, 151, 291], [20, 153, 299]]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>[[426, 343], [456, 327], [481, 296], [502, 275], [513, 254], [453, 248], [462, 209], [467, 184], [470, 164], [437, 245], [468, 219], [494, 227], [510, 241], [420, 248], [458, 250], [455, 279], [442, 296], [406, 254], [442, 259], [442, 281], [431, 292]]</t>
+          <t>[[0, 135, 350], [1, 154, 337], [2, 158, 307], [3, 129, 281], [4, 103, 266], [5, 176, 266], [6, 176, 225], [7, 173, 197], [8, 169, 173], [9, 157, 259], [10, 157, 217], [11, 155, 188], [12, 155, 163], [13, 139, 260], [14, 137, 223], [15, 140, 196], [16, 144, 172], [17, 122, 267], [18, 122, 244], [19, 125, 236], [20, 127, 230]]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>[[258, 434], [236, 387], [243, 348], [268, 326], [289, 320], [264, 326], [267, 276], [271, 248], [274, 225], [294, 336], [296, 296], [284, 306], [274, 321], [315, 353], [308, 330], [298, 338], [292, 350], [330, 370], [322, 350], [314, 358], [310, 368]]</t>
+          <t>[[0, 125, 344], [1, 142, 329], [2, 144, 297], [3, 116, 270], [4, 90, 253], [5, 164, 257], [6, 163, 215], [7, 159, 185], [8, 156, 160], [9, 145, 249], [10, 144, 207], [11, 141, 177], [12, 141, 150], [13, 127, 250], [14, 124, 212], [15, 127, 184], [16, 130, 159], [17, 110, 257], [18, 110, 233], [19, 115, 226], [20, 119, 221]]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>[[257, 384], [234, 338], [243, 298], [264, 278], [284, 276], [261, 269], [264, 222], [267, 198], [270, 179], [290, 276], [290, 245], [281, 258], [272, 273], [314, 292], [303, 278], [295, 289], [288, 302], [331, 309], [320, 297], [313, 306], [309, 317]]</t>
+          <t>[[0, 161, 314], [1, 185, 294], [2, 193, 258], [3, 162, 234], [4, 137, 222], [5, 204, 216], [6, 204, 171], [7, 203, 143], [8, 202, 119], [9, 181, 212], [10, 183, 165], [11, 183, 135], [12, 185, 108], [13, 160, 217], [14, 160, 176], [15, 164, 149], [16, 169, 121], [17, 141, 229], [18, 140, 218], [19, 145, 236], [20, 149, 253]]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>[[259, 385], [235, 338], [243, 296], [264, 272], [283, 266], [264, 267], [267, 217], [270, 191], [272, 170], [294, 274], [293, 240], [281, 253], [272, 269], [319, 291], [307, 273], [296, 284], [290, 298], [336, 308], [325, 292], [317, 302], [313, 315]]</t>
+          <t>[[0, 175, 314], [1, 203, 295], [2, 212, 260], [3, 181, 238], [4, 157, 227], [5, 220, 217], [6, 221, 173], [7, 220, 145], [8, 219, 120], [9, 197, 213], [10, 200, 167], [11, 199, 136], [12, 200, 109], [13, 175, 218], [14, 176, 178], [15, 181, 150], [16, 185, 123], [17, 155, 230], [18, 157, 222], [19, 165, 239], [20, 169, 255]]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[[258, 388], [235, 339], [243, 297], [264, 273], [284, 268], [263, 267], [267, 216], [270, 190], [273, 168], [294, 275], [293, 239], [281, 252], [271, 268], [319, 292], [306, 271], [296, 282], [289, 297], [337, 310], [324, 292], [316, 301], [312, 314]]</t>
+          <t>[[0, 182, 319], [1, 208, 300], [2, 219, 263], [3, 187, 241], [4, 160, 231], [5, 227, 221], [6, 229, 175], [7, 228, 147], [8, 227, 122], [9, 203, 216], [10, 207, 170], [11, 206, 139], [12, 208, 112], [13, 182, 220], [14, 184, 181], [15, 189, 153], [16, 193, 125], [17, 163, 233], [18, 165, 225], [19, 169, 244], [20, 171, 260]]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>[[252, 395], [228, 343], [238, 299], [260, 274], [281, 269], [259, 271], [265, 215], [269, 187], [272, 163], [292, 279], [293, 239], [279, 253], [268, 270], [317, 297], [306, 275], [294, 286], [287, 302], [335, 316], [324, 297], [315, 307], [310, 321]]</t>
+          <t>[[0, 194, 330], [1, 222, 311], [2, 233, 274], [3, 202, 252], [4, 175, 241], [5, 242, 229], [6, 245, 184], [7, 245, 155], [8, 243, 130], [9, 218, 225], [10, 223, 178], [11, 223, 147], [12, 224, 120], [13, 196, 229], [14, 200, 189], [15, 205, 161], [16, 208, 133], [17, 176, 241], [18, 181, 234], [19, 185, 252], [20, 187, 268]]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>[[343, 334], [313, 282], [320, 234], [344, 211], [365, 208], [352, 195], [355, 150], [356, 123], [358, 103], [387, 204], [385, 189], [373, 205], [368, 220], [412, 227], [403, 218], [392, 230], [387, 244], [430, 249], [424, 239], [416, 249], [411, 264]]</t>
+          <t>[[0, 206, 336], [1, 236, 317], [2, 248, 280], [3, 215, 259], [4, 186, 248], [5, 255, 235], [6, 258, 189], [7, 257, 160], [8, 255, 135], [9, 231, 230], [10, 235, 183], [11, 235, 151], [12, 235, 124], [13, 208, 234], [14, 211, 195], [15, 215, 165], [16, 219, 137], [17, 187, 246], [18, 192, 241], [19, 197, 261], [20, 199, 278]]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[[369, 253], [341, 212], [346, 172], [366, 152], [380, 148], [378, 129], [379, 95], [378, 77], [382, 64], [411, 135], [407, 138], [397, 153], [393, 166], [435, 156], [424, 161], [413, 173], [408, 184], [450, 177], [440, 180], [431, 188], [425, 198]]</t>
+          <t>[[0, 224, 355], [1, 253, 335], [2, 263, 296], [3, 230, 276], [4, 201, 266], [5, 267, 249], [6, 269, 204], [7, 268, 175], [8, 265, 149], [9, 243, 245], [10, 246, 197], [11, 245, 166], [12, 244, 138], [13, 220, 250], [14, 224, 210], [15, 226, 181], [16, 228, 152], [17, 200, 263], [18, 205, 256], [19, 210, 277], [20, 212, 294]]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[[364, 259], [339, 218], [345, 179], [369, 164], [386, 163], [376, 138], [377, 105], [379, 86], [383, 73], [409, 144], [406, 148], [399, 163], [396, 174], [432, 164], [423, 171], [415, 182], [409, 191], [447, 186], [440, 190], [432, 198], [426, 206]]</t>
+          <t>[[0, 226, 374], [1, 253, 356], [2, 263, 318], [3, 231, 297], [4, 201, 288], [5, 267, 269], [6, 268, 223], [7, 266, 195], [8, 264, 169], [9, 243, 264], [10, 245, 217], [11, 244, 186], [12, 244, 159], [13, 220, 269], [14, 223, 230], [15, 226, 199], [16, 228, 171], [17, 200, 282], [18, 207, 277], [19, 213, 297], [20, 215, 315]]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[[302, 278], [282, 233], [295, 194], [315, 174], [333, 170], [316, 155], [323, 121], [327, 101], [332, 87], [347, 160], [348, 158], [340, 172], [335, 183], [371, 179], [365, 180], [355, 190], [349, 201], [388, 199], [382, 198], [374, 206], [368, 216]]</t>
+          <t>[[0, 220, 392], [1, 246, 373], [2, 256, 336], [3, 224, 316], [4, 194, 307], [5, 262, 288], [6, 264, 244], [7, 262, 216], [8, 258, 190], [9, 238, 283], [10, 241, 238], [11, 240, 207], [12, 239, 179], [13, 215, 287], [14, 219, 249], [15, 222, 219], [16, 223, 190], [17, 196, 300], [18, 202, 297], [19, 208, 316], [20, 209, 334]]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[[235, 298], [215, 252], [229, 214], [251, 191], [270, 184], [248, 172], [260, 132], [266, 111], [272, 96], [278, 179], [286, 162], [277, 173], [269, 186], [302, 197], [300, 189], [289, 200], [281, 211], [320, 217], [315, 209], [306, 217], [298, 227]]</t>
+          <t>[[0, 207, 417], [1, 232, 399], [2, 239, 363], [3, 207, 347], [4, 178, 341], [5, 241, 316], [6, 241, 273], [7, 239, 246], [8, 236, 222], [9, 218, 312], [10, 218, 268], [11, 216, 238], [12, 216, 212], [13, 197, 317], [14, 197, 280], [15, 199, 252], [16, 200, 224], [17, 179, 331], [18, 182, 322], [19, 188, 339], [20, 192, 356]]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>[[186, 312], [171, 262], [186, 224], [209, 204], [229, 199], [202, 185], [215, 145], [223, 124], [229, 108], [230, 193], [244, 173], [239, 185], [230, 198], [253, 211], [257, 202], [249, 214], [239, 225], [271, 231], [271, 224], [263, 233], [253, 242]]</t>
+          <t>[[0, 188, 420], [1, 207, 402], [2, 209, 369], [3, 177, 352], [4, 150, 342], [5, 218, 323], [6, 217, 283], [7, 215, 257], [8, 212, 233], [9, 197, 318], [10, 196, 276], [11, 194, 248], [12, 193, 222], [13, 178, 323], [14, 176, 287], [15, 178, 261], [16, 180, 235], [17, 161, 334], [18, 160, 323], [19, 165, 336], [20, 169, 350]]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>[[135, 338], [117, 288], [130, 251], [151, 229], [172, 223], [143, 214], [157, 168], [164, 146], [170, 128], [169, 219], [189, 196], [185, 211], [176, 225], [193, 237], [200, 227], [192, 241], [184, 253], [212, 256], [212, 250], [205, 261], [197, 272]]</t>
+          <t>[[0, 171, 418], [1, 187, 401], [2, 185, 368], [3, 153, 351], [4, 126, 340], [5, 195, 321], [6, 193, 283], [7, 190, 257], [8, 186, 235], [9, 176, 318], [10, 172, 278], [11, 169, 251], [12, 167, 226], [13, 157, 324], [14, 153, 288], [15, 154, 264], [16, 155, 240], [17, 142, 337], [18, 139, 326], [19, 144, 336], [20, 149, 347]]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[[159, 515], [140, 474], [147, 436], [169, 412], [190, 405], [156, 410], [161, 356], [165, 325], [168, 301], [184, 419], [196, 372], [188, 385], [180, 402], [208, 435], [214, 401], [205, 412], [198, 425], [228, 453], [229, 424], [220, 432], [216, 444]]</t>
+          <t>[[0, 158, 413], [1, 171, 397], [2, 169, 365], [3, 136, 347], [4, 110, 335], [5, 179, 319], [6, 175, 281], [7, 171, 255], [8, 166, 231], [9, 160, 316], [10, 156, 275], [11, 151, 248], [12, 149, 222], [13, 142, 322], [14, 136, 287], [15, 136, 261], [16, 137, 236], [17, 126, 336], [18, 120, 327], [19, 126, 341], [20, 131, 355]]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>[[180, 502], [163, 458], [171, 421], [191, 399], [211, 391], [182, 399], [189, 349], [193, 320], [197, 296], [210, 408], [220, 366], [212, 379], [204, 395], [233, 424], [235, 399], [227, 409], [220, 421], [251, 442], [248, 420], [240, 429], [236, 440]]</t>
+          <t>[[0, 158, 412], [1, 170, 396], [2, 167, 363], [3, 136, 344], [4, 111, 331], [5, 177, 319], [6, 174, 279], [7, 170, 253], [8, 166, 229], [9, 158, 316], [10, 154, 273], [11, 150, 246], [12, 148, 220], [13, 141, 321], [14, 135, 284], [15, 135, 257], [16, 135, 231], [17, 126, 334], [18, 118, 323], [19, 123, 339], [20, 128, 354]]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>[[247, 475], [229, 428], [237, 390], [259, 369], [280, 365], [253, 367], [258, 319], [263, 292], [266, 270], [282, 377], [286, 339], [278, 350], [270, 366], [305, 394], [300, 375], [292, 385], [285, 397], [323, 412], [316, 395], [309, 404], [304, 415]]</t>
+          <t>[[0, 175, 409], [1, 194, 391], [2, 195, 357], [3, 163, 339], [4, 138, 330], [5, 203, 313], [6, 198, 273], [7, 192, 247], [8, 186, 223], [9, 182, 310], [10, 177, 267], [11, 171, 240], [12, 168, 214], [13, 162, 315], [14, 158, 278], [15, 156, 253], [16, 155, 226], [17, 145, 327], [18, 140, 316], [19, 145, 333], [20, 150, 349]]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[[288, 472], [267, 426], [271, 385], [291, 363], [310, 359], [300, 360], [303, 313], [306, 287], [307, 266], [329, 372], [327, 335], [315, 345], [307, 359], [350, 388], [338, 367], [328, 375], [321, 387], [363, 405], [352, 386], [344, 393], [340, 403]]</t>
+          <t>[[0, 209, 410], [1, 231, 390], [2, 235, 356], [3, 204, 340], [4, 177, 333], [5, 239, 310], [6, 234, 269], [7, 230, 243], [8, 224, 219], [9, 217, 307], [10, 213, 264], [11, 209, 236], [12, 206, 210], [13, 197, 312], [14, 194, 276], [15, 193, 251], [16, 192, 226], [17, 179, 325], [18, 178, 312], [19, 184, 324], [20, 188, 335]]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[[330, 469], [309, 424], [312, 379], [334, 361], [357, 368], [346, 360], [348, 313], [350, 288], [352, 269], [375, 371], [372, 339], [360, 351], [352, 366], [395, 389], [382, 370], [372, 379], [366, 390], [407, 406], [398, 389], [390, 396], [385, 406]]</t>
+          <t>[[0, 248, 410], [1, 276, 392], [2, 289, 356], [3, 256, 340], [4, 225, 334], [5, 287, 308], [6, 287, 266], [7, 284, 239], [8, 279, 214], [9, 263, 304], [10, 264, 261], [11, 261, 232], [12, 258, 204], [13, 240, 309], [14, 242, 275], [15, 244, 247], [16, 243, 219], [17, 220, 322], [18, 228, 317], [19, 235, 336], [20, 239, 352]]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[[375, 455], [356, 409], [355, 363], [376, 344], [397, 351], [396, 345], [393, 301], [393, 277], [394, 258], [425, 357], [416, 328], [401, 339], [393, 353], [443, 375], [427, 356], [415, 364], [408, 377], [453, 392], [441, 375], [432, 382], [428, 394]]</t>
+          <t>[[0, 275, 405], [1, 306, 386], [2, 323, 350], [3, 289, 334], [4, 257, 330], [5, 317, 302], [6, 317, 261], [7, 314, 233], [8, 309, 208], [9, 292, 299], [10, 296, 256], [11, 293, 225], [12, 289, 198], [13, 270, 306], [14, 274, 268], [15, 277, 239], [16, 278, 212], [17, 248, 319], [18, 257, 312], [19, 265, 325], [20, 271, 337]]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[[408, 435], [383, 392], [379, 349], [392, 327], [407, 330], [424, 326], [421, 281], [420, 258], [421, 240], [452, 338], [436, 316], [420, 328], [416, 341], [468, 356], [450, 338], [437, 345], [432, 357], [477, 372], [463, 356], [453, 362], [448, 374]]</t>
+          <t>[[0, 320, 393], [1, 351, 376], [2, 372, 341], [3, 345, 324], [4, 314, 321], [5, 361, 289], [6, 365, 249], [7, 365, 222], [8, 362, 197], [9, 337, 287], [10, 343, 243], [11, 343, 213], [12, 341, 186], [13, 312, 294], [14, 321, 257], [15, 327, 230], [16, 329, 204], [17, 288, 311], [18, 303, 307], [19, 314, 325], [20, 320, 340]]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[[438, 434], [416, 392], [411, 348], [422, 328], [437, 335], [461, 330], [454, 288], [450, 265], [452, 247], [487, 343], [467, 322], [452, 334], [448, 346], [500, 360], [481, 342], [468, 349], [464, 360], [507, 376], [493, 359], [483, 364], [479, 376]]</t>
+          <t>[[0, 344, 392], [1, 377, 375], [2, 400, 339], [3, 374, 319], [4, 343, 315], [5, 388, 289], [6, 395, 247], [7, 396, 219], [8, 393, 193], [9, 363, 286], [10, 373, 240], [11, 374, 209], [12, 371, 180], [13, 339, 293], [14, 349, 256], [15, 356, 226], [16, 359, 198], [17, 313, 308], [18, 331, 302], [19, 342, 322], [20, 346, 340]]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[[463, 414], [439, 377], [429, 335], [433, 315], [444, 322], [479, 313], [472, 274], [468, 253], [468, 235], [504, 325], [482, 308], [468, 320], [466, 331], [517, 342], [498, 326], [485, 334], [482, 345], [525, 358], [510, 344], [500, 350], [497, 362]]</t>
+          <t>[[0, 373, 371], [1, 411, 353], [2, 437, 317], [3, 411, 295], [4, 379, 287], [5, 421, 273], [6, 431, 230], [7, 435, 202], [8, 435, 177], [9, 396, 268], [10, 410, 223], [11, 415, 192], [12, 417, 163], [13, 372, 271], [14, 389, 235], [15, 400, 204], [16, 407, 172], [17, 347, 282], [18, 368, 274], [19, 379, 293], [20, 384, 310]]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[[492, 408], [469, 373], [460, 334], [459, 317], [462, 322], [514, 315], [501, 277], [495, 257], [495, 240], [536, 328], [512, 310], [496, 320], [493, 331], [546, 345], [526, 329], [511, 335], [508, 344], [550, 360], [535, 346], [524, 351], [521, 361]]</t>
+          <t>[[0, 389, 342], [1, 427, 326], [2, 454, 290], [3, 431, 267], [4, 402, 261], [5, 437, 248], [6, 449, 204], [7, 455, 176], [8, 456, 150], [9, 414, 243], [10, 429, 195], [11, 436, 163], [12, 439, 133], [13, 389, 245], [14, 406, 207], [15, 420, 172], [16, 430, 140], [17, 364, 254], [18, 391, 251], [19, 404, 274], [20, 411, 296]]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>[[501, 382], [478, 348], [467, 311], [464, 296], [466, 301], [519, 289], [507, 255], [501, 235], [501, 219], [542, 301], [519, 286], [503, 297], [501, 308], [554, 318], [534, 304], [521, 310], [518, 319], [558, 334], [543, 321], [534, 325], [530, 335]]</t>
+          <t>[[0, 407, 315], [1, 442, 299], [2, 468, 259], [3, 447, 230], [4, 419, 224], [5, 450, 215], [6, 460, 173], [7, 464, 147], [8, 463, 122], [9, 427, 212], [10, 441, 167], [11, 446, 136], [12, 447, 108], [13, 404, 215], [14, 421, 175], [15, 433, 143], [16, 440, 113], [17, 379, 226], [18, 404, 214], [19, 418, 236], [20, 425, 256]]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[[499, 346], [471, 315], [460, 279], [456, 267], [455, 271], [510, 252], [497, 221], [489, 203], [489, 188], [534, 264], [513, 255], [497, 266], [494, 277], [546, 282], [527, 273], [514, 279], [510, 287], [553, 298], [537, 289], [527, 293], [524, 302]]</t>
+          <t>[[0, 400, 312], [1, 438, 296], [2, 464, 254], [3, 440, 224], [4, 410, 219], [5, 447, 211], [6, 457, 169], [7, 461, 142], [8, 459, 117], [9, 424, 208], [10, 438, 163], [11, 444, 132], [12, 444, 104], [13, 400, 211], [14, 417, 174], [15, 429, 144], [16, 436, 114], [17, 375, 221], [18, 401, 213], [19, 412, 238], [20, 415, 260]]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[[487, 280], [458, 248], [444, 214], [441, 201], [442, 204], [487, 177], [474, 146], [466, 128], [465, 113], [513, 184], [494, 178], [482, 192], [480, 203], [530, 202], [511, 195], [501, 203], [498, 213], [539, 218], [524, 211], [516, 217], [513, 227]]</t>
+          <t>[[0, 383, 315], [1, 420, 299], [2, 447, 260], [3, 422, 232], [4, 394, 224], [5, 433, 216], [6, 444, 173], [7, 451, 147], [8, 453, 123], [9, 410, 212], [10, 426, 166], [11, 432, 136], [12, 434, 108], [13, 386, 215], [14, 402, 175], [15, 415, 144], [16, 423, 114], [17, 361, 225], [18, 383, 221], [19, 393, 244], [20, 397, 265]]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[[490, 254], [460, 224], [444, 187], [440, 171], [446, 174], [491, 149], [476, 115], [468, 96], [467, 80], [518, 158], [495, 148], [482, 162], [481, 175], [533, 175], [514, 165], [502, 174], [499, 185], [542, 191], [526, 181], [517, 188], [515, 199]]</t>
+          <t>[[0, 377, 314], [1, 414, 298], [2, 441, 256], [3, 418, 227], [4, 388, 221], [5, 428, 213], [6, 439, 170], [7, 446, 145], [8, 448, 122], [9, 404, 208], [10, 418, 163], [11, 423, 132], [12, 424, 105], [13, 380, 212], [14, 394, 172], [15, 405, 141], [16, 411, 110], [17, 353, 222], [18, 376, 217], [19, 387, 242], [20, 390, 265]]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[[151, 288], [127, 240], [138, 203], [153, 179], [173, 171], [149, 162], [157, 116], [160, 93], [163, 74], [176, 165], [188, 142], [183, 158], [176, 173], [201, 181], [203, 170], [196, 184], [189, 197], [222, 198], [219, 190], [212, 201], [206, 213]]</t>
+          <t>[[0, 369, 310], [1, 405, 292], [2, 426, 251], [3, 397, 222], [4, 368, 214], [5, 411, 209], [6, 415, 166], [7, 416, 140], [8, 414, 117], [9, 387, 207], [10, 394, 160], [11, 396, 130], [12, 396, 101], [13, 363, 212], [14, 372, 171], [15, 381, 139], [16, 387, 109], [17, 339, 223], [18, 357, 211], [19, 370, 231], [20, 377, 250]]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[[176, 436], [211, 402], [224, 346], [207, 296], [175, 262], [221, 269], [218, 200], [210, 157], [203, 119], [182, 276], [182, 211], [180, 234], [182, 265], [144, 292], [148, 277], [159, 327], [167, 361], [112, 313], [120, 300], [133, 339], [143, 366]]</t>
+          <t>[[0, 355, 312], [1, 389, 293], [2, 410, 253], [3, 380, 229], [4, 352, 220], [5, 396, 208], [6, 401, 166], [7, 401, 138], [8, 398, 115], [9, 371, 205], [10, 379, 159], [11, 379, 128], [12, 377, 101], [13, 347, 211], [14, 357, 171], [15, 364, 139], [16, 368, 110], [17, 323, 226], [18, 339, 219], [19, 351, 234], [20, 358, 246]]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>[[167, 459], [201, 426], [215, 377], [195, 338], [161, 313], [202, 283], [195, 212], [184, 168], [175, 131], [162, 294], [156, 241], [148, 275], [147, 313], [125, 312], [122, 313], [135, 364], [149, 399], [96, 333], [93, 329], [106, 364], [121, 390]]</t>
+          <t>[[0, 325, 313], [1, 358, 291], [2, 374, 250], [3, 341, 229], [4, 311, 222], [5, 365, 209], [6, 367, 164], [7, 365, 135], [8, 361, 110], [9, 340, 206], [10, 346, 158], [11, 345, 127], [12, 343, 99], [13, 315, 212], [14, 322, 172], [15, 326, 141], [16, 329, 110], [17, 291, 227], [18, 302, 219], [19, 314, 236], [20, 322, 253]]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[[167, 455], [200, 418], [214, 371], [193, 334], [159, 309], [199, 278], [190, 207], [179, 163], [169, 126], [158, 289], [153, 236], [146, 275], [146, 315], [121, 309], [119, 308], [133, 360], [147, 394], [92, 333], [90, 327], [106, 364], [123, 388]]</t>
+          <t>[[0, 307, 310], [1, 336, 288], [2, 349, 248], [3, 317, 229], [4, 289, 224], [5, 342, 205], [6, 342, 160], [7, 341, 132], [8, 337, 108], [9, 318, 204], [10, 320, 158], [11, 318, 127], [12, 316, 100], [13, 294, 211], [14, 297, 171], [15, 300, 141], [16, 302, 112], [17, 271, 227], [18, 278, 217], [19, 288, 233], [20, 296, 250]]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[[170, 452], [205, 416], [220, 368], [199, 331], [165, 307], [204, 275], [194, 206], [183, 162], [175, 125], [164, 286], [159, 233], [152, 274], [155, 314], [129, 305], [126, 303], [137, 354], [152, 387], [101, 327], [94, 319], [107, 353], [124, 377]]</t>
+          <t>[[0, 282, 311], [1, 313, 289], [2, 326, 249], [3, 294, 229], [4, 266, 223], [5, 322, 206], [6, 323, 162], [7, 321, 134], [8, 318, 110], [9, 298, 205], [10, 303, 160], [11, 301, 129], [12, 300, 101], [13, 275, 211], [14, 279, 172], [15, 283, 141], [16, 285, 111], [17, 252, 225], [18, 259, 216], [19, 268, 234], [20, 274, 252]]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[[164, 454], [198, 417], [209, 365], [173, 332], [134, 318], [188, 278], [178, 206], [169, 162], [160, 126], [148, 291], [141, 242], [141, 285], [147, 325], [113, 313], [109, 306], [123, 354], [136, 383], [86, 339], [79, 326], [93, 356], [110, 378]]</t>
+          <t>[[0, 244, 305], [1, 273, 286], [2, 286, 250], [3, 257, 228], [4, 230, 220], [5, 289, 203], [6, 291, 162], [7, 290, 134], [8, 288, 111], [9, 267, 198], [10, 270, 154], [11, 269, 125], [12, 269, 100], [13, 246, 203], [14, 249, 166], [15, 251, 138], [16, 254, 113], [17, 226, 216], [18, 230, 207], [19, 237, 221], [20, 241, 236]]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[[131, 455], [163, 415], [164, 364], [121, 339], [79, 322], [143, 274], [126, 205], [111, 162], [99, 126], [102, 291], [79, 250], [78, 293], [86, 331], [68, 318], [52, 317], [74, 366], [97, 393], [44, 347], [29, 343], [49, 376], [73, 394]]</t>
+          <t>[[0, 216, 298], [1, 243, 278], [2, 254, 241], [3, 224, 220], [4, 198, 214], [5, 258, 196], [6, 259, 155], [7, 259, 128], [8, 256, 105], [9, 236, 192], [10, 239, 149], [11, 238, 120], [12, 238, 96], [13, 215, 197], [14, 217, 161], [15, 220, 134], [16, 222, 111], [17, 195, 210], [18, 201, 204], [19, 208, 218], [20, 213, 231]]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[[192, 450], [226, 412], [243, 364], [223, 327], [187, 310], [223, 278], [211, 203], [201, 159], [193, 122], [184, 287], [179, 235], [184, 278], [191, 318], [149, 304], [149, 304], [159, 350], [170, 378], [118, 323], [116, 319], [127, 349], [136, 368]]</t>
+          <t>[[0, 178, 296], [1, 203, 277], [2, 212, 243], [3, 183, 224], [4, 158, 217], [5, 217, 200], [6, 219, 157], [7, 218, 130], [8, 215, 107], [9, 196, 196], [10, 199, 152], [11, 198, 123], [12, 198, 97], [13, 176, 201], [14, 178, 164], [15, 181, 136], [16, 184, 111], [17, 157, 213], [18, 160, 205], [19, 165, 219], [20, 168, 234]]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[[351, 425], [402, 402], [445, 358], [456, 318], [426, 296], [425, 268], [426, 199], [422, 156], [416, 120], [382, 265], [400, 227], [423, 259], [437, 287], [344, 278], [371, 300], [380, 338], [379, 351], [311, 301], [335, 324], [344, 349], [342, 352]]</t>
+          <t>[[0, 164, 305], [1, 188, 288], [2, 195, 254], [3, 167, 234], [4, 142, 225], [5, 203, 211], [6, 203, 169], [7, 202, 142], [8, 199, 119], [9, 181, 208], [10, 183, 163], [11, 181, 135], [12, 181, 110], [13, 161, 213], [14, 163, 175], [15, 165, 149], [16, 167, 124], [17, 144, 225], [18, 146, 217], [19, 151, 233], [20, 154, 249]]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[[454, 436], [511, 418], [559, 383], [592, 357], [597, 337], [526, 288], [538, 224], [542, 183], [542, 149], [489, 282], [536, 247], [568, 282], [582, 318], [457, 292], [513, 323], [513, 367], [501, 387], [433, 312], [479, 348], [479, 377], [465, 384]]</t>
+          <t>[[0, 151, 320], [1, 171, 306], [2, 179, 275], [3, 153, 253], [4, 128, 242], [5, 190, 231], [6, 190, 190], [7, 189, 164], [8, 187, 141], [9, 169, 227], [10, 171, 184], [11, 170, 156], [12, 170, 131], [13, 151, 231], [14, 151, 193], [15, 154, 168], [16, 156, 144], [17, 135, 241], [18, 133, 231], [19, 136, 247], [20, 138, 264]]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[[282, 372], [321, 338], [344, 292], [340, 252], [326, 225], [320, 232], [321, 164], [319, 126], [314, 95], [286, 234], [303, 184], [320, 215], [326, 245], [256, 245], [286, 252], [302, 293], [305, 315], [229, 262], [256, 266], [271, 290], [273, 302]]</t>
+          <t>[[0, 140, 346], [1, 160, 333], [2, 167, 303], [3, 139, 283], [4, 114, 273], [5, 174, 261], [6, 174, 221], [7, 173, 196], [8, 171, 174], [9, 154, 257], [10, 156, 216], [11, 154, 189], [12, 153, 165], [13, 137, 261], [14, 137, 228], [15, 139, 202], [16, 140, 177], [17, 121, 271], [18, 120, 265], [19, 122, 281], [20, 123, 296]]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[[180, 371], [214, 326], [224, 273], [206, 234], [175, 219], [208, 232], [205, 168], [202, 128], [199, 95], [177, 241], [181, 192], [189, 222], [194, 255], [147, 255], [153, 241], [166, 278], [173, 304], [120, 273], [128, 257], [142, 282], [147, 302]]</t>
+          <t>[[0, 132, 373], [1, 151, 357], [2, 155, 326], [3, 128, 308], [4, 104, 298], [5, 164, 288], [6, 163, 249], [7, 161, 224], [8, 158, 202], [9, 145, 285], [10, 145, 244], [11, 142, 217], [12, 141, 192], [13, 127, 288], [14, 126, 254], [15, 128, 228], [16, 128, 204], [17, 112, 299], [18, 110, 289], [19, 114, 304], [20, 116, 319]]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[[102, 348], [128, 306], [129, 257], [101, 219], [67, 203], [119, 204], [114, 145], [105, 108], [99, 76], [86, 215], [73, 159], [72, 183], [77, 213], [56, 235], [51, 222], [67, 260], [81, 288], [31, 261], [27, 243], [44, 269], [60, 291]]</t>
+          <t>[[0, 134, 397], [1, 153, 384], [2, 159, 354], [3, 133, 336], [4, 108, 326], [5, 167, 314], [6, 166, 275], [7, 164, 252], [8, 161, 230], [9, 148, 310], [10, 148, 271], [11, 145, 245], [12, 144, 222], [13, 130, 313], [14, 130, 281], [15, 131, 257], [16, 131, 232], [17, 115, 324], [18, 114, 316], [19, 117, 332], [20, 118, 347]]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[[52, 335], [76, 299], [80, 250], [53, 211], [20, 187], [74, 185], [65, 131], [54, 96], [45, 66], [42, 194], [18, 152], [7, 184], [9, 221], [11, 211], [-9, 197], [0, 240], [17, 275], [-12, 232], [-28, 221], [-14, 255], [4, 284]]</t>
+          <t>[[0, 133, 410], [1, 150, 396], [2, 154, 366], [3, 129, 348], [4, 107, 338], [5, 165, 327], [6, 165, 291], [7, 164, 268], [8, 162, 247], [9, 146, 324], [10, 147, 285], [11, 145, 260], [12, 145, 238], [13, 129, 327], [14, 129, 295], [15, 130, 272], [16, 132, 249], [17, 114, 338], [18, 112, 329], [19, 115, 343], [20, 116, 357]]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[[47, 306], [67, 271], [64, 227], [38, 193], [5, 163], [61, 165], [50, 113], [40, 78], [33, 49], [31, 179], [12, 140], [-3, 146], [-12, 161], [4, 199], [-11, 177], [-7, 211], [2, 240], [-17, 218], [-32, 208], [-24, 234], [-9, 255]]</t>
+          <t>[[0, 136, 421], [1, 154, 408], [2, 158, 378], [3, 132, 360], [4, 109, 348], [5, 168, 339], [6, 167, 304], [7, 165, 282], [8, 163, 261], [9, 149, 335], [10, 148, 297], [11, 146, 273], [12, 145, 250], [13, 131, 339], [14, 130, 307], [15, 131, 284], [16, 132, 259], [17, 116, 350], [18, 115, 342], [19, 118, 358], [20, 120, 371]]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[[142, 308], [171, 275], [178, 228], [163, 186], [135, 164], [167, 175], [165, 118], [160, 82], [155, 51], [138, 183], [133, 132], [140, 145], [148, 168], [111, 199], [108, 181], [123, 214], [134, 241], [85, 219], [85, 203], [102, 228], [113, 248]]</t>
+          <t>[[0, 154, 428], [1, 172, 413], [2, 177, 384], [3, 149, 370], [4, 126, 362], [5, 182, 344], [6, 179, 310], [7, 175, 287], [8, 170, 267], [9, 163, 341], [10, 161, 305], [11, 157, 281], [12, 155, 258], [13, 146, 345], [14, 144, 314], [15, 144, 293], [16, 144, 271], [17, 131, 356], [18, 130, 349], [19, 134, 363], [20, 137, 376]]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[[194, 321], [228, 286], [241, 239], [232, 195], [203, 175], [227, 193], [227, 136], [225, 99], [223, 68], [198, 198], [199, 160], [208, 189], [216, 222], [169, 209], [175, 198], [186, 235], [193, 265], [143, 225], [150, 215], [163, 242], [170, 265]]</t>
+          <t>[[0, 171, 431], [1, 193, 417], [2, 199, 388], [3, 169, 375], [4, 145, 368], [5, 203, 347], [6, 200, 310], [7, 196, 287], [8, 191, 265], [9, 183, 343], [10, 181, 305], [11, 177, 281], [12, 174, 258], [13, 164, 348], [14, 162, 316], [15, 162, 294], [16, 161, 270], [17, 148, 360], [18, 148, 353], [19, 153, 368], [20, 156, 382]]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[[476, 289], [508, 290], [544, 262], [570, 239], [581, 209], [516, 202], [525, 155], [533, 122], [534, 95], [490, 199], [526, 166], [557, 184], [570, 204], [468, 206], [514, 209], [513, 248], [499, 266], [451, 220], [494, 232], [494, 260], [481, 272]]</t>
+          <t>[[0, 188, 422], [1, 211, 406], [2, 219, 377], [3, 191, 362], [4, 165, 356], [5, 224, 338], [6, 224, 301], [7, 221, 277], [8, 217, 256], [9, 204, 333], [10, 205, 295], [11, 202, 269], [12, 201, 247], [13, 186, 337], [14, 187, 304], [15, 189, 279], [16, 190, 256], [17, 169, 346], [18, 172, 340], [19, 178, 350], [20, 181, 360]]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[[481, 312], [521, 293], [555, 257], [581, 228], [595, 201], [522, 196], [534, 145], [542, 113], [544, 86], [497, 194], [534, 155], [565, 169], [581, 191], [475, 199], [519, 206], [518, 243], [507, 265], [457, 211], [499, 220], [500, 248], [490, 264]]</t>
+          <t>[[0, 208, 410], [1, 234, 394], [2, 247, 363], [3, 216, 348], [4, 188, 341], [5, 247, 320], [6, 246, 282], [7, 244, 258], [8, 240, 236], [9, 225, 317], [10, 225, 277], [11, 222, 251], [12, 221, 228], [13, 205, 321], [14, 206, 289], [15, 207, 263], [16, 208, 238], [17, 187, 332], [18, 192, 330], [19, 197, 348], [20, 200, 362]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>3</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>[[0, 232, 402], [1, 258, 386], [2, 271, 353], [3, 241, 338], [4, 214, 331], [5, 270, 307], [6, 269, 269], [7, 267, 245], [8, 263, 223], [9, 247, 304], [10, 249, 265], [11, 246, 239], [12, 244, 215], [13, 226, 310], [14, 230, 278], [15, 231, 253], [16, 232, 227], [17, 207, 323], [18, 211, 320], [19, 218, 336], [20, 221, 350]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>3</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>[[0, 260, 393], [1, 287, 376], [2, 303, 343], [3, 274, 327], [4, 247, 320], [5, 298, 297], [6, 297, 259], [7, 296, 235], [8, 292, 213], [9, 275, 295], [10, 278, 255], [11, 275, 228], [12, 273, 204], [13, 253, 301], [14, 259, 268], [15, 261, 242], [16, 261, 217], [17, 232, 315], [18, 240, 310], [19, 247, 327], [20, 251, 341]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>3</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>[[0, 285, 395], [1, 315, 379], [2, 335, 343], [3, 308, 321], [4, 279, 315], [5, 330, 296], [6, 332, 256], [7, 331, 229], [8, 327, 206], [9, 307, 292], [10, 315, 251], [11, 315, 223], [12, 312, 197], [13, 286, 297], [14, 294, 262], [15, 300, 234], [16, 301, 208], [17, 264, 311], [18, 272, 306], [19, 278, 321], [20, 280, 335]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>3</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>[[0, 308, 392], [1, 341, 375], [2, 361, 339], [3, 335, 321], [4, 308, 315], [5, 352, 292], [6, 356, 253], [7, 357, 227], [8, 354, 204], [9, 329, 289], [10, 337, 247], [11, 338, 218], [12, 337, 193], [13, 307, 295], [14, 317, 259], [15, 324, 232], [16, 327, 206], [17, 285, 309], [18, 300, 305], [19, 308, 324], [20, 311, 341]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>3</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>[[0, 327, 367], [1, 361, 350], [2, 384, 313], [3, 361, 291], [4, 332, 287], [5, 374, 267], [6, 380, 226], [7, 381, 201], [8, 379, 178], [9, 350, 264], [10, 359, 220], [11, 361, 191], [12, 361, 165], [13, 327, 268], [14, 337, 231], [15, 344, 202], [16, 348, 174], [17, 302, 280], [18, 323, 277], [19, 332, 299], [20, 336, 318]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>3</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>[[0, 343, 337], [1, 379, 322], [2, 407, 286], [3, 384, 260], [4, 353, 255], [5, 396, 242], [6, 405, 199], [7, 407, 174], [8, 406, 150], [9, 373, 237], [10, 385, 192], [11, 388, 161], [12, 388, 133], [13, 349, 240], [14, 362, 201], [15, 370, 170], [16, 376, 140], [17, 326, 251], [18, 347, 246], [19, 355, 270], [20, 358, 291]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>3</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>[[0, 329, 312], [1, 366, 293], [2, 392, 255], [3, 369, 226], [4, 340, 216], [5, 384, 213], [6, 391, 170], [7, 394, 144], [8, 393, 121], [9, 360, 207], [10, 371, 161], [11, 374, 132], [12, 374, 106], [13, 335, 209], [14, 347, 171], [15, 356, 142], [16, 361, 114], [17, 308, 219], [18, 325, 213], [19, 336, 236], [20, 340, 257]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>3</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>[[0, 305, 296], [1, 342, 277], [2, 366, 238], [3, 340, 207], [4, 311, 202], [5, 363, 194], [6, 372, 154], [7, 375, 128], [8, 375, 104], [9, 341, 189], [10, 353, 145], [11, 356, 114], [12, 359, 88], [13, 316, 192], [14, 329, 152], [15, 338, 123], [16, 344, 95], [17, 289, 203], [18, 304, 190], [19, 314, 211], [20, 320, 232]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>3</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>[[0, 255, 275], [1, 292, 252], [2, 315, 209], [3, 286, 181], [4, 254, 175], [5, 316, 167], [6, 323, 126], [7, 323, 100], [8, 322, 76], [9, 292, 161], [10, 304, 117], [11, 306, 87], [12, 309, 61], [13, 268, 163], [14, 278, 125], [15, 285, 98], [16, 291, 70], [17, 243, 174], [18, 251, 169], [19, 256, 192], [20, 258, 213]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>3</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>[[0, 237, 269], [1, 272, 245], [2, 292, 204], [3, 261, 178], [4, 229, 174], [5, 292, 167], [6, 299, 125], [7, 299, 98], [8, 299, 73], [9, 268, 162], [10, 278, 117], [11, 279, 86], [12, 281, 58], [13, 244, 164], [14, 252, 126], [15, 259, 97], [16, 264, 68], [17, 221, 175], [18, 227, 166], [19, 231, 188], [20, 233, 209]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>3</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>[[0, 205, 270], [1, 235, 252], [2, 252, 216], [3, 222, 193], [4, 195, 184], [5, 257, 175], [6, 264, 132], [7, 265, 104], [8, 265, 80], [9, 234, 171], [10, 243, 125], [11, 245, 95], [12, 247, 68], [13, 212, 174], [14, 219, 135], [15, 225, 107], [16, 231, 79], [17, 190, 186], [18, 192, 174], [19, 195, 193], [20, 196, 212]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>[[0, 193, 277], [1, 224, 256], [2, 239, 220], [3, 210, 196], [4, 183, 187], [5, 244, 179], [6, 250, 135], [7, 251, 107], [8, 251, 83], [9, 221, 175], [10, 229, 129], [11, 230, 98], [12, 232, 72], [13, 198, 178], [14, 205, 139], [15, 211, 111], [16, 216, 83], [17, 178, 190], [18, 180, 178], [19, 183, 196], [20, 185, 214]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>3</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>[[0, 188, 291], [1, 218, 274], [2, 234, 238], [3, 205, 213], [4, 179, 202], [5, 239, 197], [6, 244, 152], [7, 245, 124], [8, 245, 100], [9, 216, 192], [10, 223, 146], [11, 224, 116], [12, 226, 89], [13, 194, 195], [14, 200, 155], [15, 206, 128], [16, 210, 101], [17, 174, 206], [18, 177, 194], [19, 180, 214], [20, 181, 232]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>[[0, 186, 298], [1, 214, 281], [2, 229, 245], [3, 200, 223], [4, 174, 213], [5, 234, 205], [6, 240, 162], [7, 240, 134], [8, 240, 110], [9, 211, 200], [10, 219, 155], [11, 220, 125], [12, 221, 98], [13, 189, 203], [14, 195, 165], [15, 201, 137], [16, 206, 110], [17, 170, 214], [18, 172, 206], [19, 176, 224], [20, 177, 240]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>[[0, 174, 323], [1, 199, 309], [2, 211, 276], [3, 186, 252], [4, 160, 237], [5, 223, 233], [6, 228, 190], [7, 228, 163], [8, 228, 138], [9, 202, 226], [10, 208, 182], [11, 210, 151], [12, 212, 125], [13, 181, 228], [14, 187, 190], [15, 192, 163], [16, 196, 137], [17, 162, 238], [18, 166, 231], [19, 168, 251], [20, 167, 269]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>[[0, 171, 355], [1, 193, 342], [2, 203, 311], [3, 175, 292], [4, 150, 278], [5, 211, 266], [6, 214, 224], [7, 215, 197], [8, 214, 174], [9, 190, 261], [10, 196, 218], [11, 195, 188], [12, 196, 163], [13, 171, 264], [14, 175, 230], [15, 178, 203], [16, 182, 176], [17, 153, 276], [18, 155, 271], [19, 159, 289], [20, 160, 305]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>[[0, 184, 384], [1, 208, 370], [2, 217, 338], [3, 188, 318], [4, 161, 308], [5, 223, 294], [6, 224, 252], [7, 222, 226], [8, 220, 202], [9, 202, 290], [10, 204, 246], [11, 201, 217], [12, 201, 192], [13, 182, 293], [14, 183, 258], [15, 184, 231], [16, 185, 204], [17, 165, 304], [18, 165, 297], [19, 168, 314], [20, 170, 331]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>[[0, 227, 400], [1, 254, 385], [2, 267, 352], [3, 236, 337], [4, 207, 329], [5, 268, 305], [6, 269, 266], [7, 266, 240], [8, 262, 218], [9, 245, 300], [10, 248, 261], [11, 246, 234], [12, 244, 208], [13, 224, 305], [14, 227, 275], [15, 229, 250], [16, 230, 223], [17, 204, 317], [18, 210, 318], [19, 215, 338], [20, 218, 353]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>[[0, 241, 398], [1, 271, 383], [2, 285, 350], [3, 255, 334], [4, 226, 326], [5, 283, 305], [6, 286, 264], [7, 284, 238], [8, 281, 214], [9, 260, 300], [10, 265, 259], [11, 263, 230], [12, 262, 204], [13, 238, 304], [14, 243, 271], [15, 247, 244], [16, 249, 217], [17, 218, 316], [18, 224, 315], [19, 230, 332], [20, 235, 348]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>[[0, 247, 379], [1, 277, 364], [2, 294, 330], [3, 266, 311], [4, 238, 302], [5, 292, 284], [6, 295, 242], [7, 294, 216], [8, 291, 193], [9, 268, 280], [10, 275, 237], [11, 274, 208], [12, 273, 183], [13, 245, 284], [14, 252, 249], [15, 257, 222], [16, 259, 194], [17, 224, 296], [18, 232, 292], [19, 237, 310], [20, 239, 326]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>[[0, 256, 378], [1, 286, 362], [2, 304, 327], [3, 274, 309], [4, 246, 300], [5, 301, 280], [6, 305, 238], [7, 305, 212], [8, 302, 188], [9, 277, 276], [10, 284, 234], [11, 284, 205], [12, 283, 179], [13, 254, 280], [14, 262, 246], [15, 266, 219], [16, 269, 192], [17, 233, 293], [18, 241, 289], [19, 247, 308], [20, 249, 324]]</t>
         </is>
       </c>
     </row>
